--- a/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6243200</v>
+        <v>6542600</v>
       </c>
       <c r="E8" s="3">
-        <v>5750200</v>
+        <v>6297800</v>
       </c>
       <c r="F8" s="3">
-        <v>5207800</v>
+        <v>5800500</v>
       </c>
       <c r="G8" s="3">
-        <v>5658000</v>
+        <v>5253300</v>
       </c>
       <c r="H8" s="3">
-        <v>4025300</v>
+        <v>5707500</v>
       </c>
       <c r="I8" s="3">
-        <v>3837500</v>
+        <v>4060500</v>
       </c>
       <c r="J8" s="3">
+        <v>3871100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3963800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4174100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5652500</v>
+        <v>5875800</v>
       </c>
       <c r="E9" s="3">
-        <v>5158400</v>
+        <v>5701900</v>
       </c>
       <c r="F9" s="3">
-        <v>4641200</v>
+        <v>5203500</v>
       </c>
       <c r="G9" s="3">
-        <v>5163900</v>
+        <v>4681800</v>
       </c>
       <c r="H9" s="3">
-        <v>3494900</v>
+        <v>5209000</v>
       </c>
       <c r="I9" s="3">
-        <v>3320400</v>
+        <v>3525500</v>
       </c>
       <c r="J9" s="3">
+        <v>3349400</v>
+      </c>
+      <c r="K9" s="3">
         <v>6882300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7599200</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>590700</v>
+        <v>666800</v>
       </c>
       <c r="E10" s="3">
-        <v>591800</v>
+        <v>595900</v>
       </c>
       <c r="F10" s="3">
-        <v>566600</v>
+        <v>597000</v>
       </c>
       <c r="G10" s="3">
-        <v>494100</v>
+        <v>571500</v>
       </c>
       <c r="H10" s="3">
-        <v>530300</v>
+        <v>498400</v>
       </c>
       <c r="I10" s="3">
-        <v>517200</v>
+        <v>535000</v>
       </c>
       <c r="J10" s="3">
+        <v>521700</v>
+      </c>
+      <c r="K10" s="3">
         <v>-2918500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-3425200</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>39900</v>
+      </c>
+      <c r="F12" s="3">
+        <v>36600</v>
+      </c>
+      <c r="G12" s="3">
+        <v>35400</v>
+      </c>
+      <c r="H12" s="3">
+        <v>38800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>42100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K12" s="3">
         <v>39500</v>
       </c>
-      <c r="E12" s="3">
-        <v>36200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>35100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>38400</v>
-      </c>
-      <c r="H12" s="3">
-        <v>41700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>39500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>39500</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>38700</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
-        <v>104300</v>
-      </c>
       <c r="F14" s="3">
+        <v>105200</v>
+      </c>
+      <c r="G14" s="3">
         <v>5500</v>
       </c>
-      <c r="G14" s="3">
-        <v>516100</v>
-      </c>
       <c r="H14" s="3">
-        <v>50500</v>
+        <v>520600</v>
       </c>
       <c r="I14" s="3">
-        <v>8800</v>
+        <v>50900</v>
       </c>
       <c r="J14" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K14" s="3">
         <v>27500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>23500</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>14300</v>
+        <v>21000</v>
       </c>
       <c r="E15" s="3">
-        <v>12100</v>
+        <v>14400</v>
       </c>
       <c r="F15" s="3">
-        <v>8800</v>
+        <v>12200</v>
       </c>
       <c r="G15" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="H15" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I15" s="3">
         <v>5500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6600</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5799600</v>
+        <v>6260200</v>
       </c>
       <c r="E17" s="3">
-        <v>5497700</v>
+        <v>5850300</v>
       </c>
       <c r="F17" s="3">
-        <v>4937700</v>
+        <v>5545800</v>
       </c>
       <c r="G17" s="3">
-        <v>6125700</v>
+        <v>4980900</v>
       </c>
       <c r="H17" s="3">
-        <v>3860600</v>
+        <v>6179300</v>
       </c>
       <c r="I17" s="3">
-        <v>3608000</v>
+        <v>3894300</v>
       </c>
       <c r="J17" s="3">
+        <v>3639600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3675000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4248000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>443600</v>
+        <v>282400</v>
       </c>
       <c r="E18" s="3">
-        <v>252500</v>
+        <v>447500</v>
       </c>
       <c r="F18" s="3">
-        <v>270100</v>
+        <v>254700</v>
       </c>
       <c r="G18" s="3">
-        <v>-467700</v>
+        <v>272500</v>
       </c>
       <c r="H18" s="3">
-        <v>164700</v>
+        <v>-471800</v>
       </c>
       <c r="I18" s="3">
-        <v>229500</v>
+        <v>166100</v>
       </c>
       <c r="J18" s="3">
+        <v>231500</v>
+      </c>
+      <c r="K18" s="3">
         <v>288800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-74000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-38400</v>
+        <v>-4400</v>
       </c>
       <c r="E20" s="3">
-        <v>-11000</v>
+        <v>-38800</v>
       </c>
       <c r="F20" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="G20" s="3">
         <v>3300</v>
       </c>
-      <c r="G20" s="3">
-        <v>8800</v>
-      </c>
       <c r="H20" s="3">
-        <v>-14300</v>
+        <v>8900</v>
       </c>
       <c r="I20" s="3">
-        <v>-80200</v>
+        <v>-14400</v>
       </c>
       <c r="J20" s="3">
+        <v>-80900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-70300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-160800</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>621800</v>
+        <v>559700</v>
       </c>
       <c r="E21" s="3">
-        <v>429600</v>
+        <v>625500</v>
       </c>
       <c r="F21" s="3">
-        <v>443900</v>
+        <v>431800</v>
       </c>
       <c r="G21" s="3">
-        <v>-305000</v>
+        <v>446300</v>
       </c>
       <c r="H21" s="3">
-        <v>204300</v>
+        <v>-308900</v>
       </c>
       <c r="I21" s="3">
-        <v>184500</v>
+        <v>205700</v>
       </c>
       <c r="J21" s="3">
+        <v>185800</v>
+      </c>
+      <c r="K21" s="3">
         <v>233900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-232400</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>161400</v>
+        <v>187200</v>
       </c>
       <c r="E22" s="3">
-        <v>187800</v>
+        <v>162800</v>
       </c>
       <c r="F22" s="3">
-        <v>202000</v>
+        <v>189400</v>
       </c>
       <c r="G22" s="3">
-        <v>182300</v>
+        <v>203800</v>
       </c>
       <c r="H22" s="3">
-        <v>50500</v>
+        <v>183900</v>
       </c>
       <c r="I22" s="3">
+        <v>50900</v>
+      </c>
+      <c r="J22" s="3">
         <v>1100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4700</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>243800</v>
+        <v>90800</v>
       </c>
       <c r="E23" s="3">
-        <v>53800</v>
+        <v>245900</v>
       </c>
       <c r="F23" s="3">
-        <v>71400</v>
+        <v>54300</v>
       </c>
       <c r="G23" s="3">
-        <v>-641200</v>
+        <v>72000</v>
       </c>
       <c r="H23" s="3">
-        <v>99900</v>
+        <v>-646800</v>
       </c>
       <c r="I23" s="3">
-        <v>148200</v>
+        <v>100800</v>
       </c>
       <c r="J23" s="3">
+        <v>149500</v>
+      </c>
+      <c r="K23" s="3">
         <v>214100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-239500</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>35100</v>
+        <v>19900</v>
       </c>
       <c r="E24" s="3">
-        <v>105400</v>
+        <v>35400</v>
       </c>
       <c r="F24" s="3">
-        <v>75800</v>
+        <v>106300</v>
       </c>
       <c r="G24" s="3">
-        <v>-35100</v>
+        <v>76400</v>
       </c>
       <c r="H24" s="3">
-        <v>40600</v>
+        <v>-35400</v>
       </c>
       <c r="I24" s="3">
-        <v>42800</v>
+        <v>41000</v>
       </c>
       <c r="J24" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K24" s="3">
         <v>50500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-39900</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>208600</v>
+        <v>70900</v>
       </c>
       <c r="E26" s="3">
-        <v>-51600</v>
+        <v>210400</v>
       </c>
       <c r="F26" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-4400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-606100</v>
-      </c>
       <c r="H26" s="3">
-        <v>59300</v>
+        <v>-611400</v>
       </c>
       <c r="I26" s="3">
-        <v>105400</v>
+        <v>59800</v>
       </c>
       <c r="J26" s="3">
+        <v>106300</v>
+      </c>
+      <c r="K26" s="3">
         <v>163600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-199500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>206400</v>
+        <v>65300</v>
       </c>
       <c r="E27" s="3">
-        <v>-51600</v>
+        <v>208200</v>
       </c>
       <c r="F27" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-4400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-608300</v>
-      </c>
       <c r="H27" s="3">
-        <v>56000</v>
+        <v>-613600</v>
       </c>
       <c r="I27" s="3">
-        <v>103200</v>
+        <v>56500</v>
       </c>
       <c r="J27" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K27" s="3">
         <v>161400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200700</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="3">
-        <v>17600</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="F29" s="3">
+        <v>17700</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>4400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-8800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-9400</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>38400</v>
+        <v>4400</v>
       </c>
       <c r="E32" s="3">
-        <v>11000</v>
+        <v>38800</v>
       </c>
       <c r="F32" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-3300</v>
       </c>
-      <c r="G32" s="3">
-        <v>-8800</v>
-      </c>
       <c r="H32" s="3">
-        <v>14300</v>
+        <v>-8900</v>
       </c>
       <c r="I32" s="3">
-        <v>80200</v>
+        <v>14400</v>
       </c>
       <c r="J32" s="3">
+        <v>80900</v>
+      </c>
+      <c r="K32" s="3">
         <v>70300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>160800</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>206400</v>
+        <v>65300</v>
       </c>
       <c r="E33" s="3">
-        <v>-34000</v>
+        <v>208200</v>
       </c>
       <c r="F33" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-4400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-608300</v>
-      </c>
       <c r="H33" s="3">
-        <v>56000</v>
+        <v>-613600</v>
       </c>
       <c r="I33" s="3">
-        <v>107600</v>
+        <v>56500</v>
       </c>
       <c r="J33" s="3">
+        <v>108500</v>
+      </c>
+      <c r="K33" s="3">
         <v>152600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-210100</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>206400</v>
+        <v>65300</v>
       </c>
       <c r="E35" s="3">
-        <v>-34000</v>
+        <v>208200</v>
       </c>
       <c r="F35" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-4400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-608300</v>
-      </c>
       <c r="H35" s="3">
-        <v>56000</v>
+        <v>-613600</v>
       </c>
       <c r="I35" s="3">
-        <v>107600</v>
+        <v>56500</v>
       </c>
       <c r="J35" s="3">
+        <v>108500</v>
+      </c>
+      <c r="K35" s="3">
         <v>152600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-210100</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>180100</v>
+        <v>204200</v>
       </c>
       <c r="E41" s="3">
-        <v>295400</v>
+        <v>182000</v>
       </c>
       <c r="F41" s="3">
-        <v>381000</v>
+        <v>298500</v>
       </c>
       <c r="G41" s="3">
-        <v>518300</v>
+        <v>385100</v>
       </c>
       <c r="H41" s="3">
-        <v>184500</v>
+        <v>523800</v>
       </c>
       <c r="I41" s="3">
-        <v>254700</v>
+        <v>186400</v>
       </c>
       <c r="J41" s="3">
+        <v>257500</v>
+      </c>
+      <c r="K41" s="3">
         <v>153700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>120900</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>32900</v>
+        <v>24400</v>
       </c>
       <c r="E42" s="3">
-        <v>75800</v>
+        <v>33300</v>
       </c>
       <c r="F42" s="3">
-        <v>128500</v>
+        <v>76600</v>
       </c>
       <c r="G42" s="3">
-        <v>76900</v>
+        <v>129800</v>
       </c>
       <c r="H42" s="3">
-        <v>964000</v>
+        <v>77700</v>
       </c>
       <c r="I42" s="3">
-        <v>28500</v>
+        <v>974400</v>
       </c>
       <c r="J42" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K42" s="3">
         <v>39500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>49300</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>631400</v>
+        <v>517200</v>
       </c>
       <c r="E43" s="3">
-        <v>451300</v>
+        <v>638100</v>
       </c>
       <c r="F43" s="3">
-        <v>379900</v>
+        <v>456100</v>
       </c>
       <c r="G43" s="3">
-        <v>398600</v>
+        <v>384000</v>
       </c>
       <c r="H43" s="3">
-        <v>620400</v>
+        <v>402900</v>
       </c>
       <c r="I43" s="3">
-        <v>527000</v>
+        <v>627000</v>
       </c>
       <c r="J43" s="3">
+        <v>532700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1042000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>616300</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>724700</v>
+        <v>743600</v>
       </c>
       <c r="E44" s="3">
-        <v>706000</v>
+        <v>732500</v>
       </c>
       <c r="F44" s="3">
-        <v>648900</v>
+        <v>713600</v>
       </c>
       <c r="G44" s="3">
-        <v>595100</v>
+        <v>655900</v>
       </c>
       <c r="H44" s="3">
-        <v>474300</v>
+        <v>601500</v>
       </c>
       <c r="I44" s="3">
-        <v>360100</v>
+        <v>479400</v>
       </c>
       <c r="J44" s="3">
+        <v>364000</v>
+      </c>
+      <c r="K44" s="3">
         <v>422700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>495300</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13200</v>
+        <v>8900</v>
       </c>
       <c r="E45" s="3">
-        <v>8800</v>
+        <v>13300</v>
       </c>
       <c r="F45" s="3">
-        <v>9900</v>
+        <v>8900</v>
       </c>
       <c r="G45" s="3">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="H45" s="3">
-        <v>18700</v>
+        <v>16600</v>
       </c>
       <c r="I45" s="3">
-        <v>26400</v>
+        <v>18900</v>
       </c>
       <c r="J45" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K45" s="3">
         <v>3300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11700</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1582200</v>
+        <v>1498200</v>
       </c>
       <c r="E46" s="3">
-        <v>1537200</v>
+        <v>1599200</v>
       </c>
       <c r="F46" s="3">
-        <v>1548200</v>
+        <v>1553700</v>
       </c>
       <c r="G46" s="3">
-        <v>1605300</v>
+        <v>1564800</v>
       </c>
       <c r="H46" s="3">
-        <v>2261900</v>
+        <v>1622500</v>
       </c>
       <c r="I46" s="3">
-        <v>1196800</v>
+        <v>2286200</v>
       </c>
       <c r="J46" s="3">
+        <v>1209700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1138600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1293500</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>152600</v>
+        <v>75500</v>
       </c>
       <c r="E47" s="3">
-        <v>174600</v>
+        <v>154300</v>
       </c>
       <c r="F47" s="3">
-        <v>123000</v>
+        <v>176500</v>
       </c>
       <c r="G47" s="3">
-        <v>131800</v>
+        <v>124300</v>
       </c>
       <c r="H47" s="3">
-        <v>95500</v>
+        <v>133200</v>
       </c>
       <c r="I47" s="3">
-        <v>74700</v>
+        <v>96600</v>
       </c>
       <c r="J47" s="3">
+        <v>75500</v>
+      </c>
+      <c r="K47" s="3">
         <v>83400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>111500</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1829300</v>
+        <v>2281700</v>
       </c>
       <c r="E48" s="3">
-        <v>1665700</v>
+        <v>1848900</v>
       </c>
       <c r="F48" s="3">
-        <v>1621700</v>
+        <v>1683600</v>
       </c>
       <c r="G48" s="3">
-        <v>1378000</v>
+        <v>1639200</v>
       </c>
       <c r="H48" s="3">
-        <v>693900</v>
+        <v>1392800</v>
       </c>
       <c r="I48" s="3">
-        <v>448000</v>
+        <v>701400</v>
       </c>
       <c r="J48" s="3">
+        <v>452800</v>
+      </c>
+      <c r="K48" s="3">
         <v>663200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>232400</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>540200</v>
+        <v>582600</v>
       </c>
       <c r="E49" s="3">
-        <v>517200</v>
+        <v>546000</v>
       </c>
       <c r="F49" s="3">
-        <v>588500</v>
+        <v>522700</v>
       </c>
       <c r="G49" s="3">
-        <v>572100</v>
+        <v>594900</v>
       </c>
       <c r="H49" s="3">
-        <v>30700</v>
+        <v>578200</v>
       </c>
       <c r="I49" s="3">
-        <v>23100</v>
+        <v>31100</v>
       </c>
       <c r="J49" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K49" s="3">
         <v>12100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>27000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>179000</v>
+        <v>205300</v>
       </c>
       <c r="E52" s="3">
-        <v>180100</v>
+        <v>180900</v>
       </c>
       <c r="F52" s="3">
-        <v>276700</v>
+        <v>182000</v>
       </c>
       <c r="G52" s="3">
-        <v>296500</v>
+        <v>279700</v>
       </c>
       <c r="H52" s="3">
+        <v>299600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>227500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>196400</v>
+      </c>
+      <c r="K52" s="3">
         <v>225100</v>
       </c>
-      <c r="I52" s="3">
-        <v>194300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>225100</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>240600</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4283300</v>
+        <v>4643400</v>
       </c>
       <c r="E54" s="3">
-        <v>4074700</v>
+        <v>4329300</v>
       </c>
       <c r="F54" s="3">
-        <v>4158100</v>
+        <v>4118500</v>
       </c>
       <c r="G54" s="3">
-        <v>3983500</v>
+        <v>4202800</v>
       </c>
       <c r="H54" s="3">
-        <v>3307200</v>
+        <v>4026400</v>
       </c>
       <c r="I54" s="3">
-        <v>1936900</v>
+        <v>3342700</v>
       </c>
       <c r="J54" s="3">
+        <v>1957700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1790800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1892200</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>752100</v>
+        <v>789100</v>
       </c>
       <c r="E57" s="3">
-        <v>787300</v>
+        <v>760200</v>
       </c>
       <c r="F57" s="3">
-        <v>688400</v>
+        <v>795700</v>
       </c>
       <c r="G57" s="3">
-        <v>721400</v>
+        <v>695800</v>
       </c>
       <c r="H57" s="3">
-        <v>723600</v>
+        <v>729100</v>
       </c>
       <c r="I57" s="3">
-        <v>515000</v>
+        <v>731400</v>
       </c>
       <c r="J57" s="3">
+        <v>520500</v>
+      </c>
+      <c r="K57" s="3">
         <v>965100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>544600</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>62600</v>
+        <v>223100</v>
       </c>
       <c r="E58" s="3">
-        <v>116400</v>
+        <v>63300</v>
       </c>
       <c r="F58" s="3">
-        <v>117500</v>
+        <v>117600</v>
       </c>
       <c r="G58" s="3">
-        <v>185600</v>
+        <v>118700</v>
       </c>
       <c r="H58" s="3">
-        <v>51600</v>
+        <v>187600</v>
       </c>
       <c r="I58" s="3">
-        <v>24200</v>
+        <v>52200</v>
       </c>
       <c r="J58" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K58" s="3">
         <v>19800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>85700</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>435900</v>
+        <v>399500</v>
       </c>
       <c r="E59" s="3">
-        <v>315100</v>
+        <v>440600</v>
       </c>
       <c r="F59" s="3">
-        <v>330500</v>
+        <v>318500</v>
       </c>
       <c r="G59" s="3">
-        <v>417200</v>
+        <v>334000</v>
       </c>
       <c r="H59" s="3">
-        <v>386500</v>
+        <v>421700</v>
       </c>
       <c r="I59" s="3">
-        <v>293200</v>
+        <v>390600</v>
       </c>
       <c r="J59" s="3">
+        <v>296300</v>
+      </c>
+      <c r="K59" s="3">
         <v>269000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>410800</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1250600</v>
+        <v>1411700</v>
       </c>
       <c r="E60" s="3">
-        <v>1218800</v>
+        <v>1264100</v>
       </c>
       <c r="F60" s="3">
-        <v>1136400</v>
+        <v>1231900</v>
       </c>
       <c r="G60" s="3">
-        <v>1324200</v>
+        <v>1148600</v>
       </c>
       <c r="H60" s="3">
-        <v>1161700</v>
+        <v>1338400</v>
       </c>
       <c r="I60" s="3">
-        <v>832300</v>
+        <v>1174200</v>
       </c>
       <c r="J60" s="3">
+        <v>841200</v>
+      </c>
+      <c r="K60" s="3">
         <v>818000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>987200</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2299200</v>
+        <v>2397200</v>
       </c>
       <c r="E61" s="3">
-        <v>2219100</v>
+        <v>2323900</v>
       </c>
       <c r="F61" s="3">
-        <v>2592400</v>
+        <v>2242900</v>
       </c>
       <c r="G61" s="3">
-        <v>2266300</v>
+        <v>2620200</v>
       </c>
       <c r="H61" s="3">
-        <v>1323100</v>
+        <v>2290600</v>
       </c>
       <c r="I61" s="3">
-        <v>357900</v>
+        <v>1337300</v>
       </c>
       <c r="J61" s="3">
+        <v>361800</v>
+      </c>
+      <c r="K61" s="3">
         <v>153700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>165500</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>858600</v>
+        <v>928900</v>
       </c>
       <c r="E62" s="3">
-        <v>987100</v>
+        <v>867900</v>
       </c>
       <c r="F62" s="3">
-        <v>1055200</v>
+        <v>997700</v>
       </c>
       <c r="G62" s="3">
-        <v>986000</v>
+        <v>1066500</v>
       </c>
       <c r="H62" s="3">
-        <v>863000</v>
+        <v>996600</v>
       </c>
       <c r="I62" s="3">
-        <v>707100</v>
+        <v>872300</v>
       </c>
       <c r="J62" s="3">
+        <v>714700</v>
+      </c>
+      <c r="K62" s="3">
         <v>859700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1172600</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4417300</v>
+        <v>4749900</v>
       </c>
       <c r="E66" s="3">
-        <v>4433700</v>
+        <v>4464700</v>
       </c>
       <c r="F66" s="3">
-        <v>4793900</v>
+        <v>4481400</v>
       </c>
       <c r="G66" s="3">
-        <v>4588500</v>
+        <v>4845400</v>
       </c>
       <c r="H66" s="3">
-        <v>3354400</v>
+        <v>4637900</v>
       </c>
       <c r="I66" s="3">
-        <v>1901700</v>
+        <v>3390400</v>
       </c>
       <c r="J66" s="3">
+        <v>1922200</v>
+      </c>
+      <c r="K66" s="3">
         <v>1835900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2027200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-592900</v>
+        <v>-569300</v>
       </c>
       <c r="E72" s="3">
-        <v>-830100</v>
+        <v>-599300</v>
       </c>
       <c r="F72" s="3">
-        <v>-809200</v>
+        <v>-839000</v>
       </c>
       <c r="G72" s="3">
-        <v>-791700</v>
+        <v>-817900</v>
       </c>
       <c r="H72" s="3">
-        <v>-203100</v>
+        <v>-800200</v>
       </c>
       <c r="I72" s="3">
-        <v>-129600</v>
+        <v>-205300</v>
       </c>
       <c r="J72" s="3">
+        <v>-131000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-289900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-233600</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-134000</v>
+        <v>-106500</v>
       </c>
       <c r="E76" s="3">
-        <v>-359000</v>
+        <v>-135400</v>
       </c>
       <c r="F76" s="3">
-        <v>-635700</v>
+        <v>-362900</v>
       </c>
       <c r="G76" s="3">
-        <v>-605000</v>
+        <v>-642600</v>
       </c>
       <c r="H76" s="3">
-        <v>-47200</v>
+        <v>-611500</v>
       </c>
       <c r="I76" s="3">
-        <v>35100</v>
+        <v>-47700</v>
       </c>
       <c r="J76" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K76" s="3">
         <v>-45000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-135000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>206400</v>
+        <v>65300</v>
       </c>
       <c r="E81" s="3">
-        <v>-34000</v>
+        <v>208200</v>
       </c>
       <c r="F81" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-4400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-608300</v>
-      </c>
       <c r="H81" s="3">
-        <v>56000</v>
+        <v>-613600</v>
       </c>
       <c r="I81" s="3">
-        <v>107600</v>
+        <v>56500</v>
       </c>
       <c r="J81" s="3">
+        <v>108500</v>
+      </c>
+      <c r="K81" s="3">
         <v>152600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-210100</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>216300</v>
+        <v>283500</v>
       </c>
       <c r="E83" s="3">
-        <v>187800</v>
+        <v>218200</v>
       </c>
       <c r="F83" s="3">
-        <v>170200</v>
+        <v>189400</v>
       </c>
       <c r="G83" s="3">
-        <v>153700</v>
+        <v>171700</v>
       </c>
       <c r="H83" s="3">
-        <v>53800</v>
+        <v>155100</v>
       </c>
       <c r="I83" s="3">
-        <v>35100</v>
+        <v>54300</v>
       </c>
       <c r="J83" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K83" s="3">
         <v>15400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2300</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>72500</v>
+        <v>495100</v>
       </c>
       <c r="E89" s="3">
-        <v>175700</v>
+        <v>73100</v>
       </c>
       <c r="F89" s="3">
-        <v>96600</v>
+        <v>177200</v>
       </c>
       <c r="G89" s="3">
-        <v>561100</v>
+        <v>97500</v>
       </c>
       <c r="H89" s="3">
-        <v>232800</v>
+        <v>566000</v>
       </c>
       <c r="I89" s="3">
-        <v>202000</v>
+        <v>234800</v>
       </c>
       <c r="J89" s="3">
+        <v>203800</v>
+      </c>
+      <c r="K89" s="3">
         <v>270100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-34000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-304100</v>
+        <v>-300200</v>
       </c>
       <c r="E91" s="3">
-        <v>-303000</v>
+        <v>-306800</v>
       </c>
       <c r="F91" s="3">
-        <v>-389800</v>
+        <v>-305700</v>
       </c>
       <c r="G91" s="3">
-        <v>-384300</v>
+        <v>-393200</v>
       </c>
       <c r="H91" s="3">
-        <v>-218500</v>
+        <v>-387700</v>
       </c>
       <c r="I91" s="3">
-        <v>-158100</v>
+        <v>-220400</v>
       </c>
       <c r="J91" s="3">
+        <v>-159500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-138300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-113900</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-99900</v>
+        <v>-391000</v>
       </c>
       <c r="E94" s="3">
-        <v>-320600</v>
+        <v>-100800</v>
       </c>
       <c r="F94" s="3">
-        <v>-400800</v>
+        <v>-323400</v>
       </c>
       <c r="G94" s="3">
-        <v>-792800</v>
+        <v>-404300</v>
       </c>
       <c r="H94" s="3">
-        <v>-237200</v>
+        <v>-799700</v>
       </c>
       <c r="I94" s="3">
-        <v>-144900</v>
+        <v>-239200</v>
       </c>
       <c r="J94" s="3">
+        <v>-146200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-143800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-81000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3080,17 +3313,20 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-161400</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-162800</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-90000</v>
+        <v>-84200</v>
       </c>
       <c r="E100" s="3">
-        <v>67000</v>
+        <v>-90800</v>
       </c>
       <c r="F100" s="3">
-        <v>159200</v>
+        <v>67600</v>
       </c>
       <c r="G100" s="3">
-        <v>-338200</v>
+        <v>160600</v>
       </c>
       <c r="H100" s="3">
-        <v>826800</v>
+        <v>-341100</v>
       </c>
       <c r="I100" s="3">
-        <v>47200</v>
+        <v>834000</v>
       </c>
       <c r="J100" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-94400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>235900</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3218,57 +3466,63 @@
         <v>2200</v>
       </c>
       <c r="E101" s="3">
-        <v>-7700</v>
+        <v>2200</v>
       </c>
       <c r="F101" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="G101" s="3">
         <v>3300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>11700</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-115300</v>
+        <v>22200</v>
       </c>
       <c r="E102" s="3">
-        <v>-85600</v>
+        <v>-116300</v>
       </c>
       <c r="F102" s="3">
-        <v>-141600</v>
+        <v>-86400</v>
       </c>
       <c r="G102" s="3">
-        <v>-565500</v>
+        <v>-142900</v>
       </c>
       <c r="H102" s="3">
-        <v>829000</v>
+        <v>-570400</v>
       </c>
       <c r="I102" s="3">
-        <v>103200</v>
+        <v>836200</v>
       </c>
       <c r="J102" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K102" s="3">
         <v>31800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>132600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6542600</v>
+        <v>6987400</v>
       </c>
       <c r="E8" s="3">
-        <v>6297800</v>
+        <v>6726000</v>
       </c>
       <c r="F8" s="3">
-        <v>5800500</v>
+        <v>6194800</v>
       </c>
       <c r="G8" s="3">
-        <v>5253300</v>
+        <v>5610500</v>
       </c>
       <c r="H8" s="3">
-        <v>5707500</v>
+        <v>6095500</v>
       </c>
       <c r="I8" s="3">
-        <v>4060500</v>
+        <v>4336500</v>
       </c>
       <c r="J8" s="3">
-        <v>3871100</v>
+        <v>4134200</v>
       </c>
       <c r="K8" s="3">
         <v>3963800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5875800</v>
+        <v>6275300</v>
       </c>
       <c r="E9" s="3">
-        <v>5701900</v>
+        <v>6089600</v>
       </c>
       <c r="F9" s="3">
-        <v>5203500</v>
+        <v>5557300</v>
       </c>
       <c r="G9" s="3">
-        <v>4681800</v>
+        <v>5000100</v>
       </c>
       <c r="H9" s="3">
-        <v>5209000</v>
+        <v>5563200</v>
       </c>
       <c r="I9" s="3">
-        <v>3525500</v>
+        <v>3765200</v>
       </c>
       <c r="J9" s="3">
-        <v>3349400</v>
+        <v>3577100</v>
       </c>
       <c r="K9" s="3">
         <v>6882300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>666800</v>
+        <v>712100</v>
       </c>
       <c r="E10" s="3">
-        <v>595900</v>
+        <v>636400</v>
       </c>
       <c r="F10" s="3">
-        <v>597000</v>
+        <v>637600</v>
       </c>
       <c r="G10" s="3">
-        <v>571500</v>
+        <v>610400</v>
       </c>
       <c r="H10" s="3">
-        <v>498400</v>
+        <v>532300</v>
       </c>
       <c r="I10" s="3">
-        <v>535000</v>
+        <v>571300</v>
       </c>
       <c r="J10" s="3">
-        <v>521700</v>
+        <v>557100</v>
       </c>
       <c r="K10" s="3">
         <v>-2918500</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>46500</v>
+        <v>49700</v>
       </c>
       <c r="E12" s="3">
-        <v>39900</v>
+        <v>42600</v>
       </c>
       <c r="F12" s="3">
-        <v>36600</v>
+        <v>39000</v>
       </c>
       <c r="G12" s="3">
-        <v>35400</v>
+        <v>37900</v>
       </c>
       <c r="H12" s="3">
-        <v>38800</v>
+        <v>41400</v>
       </c>
       <c r="I12" s="3">
-        <v>42100</v>
+        <v>45000</v>
       </c>
       <c r="J12" s="3">
-        <v>39900</v>
+        <v>42600</v>
       </c>
       <c r="K12" s="3">
         <v>39500</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="E14" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="3">
-        <v>105200</v>
+        <v>112400</v>
       </c>
       <c r="G14" s="3">
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="H14" s="3">
-        <v>520600</v>
+        <v>556000</v>
       </c>
       <c r="I14" s="3">
-        <v>50900</v>
+        <v>54400</v>
       </c>
       <c r="J14" s="3">
-        <v>8900</v>
+        <v>9500</v>
       </c>
       <c r="K14" s="3">
         <v>27500</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="E15" s="3">
-        <v>14400</v>
+        <v>15400</v>
       </c>
       <c r="F15" s="3">
-        <v>12200</v>
+        <v>13000</v>
       </c>
       <c r="G15" s="3">
-        <v>8900</v>
+        <v>9500</v>
       </c>
       <c r="H15" s="3">
-        <v>8900</v>
+        <v>9500</v>
       </c>
       <c r="I15" s="3">
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="J15" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="K15" s="3">
         <v>6600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6260200</v>
+        <v>6685800</v>
       </c>
       <c r="E17" s="3">
-        <v>5850300</v>
+        <v>6248100</v>
       </c>
       <c r="F17" s="3">
-        <v>5545800</v>
+        <v>5922800</v>
       </c>
       <c r="G17" s="3">
-        <v>4980900</v>
+        <v>5319500</v>
       </c>
       <c r="H17" s="3">
-        <v>6179300</v>
+        <v>6599400</v>
       </c>
       <c r="I17" s="3">
-        <v>3894300</v>
+        <v>4159100</v>
       </c>
       <c r="J17" s="3">
-        <v>3639600</v>
+        <v>3887000</v>
       </c>
       <c r="K17" s="3">
         <v>3675000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>282400</v>
+        <v>301600</v>
       </c>
       <c r="E18" s="3">
-        <v>447500</v>
+        <v>477900</v>
       </c>
       <c r="F18" s="3">
-        <v>254700</v>
+        <v>272100</v>
       </c>
       <c r="G18" s="3">
-        <v>272500</v>
+        <v>291000</v>
       </c>
       <c r="H18" s="3">
-        <v>-471800</v>
+        <v>-503900</v>
       </c>
       <c r="I18" s="3">
-        <v>166100</v>
+        <v>177400</v>
       </c>
       <c r="J18" s="3">
-        <v>231500</v>
+        <v>247200</v>
       </c>
       <c r="K18" s="3">
         <v>288800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4400</v>
+        <v>-4700</v>
       </c>
       <c r="E20" s="3">
-        <v>-38800</v>
+        <v>-41400</v>
       </c>
       <c r="F20" s="3">
-        <v>-11100</v>
+        <v>-11800</v>
       </c>
       <c r="G20" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="H20" s="3">
-        <v>8900</v>
+        <v>9500</v>
       </c>
       <c r="I20" s="3">
-        <v>-14400</v>
+        <v>-15400</v>
       </c>
       <c r="J20" s="3">
-        <v>-80900</v>
+        <v>-86400</v>
       </c>
       <c r="K20" s="3">
         <v>-70300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>559700</v>
+        <v>599800</v>
       </c>
       <c r="E21" s="3">
-        <v>625500</v>
+        <v>669600</v>
       </c>
       <c r="F21" s="3">
-        <v>431800</v>
+        <v>462600</v>
       </c>
       <c r="G21" s="3">
-        <v>446300</v>
+        <v>478000</v>
       </c>
       <c r="H21" s="3">
-        <v>-308900</v>
+        <v>-328800</v>
       </c>
       <c r="I21" s="3">
-        <v>205700</v>
+        <v>220000</v>
       </c>
       <c r="J21" s="3">
-        <v>185800</v>
+        <v>198700</v>
       </c>
       <c r="K21" s="3">
         <v>233900</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>187200</v>
+        <v>199900</v>
       </c>
       <c r="E22" s="3">
-        <v>162800</v>
+        <v>173900</v>
       </c>
       <c r="F22" s="3">
-        <v>189400</v>
+        <v>202300</v>
       </c>
       <c r="G22" s="3">
-        <v>203800</v>
+        <v>217700</v>
       </c>
       <c r="H22" s="3">
-        <v>183900</v>
+        <v>196400</v>
       </c>
       <c r="I22" s="3">
-        <v>50900</v>
+        <v>54400</v>
       </c>
       <c r="J22" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K22" s="3">
         <v>4400</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>90800</v>
+        <v>97000</v>
       </c>
       <c r="E23" s="3">
-        <v>245900</v>
+        <v>262600</v>
       </c>
       <c r="F23" s="3">
-        <v>54300</v>
+        <v>58000</v>
       </c>
       <c r="G23" s="3">
-        <v>72000</v>
+        <v>76900</v>
       </c>
       <c r="H23" s="3">
-        <v>-646800</v>
+        <v>-690800</v>
       </c>
       <c r="I23" s="3">
-        <v>100800</v>
+        <v>107600</v>
       </c>
       <c r="J23" s="3">
-        <v>149500</v>
+        <v>159700</v>
       </c>
       <c r="K23" s="3">
         <v>214100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19900</v>
+        <v>21300</v>
       </c>
       <c r="E24" s="3">
-        <v>35400</v>
+        <v>37900</v>
       </c>
       <c r="F24" s="3">
-        <v>106300</v>
+        <v>113600</v>
       </c>
       <c r="G24" s="3">
-        <v>76400</v>
+        <v>81600</v>
       </c>
       <c r="H24" s="3">
-        <v>-35400</v>
+        <v>-37900</v>
       </c>
       <c r="I24" s="3">
-        <v>41000</v>
+        <v>43800</v>
       </c>
       <c r="J24" s="3">
-        <v>43200</v>
+        <v>46100</v>
       </c>
       <c r="K24" s="3">
         <v>50500</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>70900</v>
+        <v>75700</v>
       </c>
       <c r="E26" s="3">
-        <v>210400</v>
+        <v>224800</v>
       </c>
       <c r="F26" s="3">
-        <v>-52100</v>
+        <v>-55600</v>
       </c>
       <c r="G26" s="3">
-        <v>-4400</v>
+        <v>-4700</v>
       </c>
       <c r="H26" s="3">
-        <v>-611400</v>
+        <v>-653000</v>
       </c>
       <c r="I26" s="3">
-        <v>59800</v>
+        <v>63900</v>
       </c>
       <c r="J26" s="3">
-        <v>106300</v>
+        <v>113600</v>
       </c>
       <c r="K26" s="3">
         <v>163600</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>65300</v>
+        <v>69800</v>
       </c>
       <c r="E27" s="3">
-        <v>208200</v>
+        <v>222400</v>
       </c>
       <c r="F27" s="3">
-        <v>-52100</v>
+        <v>-55600</v>
       </c>
       <c r="G27" s="3">
-        <v>-4400</v>
+        <v>-4700</v>
       </c>
       <c r="H27" s="3">
-        <v>-613600</v>
+        <v>-655300</v>
       </c>
       <c r="I27" s="3">
-        <v>56500</v>
+        <v>60300</v>
       </c>
       <c r="J27" s="3">
-        <v>104100</v>
+        <v>111200</v>
       </c>
       <c r="K27" s="3">
         <v>161400</v>
@@ -1359,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="3">
-        <v>17700</v>
+        <v>18900</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>11</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="K29" s="3">
         <v>-8800</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="E32" s="3">
-        <v>38800</v>
+        <v>41400</v>
       </c>
       <c r="F32" s="3">
-        <v>11100</v>
+        <v>11800</v>
       </c>
       <c r="G32" s="3">
-        <v>-3300</v>
+        <v>-3500</v>
       </c>
       <c r="H32" s="3">
-        <v>-8900</v>
+        <v>-9500</v>
       </c>
       <c r="I32" s="3">
-        <v>14400</v>
+        <v>15400</v>
       </c>
       <c r="J32" s="3">
-        <v>80900</v>
+        <v>86400</v>
       </c>
       <c r="K32" s="3">
         <v>70300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>65300</v>
+        <v>69800</v>
       </c>
       <c r="E33" s="3">
-        <v>208200</v>
+        <v>222400</v>
       </c>
       <c r="F33" s="3">
-        <v>-34300</v>
+        <v>-36700</v>
       </c>
       <c r="G33" s="3">
-        <v>-4400</v>
+        <v>-4700</v>
       </c>
       <c r="H33" s="3">
-        <v>-613600</v>
+        <v>-655300</v>
       </c>
       <c r="I33" s="3">
-        <v>56500</v>
+        <v>60300</v>
       </c>
       <c r="J33" s="3">
-        <v>108500</v>
+        <v>115900</v>
       </c>
       <c r="K33" s="3">
         <v>152600</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>65300</v>
+        <v>69800</v>
       </c>
       <c r="E35" s="3">
-        <v>208200</v>
+        <v>222400</v>
       </c>
       <c r="F35" s="3">
-        <v>-34300</v>
+        <v>-36700</v>
       </c>
       <c r="G35" s="3">
-        <v>-4400</v>
+        <v>-4700</v>
       </c>
       <c r="H35" s="3">
-        <v>-613600</v>
+        <v>-655300</v>
       </c>
       <c r="I35" s="3">
-        <v>56500</v>
+        <v>60300</v>
       </c>
       <c r="J35" s="3">
-        <v>108500</v>
+        <v>115900</v>
       </c>
       <c r="K35" s="3">
         <v>152600</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>204200</v>
+        <v>217700</v>
       </c>
       <c r="E41" s="3">
-        <v>182000</v>
+        <v>194000</v>
       </c>
       <c r="F41" s="3">
-        <v>298500</v>
+        <v>318200</v>
       </c>
       <c r="G41" s="3">
-        <v>385100</v>
+        <v>410500</v>
       </c>
       <c r="H41" s="3">
-        <v>523800</v>
+        <v>558300</v>
       </c>
       <c r="I41" s="3">
-        <v>186400</v>
+        <v>198700</v>
       </c>
       <c r="J41" s="3">
-        <v>257500</v>
+        <v>274400</v>
       </c>
       <c r="K41" s="3">
         <v>153700</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>24400</v>
+        <v>26000</v>
       </c>
       <c r="E42" s="3">
-        <v>33300</v>
+        <v>35500</v>
       </c>
       <c r="F42" s="3">
-        <v>76600</v>
+        <v>81600</v>
       </c>
       <c r="G42" s="3">
-        <v>129800</v>
+        <v>138400</v>
       </c>
       <c r="H42" s="3">
-        <v>77700</v>
+        <v>82800</v>
       </c>
       <c r="I42" s="3">
-        <v>974400</v>
+        <v>1038600</v>
       </c>
       <c r="J42" s="3">
-        <v>28900</v>
+        <v>30800</v>
       </c>
       <c r="K42" s="3">
         <v>39500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>517200</v>
+        <v>551200</v>
       </c>
       <c r="E43" s="3">
-        <v>638100</v>
+        <v>680200</v>
       </c>
       <c r="F43" s="3">
-        <v>456100</v>
+        <v>486200</v>
       </c>
       <c r="G43" s="3">
-        <v>384000</v>
+        <v>409300</v>
       </c>
       <c r="H43" s="3">
-        <v>402900</v>
+        <v>429400</v>
       </c>
       <c r="I43" s="3">
-        <v>627000</v>
+        <v>668300</v>
       </c>
       <c r="J43" s="3">
-        <v>532700</v>
+        <v>567800</v>
       </c>
       <c r="K43" s="3">
         <v>1042000</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>743600</v>
+        <v>792500</v>
       </c>
       <c r="E44" s="3">
-        <v>732500</v>
+        <v>780700</v>
       </c>
       <c r="F44" s="3">
-        <v>713600</v>
+        <v>760600</v>
       </c>
       <c r="G44" s="3">
-        <v>655900</v>
+        <v>699100</v>
       </c>
       <c r="H44" s="3">
-        <v>601500</v>
+        <v>641100</v>
       </c>
       <c r="I44" s="3">
-        <v>479400</v>
+        <v>511000</v>
       </c>
       <c r="J44" s="3">
-        <v>364000</v>
+        <v>388000</v>
       </c>
       <c r="K44" s="3">
         <v>422700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8900</v>
+        <v>9500</v>
       </c>
       <c r="E45" s="3">
-        <v>13300</v>
+        <v>14200</v>
       </c>
       <c r="F45" s="3">
-        <v>8900</v>
+        <v>9500</v>
       </c>
       <c r="G45" s="3">
-        <v>10000</v>
+        <v>10600</v>
       </c>
       <c r="H45" s="3">
-        <v>16600</v>
+        <v>17700</v>
       </c>
       <c r="I45" s="3">
-        <v>18900</v>
+        <v>20100</v>
       </c>
       <c r="J45" s="3">
-        <v>26600</v>
+        <v>28400</v>
       </c>
       <c r="K45" s="3">
         <v>3300</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1498200</v>
+        <v>1596900</v>
       </c>
       <c r="E46" s="3">
-        <v>1599200</v>
+        <v>1704600</v>
       </c>
       <c r="F46" s="3">
-        <v>1553700</v>
+        <v>1656100</v>
       </c>
       <c r="G46" s="3">
-        <v>1564800</v>
+        <v>1667900</v>
       </c>
       <c r="H46" s="3">
-        <v>1622500</v>
+        <v>1729400</v>
       </c>
       <c r="I46" s="3">
-        <v>2286200</v>
+        <v>2436800</v>
       </c>
       <c r="J46" s="3">
-        <v>1209700</v>
+        <v>1289400</v>
       </c>
       <c r="K46" s="3">
         <v>1138600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>75500</v>
+        <v>80400</v>
       </c>
       <c r="E47" s="3">
-        <v>154300</v>
+        <v>164400</v>
       </c>
       <c r="F47" s="3">
-        <v>176500</v>
+        <v>188100</v>
       </c>
       <c r="G47" s="3">
-        <v>124300</v>
+        <v>132500</v>
       </c>
       <c r="H47" s="3">
-        <v>133200</v>
+        <v>141900</v>
       </c>
       <c r="I47" s="3">
-        <v>96600</v>
+        <v>102900</v>
       </c>
       <c r="J47" s="3">
-        <v>75500</v>
+        <v>80400</v>
       </c>
       <c r="K47" s="3">
         <v>83400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2281700</v>
+        <v>2432000</v>
       </c>
       <c r="E48" s="3">
-        <v>1848900</v>
+        <v>1970700</v>
       </c>
       <c r="F48" s="3">
-        <v>1683600</v>
+        <v>1794500</v>
       </c>
       <c r="G48" s="3">
-        <v>1639200</v>
+        <v>1747100</v>
       </c>
       <c r="H48" s="3">
-        <v>1392800</v>
+        <v>1484500</v>
       </c>
       <c r="I48" s="3">
-        <v>701400</v>
+        <v>747600</v>
       </c>
       <c r="J48" s="3">
-        <v>452800</v>
+        <v>482600</v>
       </c>
       <c r="K48" s="3">
         <v>663200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>582600</v>
+        <v>621000</v>
       </c>
       <c r="E49" s="3">
-        <v>546000</v>
+        <v>582000</v>
       </c>
       <c r="F49" s="3">
-        <v>522700</v>
+        <v>557100</v>
       </c>
       <c r="G49" s="3">
-        <v>594900</v>
+        <v>634000</v>
       </c>
       <c r="H49" s="3">
-        <v>578200</v>
+        <v>616300</v>
       </c>
       <c r="I49" s="3">
-        <v>31100</v>
+        <v>33100</v>
       </c>
       <c r="J49" s="3">
-        <v>23300</v>
+        <v>24800</v>
       </c>
       <c r="K49" s="3">
         <v>12100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>205300</v>
+        <v>218800</v>
       </c>
       <c r="E52" s="3">
-        <v>180900</v>
+        <v>192800</v>
       </c>
       <c r="F52" s="3">
-        <v>182000</v>
+        <v>194000</v>
       </c>
       <c r="G52" s="3">
-        <v>279700</v>
+        <v>298100</v>
       </c>
       <c r="H52" s="3">
-        <v>299600</v>
+        <v>319400</v>
       </c>
       <c r="I52" s="3">
-        <v>227500</v>
+        <v>242500</v>
       </c>
       <c r="J52" s="3">
-        <v>196400</v>
+        <v>209400</v>
       </c>
       <c r="K52" s="3">
         <v>225100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4643400</v>
+        <v>4949300</v>
       </c>
       <c r="E54" s="3">
-        <v>4329300</v>
+        <v>4614500</v>
       </c>
       <c r="F54" s="3">
-        <v>4118500</v>
+        <v>4389700</v>
       </c>
       <c r="G54" s="3">
-        <v>4202800</v>
+        <v>4479600</v>
       </c>
       <c r="H54" s="3">
-        <v>4026400</v>
+        <v>4291600</v>
       </c>
       <c r="I54" s="3">
-        <v>3342700</v>
+        <v>3562900</v>
       </c>
       <c r="J54" s="3">
-        <v>1957700</v>
+        <v>2086600</v>
       </c>
       <c r="K54" s="3">
         <v>1790800</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>789100</v>
+        <v>841000</v>
       </c>
       <c r="E57" s="3">
-        <v>760200</v>
+        <v>810300</v>
       </c>
       <c r="F57" s="3">
-        <v>795700</v>
+        <v>848100</v>
       </c>
       <c r="G57" s="3">
-        <v>695800</v>
+        <v>741700</v>
       </c>
       <c r="H57" s="3">
-        <v>729100</v>
+        <v>777200</v>
       </c>
       <c r="I57" s="3">
-        <v>731400</v>
+        <v>779500</v>
       </c>
       <c r="J57" s="3">
-        <v>520500</v>
+        <v>554800</v>
       </c>
       <c r="K57" s="3">
         <v>965100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>223100</v>
+        <v>237800</v>
       </c>
       <c r="E58" s="3">
-        <v>63300</v>
+        <v>67400</v>
       </c>
       <c r="F58" s="3">
-        <v>117600</v>
+        <v>125400</v>
       </c>
       <c r="G58" s="3">
-        <v>118700</v>
+        <v>126600</v>
       </c>
       <c r="H58" s="3">
-        <v>187600</v>
+        <v>199900</v>
       </c>
       <c r="I58" s="3">
-        <v>52200</v>
+        <v>55600</v>
       </c>
       <c r="J58" s="3">
-        <v>24400</v>
+        <v>26000</v>
       </c>
       <c r="K58" s="3">
         <v>19800</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>399500</v>
+        <v>425800</v>
       </c>
       <c r="E59" s="3">
-        <v>440600</v>
+        <v>469600</v>
       </c>
       <c r="F59" s="3">
-        <v>318500</v>
+        <v>339500</v>
       </c>
       <c r="G59" s="3">
-        <v>334000</v>
+        <v>356100</v>
       </c>
       <c r="H59" s="3">
-        <v>421700</v>
+        <v>449500</v>
       </c>
       <c r="I59" s="3">
-        <v>390600</v>
+        <v>416400</v>
       </c>
       <c r="J59" s="3">
-        <v>296300</v>
+        <v>315800</v>
       </c>
       <c r="K59" s="3">
         <v>269000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1411700</v>
+        <v>1504600</v>
       </c>
       <c r="E60" s="3">
-        <v>1264100</v>
+        <v>1347300</v>
       </c>
       <c r="F60" s="3">
-        <v>1231900</v>
+        <v>1313000</v>
       </c>
       <c r="G60" s="3">
-        <v>1148600</v>
+        <v>1224300</v>
       </c>
       <c r="H60" s="3">
-        <v>1338400</v>
+        <v>1426600</v>
       </c>
       <c r="I60" s="3">
-        <v>1174200</v>
+        <v>1251500</v>
       </c>
       <c r="J60" s="3">
-        <v>841200</v>
+        <v>896600</v>
       </c>
       <c r="K60" s="3">
         <v>818000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2397200</v>
+        <v>2555100</v>
       </c>
       <c r="E61" s="3">
-        <v>2323900</v>
+        <v>2477000</v>
       </c>
       <c r="F61" s="3">
-        <v>2242900</v>
+        <v>2390600</v>
       </c>
       <c r="G61" s="3">
-        <v>2620200</v>
+        <v>2792800</v>
       </c>
       <c r="H61" s="3">
-        <v>2290600</v>
+        <v>2441500</v>
       </c>
       <c r="I61" s="3">
-        <v>1337300</v>
+        <v>1425400</v>
       </c>
       <c r="J61" s="3">
-        <v>361800</v>
+        <v>385600</v>
       </c>
       <c r="K61" s="3">
         <v>153700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>928900</v>
+        <v>990100</v>
       </c>
       <c r="E62" s="3">
-        <v>867900</v>
+        <v>925000</v>
       </c>
       <c r="F62" s="3">
-        <v>997700</v>
+        <v>1063400</v>
       </c>
       <c r="G62" s="3">
-        <v>1066500</v>
+        <v>1136800</v>
       </c>
       <c r="H62" s="3">
-        <v>996600</v>
+        <v>1062200</v>
       </c>
       <c r="I62" s="3">
-        <v>872300</v>
+        <v>929800</v>
       </c>
       <c r="J62" s="3">
-        <v>714700</v>
+        <v>761800</v>
       </c>
       <c r="K62" s="3">
         <v>859700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4749900</v>
+        <v>5062800</v>
       </c>
       <c r="E66" s="3">
-        <v>4464700</v>
+        <v>4758800</v>
       </c>
       <c r="F66" s="3">
-        <v>4481400</v>
+        <v>4776600</v>
       </c>
       <c r="G66" s="3">
-        <v>4845400</v>
+        <v>5164500</v>
       </c>
       <c r="H66" s="3">
-        <v>4637900</v>
+        <v>4943300</v>
       </c>
       <c r="I66" s="3">
-        <v>3390400</v>
+        <v>3613800</v>
       </c>
       <c r="J66" s="3">
-        <v>1922200</v>
+        <v>2048800</v>
       </c>
       <c r="K66" s="3">
         <v>1835900</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-569300</v>
+        <v>-606800</v>
       </c>
       <c r="E72" s="3">
-        <v>-599300</v>
+        <v>-638800</v>
       </c>
       <c r="F72" s="3">
-        <v>-839000</v>
+        <v>-894300</v>
       </c>
       <c r="G72" s="3">
-        <v>-817900</v>
+        <v>-871800</v>
       </c>
       <c r="H72" s="3">
-        <v>-800200</v>
+        <v>-852900</v>
       </c>
       <c r="I72" s="3">
-        <v>-205300</v>
+        <v>-218800</v>
       </c>
       <c r="J72" s="3">
-        <v>-131000</v>
+        <v>-139600</v>
       </c>
       <c r="K72" s="3">
         <v>-289900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-106500</v>
+        <v>-113600</v>
       </c>
       <c r="E76" s="3">
-        <v>-135400</v>
+        <v>-144300</v>
       </c>
       <c r="F76" s="3">
-        <v>-362900</v>
+        <v>-386800</v>
       </c>
       <c r="G76" s="3">
-        <v>-642600</v>
+        <v>-684900</v>
       </c>
       <c r="H76" s="3">
-        <v>-611500</v>
+        <v>-651800</v>
       </c>
       <c r="I76" s="3">
-        <v>-47700</v>
+        <v>-50900</v>
       </c>
       <c r="J76" s="3">
-        <v>35500</v>
+        <v>37900</v>
       </c>
       <c r="K76" s="3">
         <v>-45000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>65300</v>
+        <v>69800</v>
       </c>
       <c r="E81" s="3">
-        <v>208200</v>
+        <v>222400</v>
       </c>
       <c r="F81" s="3">
-        <v>-34300</v>
+        <v>-36700</v>
       </c>
       <c r="G81" s="3">
-        <v>-4400</v>
+        <v>-4700</v>
       </c>
       <c r="H81" s="3">
-        <v>-613600</v>
+        <v>-655300</v>
       </c>
       <c r="I81" s="3">
-        <v>56500</v>
+        <v>60300</v>
       </c>
       <c r="J81" s="3">
-        <v>108500</v>
+        <v>115900</v>
       </c>
       <c r="K81" s="3">
         <v>152600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>283500</v>
+        <v>302800</v>
       </c>
       <c r="E83" s="3">
-        <v>218200</v>
+        <v>233000</v>
       </c>
       <c r="F83" s="3">
-        <v>189400</v>
+        <v>202300</v>
       </c>
       <c r="G83" s="3">
-        <v>171700</v>
+        <v>183300</v>
       </c>
       <c r="H83" s="3">
-        <v>155100</v>
+        <v>165600</v>
       </c>
       <c r="I83" s="3">
-        <v>54300</v>
+        <v>58000</v>
       </c>
       <c r="J83" s="3">
-        <v>35400</v>
+        <v>37900</v>
       </c>
       <c r="K83" s="3">
         <v>15400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>495100</v>
+        <v>528800</v>
       </c>
       <c r="E89" s="3">
-        <v>73100</v>
+        <v>78100</v>
       </c>
       <c r="F89" s="3">
-        <v>177200</v>
+        <v>189300</v>
       </c>
       <c r="G89" s="3">
-        <v>97500</v>
+        <v>104100</v>
       </c>
       <c r="H89" s="3">
-        <v>566000</v>
+        <v>604500</v>
       </c>
       <c r="I89" s="3">
-        <v>234800</v>
+        <v>250800</v>
       </c>
       <c r="J89" s="3">
-        <v>203800</v>
+        <v>217700</v>
       </c>
       <c r="K89" s="3">
         <v>270100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300200</v>
+        <v>-320600</v>
       </c>
       <c r="E91" s="3">
-        <v>-306800</v>
+        <v>-327700</v>
       </c>
       <c r="F91" s="3">
-        <v>-305700</v>
+        <v>-326500</v>
       </c>
       <c r="G91" s="3">
-        <v>-393200</v>
+        <v>-419900</v>
       </c>
       <c r="H91" s="3">
-        <v>-387700</v>
+        <v>-414000</v>
       </c>
       <c r="I91" s="3">
-        <v>-220400</v>
+        <v>-235400</v>
       </c>
       <c r="J91" s="3">
-        <v>-159500</v>
+        <v>-170300</v>
       </c>
       <c r="K91" s="3">
         <v>-138300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-391000</v>
+        <v>-417600</v>
       </c>
       <c r="E94" s="3">
-        <v>-100800</v>
+        <v>-107600</v>
       </c>
       <c r="F94" s="3">
-        <v>-323400</v>
+        <v>-345400</v>
       </c>
       <c r="G94" s="3">
-        <v>-404300</v>
+        <v>-431800</v>
       </c>
       <c r="H94" s="3">
-        <v>-799700</v>
+        <v>-854100</v>
       </c>
       <c r="I94" s="3">
-        <v>-239200</v>
+        <v>-255500</v>
       </c>
       <c r="J94" s="3">
-        <v>-146200</v>
+        <v>-156100</v>
       </c>
       <c r="K94" s="3">
         <v>-143800</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-162800</v>
+        <v>-173900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-84200</v>
+        <v>-89900</v>
       </c>
       <c r="E100" s="3">
-        <v>-90800</v>
+        <v>-97000</v>
       </c>
       <c r="F100" s="3">
-        <v>67600</v>
+        <v>72200</v>
       </c>
       <c r="G100" s="3">
-        <v>160600</v>
+        <v>171500</v>
       </c>
       <c r="H100" s="3">
-        <v>-341100</v>
+        <v>-364300</v>
       </c>
       <c r="I100" s="3">
-        <v>834000</v>
+        <v>890700</v>
       </c>
       <c r="J100" s="3">
-        <v>47600</v>
+        <v>50900</v>
       </c>
       <c r="K100" s="3">
         <v>-94400</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="E101" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="F101" s="3">
-        <v>-7800</v>
+        <v>-8300</v>
       </c>
       <c r="G101" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="H101" s="3">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="I101" s="3">
-        <v>6600</v>
+        <v>7100</v>
       </c>
       <c r="J101" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>22200</v>
+        <v>23700</v>
       </c>
       <c r="E102" s="3">
-        <v>-116300</v>
+        <v>-124200</v>
       </c>
       <c r="F102" s="3">
-        <v>-86400</v>
+        <v>-92300</v>
       </c>
       <c r="G102" s="3">
-        <v>-142900</v>
+        <v>-152600</v>
       </c>
       <c r="H102" s="3">
-        <v>-570400</v>
+        <v>-609200</v>
       </c>
       <c r="I102" s="3">
-        <v>836200</v>
+        <v>893100</v>
       </c>
       <c r="J102" s="3">
-        <v>104100</v>
+        <v>111200</v>
       </c>
       <c r="K102" s="3">
         <v>31800</v>

--- a/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6987400</v>
+        <v>7066000</v>
       </c>
       <c r="E8" s="3">
-        <v>6726000</v>
+        <v>6801600</v>
       </c>
       <c r="F8" s="3">
-        <v>6194800</v>
+        <v>6264500</v>
       </c>
       <c r="G8" s="3">
-        <v>5610500</v>
+        <v>5673600</v>
       </c>
       <c r="H8" s="3">
-        <v>6095500</v>
+        <v>6164000</v>
       </c>
       <c r="I8" s="3">
-        <v>4336500</v>
+        <v>4385300</v>
       </c>
       <c r="J8" s="3">
-        <v>4134200</v>
+        <v>4180700</v>
       </c>
       <c r="K8" s="3">
         <v>3963800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6275300</v>
+        <v>6345800</v>
       </c>
       <c r="E9" s="3">
-        <v>6089600</v>
+        <v>6158000</v>
       </c>
       <c r="F9" s="3">
-        <v>5557300</v>
+        <v>5619700</v>
       </c>
       <c r="G9" s="3">
-        <v>5000100</v>
+        <v>5056300</v>
       </c>
       <c r="H9" s="3">
-        <v>5563200</v>
+        <v>5625700</v>
       </c>
       <c r="I9" s="3">
-        <v>3765200</v>
+        <v>3807500</v>
       </c>
       <c r="J9" s="3">
-        <v>3577100</v>
+        <v>3617300</v>
       </c>
       <c r="K9" s="3">
         <v>6882300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>712100</v>
+        <v>720100</v>
       </c>
       <c r="E10" s="3">
-        <v>636400</v>
+        <v>643600</v>
       </c>
       <c r="F10" s="3">
-        <v>637600</v>
+        <v>644800</v>
       </c>
       <c r="G10" s="3">
-        <v>610400</v>
+        <v>617200</v>
       </c>
       <c r="H10" s="3">
-        <v>532300</v>
+        <v>538300</v>
       </c>
       <c r="I10" s="3">
-        <v>571300</v>
+        <v>577800</v>
       </c>
       <c r="J10" s="3">
-        <v>557100</v>
+        <v>563400</v>
       </c>
       <c r="K10" s="3">
         <v>-2918500</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>49700</v>
+        <v>50200</v>
       </c>
       <c r="E12" s="3">
-        <v>42600</v>
+        <v>43100</v>
       </c>
       <c r="F12" s="3">
-        <v>39000</v>
+        <v>39500</v>
       </c>
       <c r="G12" s="3">
-        <v>37900</v>
+        <v>38300</v>
       </c>
       <c r="H12" s="3">
-        <v>41400</v>
+        <v>41900</v>
       </c>
       <c r="I12" s="3">
-        <v>45000</v>
+        <v>45500</v>
       </c>
       <c r="J12" s="3">
-        <v>42600</v>
+        <v>43100</v>
       </c>
       <c r="K12" s="3">
         <v>39500</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="E14" s="3">
         <v>1200</v>
       </c>
       <c r="F14" s="3">
-        <v>112400</v>
+        <v>113600</v>
       </c>
       <c r="G14" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="H14" s="3">
-        <v>556000</v>
+        <v>562200</v>
       </c>
       <c r="I14" s="3">
-        <v>54400</v>
+        <v>55000</v>
       </c>
       <c r="J14" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="K14" s="3">
         <v>27500</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="E15" s="3">
-        <v>15400</v>
+        <v>15600</v>
       </c>
       <c r="F15" s="3">
-        <v>13000</v>
+        <v>13200</v>
       </c>
       <c r="G15" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="H15" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="I15" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="J15" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K15" s="3">
         <v>6600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6685800</v>
+        <v>6760900</v>
       </c>
       <c r="E17" s="3">
-        <v>6248100</v>
+        <v>6318300</v>
       </c>
       <c r="F17" s="3">
-        <v>5922800</v>
+        <v>5989400</v>
       </c>
       <c r="G17" s="3">
-        <v>5319500</v>
+        <v>5379300</v>
       </c>
       <c r="H17" s="3">
-        <v>6599400</v>
+        <v>6673600</v>
       </c>
       <c r="I17" s="3">
-        <v>4159100</v>
+        <v>4205800</v>
       </c>
       <c r="J17" s="3">
-        <v>3887000</v>
+        <v>3930700</v>
       </c>
       <c r="K17" s="3">
         <v>3675000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>301600</v>
+        <v>305000</v>
       </c>
       <c r="E18" s="3">
-        <v>477900</v>
+        <v>483300</v>
       </c>
       <c r="F18" s="3">
-        <v>272100</v>
+        <v>275100</v>
       </c>
       <c r="G18" s="3">
-        <v>291000</v>
+        <v>294300</v>
       </c>
       <c r="H18" s="3">
-        <v>-503900</v>
+        <v>-509600</v>
       </c>
       <c r="I18" s="3">
-        <v>177400</v>
+        <v>179400</v>
       </c>
       <c r="J18" s="3">
-        <v>247200</v>
+        <v>250000</v>
       </c>
       <c r="K18" s="3">
         <v>288800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="E20" s="3">
-        <v>-41400</v>
+        <v>-41900</v>
       </c>
       <c r="F20" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="G20" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H20" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="I20" s="3">
-        <v>-15400</v>
+        <v>-15600</v>
       </c>
       <c r="J20" s="3">
-        <v>-86400</v>
+        <v>-87300</v>
       </c>
       <c r="K20" s="3">
         <v>-70300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>599800</v>
+        <v>605200</v>
       </c>
       <c r="E21" s="3">
-        <v>669600</v>
+        <v>676100</v>
       </c>
       <c r="F21" s="3">
-        <v>462600</v>
+        <v>466900</v>
       </c>
       <c r="G21" s="3">
-        <v>478000</v>
+        <v>482500</v>
       </c>
       <c r="H21" s="3">
-        <v>-328800</v>
+        <v>-333200</v>
       </c>
       <c r="I21" s="3">
-        <v>220000</v>
+        <v>222300</v>
       </c>
       <c r="J21" s="3">
-        <v>198700</v>
+        <v>200800</v>
       </c>
       <c r="K21" s="3">
         <v>233900</v>
@@ -1122,22 +1122,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>199900</v>
+        <v>202200</v>
       </c>
       <c r="E22" s="3">
-        <v>173900</v>
+        <v>175800</v>
       </c>
       <c r="F22" s="3">
-        <v>202300</v>
+        <v>204600</v>
       </c>
       <c r="G22" s="3">
-        <v>217700</v>
+        <v>220100</v>
       </c>
       <c r="H22" s="3">
-        <v>196400</v>
+        <v>198600</v>
       </c>
       <c r="I22" s="3">
-        <v>54400</v>
+        <v>55000</v>
       </c>
       <c r="J22" s="3">
         <v>1200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>97000</v>
+        <v>98100</v>
       </c>
       <c r="E23" s="3">
-        <v>262600</v>
+        <v>265600</v>
       </c>
       <c r="F23" s="3">
-        <v>58000</v>
+        <v>58600</v>
       </c>
       <c r="G23" s="3">
-        <v>76900</v>
+        <v>77800</v>
       </c>
       <c r="H23" s="3">
-        <v>-690800</v>
+        <v>-698600</v>
       </c>
       <c r="I23" s="3">
-        <v>107600</v>
+        <v>108900</v>
       </c>
       <c r="J23" s="3">
-        <v>159700</v>
+        <v>161500</v>
       </c>
       <c r="K23" s="3">
         <v>214100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>21300</v>
+        <v>21500</v>
       </c>
       <c r="E24" s="3">
-        <v>37900</v>
+        <v>38300</v>
       </c>
       <c r="F24" s="3">
-        <v>113600</v>
+        <v>114800</v>
       </c>
       <c r="G24" s="3">
-        <v>81600</v>
+        <v>82500</v>
       </c>
       <c r="H24" s="3">
-        <v>-37900</v>
+        <v>-38300</v>
       </c>
       <c r="I24" s="3">
-        <v>43800</v>
+        <v>44300</v>
       </c>
       <c r="J24" s="3">
-        <v>46100</v>
+        <v>46700</v>
       </c>
       <c r="K24" s="3">
         <v>50500</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>75700</v>
+        <v>76600</v>
       </c>
       <c r="E26" s="3">
-        <v>224800</v>
+        <v>227300</v>
       </c>
       <c r="F26" s="3">
-        <v>-55600</v>
+        <v>-56200</v>
       </c>
       <c r="G26" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="H26" s="3">
-        <v>-653000</v>
+        <v>-660300</v>
       </c>
       <c r="I26" s="3">
-        <v>63900</v>
+        <v>64600</v>
       </c>
       <c r="J26" s="3">
-        <v>113600</v>
+        <v>114800</v>
       </c>
       <c r="K26" s="3">
         <v>163600</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>69800</v>
+        <v>70600</v>
       </c>
       <c r="E27" s="3">
-        <v>222400</v>
+        <v>224900</v>
       </c>
       <c r="F27" s="3">
-        <v>-55600</v>
+        <v>-56200</v>
       </c>
       <c r="G27" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="H27" s="3">
-        <v>-655300</v>
+        <v>-662700</v>
       </c>
       <c r="I27" s="3">
-        <v>60300</v>
+        <v>61000</v>
       </c>
       <c r="J27" s="3">
-        <v>111200</v>
+        <v>112400</v>
       </c>
       <c r="K27" s="3">
         <v>161400</v>
@@ -1359,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="3">
-        <v>18900</v>
+        <v>19100</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>11</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="K29" s="3">
         <v>-8800</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="E32" s="3">
-        <v>41400</v>
+        <v>41900</v>
       </c>
       <c r="F32" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="G32" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="H32" s="3">
-        <v>-9500</v>
+        <v>-9600</v>
       </c>
       <c r="I32" s="3">
-        <v>15400</v>
+        <v>15600</v>
       </c>
       <c r="J32" s="3">
-        <v>86400</v>
+        <v>87300</v>
       </c>
       <c r="K32" s="3">
         <v>70300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>69800</v>
+        <v>70600</v>
       </c>
       <c r="E33" s="3">
-        <v>222400</v>
+        <v>224900</v>
       </c>
       <c r="F33" s="3">
-        <v>-36700</v>
+        <v>-37100</v>
       </c>
       <c r="G33" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="H33" s="3">
-        <v>-655300</v>
+        <v>-662700</v>
       </c>
       <c r="I33" s="3">
-        <v>60300</v>
+        <v>61000</v>
       </c>
       <c r="J33" s="3">
-        <v>115900</v>
+        <v>117200</v>
       </c>
       <c r="K33" s="3">
         <v>152600</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>69800</v>
+        <v>70600</v>
       </c>
       <c r="E35" s="3">
-        <v>222400</v>
+        <v>224900</v>
       </c>
       <c r="F35" s="3">
-        <v>-36700</v>
+        <v>-37100</v>
       </c>
       <c r="G35" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="H35" s="3">
-        <v>-655300</v>
+        <v>-662700</v>
       </c>
       <c r="I35" s="3">
-        <v>60300</v>
+        <v>61000</v>
       </c>
       <c r="J35" s="3">
-        <v>115900</v>
+        <v>117200</v>
       </c>
       <c r="K35" s="3">
         <v>152600</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>217700</v>
+        <v>220100</v>
       </c>
       <c r="E41" s="3">
-        <v>194000</v>
+        <v>196200</v>
       </c>
       <c r="F41" s="3">
-        <v>318200</v>
+        <v>321800</v>
       </c>
       <c r="G41" s="3">
-        <v>410500</v>
+        <v>415100</v>
       </c>
       <c r="H41" s="3">
-        <v>558300</v>
+        <v>564600</v>
       </c>
       <c r="I41" s="3">
-        <v>198700</v>
+        <v>201000</v>
       </c>
       <c r="J41" s="3">
-        <v>274400</v>
+        <v>277500</v>
       </c>
       <c r="K41" s="3">
         <v>153700</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>26000</v>
+        <v>26300</v>
       </c>
       <c r="E42" s="3">
-        <v>35500</v>
+        <v>35900</v>
       </c>
       <c r="F42" s="3">
-        <v>81600</v>
+        <v>82500</v>
       </c>
       <c r="G42" s="3">
-        <v>138400</v>
+        <v>140000</v>
       </c>
       <c r="H42" s="3">
-        <v>82800</v>
+        <v>83700</v>
       </c>
       <c r="I42" s="3">
-        <v>1038600</v>
+        <v>1050300</v>
       </c>
       <c r="J42" s="3">
-        <v>30800</v>
+        <v>31100</v>
       </c>
       <c r="K42" s="3">
         <v>39500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>551200</v>
+        <v>557400</v>
       </c>
       <c r="E43" s="3">
-        <v>680200</v>
+        <v>687800</v>
       </c>
       <c r="F43" s="3">
-        <v>486200</v>
+        <v>491600</v>
       </c>
       <c r="G43" s="3">
-        <v>409300</v>
+        <v>413900</v>
       </c>
       <c r="H43" s="3">
-        <v>429400</v>
+        <v>434200</v>
       </c>
       <c r="I43" s="3">
-        <v>668300</v>
+        <v>675900</v>
       </c>
       <c r="J43" s="3">
-        <v>567800</v>
+        <v>574200</v>
       </c>
       <c r="K43" s="3">
         <v>1042000</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>792500</v>
+        <v>801500</v>
       </c>
       <c r="E44" s="3">
-        <v>780700</v>
+        <v>789500</v>
       </c>
       <c r="F44" s="3">
-        <v>760600</v>
+        <v>769200</v>
       </c>
       <c r="G44" s="3">
-        <v>699100</v>
+        <v>707000</v>
       </c>
       <c r="H44" s="3">
-        <v>641100</v>
+        <v>648300</v>
       </c>
       <c r="I44" s="3">
-        <v>511000</v>
+        <v>516800</v>
       </c>
       <c r="J44" s="3">
-        <v>388000</v>
+        <v>392400</v>
       </c>
       <c r="K44" s="3">
         <v>422700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="E45" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="F45" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="G45" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="H45" s="3">
-        <v>17700</v>
+        <v>17900</v>
       </c>
       <c r="I45" s="3">
-        <v>20100</v>
+        <v>20300</v>
       </c>
       <c r="J45" s="3">
-        <v>28400</v>
+        <v>28700</v>
       </c>
       <c r="K45" s="3">
         <v>3300</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1596900</v>
+        <v>1614900</v>
       </c>
       <c r="E46" s="3">
-        <v>1704600</v>
+        <v>1723700</v>
       </c>
       <c r="F46" s="3">
-        <v>1656100</v>
+        <v>1674700</v>
       </c>
       <c r="G46" s="3">
-        <v>1667900</v>
+        <v>1686600</v>
       </c>
       <c r="H46" s="3">
-        <v>1729400</v>
+        <v>1748800</v>
       </c>
       <c r="I46" s="3">
-        <v>2436800</v>
+        <v>2464200</v>
       </c>
       <c r="J46" s="3">
-        <v>1289400</v>
+        <v>1303900</v>
       </c>
       <c r="K46" s="3">
         <v>1138600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>80400</v>
+        <v>81300</v>
       </c>
       <c r="E47" s="3">
-        <v>164400</v>
+        <v>166300</v>
       </c>
       <c r="F47" s="3">
-        <v>188100</v>
+        <v>190200</v>
       </c>
       <c r="G47" s="3">
-        <v>132500</v>
+        <v>134000</v>
       </c>
       <c r="H47" s="3">
-        <v>141900</v>
+        <v>143500</v>
       </c>
       <c r="I47" s="3">
-        <v>102900</v>
+        <v>104100</v>
       </c>
       <c r="J47" s="3">
-        <v>80400</v>
+        <v>81300</v>
       </c>
       <c r="K47" s="3">
         <v>83400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2432000</v>
+        <v>2459400</v>
       </c>
       <c r="E48" s="3">
-        <v>1970700</v>
+        <v>1992900</v>
       </c>
       <c r="F48" s="3">
-        <v>1794500</v>
+        <v>1814600</v>
       </c>
       <c r="G48" s="3">
-        <v>1747100</v>
+        <v>1766800</v>
       </c>
       <c r="H48" s="3">
-        <v>1484500</v>
+        <v>1501200</v>
       </c>
       <c r="I48" s="3">
-        <v>747600</v>
+        <v>756000</v>
       </c>
       <c r="J48" s="3">
-        <v>482600</v>
+        <v>488000</v>
       </c>
       <c r="K48" s="3">
         <v>663200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>621000</v>
+        <v>628000</v>
       </c>
       <c r="E49" s="3">
-        <v>582000</v>
+        <v>588500</v>
       </c>
       <c r="F49" s="3">
-        <v>557100</v>
+        <v>563400</v>
       </c>
       <c r="G49" s="3">
-        <v>634000</v>
+        <v>641200</v>
       </c>
       <c r="H49" s="3">
-        <v>616300</v>
+        <v>623200</v>
       </c>
       <c r="I49" s="3">
-        <v>33100</v>
+        <v>33500</v>
       </c>
       <c r="J49" s="3">
-        <v>24800</v>
+        <v>25100</v>
       </c>
       <c r="K49" s="3">
         <v>12100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>218800</v>
+        <v>221300</v>
       </c>
       <c r="E52" s="3">
-        <v>192800</v>
+        <v>195000</v>
       </c>
       <c r="F52" s="3">
-        <v>194000</v>
+        <v>196200</v>
       </c>
       <c r="G52" s="3">
-        <v>298100</v>
+        <v>301400</v>
       </c>
       <c r="H52" s="3">
-        <v>319400</v>
+        <v>323000</v>
       </c>
       <c r="I52" s="3">
-        <v>242500</v>
+        <v>245200</v>
       </c>
       <c r="J52" s="3">
-        <v>209400</v>
+        <v>211700</v>
       </c>
       <c r="K52" s="3">
         <v>225100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4949300</v>
+        <v>5004900</v>
       </c>
       <c r="E54" s="3">
-        <v>4614500</v>
+        <v>4666400</v>
       </c>
       <c r="F54" s="3">
-        <v>4389700</v>
+        <v>4439100</v>
       </c>
       <c r="G54" s="3">
-        <v>4479600</v>
+        <v>4530000</v>
       </c>
       <c r="H54" s="3">
-        <v>4291600</v>
+        <v>4339800</v>
       </c>
       <c r="I54" s="3">
-        <v>3562900</v>
+        <v>3603000</v>
       </c>
       <c r="J54" s="3">
-        <v>2086600</v>
+        <v>2110100</v>
       </c>
       <c r="K54" s="3">
         <v>1790800</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>841000</v>
+        <v>850500</v>
       </c>
       <c r="E57" s="3">
-        <v>810300</v>
+        <v>819400</v>
       </c>
       <c r="F57" s="3">
-        <v>848100</v>
+        <v>857700</v>
       </c>
       <c r="G57" s="3">
-        <v>741700</v>
+        <v>750000</v>
       </c>
       <c r="H57" s="3">
-        <v>777200</v>
+        <v>785900</v>
       </c>
       <c r="I57" s="3">
-        <v>779500</v>
+        <v>788300</v>
       </c>
       <c r="J57" s="3">
-        <v>554800</v>
+        <v>561000</v>
       </c>
       <c r="K57" s="3">
         <v>965100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>237800</v>
+        <v>240400</v>
       </c>
       <c r="E58" s="3">
-        <v>67400</v>
+        <v>68200</v>
       </c>
       <c r="F58" s="3">
-        <v>125400</v>
+        <v>126800</v>
       </c>
       <c r="G58" s="3">
-        <v>126600</v>
+        <v>128000</v>
       </c>
       <c r="H58" s="3">
-        <v>199900</v>
+        <v>202200</v>
       </c>
       <c r="I58" s="3">
-        <v>55600</v>
+        <v>56200</v>
       </c>
       <c r="J58" s="3">
-        <v>26000</v>
+        <v>26300</v>
       </c>
       <c r="K58" s="3">
         <v>19800</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>425800</v>
+        <v>430600</v>
       </c>
       <c r="E59" s="3">
-        <v>469600</v>
+        <v>474900</v>
       </c>
       <c r="F59" s="3">
-        <v>339500</v>
+        <v>343300</v>
       </c>
       <c r="G59" s="3">
-        <v>356100</v>
+        <v>360100</v>
       </c>
       <c r="H59" s="3">
-        <v>449500</v>
+        <v>454600</v>
       </c>
       <c r="I59" s="3">
-        <v>416400</v>
+        <v>421100</v>
       </c>
       <c r="J59" s="3">
-        <v>315800</v>
+        <v>319400</v>
       </c>
       <c r="K59" s="3">
         <v>269000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1504600</v>
+        <v>1521600</v>
       </c>
       <c r="E60" s="3">
-        <v>1347300</v>
+        <v>1362500</v>
       </c>
       <c r="F60" s="3">
-        <v>1313000</v>
+        <v>1327800</v>
       </c>
       <c r="G60" s="3">
-        <v>1224300</v>
+        <v>1238100</v>
       </c>
       <c r="H60" s="3">
-        <v>1426600</v>
+        <v>1442600</v>
       </c>
       <c r="I60" s="3">
-        <v>1251500</v>
+        <v>1265600</v>
       </c>
       <c r="J60" s="3">
-        <v>896600</v>
+        <v>906700</v>
       </c>
       <c r="K60" s="3">
         <v>818000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2555100</v>
+        <v>2583800</v>
       </c>
       <c r="E61" s="3">
-        <v>2477000</v>
+        <v>2504800</v>
       </c>
       <c r="F61" s="3">
-        <v>2390600</v>
+        <v>2417500</v>
       </c>
       <c r="G61" s="3">
-        <v>2792800</v>
+        <v>2824200</v>
       </c>
       <c r="H61" s="3">
-        <v>2441500</v>
+        <v>2469000</v>
       </c>
       <c r="I61" s="3">
-        <v>1425400</v>
+        <v>1441400</v>
       </c>
       <c r="J61" s="3">
-        <v>385600</v>
+        <v>390000</v>
       </c>
       <c r="K61" s="3">
         <v>153700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>990100</v>
+        <v>1001200</v>
       </c>
       <c r="E62" s="3">
-        <v>925000</v>
+        <v>935400</v>
       </c>
       <c r="F62" s="3">
-        <v>1063400</v>
+        <v>1075400</v>
       </c>
       <c r="G62" s="3">
-        <v>1136800</v>
+        <v>1149500</v>
       </c>
       <c r="H62" s="3">
-        <v>1062200</v>
+        <v>1074200</v>
       </c>
       <c r="I62" s="3">
-        <v>929800</v>
+        <v>940200</v>
       </c>
       <c r="J62" s="3">
-        <v>761800</v>
+        <v>770400</v>
       </c>
       <c r="K62" s="3">
         <v>859700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5062800</v>
+        <v>5119700</v>
       </c>
       <c r="E66" s="3">
-        <v>4758800</v>
+        <v>4812300</v>
       </c>
       <c r="F66" s="3">
-        <v>4776600</v>
+        <v>4830300</v>
       </c>
       <c r="G66" s="3">
-        <v>5164500</v>
+        <v>5222600</v>
       </c>
       <c r="H66" s="3">
-        <v>4943300</v>
+        <v>4998900</v>
       </c>
       <c r="I66" s="3">
-        <v>3613800</v>
+        <v>3654400</v>
       </c>
       <c r="J66" s="3">
-        <v>2048800</v>
+        <v>2071800</v>
       </c>
       <c r="K66" s="3">
         <v>1835900</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-606800</v>
+        <v>-613700</v>
       </c>
       <c r="E72" s="3">
-        <v>-638800</v>
+        <v>-645900</v>
       </c>
       <c r="F72" s="3">
-        <v>-894300</v>
+        <v>-904300</v>
       </c>
       <c r="G72" s="3">
-        <v>-871800</v>
+        <v>-881600</v>
       </c>
       <c r="H72" s="3">
-        <v>-852900</v>
+        <v>-862500</v>
       </c>
       <c r="I72" s="3">
-        <v>-218800</v>
+        <v>-221300</v>
       </c>
       <c r="J72" s="3">
-        <v>-139600</v>
+        <v>-141200</v>
       </c>
       <c r="K72" s="3">
         <v>-289900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-113600</v>
+        <v>-114800</v>
       </c>
       <c r="E76" s="3">
-        <v>-144300</v>
+        <v>-145900</v>
       </c>
       <c r="F76" s="3">
-        <v>-386800</v>
+        <v>-391200</v>
       </c>
       <c r="G76" s="3">
-        <v>-684900</v>
+        <v>-692600</v>
       </c>
       <c r="H76" s="3">
-        <v>-651800</v>
+        <v>-659100</v>
       </c>
       <c r="I76" s="3">
-        <v>-50900</v>
+        <v>-51400</v>
       </c>
       <c r="J76" s="3">
-        <v>37900</v>
+        <v>38300</v>
       </c>
       <c r="K76" s="3">
         <v>-45000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>69800</v>
+        <v>70600</v>
       </c>
       <c r="E81" s="3">
-        <v>222400</v>
+        <v>224900</v>
       </c>
       <c r="F81" s="3">
-        <v>-36700</v>
+        <v>-37100</v>
       </c>
       <c r="G81" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="H81" s="3">
-        <v>-655300</v>
+        <v>-662700</v>
       </c>
       <c r="I81" s="3">
-        <v>60300</v>
+        <v>61000</v>
       </c>
       <c r="J81" s="3">
-        <v>115900</v>
+        <v>117200</v>
       </c>
       <c r="K81" s="3">
         <v>152600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>302800</v>
+        <v>306200</v>
       </c>
       <c r="E83" s="3">
-        <v>233000</v>
+        <v>235700</v>
       </c>
       <c r="F83" s="3">
-        <v>202300</v>
+        <v>204600</v>
       </c>
       <c r="G83" s="3">
-        <v>183300</v>
+        <v>185400</v>
       </c>
       <c r="H83" s="3">
-        <v>165600</v>
+        <v>167500</v>
       </c>
       <c r="I83" s="3">
-        <v>58000</v>
+        <v>58600</v>
       </c>
       <c r="J83" s="3">
-        <v>37900</v>
+        <v>38300</v>
       </c>
       <c r="K83" s="3">
         <v>15400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>528800</v>
+        <v>534700</v>
       </c>
       <c r="E89" s="3">
-        <v>78100</v>
+        <v>78900</v>
       </c>
       <c r="F89" s="3">
-        <v>189300</v>
+        <v>191400</v>
       </c>
       <c r="G89" s="3">
-        <v>104100</v>
+        <v>105300</v>
       </c>
       <c r="H89" s="3">
-        <v>604500</v>
+        <v>611300</v>
       </c>
       <c r="I89" s="3">
-        <v>250800</v>
+        <v>253600</v>
       </c>
       <c r="J89" s="3">
-        <v>217700</v>
+        <v>220100</v>
       </c>
       <c r="K89" s="3">
         <v>270100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-320600</v>
+        <v>-324200</v>
       </c>
       <c r="E91" s="3">
-        <v>-327700</v>
+        <v>-331300</v>
       </c>
       <c r="F91" s="3">
-        <v>-326500</v>
+        <v>-330200</v>
       </c>
       <c r="G91" s="3">
-        <v>-419900</v>
+        <v>-424700</v>
       </c>
       <c r="H91" s="3">
-        <v>-414000</v>
+        <v>-418700</v>
       </c>
       <c r="I91" s="3">
-        <v>-235400</v>
+        <v>-238000</v>
       </c>
       <c r="J91" s="3">
-        <v>-170300</v>
+        <v>-172300</v>
       </c>
       <c r="K91" s="3">
         <v>-138300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-417600</v>
+        <v>-422300</v>
       </c>
       <c r="E94" s="3">
-        <v>-107600</v>
+        <v>-108900</v>
       </c>
       <c r="F94" s="3">
-        <v>-345400</v>
+        <v>-349300</v>
       </c>
       <c r="G94" s="3">
-        <v>-431800</v>
+        <v>-436600</v>
       </c>
       <c r="H94" s="3">
-        <v>-854100</v>
+        <v>-863700</v>
       </c>
       <c r="I94" s="3">
-        <v>-255500</v>
+        <v>-258400</v>
       </c>
       <c r="J94" s="3">
-        <v>-156100</v>
+        <v>-157900</v>
       </c>
       <c r="K94" s="3">
         <v>-143800</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-173900</v>
+        <v>-175800</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-89900</v>
+        <v>-90900</v>
       </c>
       <c r="E100" s="3">
-        <v>-97000</v>
+        <v>-98100</v>
       </c>
       <c r="F100" s="3">
-        <v>72200</v>
+        <v>73000</v>
       </c>
       <c r="G100" s="3">
-        <v>171500</v>
+        <v>173400</v>
       </c>
       <c r="H100" s="3">
-        <v>-364300</v>
+        <v>-368400</v>
       </c>
       <c r="I100" s="3">
-        <v>890700</v>
+        <v>900700</v>
       </c>
       <c r="J100" s="3">
-        <v>50900</v>
+        <v>51400</v>
       </c>
       <c r="K100" s="3">
         <v>-94400</v>
@@ -3469,16 +3469,16 @@
         <v>2400</v>
       </c>
       <c r="F101" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="G101" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H101" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="I101" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="J101" s="3">
         <v>-1200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>23700</v>
+        <v>23900</v>
       </c>
       <c r="E102" s="3">
-        <v>-124200</v>
+        <v>-125600</v>
       </c>
       <c r="F102" s="3">
-        <v>-92300</v>
+        <v>-93300</v>
       </c>
       <c r="G102" s="3">
-        <v>-152600</v>
+        <v>-154300</v>
       </c>
       <c r="H102" s="3">
-        <v>-609200</v>
+        <v>-616000</v>
       </c>
       <c r="I102" s="3">
-        <v>893100</v>
+        <v>903100</v>
       </c>
       <c r="J102" s="3">
-        <v>111200</v>
+        <v>112400</v>
       </c>
       <c r="K102" s="3">
         <v>31800</v>

--- a/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7066000</v>
+        <v>5744400</v>
       </c>
       <c r="E8" s="3">
-        <v>6801600</v>
+        <v>6949000</v>
       </c>
       <c r="F8" s="3">
-        <v>6264500</v>
+        <v>6689000</v>
       </c>
       <c r="G8" s="3">
-        <v>5673600</v>
+        <v>6160800</v>
       </c>
       <c r="H8" s="3">
-        <v>6164000</v>
+        <v>5579700</v>
       </c>
       <c r="I8" s="3">
-        <v>4385300</v>
+        <v>6062000</v>
       </c>
       <c r="J8" s="3">
+        <v>4312700</v>
+      </c>
+      <c r="K8" s="3">
         <v>4180700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3963800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4174100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6345800</v>
+        <v>5167900</v>
       </c>
       <c r="E9" s="3">
-        <v>6158000</v>
+        <v>6240800</v>
       </c>
       <c r="F9" s="3">
-        <v>5619700</v>
+        <v>6056100</v>
       </c>
       <c r="G9" s="3">
-        <v>5056300</v>
+        <v>5526700</v>
       </c>
       <c r="H9" s="3">
-        <v>5625700</v>
+        <v>4972600</v>
       </c>
       <c r="I9" s="3">
-        <v>3807500</v>
+        <v>5532600</v>
       </c>
       <c r="J9" s="3">
+        <v>3744500</v>
+      </c>
+      <c r="K9" s="3">
         <v>3617300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6882300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7599200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>720100</v>
+        <v>576400</v>
       </c>
       <c r="E10" s="3">
-        <v>643600</v>
+        <v>708200</v>
       </c>
       <c r="F10" s="3">
-        <v>644800</v>
+        <v>632900</v>
       </c>
       <c r="G10" s="3">
-        <v>617200</v>
+        <v>634100</v>
       </c>
       <c r="H10" s="3">
-        <v>538300</v>
+        <v>607000</v>
       </c>
       <c r="I10" s="3">
-        <v>577800</v>
+        <v>529400</v>
       </c>
       <c r="J10" s="3">
+        <v>568200</v>
+      </c>
+      <c r="K10" s="3">
         <v>563400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-2918500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-3425200</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>50200</v>
+        <v>45900</v>
       </c>
       <c r="E12" s="3">
+        <v>49400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>42400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>38800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>37600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>41200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>44700</v>
+      </c>
+      <c r="K12" s="3">
         <v>43100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="L12" s="3">
         <v>39500</v>
       </c>
-      <c r="G12" s="3">
-        <v>38300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>41900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>45500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>43100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>39500</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>38700</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>4800</v>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
-        <v>113600</v>
-      </c>
       <c r="G14" s="3">
-        <v>6000</v>
+        <v>111800</v>
       </c>
       <c r="H14" s="3">
-        <v>562200</v>
+        <v>5900</v>
       </c>
       <c r="I14" s="3">
-        <v>55000</v>
+        <v>552900</v>
       </c>
       <c r="J14" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K14" s="3">
         <v>9600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>27500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>23500</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>22700</v>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E15" s="3">
-        <v>15600</v>
+        <v>22400</v>
       </c>
       <c r="F15" s="3">
-        <v>13200</v>
+        <v>15300</v>
       </c>
       <c r="G15" s="3">
-        <v>9600</v>
+        <v>12900</v>
       </c>
       <c r="H15" s="3">
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="I15" s="3">
-        <v>6000</v>
+        <v>9400</v>
       </c>
       <c r="J15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K15" s="3">
         <v>3600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6600</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6760900</v>
+        <v>5597300</v>
       </c>
       <c r="E17" s="3">
-        <v>6318300</v>
+        <v>6649000</v>
       </c>
       <c r="F17" s="3">
-        <v>5989400</v>
+        <v>6213700</v>
       </c>
       <c r="G17" s="3">
-        <v>5379300</v>
+        <v>5890200</v>
       </c>
       <c r="H17" s="3">
-        <v>6673600</v>
+        <v>5290300</v>
       </c>
       <c r="I17" s="3">
-        <v>4205800</v>
+        <v>6563100</v>
       </c>
       <c r="J17" s="3">
+        <v>4136200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3930700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3675000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4248000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>305000</v>
+        <v>147100</v>
       </c>
       <c r="E18" s="3">
-        <v>483300</v>
+        <v>300000</v>
       </c>
       <c r="F18" s="3">
-        <v>275100</v>
+        <v>475300</v>
       </c>
       <c r="G18" s="3">
-        <v>294300</v>
+        <v>270600</v>
       </c>
       <c r="H18" s="3">
-        <v>-509600</v>
+        <v>289400</v>
       </c>
       <c r="I18" s="3">
-        <v>179400</v>
+        <v>-501100</v>
       </c>
       <c r="J18" s="3">
+        <v>176500</v>
+      </c>
+      <c r="K18" s="3">
         <v>250000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>288800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-74000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4800</v>
+        <v>-187000</v>
       </c>
       <c r="E20" s="3">
-        <v>-41900</v>
+        <v>-4700</v>
       </c>
       <c r="F20" s="3">
-        <v>-12000</v>
+        <v>-41200</v>
       </c>
       <c r="G20" s="3">
-        <v>3600</v>
+        <v>-11800</v>
       </c>
       <c r="H20" s="3">
-        <v>9600</v>
+        <v>3500</v>
       </c>
       <c r="I20" s="3">
-        <v>-15600</v>
+        <v>9400</v>
       </c>
       <c r="J20" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-87300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-70300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-160800</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>605200</v>
+        <v>265900</v>
       </c>
       <c r="E21" s="3">
-        <v>676100</v>
+        <v>597700</v>
       </c>
       <c r="F21" s="3">
-        <v>466900</v>
+        <v>666800</v>
       </c>
       <c r="G21" s="3">
-        <v>482500</v>
+        <v>460800</v>
       </c>
       <c r="H21" s="3">
-        <v>-333200</v>
+        <v>476000</v>
       </c>
       <c r="I21" s="3">
-        <v>222300</v>
+        <v>-326400</v>
       </c>
       <c r="J21" s="3">
+        <v>219000</v>
+      </c>
+      <c r="K21" s="3">
         <v>200800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>233900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-232400</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>202200</v>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E22" s="3">
-        <v>175800</v>
+        <v>198800</v>
       </c>
       <c r="F22" s="3">
-        <v>204600</v>
+        <v>172900</v>
       </c>
       <c r="G22" s="3">
-        <v>220100</v>
+        <v>201200</v>
       </c>
       <c r="H22" s="3">
-        <v>198600</v>
+        <v>216500</v>
       </c>
       <c r="I22" s="3">
-        <v>55000</v>
+        <v>195300</v>
       </c>
       <c r="J22" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4700</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>98100</v>
+        <v>-40000</v>
       </c>
       <c r="E23" s="3">
-        <v>265600</v>
+        <v>96500</v>
       </c>
       <c r="F23" s="3">
-        <v>58600</v>
+        <v>261200</v>
       </c>
       <c r="G23" s="3">
-        <v>77800</v>
+        <v>57600</v>
       </c>
       <c r="H23" s="3">
-        <v>-698600</v>
+        <v>76500</v>
       </c>
       <c r="I23" s="3">
-        <v>108900</v>
+        <v>-687000</v>
       </c>
       <c r="J23" s="3">
+        <v>107100</v>
+      </c>
+      <c r="K23" s="3">
         <v>161500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>214100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-239500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>21500</v>
+        <v>-20000</v>
       </c>
       <c r="E24" s="3">
-        <v>38300</v>
+        <v>21200</v>
       </c>
       <c r="F24" s="3">
-        <v>114800</v>
+        <v>37600</v>
       </c>
       <c r="G24" s="3">
-        <v>82500</v>
+        <v>112900</v>
       </c>
       <c r="H24" s="3">
-        <v>-38300</v>
+        <v>81200</v>
       </c>
       <c r="I24" s="3">
-        <v>44300</v>
+        <v>-37600</v>
       </c>
       <c r="J24" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K24" s="3">
         <v>46700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>50500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-39900</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>76600</v>
+        <v>-20000</v>
       </c>
       <c r="E26" s="3">
-        <v>227300</v>
+        <v>75300</v>
       </c>
       <c r="F26" s="3">
-        <v>-56200</v>
+        <v>223500</v>
       </c>
       <c r="G26" s="3">
-        <v>-4800</v>
+        <v>-55300</v>
       </c>
       <c r="H26" s="3">
-        <v>-660300</v>
+        <v>-4700</v>
       </c>
       <c r="I26" s="3">
-        <v>64600</v>
+        <v>-649400</v>
       </c>
       <c r="J26" s="3">
+        <v>63500</v>
+      </c>
+      <c r="K26" s="3">
         <v>114800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>163600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-199500</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>70600</v>
+        <v>-24700</v>
       </c>
       <c r="E27" s="3">
-        <v>224900</v>
+        <v>69400</v>
       </c>
       <c r="F27" s="3">
-        <v>-56200</v>
+        <v>221200</v>
       </c>
       <c r="G27" s="3">
-        <v>-4800</v>
+        <v>-55300</v>
       </c>
       <c r="H27" s="3">
-        <v>-662700</v>
+        <v>-4700</v>
       </c>
       <c r="I27" s="3">
-        <v>61000</v>
+        <v>-651700</v>
       </c>
       <c r="J27" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K27" s="3">
         <v>112400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>161400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200700</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1358,30 +1418,33 @@
       <c r="E29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="3">
-        <v>19100</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3">
+        <v>18800</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>4800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-8800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-9400</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4800</v>
+        <v>187000</v>
       </c>
       <c r="E32" s="3">
-        <v>41900</v>
+        <v>4700</v>
       </c>
       <c r="F32" s="3">
-        <v>12000</v>
+        <v>41200</v>
       </c>
       <c r="G32" s="3">
-        <v>-3600</v>
+        <v>11800</v>
       </c>
       <c r="H32" s="3">
-        <v>-9600</v>
+        <v>-3500</v>
       </c>
       <c r="I32" s="3">
-        <v>15600</v>
+        <v>-9400</v>
       </c>
       <c r="J32" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K32" s="3">
         <v>87300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>70300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>160800</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>70600</v>
+        <v>-24700</v>
       </c>
       <c r="E33" s="3">
-        <v>224900</v>
+        <v>69400</v>
       </c>
       <c r="F33" s="3">
-        <v>-37100</v>
+        <v>221200</v>
       </c>
       <c r="G33" s="3">
-        <v>-4800</v>
+        <v>-36500</v>
       </c>
       <c r="H33" s="3">
-        <v>-662700</v>
+        <v>-4700</v>
       </c>
       <c r="I33" s="3">
-        <v>61000</v>
+        <v>-651700</v>
       </c>
       <c r="J33" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K33" s="3">
         <v>117200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>152600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-210100</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>70600</v>
+        <v>-24700</v>
       </c>
       <c r="E35" s="3">
-        <v>224900</v>
+        <v>69400</v>
       </c>
       <c r="F35" s="3">
-        <v>-37100</v>
+        <v>221200</v>
       </c>
       <c r="G35" s="3">
-        <v>-4800</v>
+        <v>-36500</v>
       </c>
       <c r="H35" s="3">
-        <v>-662700</v>
+        <v>-4700</v>
       </c>
       <c r="I35" s="3">
-        <v>61000</v>
+        <v>-651700</v>
       </c>
       <c r="J35" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K35" s="3">
         <v>117200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>152600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-210100</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>220100</v>
+        <v>516400</v>
       </c>
       <c r="E41" s="3">
-        <v>196200</v>
+        <v>216500</v>
       </c>
       <c r="F41" s="3">
-        <v>321800</v>
+        <v>192900</v>
       </c>
       <c r="G41" s="3">
-        <v>415100</v>
+        <v>316500</v>
       </c>
       <c r="H41" s="3">
-        <v>564600</v>
+        <v>408200</v>
       </c>
       <c r="I41" s="3">
-        <v>201000</v>
+        <v>555300</v>
       </c>
       <c r="J41" s="3">
+        <v>197600</v>
+      </c>
+      <c r="K41" s="3">
         <v>277500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>153700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>120900</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>26300</v>
+        <v>45900</v>
       </c>
       <c r="E42" s="3">
-        <v>35900</v>
+        <v>25900</v>
       </c>
       <c r="F42" s="3">
-        <v>82500</v>
+        <v>35300</v>
       </c>
       <c r="G42" s="3">
-        <v>140000</v>
+        <v>81200</v>
       </c>
       <c r="H42" s="3">
-        <v>83700</v>
+        <v>137600</v>
       </c>
       <c r="I42" s="3">
-        <v>1050300</v>
+        <v>82300</v>
       </c>
       <c r="J42" s="3">
+        <v>1032900</v>
+      </c>
+      <c r="K42" s="3">
         <v>31100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>39500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>49300</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>557400</v>
+        <v>477600</v>
       </c>
       <c r="E43" s="3">
-        <v>687800</v>
+        <v>548200</v>
       </c>
       <c r="F43" s="3">
-        <v>491600</v>
+        <v>676400</v>
       </c>
       <c r="G43" s="3">
-        <v>413900</v>
+        <v>483500</v>
       </c>
       <c r="H43" s="3">
-        <v>434200</v>
+        <v>407000</v>
       </c>
       <c r="I43" s="3">
-        <v>675900</v>
+        <v>427000</v>
       </c>
       <c r="J43" s="3">
+        <v>664700</v>
+      </c>
+      <c r="K43" s="3">
         <v>574200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1042000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>616300</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>801500</v>
+        <v>684700</v>
       </c>
       <c r="E44" s="3">
-        <v>789500</v>
+        <v>788200</v>
       </c>
       <c r="F44" s="3">
-        <v>769200</v>
+        <v>776400</v>
       </c>
       <c r="G44" s="3">
-        <v>707000</v>
+        <v>756400</v>
       </c>
       <c r="H44" s="3">
-        <v>648300</v>
+        <v>695300</v>
       </c>
       <c r="I44" s="3">
-        <v>516800</v>
+        <v>637600</v>
       </c>
       <c r="J44" s="3">
+        <v>508200</v>
+      </c>
+      <c r="K44" s="3">
         <v>392400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>422700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>495300</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>9600</v>
+      <c r="D45" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E45" s="3">
-        <v>14400</v>
+        <v>9400</v>
       </c>
       <c r="F45" s="3">
-        <v>9600</v>
+        <v>14100</v>
       </c>
       <c r="G45" s="3">
-        <v>10800</v>
+        <v>9400</v>
       </c>
       <c r="H45" s="3">
-        <v>17900</v>
+        <v>10600</v>
       </c>
       <c r="I45" s="3">
-        <v>20300</v>
+        <v>17600</v>
       </c>
       <c r="J45" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K45" s="3">
         <v>28700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11700</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1614900</v>
+        <v>1724600</v>
       </c>
       <c r="E46" s="3">
-        <v>1723700</v>
+        <v>1588100</v>
       </c>
       <c r="F46" s="3">
-        <v>1674700</v>
+        <v>1695200</v>
       </c>
       <c r="G46" s="3">
-        <v>1686600</v>
+        <v>1647000</v>
       </c>
       <c r="H46" s="3">
-        <v>1748800</v>
+        <v>1658700</v>
       </c>
       <c r="I46" s="3">
-        <v>2464200</v>
+        <v>1719900</v>
       </c>
       <c r="J46" s="3">
+        <v>2423400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1303900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1138600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1293500</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>101200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>80000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>163500</v>
+      </c>
+      <c r="G47" s="3">
+        <v>187000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>131800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>141200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>102300</v>
+      </c>
+      <c r="K47" s="3">
         <v>81300</v>
       </c>
-      <c r="E47" s="3">
-        <v>166300</v>
-      </c>
-      <c r="F47" s="3">
-        <v>190200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>134000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>143500</v>
-      </c>
-      <c r="I47" s="3">
-        <v>104100</v>
-      </c>
-      <c r="J47" s="3">
-        <v>81300</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>83400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>111500</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2459400</v>
+        <v>2242200</v>
       </c>
       <c r="E48" s="3">
-        <v>1992900</v>
+        <v>2418700</v>
       </c>
       <c r="F48" s="3">
-        <v>1814600</v>
+        <v>1959900</v>
       </c>
       <c r="G48" s="3">
-        <v>1766800</v>
+        <v>1784600</v>
       </c>
       <c r="H48" s="3">
-        <v>1501200</v>
+        <v>1737500</v>
       </c>
       <c r="I48" s="3">
-        <v>756000</v>
+        <v>1476400</v>
       </c>
       <c r="J48" s="3">
+        <v>743500</v>
+      </c>
+      <c r="K48" s="3">
         <v>488000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>663200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>232400</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>628000</v>
+        <v>562300</v>
       </c>
       <c r="E49" s="3">
-        <v>588500</v>
+        <v>617600</v>
       </c>
       <c r="F49" s="3">
-        <v>563400</v>
+        <v>578800</v>
       </c>
       <c r="G49" s="3">
-        <v>641200</v>
+        <v>554100</v>
       </c>
       <c r="H49" s="3">
-        <v>623200</v>
+        <v>630600</v>
       </c>
       <c r="I49" s="3">
-        <v>33500</v>
+        <v>612900</v>
       </c>
       <c r="J49" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K49" s="3">
         <v>25100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>27000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>221300</v>
+        <v>227000</v>
       </c>
       <c r="E52" s="3">
-        <v>195000</v>
+        <v>217600</v>
       </c>
       <c r="F52" s="3">
-        <v>196200</v>
+        <v>191800</v>
       </c>
       <c r="G52" s="3">
-        <v>301400</v>
+        <v>192900</v>
       </c>
       <c r="H52" s="3">
-        <v>323000</v>
+        <v>296500</v>
       </c>
       <c r="I52" s="3">
-        <v>245200</v>
+        <v>317600</v>
       </c>
       <c r="J52" s="3">
+        <v>241200</v>
+      </c>
+      <c r="K52" s="3">
         <v>211700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>225100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>240600</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5004900</v>
+        <v>4857400</v>
       </c>
       <c r="E54" s="3">
-        <v>4666400</v>
+        <v>4922100</v>
       </c>
       <c r="F54" s="3">
-        <v>4439100</v>
+        <v>4589100</v>
       </c>
       <c r="G54" s="3">
-        <v>4530000</v>
+        <v>4365600</v>
       </c>
       <c r="H54" s="3">
-        <v>4339800</v>
+        <v>4455000</v>
       </c>
       <c r="I54" s="3">
-        <v>3603000</v>
+        <v>4268000</v>
       </c>
       <c r="J54" s="3">
+        <v>3543300</v>
+      </c>
+      <c r="K54" s="3">
         <v>2110100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1790800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1892200</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>850500</v>
+        <v>1064600</v>
       </c>
       <c r="E57" s="3">
-        <v>819400</v>
+        <v>836400</v>
       </c>
       <c r="F57" s="3">
-        <v>857700</v>
+        <v>805800</v>
       </c>
       <c r="G57" s="3">
-        <v>750000</v>
+        <v>843500</v>
       </c>
       <c r="H57" s="3">
-        <v>785900</v>
+        <v>737600</v>
       </c>
       <c r="I57" s="3">
-        <v>788300</v>
+        <v>772900</v>
       </c>
       <c r="J57" s="3">
+        <v>775200</v>
+      </c>
+      <c r="K57" s="3">
         <v>561000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>965100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>544600</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>240400</v>
+        <v>108200</v>
       </c>
       <c r="E58" s="3">
-        <v>68200</v>
+        <v>236500</v>
       </c>
       <c r="F58" s="3">
-        <v>126800</v>
+        <v>67100</v>
       </c>
       <c r="G58" s="3">
-        <v>128000</v>
+        <v>124700</v>
       </c>
       <c r="H58" s="3">
-        <v>202200</v>
+        <v>125900</v>
       </c>
       <c r="I58" s="3">
-        <v>56200</v>
+        <v>198800</v>
       </c>
       <c r="J58" s="3">
+        <v>55300</v>
+      </c>
+      <c r="K58" s="3">
         <v>26300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>19800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>85700</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>430600</v>
+        <v>104700</v>
       </c>
       <c r="E59" s="3">
-        <v>474900</v>
+        <v>423500</v>
       </c>
       <c r="F59" s="3">
-        <v>343300</v>
+        <v>467000</v>
       </c>
       <c r="G59" s="3">
-        <v>360100</v>
+        <v>337600</v>
       </c>
       <c r="H59" s="3">
-        <v>454600</v>
+        <v>354100</v>
       </c>
       <c r="I59" s="3">
-        <v>421100</v>
+        <v>447000</v>
       </c>
       <c r="J59" s="3">
+        <v>414100</v>
+      </c>
+      <c r="K59" s="3">
         <v>319400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>269000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>410800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1521600</v>
+        <v>1277600</v>
       </c>
       <c r="E60" s="3">
-        <v>1362500</v>
+        <v>1496400</v>
       </c>
       <c r="F60" s="3">
-        <v>1327800</v>
+        <v>1339900</v>
       </c>
       <c r="G60" s="3">
-        <v>1238100</v>
+        <v>1305800</v>
       </c>
       <c r="H60" s="3">
-        <v>1442600</v>
+        <v>1217600</v>
       </c>
       <c r="I60" s="3">
-        <v>1265600</v>
+        <v>1418700</v>
       </c>
       <c r="J60" s="3">
+        <v>1244600</v>
+      </c>
+      <c r="K60" s="3">
         <v>906700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>818000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>987200</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2583800</v>
+        <v>2704500</v>
       </c>
       <c r="E61" s="3">
-        <v>2504800</v>
+        <v>2541000</v>
       </c>
       <c r="F61" s="3">
-        <v>2417500</v>
+        <v>2463400</v>
       </c>
       <c r="G61" s="3">
-        <v>2824200</v>
+        <v>2377500</v>
       </c>
       <c r="H61" s="3">
-        <v>2469000</v>
+        <v>2777500</v>
       </c>
       <c r="I61" s="3">
-        <v>1441400</v>
+        <v>2428100</v>
       </c>
       <c r="J61" s="3">
+        <v>1417600</v>
+      </c>
+      <c r="K61" s="3">
         <v>390000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>153700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>165500</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1001200</v>
+        <v>994100</v>
       </c>
       <c r="E62" s="3">
-        <v>935400</v>
+        <v>984600</v>
       </c>
       <c r="F62" s="3">
-        <v>1075400</v>
+        <v>919900</v>
       </c>
       <c r="G62" s="3">
-        <v>1149500</v>
+        <v>1057600</v>
       </c>
       <c r="H62" s="3">
-        <v>1074200</v>
+        <v>1130500</v>
       </c>
       <c r="I62" s="3">
-        <v>940200</v>
+        <v>1056400</v>
       </c>
       <c r="J62" s="3">
+        <v>924700</v>
+      </c>
+      <c r="K62" s="3">
         <v>770400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>859700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1172600</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5119700</v>
+        <v>4992600</v>
       </c>
       <c r="E66" s="3">
-        <v>4812300</v>
+        <v>5035000</v>
       </c>
       <c r="F66" s="3">
-        <v>4830300</v>
+        <v>4732700</v>
       </c>
       <c r="G66" s="3">
-        <v>5222600</v>
+        <v>4750300</v>
       </c>
       <c r="H66" s="3">
-        <v>4998900</v>
+        <v>5136200</v>
       </c>
       <c r="I66" s="3">
-        <v>3654400</v>
+        <v>4916200</v>
       </c>
       <c r="J66" s="3">
+        <v>3593900</v>
+      </c>
+      <c r="K66" s="3">
         <v>2071800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1835900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2027200</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-613700</v>
+        <v>-632900</v>
       </c>
       <c r="E72" s="3">
-        <v>-645900</v>
+        <v>-603500</v>
       </c>
       <c r="F72" s="3">
-        <v>-904300</v>
+        <v>-635300</v>
       </c>
       <c r="G72" s="3">
-        <v>-881600</v>
+        <v>-889400</v>
       </c>
       <c r="H72" s="3">
-        <v>-862500</v>
+        <v>-867000</v>
       </c>
       <c r="I72" s="3">
-        <v>-221300</v>
+        <v>-848200</v>
       </c>
       <c r="J72" s="3">
+        <v>-217600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-141200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-289900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-233600</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-114800</v>
+        <v>-135300</v>
       </c>
       <c r="E76" s="3">
-        <v>-145900</v>
+        <v>-112900</v>
       </c>
       <c r="F76" s="3">
-        <v>-391200</v>
+        <v>-143500</v>
       </c>
       <c r="G76" s="3">
-        <v>-692600</v>
+        <v>-384700</v>
       </c>
       <c r="H76" s="3">
-        <v>-659100</v>
+        <v>-681100</v>
       </c>
       <c r="I76" s="3">
-        <v>-51400</v>
+        <v>-648200</v>
       </c>
       <c r="J76" s="3">
+        <v>-50600</v>
+      </c>
+      <c r="K76" s="3">
         <v>38300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-45000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-135000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>70600</v>
+        <v>-24700</v>
       </c>
       <c r="E81" s="3">
-        <v>224900</v>
+        <v>69400</v>
       </c>
       <c r="F81" s="3">
-        <v>-37100</v>
+        <v>221200</v>
       </c>
       <c r="G81" s="3">
-        <v>-4800</v>
+        <v>-36500</v>
       </c>
       <c r="H81" s="3">
-        <v>-662700</v>
+        <v>-4700</v>
       </c>
       <c r="I81" s="3">
-        <v>61000</v>
+        <v>-651700</v>
       </c>
       <c r="J81" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K81" s="3">
         <v>117200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>152600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-210100</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>306200</v>
+        <v>304700</v>
       </c>
       <c r="E83" s="3">
-        <v>235700</v>
+        <v>301200</v>
       </c>
       <c r="F83" s="3">
-        <v>204600</v>
+        <v>231800</v>
       </c>
       <c r="G83" s="3">
-        <v>185400</v>
+        <v>201200</v>
       </c>
       <c r="H83" s="3">
-        <v>167500</v>
+        <v>182300</v>
       </c>
       <c r="I83" s="3">
-        <v>58600</v>
+        <v>164700</v>
       </c>
       <c r="J83" s="3">
+        <v>57600</v>
+      </c>
+      <c r="K83" s="3">
         <v>38300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2300</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>534700</v>
+        <v>392900</v>
       </c>
       <c r="E89" s="3">
-        <v>78900</v>
+        <v>525900</v>
       </c>
       <c r="F89" s="3">
-        <v>191400</v>
+        <v>77600</v>
       </c>
       <c r="G89" s="3">
-        <v>105300</v>
+        <v>188200</v>
       </c>
       <c r="H89" s="3">
-        <v>611300</v>
+        <v>103500</v>
       </c>
       <c r="I89" s="3">
-        <v>253600</v>
+        <v>601100</v>
       </c>
       <c r="J89" s="3">
+        <v>249400</v>
+      </c>
+      <c r="K89" s="3">
         <v>220100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>270100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-34000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-324200</v>
+        <v>-214100</v>
       </c>
       <c r="E91" s="3">
-        <v>-331300</v>
+        <v>-318800</v>
       </c>
       <c r="F91" s="3">
-        <v>-330200</v>
+        <v>-325900</v>
       </c>
       <c r="G91" s="3">
-        <v>-424700</v>
+        <v>-324700</v>
       </c>
       <c r="H91" s="3">
-        <v>-418700</v>
+        <v>-417600</v>
       </c>
       <c r="I91" s="3">
-        <v>-238000</v>
+        <v>-411700</v>
       </c>
       <c r="J91" s="3">
+        <v>-234100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-172300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-138300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-113900</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-422300</v>
+        <v>-207000</v>
       </c>
       <c r="E94" s="3">
-        <v>-108900</v>
+        <v>-415300</v>
       </c>
       <c r="F94" s="3">
-        <v>-349300</v>
+        <v>-107100</v>
       </c>
       <c r="G94" s="3">
-        <v>-436600</v>
+        <v>-343500</v>
       </c>
       <c r="H94" s="3">
-        <v>-863700</v>
+        <v>-429400</v>
       </c>
       <c r="I94" s="3">
-        <v>-258400</v>
+        <v>-849400</v>
       </c>
       <c r="J94" s="3">
+        <v>-254100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-157900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-143800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-81000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3316,17 +3549,20 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-175800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-90900</v>
+        <v>118800</v>
       </c>
       <c r="E100" s="3">
-        <v>-98100</v>
+        <v>-89400</v>
       </c>
       <c r="F100" s="3">
-        <v>73000</v>
+        <v>-96500</v>
       </c>
       <c r="G100" s="3">
-        <v>173400</v>
+        <v>71800</v>
       </c>
       <c r="H100" s="3">
-        <v>-368400</v>
+        <v>170600</v>
       </c>
       <c r="I100" s="3">
-        <v>900700</v>
+        <v>-362300</v>
       </c>
       <c r="J100" s="3">
+        <v>885800</v>
+      </c>
+      <c r="K100" s="3">
         <v>51400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-94400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>235900</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2400</v>
+        <v>-4700</v>
       </c>
       <c r="E101" s="3">
         <v>2400</v>
       </c>
       <c r="F101" s="3">
-        <v>-8400</v>
+        <v>2400</v>
       </c>
       <c r="G101" s="3">
-        <v>3600</v>
+        <v>-8200</v>
       </c>
       <c r="H101" s="3">
-        <v>4800</v>
+        <v>3500</v>
       </c>
       <c r="I101" s="3">
-        <v>7200</v>
+        <v>4700</v>
       </c>
       <c r="J101" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>11700</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>23900</v>
+        <v>300000</v>
       </c>
       <c r="E102" s="3">
-        <v>-125600</v>
+        <v>23500</v>
       </c>
       <c r="F102" s="3">
-        <v>-93300</v>
+        <v>-123500</v>
       </c>
       <c r="G102" s="3">
-        <v>-154300</v>
+        <v>-91800</v>
       </c>
       <c r="H102" s="3">
-        <v>-616000</v>
+        <v>-151800</v>
       </c>
       <c r="I102" s="3">
-        <v>903100</v>
+        <v>-605800</v>
       </c>
       <c r="J102" s="3">
+        <v>888200</v>
+      </c>
+      <c r="K102" s="3">
         <v>112400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>31800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>132600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5744400</v>
+        <v>5981600</v>
       </c>
       <c r="E8" s="3">
-        <v>6949000</v>
+        <v>7236000</v>
       </c>
       <c r="F8" s="3">
-        <v>6689000</v>
+        <v>6965300</v>
       </c>
       <c r="G8" s="3">
-        <v>6160800</v>
+        <v>6415300</v>
       </c>
       <c r="H8" s="3">
-        <v>5579700</v>
+        <v>5810100</v>
       </c>
       <c r="I8" s="3">
-        <v>6062000</v>
+        <v>6312400</v>
       </c>
       <c r="J8" s="3">
-        <v>4312700</v>
+        <v>4490800</v>
       </c>
       <c r="K8" s="3">
         <v>4180700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5167900</v>
+        <v>5381400</v>
       </c>
       <c r="E9" s="3">
-        <v>6240800</v>
+        <v>6498600</v>
       </c>
       <c r="F9" s="3">
-        <v>6056100</v>
+        <v>6306200</v>
       </c>
       <c r="G9" s="3">
-        <v>5526700</v>
+        <v>5755000</v>
       </c>
       <c r="H9" s="3">
-        <v>4972600</v>
+        <v>5178000</v>
       </c>
       <c r="I9" s="3">
-        <v>5532600</v>
+        <v>5761100</v>
       </c>
       <c r="J9" s="3">
-        <v>3744500</v>
+        <v>3899100</v>
       </c>
       <c r="K9" s="3">
         <v>3617300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>576400</v>
+        <v>600200</v>
       </c>
       <c r="E10" s="3">
-        <v>708200</v>
+        <v>737400</v>
       </c>
       <c r="F10" s="3">
-        <v>632900</v>
+        <v>659000</v>
       </c>
       <c r="G10" s="3">
-        <v>634100</v>
+        <v>660300</v>
       </c>
       <c r="H10" s="3">
-        <v>607000</v>
+        <v>632100</v>
       </c>
       <c r="I10" s="3">
-        <v>529400</v>
+        <v>551200</v>
       </c>
       <c r="J10" s="3">
-        <v>568200</v>
+        <v>591700</v>
       </c>
       <c r="K10" s="3">
         <v>563400</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>45900</v>
+        <v>41600</v>
       </c>
       <c r="E12" s="3">
-        <v>49400</v>
+        <v>51400</v>
       </c>
       <c r="F12" s="3">
-        <v>42400</v>
+        <v>44100</v>
       </c>
       <c r="G12" s="3">
-        <v>38800</v>
+        <v>40400</v>
       </c>
       <c r="H12" s="3">
-        <v>37600</v>
+        <v>39200</v>
       </c>
       <c r="I12" s="3">
-        <v>41200</v>
+        <v>42900</v>
       </c>
       <c r="J12" s="3">
-        <v>44700</v>
+        <v>46500</v>
       </c>
       <c r="K12" s="3">
         <v>43100</v>
@@ -915,26 +915,26 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
+      <c r="D14" s="3">
+        <v>78400</v>
       </c>
       <c r="E14" s="3">
-        <v>4700</v>
+        <v>3700</v>
       </c>
       <c r="F14" s="3">
-        <v>1200</v>
+        <v>-42900</v>
       </c>
       <c r="G14" s="3">
-        <v>111800</v>
+        <v>91900</v>
       </c>
       <c r="H14" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="I14" s="3">
-        <v>552900</v>
+        <v>575700</v>
       </c>
       <c r="J14" s="3">
-        <v>54100</v>
+        <v>49000</v>
       </c>
       <c r="K14" s="3">
         <v>9600</v>
@@ -951,26 +951,26 @@
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
+      <c r="D15" s="3">
+        <v>23300</v>
       </c>
       <c r="E15" s="3">
-        <v>22400</v>
+        <v>23300</v>
       </c>
       <c r="F15" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="G15" s="3">
-        <v>12900</v>
+        <v>13500</v>
       </c>
       <c r="H15" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="I15" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="J15" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="K15" s="3">
         <v>3600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5597300</v>
+        <v>5828500</v>
       </c>
       <c r="E17" s="3">
-        <v>6649000</v>
+        <v>6923600</v>
       </c>
       <c r="F17" s="3">
-        <v>6213700</v>
+        <v>6470400</v>
       </c>
       <c r="G17" s="3">
-        <v>5890200</v>
+        <v>6133500</v>
       </c>
       <c r="H17" s="3">
-        <v>5290300</v>
+        <v>5508800</v>
       </c>
       <c r="I17" s="3">
-        <v>6563100</v>
+        <v>6834200</v>
       </c>
       <c r="J17" s="3">
-        <v>4136200</v>
+        <v>4307100</v>
       </c>
       <c r="K17" s="3">
         <v>3930700</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>147100</v>
+        <v>153100</v>
       </c>
       <c r="E18" s="3">
-        <v>300000</v>
+        <v>312400</v>
       </c>
       <c r="F18" s="3">
-        <v>475300</v>
+        <v>494900</v>
       </c>
       <c r="G18" s="3">
-        <v>270600</v>
+        <v>281700</v>
       </c>
       <c r="H18" s="3">
-        <v>289400</v>
+        <v>301300</v>
       </c>
       <c r="I18" s="3">
-        <v>-501100</v>
+        <v>-521800</v>
       </c>
       <c r="J18" s="3">
-        <v>176500</v>
+        <v>183700</v>
       </c>
       <c r="K18" s="3">
         <v>250000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-187000</v>
+        <v>-19600</v>
       </c>
       <c r="E20" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="F20" s="3">
-        <v>-41200</v>
+        <v>-42900</v>
       </c>
       <c r="G20" s="3">
-        <v>-11800</v>
+        <v>-12200</v>
       </c>
       <c r="H20" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="I20" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="J20" s="3">
-        <v>-15300</v>
+        <v>-15900</v>
       </c>
       <c r="K20" s="3">
         <v>-87300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>265900</v>
+        <v>449900</v>
       </c>
       <c r="E21" s="3">
-        <v>597700</v>
+        <v>620200</v>
       </c>
       <c r="F21" s="3">
-        <v>666800</v>
+        <v>692700</v>
       </c>
       <c r="G21" s="3">
-        <v>460800</v>
+        <v>478400</v>
       </c>
       <c r="H21" s="3">
-        <v>476000</v>
+        <v>494400</v>
       </c>
       <c r="I21" s="3">
-        <v>-326400</v>
+        <v>-341000</v>
       </c>
       <c r="J21" s="3">
-        <v>219000</v>
+        <v>227700</v>
       </c>
       <c r="K21" s="3">
         <v>200800</v>
@@ -1160,26 +1160,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>11</v>
+      <c r="D22" s="3">
+        <v>175200</v>
       </c>
       <c r="E22" s="3">
-        <v>198800</v>
+        <v>207000</v>
       </c>
       <c r="F22" s="3">
-        <v>172900</v>
+        <v>180100</v>
       </c>
       <c r="G22" s="3">
-        <v>201200</v>
+        <v>209500</v>
       </c>
       <c r="H22" s="3">
-        <v>216500</v>
+        <v>225400</v>
       </c>
       <c r="I22" s="3">
-        <v>195300</v>
+        <v>203300</v>
       </c>
       <c r="J22" s="3">
-        <v>54100</v>
+        <v>56300</v>
       </c>
       <c r="K22" s="3">
         <v>1200</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-40000</v>
+        <v>-41600</v>
       </c>
       <c r="E23" s="3">
-        <v>96500</v>
+        <v>100400</v>
       </c>
       <c r="F23" s="3">
-        <v>261200</v>
+        <v>271900</v>
       </c>
       <c r="G23" s="3">
-        <v>57600</v>
+        <v>60000</v>
       </c>
       <c r="H23" s="3">
-        <v>76500</v>
+        <v>79600</v>
       </c>
       <c r="I23" s="3">
-        <v>-687000</v>
+        <v>-715400</v>
       </c>
       <c r="J23" s="3">
-        <v>107100</v>
+        <v>111500</v>
       </c>
       <c r="K23" s="3">
         <v>161500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-20000</v>
+        <v>-20800</v>
       </c>
       <c r="E24" s="3">
-        <v>21200</v>
+        <v>22000</v>
       </c>
       <c r="F24" s="3">
-        <v>37600</v>
+        <v>39200</v>
       </c>
       <c r="G24" s="3">
-        <v>112900</v>
+        <v>117600</v>
       </c>
       <c r="H24" s="3">
-        <v>81200</v>
+        <v>84500</v>
       </c>
       <c r="I24" s="3">
-        <v>-37600</v>
+        <v>-39200</v>
       </c>
       <c r="J24" s="3">
-        <v>43500</v>
+        <v>45300</v>
       </c>
       <c r="K24" s="3">
         <v>46700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-20000</v>
+        <v>-20800</v>
       </c>
       <c r="E26" s="3">
-        <v>75300</v>
+        <v>78400</v>
       </c>
       <c r="F26" s="3">
-        <v>223500</v>
+        <v>232700</v>
       </c>
       <c r="G26" s="3">
-        <v>-55300</v>
+        <v>-57600</v>
       </c>
       <c r="H26" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="I26" s="3">
-        <v>-649400</v>
+        <v>-676200</v>
       </c>
       <c r="J26" s="3">
-        <v>63500</v>
+        <v>66100</v>
       </c>
       <c r="K26" s="3">
         <v>114800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-24700</v>
+        <v>-25700</v>
       </c>
       <c r="E27" s="3">
-        <v>69400</v>
+        <v>72300</v>
       </c>
       <c r="F27" s="3">
-        <v>221200</v>
+        <v>230300</v>
       </c>
       <c r="G27" s="3">
-        <v>-55300</v>
+        <v>-57600</v>
       </c>
       <c r="H27" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="I27" s="3">
-        <v>-651700</v>
+        <v>-678600</v>
       </c>
       <c r="J27" s="3">
-        <v>60000</v>
+        <v>62500</v>
       </c>
       <c r="K27" s="3">
         <v>112400</v>
@@ -1422,7 +1422,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="3">
-        <v>18800</v>
+        <v>19600</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>11</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>187000</v>
+        <v>19600</v>
       </c>
       <c r="E32" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="F32" s="3">
-        <v>41200</v>
+        <v>42900</v>
       </c>
       <c r="G32" s="3">
-        <v>11800</v>
+        <v>12200</v>
       </c>
       <c r="H32" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="I32" s="3">
-        <v>-9400</v>
+        <v>-9800</v>
       </c>
       <c r="J32" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="K32" s="3">
         <v>87300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-24700</v>
+        <v>-25700</v>
       </c>
       <c r="E33" s="3">
-        <v>69400</v>
+        <v>72300</v>
       </c>
       <c r="F33" s="3">
-        <v>221200</v>
+        <v>230300</v>
       </c>
       <c r="G33" s="3">
-        <v>-36500</v>
+        <v>-38000</v>
       </c>
       <c r="H33" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="I33" s="3">
-        <v>-651700</v>
+        <v>-678600</v>
       </c>
       <c r="J33" s="3">
-        <v>60000</v>
+        <v>62500</v>
       </c>
       <c r="K33" s="3">
         <v>117200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-24700</v>
+        <v>-25700</v>
       </c>
       <c r="E35" s="3">
-        <v>69400</v>
+        <v>72300</v>
       </c>
       <c r="F35" s="3">
-        <v>221200</v>
+        <v>230300</v>
       </c>
       <c r="G35" s="3">
-        <v>-36500</v>
+        <v>-38000</v>
       </c>
       <c r="H35" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="I35" s="3">
-        <v>-651700</v>
+        <v>-678600</v>
       </c>
       <c r="J35" s="3">
-        <v>60000</v>
+        <v>62500</v>
       </c>
       <c r="K35" s="3">
         <v>117200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>516400</v>
+        <v>537800</v>
       </c>
       <c r="E41" s="3">
-        <v>216500</v>
+        <v>225400</v>
       </c>
       <c r="F41" s="3">
-        <v>192900</v>
+        <v>200900</v>
       </c>
       <c r="G41" s="3">
-        <v>316500</v>
+        <v>329500</v>
       </c>
       <c r="H41" s="3">
-        <v>408200</v>
+        <v>425100</v>
       </c>
       <c r="I41" s="3">
-        <v>555300</v>
+        <v>578200</v>
       </c>
       <c r="J41" s="3">
-        <v>197600</v>
+        <v>205800</v>
       </c>
       <c r="K41" s="3">
         <v>277500</v>
@@ -1773,26 +1773,26 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>45900</v>
-      </c>
-      <c r="E42" s="3">
-        <v>25900</v>
-      </c>
-      <c r="F42" s="3">
-        <v>35300</v>
-      </c>
-      <c r="G42" s="3">
-        <v>81200</v>
-      </c>
-      <c r="H42" s="3">
-        <v>137600</v>
+      <c r="D42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="I42" s="3">
-        <v>82300</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>1032900</v>
+        <v>1005700</v>
       </c>
       <c r="K42" s="3">
         <v>31100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>477600</v>
+        <v>490000</v>
       </c>
       <c r="E43" s="3">
-        <v>548200</v>
+        <v>570800</v>
       </c>
       <c r="F43" s="3">
-        <v>676400</v>
+        <v>704400</v>
       </c>
       <c r="G43" s="3">
-        <v>483500</v>
+        <v>503500</v>
       </c>
       <c r="H43" s="3">
-        <v>407000</v>
+        <v>423800</v>
       </c>
       <c r="I43" s="3">
-        <v>427000</v>
+        <v>444700</v>
       </c>
       <c r="J43" s="3">
-        <v>664700</v>
+        <v>692100</v>
       </c>
       <c r="K43" s="3">
         <v>574200</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>684700</v>
+        <v>712900</v>
       </c>
       <c r="E44" s="3">
-        <v>788200</v>
+        <v>820700</v>
       </c>
       <c r="F44" s="3">
-        <v>776400</v>
+        <v>808500</v>
       </c>
       <c r="G44" s="3">
-        <v>756400</v>
+        <v>787700</v>
       </c>
       <c r="H44" s="3">
-        <v>695300</v>
+        <v>724000</v>
       </c>
       <c r="I44" s="3">
-        <v>637600</v>
+        <v>663900</v>
       </c>
       <c r="J44" s="3">
-        <v>508200</v>
+        <v>529200</v>
       </c>
       <c r="K44" s="3">
         <v>392400</v>
@@ -1881,26 +1881,26 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>11</v>
+      <c r="D45" s="3">
+        <v>55100</v>
       </c>
       <c r="E45" s="3">
-        <v>9400</v>
+        <v>36700</v>
       </c>
       <c r="F45" s="3">
-        <v>14100</v>
+        <v>51400</v>
       </c>
       <c r="G45" s="3">
-        <v>9400</v>
+        <v>94300</v>
       </c>
       <c r="H45" s="3">
-        <v>10600</v>
+        <v>154300</v>
       </c>
       <c r="I45" s="3">
-        <v>17600</v>
+        <v>104100</v>
       </c>
       <c r="J45" s="3">
-        <v>20000</v>
+        <v>90600</v>
       </c>
       <c r="K45" s="3">
         <v>28700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1724600</v>
+        <v>1795800</v>
       </c>
       <c r="E46" s="3">
-        <v>1588100</v>
+        <v>1653700</v>
       </c>
       <c r="F46" s="3">
-        <v>1695200</v>
+        <v>1765200</v>
       </c>
       <c r="G46" s="3">
-        <v>1647000</v>
+        <v>1715000</v>
       </c>
       <c r="H46" s="3">
-        <v>1658700</v>
+        <v>1727200</v>
       </c>
       <c r="I46" s="3">
-        <v>1719900</v>
+        <v>1790900</v>
       </c>
       <c r="J46" s="3">
-        <v>2423400</v>
+        <v>2523500</v>
       </c>
       <c r="K46" s="3">
         <v>1303900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>101200</v>
+        <v>83300</v>
       </c>
       <c r="E47" s="3">
-        <v>80000</v>
+        <v>74700</v>
       </c>
       <c r="F47" s="3">
-        <v>163500</v>
+        <v>79600</v>
       </c>
       <c r="G47" s="3">
-        <v>187000</v>
+        <v>60000</v>
       </c>
       <c r="H47" s="3">
-        <v>131800</v>
+        <v>77200</v>
       </c>
       <c r="I47" s="3">
-        <v>141200</v>
+        <v>101700</v>
       </c>
       <c r="J47" s="3">
-        <v>102300</v>
+        <v>66100</v>
       </c>
       <c r="K47" s="3">
         <v>81300</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2242200</v>
+        <v>2334800</v>
       </c>
       <c r="E48" s="3">
-        <v>2418700</v>
+        <v>2518600</v>
       </c>
       <c r="F48" s="3">
-        <v>1959900</v>
+        <v>2040800</v>
       </c>
       <c r="G48" s="3">
-        <v>1784600</v>
+        <v>1858300</v>
       </c>
       <c r="H48" s="3">
-        <v>1737500</v>
+        <v>1809300</v>
       </c>
       <c r="I48" s="3">
-        <v>1476400</v>
+        <v>1537400</v>
       </c>
       <c r="J48" s="3">
-        <v>743500</v>
+        <v>774200</v>
       </c>
       <c r="K48" s="3">
         <v>488000</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>562300</v>
+        <v>585500</v>
       </c>
       <c r="E49" s="3">
-        <v>617600</v>
+        <v>643100</v>
       </c>
       <c r="F49" s="3">
-        <v>578800</v>
+        <v>602700</v>
       </c>
       <c r="G49" s="3">
-        <v>554100</v>
+        <v>577000</v>
       </c>
       <c r="H49" s="3">
-        <v>630600</v>
+        <v>656600</v>
       </c>
       <c r="I49" s="3">
-        <v>612900</v>
+        <v>638200</v>
       </c>
       <c r="J49" s="3">
-        <v>32900</v>
+        <v>34300</v>
       </c>
       <c r="K49" s="3">
         <v>25100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>227000</v>
+        <v>258500</v>
       </c>
       <c r="E52" s="3">
-        <v>217600</v>
+        <v>235200</v>
       </c>
       <c r="F52" s="3">
-        <v>191800</v>
+        <v>290300</v>
       </c>
       <c r="G52" s="3">
-        <v>192900</v>
+        <v>335600</v>
       </c>
       <c r="H52" s="3">
-        <v>296500</v>
+        <v>368700</v>
       </c>
       <c r="I52" s="3">
-        <v>317600</v>
+        <v>376100</v>
       </c>
       <c r="J52" s="3">
-        <v>241200</v>
+        <v>291500</v>
       </c>
       <c r="K52" s="3">
         <v>211700</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4857400</v>
+        <v>5058000</v>
       </c>
       <c r="E54" s="3">
-        <v>4922100</v>
+        <v>5125400</v>
       </c>
       <c r="F54" s="3">
-        <v>4589100</v>
+        <v>4778700</v>
       </c>
       <c r="G54" s="3">
-        <v>4365600</v>
+        <v>4545900</v>
       </c>
       <c r="H54" s="3">
-        <v>4455000</v>
+        <v>4639000</v>
       </c>
       <c r="I54" s="3">
-        <v>4268000</v>
+        <v>4444300</v>
       </c>
       <c r="J54" s="3">
-        <v>3543300</v>
+        <v>3689700</v>
       </c>
       <c r="K54" s="3">
         <v>2110100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1064600</v>
+        <v>766800</v>
       </c>
       <c r="E57" s="3">
-        <v>836400</v>
+        <v>871000</v>
       </c>
       <c r="F57" s="3">
-        <v>805800</v>
+        <v>839100</v>
       </c>
       <c r="G57" s="3">
-        <v>843500</v>
+        <v>878300</v>
       </c>
       <c r="H57" s="3">
-        <v>737600</v>
+        <v>768100</v>
       </c>
       <c r="I57" s="3">
-        <v>772900</v>
+        <v>804800</v>
       </c>
       <c r="J57" s="3">
-        <v>775200</v>
+        <v>807300</v>
       </c>
       <c r="K57" s="3">
         <v>561000</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>108200</v>
+        <v>112700</v>
       </c>
       <c r="E58" s="3">
-        <v>236500</v>
+        <v>246200</v>
       </c>
       <c r="F58" s="3">
-        <v>67100</v>
+        <v>69800</v>
       </c>
       <c r="G58" s="3">
-        <v>124700</v>
+        <v>129800</v>
       </c>
       <c r="H58" s="3">
-        <v>125900</v>
+        <v>131100</v>
       </c>
       <c r="I58" s="3">
-        <v>198800</v>
+        <v>207000</v>
       </c>
       <c r="J58" s="3">
-        <v>55300</v>
+        <v>57600</v>
       </c>
       <c r="K58" s="3">
         <v>26300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>104700</v>
+        <v>450800</v>
       </c>
       <c r="E59" s="3">
-        <v>423500</v>
+        <v>441000</v>
       </c>
       <c r="F59" s="3">
-        <v>467000</v>
+        <v>486300</v>
       </c>
       <c r="G59" s="3">
-        <v>337600</v>
+        <v>351600</v>
       </c>
       <c r="H59" s="3">
-        <v>354100</v>
+        <v>368700</v>
       </c>
       <c r="I59" s="3">
-        <v>447000</v>
+        <v>465500</v>
       </c>
       <c r="J59" s="3">
-        <v>414100</v>
+        <v>431200</v>
       </c>
       <c r="K59" s="3">
         <v>319400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1277600</v>
+        <v>1330300</v>
       </c>
       <c r="E60" s="3">
-        <v>1496400</v>
+        <v>1558200</v>
       </c>
       <c r="F60" s="3">
-        <v>1339900</v>
+        <v>1395300</v>
       </c>
       <c r="G60" s="3">
-        <v>1305800</v>
+        <v>1359700</v>
       </c>
       <c r="H60" s="3">
-        <v>1217600</v>
+        <v>1267900</v>
       </c>
       <c r="I60" s="3">
-        <v>1418700</v>
+        <v>1477300</v>
       </c>
       <c r="J60" s="3">
-        <v>1244600</v>
+        <v>1296000</v>
       </c>
       <c r="K60" s="3">
         <v>906700</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2704500</v>
+        <v>2816300</v>
       </c>
       <c r="E61" s="3">
-        <v>2541000</v>
+        <v>2646000</v>
       </c>
       <c r="F61" s="3">
-        <v>2463400</v>
+        <v>2565100</v>
       </c>
       <c r="G61" s="3">
-        <v>2377500</v>
+        <v>2475700</v>
       </c>
       <c r="H61" s="3">
-        <v>2777500</v>
+        <v>2892200</v>
       </c>
       <c r="I61" s="3">
-        <v>2428100</v>
+        <v>2528400</v>
       </c>
       <c r="J61" s="3">
-        <v>1417600</v>
+        <v>1476100</v>
       </c>
       <c r="K61" s="3">
         <v>390000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>994100</v>
+        <v>1035100</v>
       </c>
       <c r="E62" s="3">
-        <v>984600</v>
+        <v>1025300</v>
       </c>
       <c r="F62" s="3">
-        <v>919900</v>
+        <v>957900</v>
       </c>
       <c r="G62" s="3">
-        <v>1057600</v>
+        <v>1101300</v>
       </c>
       <c r="H62" s="3">
-        <v>1130500</v>
+        <v>1177200</v>
       </c>
       <c r="I62" s="3">
-        <v>1056400</v>
+        <v>1100000</v>
       </c>
       <c r="J62" s="3">
-        <v>924700</v>
+        <v>962800</v>
       </c>
       <c r="K62" s="3">
         <v>770400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4992600</v>
+        <v>5198900</v>
       </c>
       <c r="E66" s="3">
-        <v>5035000</v>
+        <v>5243000</v>
       </c>
       <c r="F66" s="3">
-        <v>4732700</v>
+        <v>4928100</v>
       </c>
       <c r="G66" s="3">
-        <v>4750300</v>
+        <v>4946500</v>
       </c>
       <c r="H66" s="3">
-        <v>5136200</v>
+        <v>5348300</v>
       </c>
       <c r="I66" s="3">
-        <v>4916200</v>
+        <v>5119200</v>
       </c>
       <c r="J66" s="3">
-        <v>3593900</v>
+        <v>3742300</v>
       </c>
       <c r="K66" s="3">
         <v>2071800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-632900</v>
+        <v>-654100</v>
       </c>
       <c r="E72" s="3">
-        <v>-603500</v>
+        <v>-628400</v>
       </c>
       <c r="F72" s="3">
-        <v>-635300</v>
+        <v>-661500</v>
       </c>
       <c r="G72" s="3">
-        <v>-889400</v>
+        <v>-926100</v>
       </c>
       <c r="H72" s="3">
-        <v>-867000</v>
+        <v>-902800</v>
       </c>
       <c r="I72" s="3">
-        <v>-848200</v>
+        <v>-883200</v>
       </c>
       <c r="J72" s="3">
-        <v>-217600</v>
+        <v>-226600</v>
       </c>
       <c r="K72" s="3">
         <v>-141200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-135300</v>
+        <v>-140900</v>
       </c>
       <c r="E76" s="3">
-        <v>-112900</v>
+        <v>-117600</v>
       </c>
       <c r="F76" s="3">
-        <v>-143500</v>
+        <v>-149400</v>
       </c>
       <c r="G76" s="3">
-        <v>-384700</v>
+        <v>-400600</v>
       </c>
       <c r="H76" s="3">
-        <v>-681100</v>
+        <v>-709300</v>
       </c>
       <c r="I76" s="3">
-        <v>-648200</v>
+        <v>-675000</v>
       </c>
       <c r="J76" s="3">
-        <v>-50600</v>
+        <v>-52700</v>
       </c>
       <c r="K76" s="3">
         <v>38300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-24700</v>
+        <v>-25700</v>
       </c>
       <c r="E81" s="3">
-        <v>69400</v>
+        <v>72300</v>
       </c>
       <c r="F81" s="3">
-        <v>221200</v>
+        <v>230300</v>
       </c>
       <c r="G81" s="3">
-        <v>-36500</v>
+        <v>-38000</v>
       </c>
       <c r="H81" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="I81" s="3">
-        <v>-651700</v>
+        <v>-678600</v>
       </c>
       <c r="J81" s="3">
-        <v>60000</v>
+        <v>62500</v>
       </c>
       <c r="K81" s="3">
         <v>117200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>304700</v>
+        <v>317300</v>
       </c>
       <c r="E83" s="3">
-        <v>301200</v>
+        <v>313600</v>
       </c>
       <c r="F83" s="3">
-        <v>231800</v>
+        <v>241300</v>
       </c>
       <c r="G83" s="3">
-        <v>201200</v>
+        <v>209500</v>
       </c>
       <c r="H83" s="3">
-        <v>182300</v>
+        <v>189900</v>
       </c>
       <c r="I83" s="3">
-        <v>164700</v>
+        <v>171500</v>
       </c>
       <c r="J83" s="3">
-        <v>57600</v>
+        <v>60000</v>
       </c>
       <c r="K83" s="3">
         <v>38300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>392900</v>
+        <v>409100</v>
       </c>
       <c r="E89" s="3">
-        <v>525900</v>
+        <v>547600</v>
       </c>
       <c r="F89" s="3">
-        <v>77600</v>
+        <v>80800</v>
       </c>
       <c r="G89" s="3">
-        <v>188200</v>
+        <v>196000</v>
       </c>
       <c r="H89" s="3">
-        <v>103500</v>
+        <v>107800</v>
       </c>
       <c r="I89" s="3">
-        <v>601100</v>
+        <v>626000</v>
       </c>
       <c r="J89" s="3">
-        <v>249400</v>
+        <v>259700</v>
       </c>
       <c r="K89" s="3">
         <v>220100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-214100</v>
+        <v>-222900</v>
       </c>
       <c r="E91" s="3">
-        <v>-318800</v>
+        <v>-332000</v>
       </c>
       <c r="F91" s="3">
-        <v>-325900</v>
+        <v>-339300</v>
       </c>
       <c r="G91" s="3">
-        <v>-324700</v>
+        <v>-338100</v>
       </c>
       <c r="H91" s="3">
-        <v>-417600</v>
+        <v>-434900</v>
       </c>
       <c r="I91" s="3">
-        <v>-411700</v>
+        <v>-428700</v>
       </c>
       <c r="J91" s="3">
-        <v>-234100</v>
+        <v>-243800</v>
       </c>
       <c r="K91" s="3">
         <v>-172300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-207000</v>
+        <v>-215600</v>
       </c>
       <c r="E94" s="3">
-        <v>-415300</v>
+        <v>-432400</v>
       </c>
       <c r="F94" s="3">
-        <v>-107100</v>
+        <v>-111500</v>
       </c>
       <c r="G94" s="3">
-        <v>-343500</v>
+        <v>-357700</v>
       </c>
       <c r="H94" s="3">
-        <v>-429400</v>
+        <v>-447100</v>
       </c>
       <c r="I94" s="3">
-        <v>-849400</v>
+        <v>-884400</v>
       </c>
       <c r="J94" s="3">
-        <v>-254100</v>
+        <v>-264600</v>
       </c>
       <c r="K94" s="3">
         <v>-157900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>118800</v>
+        <v>123700</v>
       </c>
       <c r="E100" s="3">
-        <v>-89400</v>
+        <v>-93100</v>
       </c>
       <c r="F100" s="3">
-        <v>-96500</v>
+        <v>-100400</v>
       </c>
       <c r="G100" s="3">
-        <v>71800</v>
+        <v>74700</v>
       </c>
       <c r="H100" s="3">
-        <v>170600</v>
+        <v>177600</v>
       </c>
       <c r="I100" s="3">
-        <v>-362300</v>
+        <v>-377300</v>
       </c>
       <c r="J100" s="3">
-        <v>885800</v>
+        <v>922400</v>
       </c>
       <c r="K100" s="3">
         <v>51400</v>
@@ -3711,7 +3711,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="E101" s="3">
         <v>2400</v>
@@ -3720,16 +3720,16 @@
         <v>2400</v>
       </c>
       <c r="G101" s="3">
-        <v>-8200</v>
+        <v>-8600</v>
       </c>
       <c r="H101" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="I101" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="J101" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="K101" s="3">
         <v>-1200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>300000</v>
+        <v>312400</v>
       </c>
       <c r="E102" s="3">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="F102" s="3">
-        <v>-123500</v>
+        <v>-128600</v>
       </c>
       <c r="G102" s="3">
-        <v>-91800</v>
+        <v>-95500</v>
       </c>
       <c r="H102" s="3">
-        <v>-151800</v>
+        <v>-158000</v>
       </c>
       <c r="I102" s="3">
-        <v>-605800</v>
+        <v>-630900</v>
       </c>
       <c r="J102" s="3">
-        <v>888200</v>
+        <v>924900</v>
       </c>
       <c r="K102" s="3">
         <v>112400</v>

--- a/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5981600</v>
+        <v>5700500</v>
       </c>
       <c r="E8" s="3">
-        <v>7236000</v>
+        <v>6895900</v>
       </c>
       <c r="F8" s="3">
-        <v>6965300</v>
+        <v>6637900</v>
       </c>
       <c r="G8" s="3">
-        <v>6415300</v>
+        <v>6113700</v>
       </c>
       <c r="H8" s="3">
-        <v>5810100</v>
+        <v>5537000</v>
       </c>
       <c r="I8" s="3">
-        <v>6312400</v>
+        <v>6015700</v>
       </c>
       <c r="J8" s="3">
-        <v>4490800</v>
+        <v>4279700</v>
       </c>
       <c r="K8" s="3">
         <v>4180700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5381400</v>
+        <v>5128400</v>
       </c>
       <c r="E9" s="3">
-        <v>6498600</v>
+        <v>6193100</v>
       </c>
       <c r="F9" s="3">
-        <v>6306200</v>
+        <v>6009800</v>
       </c>
       <c r="G9" s="3">
-        <v>5755000</v>
+        <v>5484500</v>
       </c>
       <c r="H9" s="3">
-        <v>5178000</v>
+        <v>4934600</v>
       </c>
       <c r="I9" s="3">
-        <v>5761100</v>
+        <v>5490300</v>
       </c>
       <c r="J9" s="3">
-        <v>3899100</v>
+        <v>3715900</v>
       </c>
       <c r="K9" s="3">
         <v>3617300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>600200</v>
+        <v>572000</v>
       </c>
       <c r="E10" s="3">
-        <v>737400</v>
+        <v>702800</v>
       </c>
       <c r="F10" s="3">
-        <v>659000</v>
+        <v>628100</v>
       </c>
       <c r="G10" s="3">
-        <v>660300</v>
+        <v>629200</v>
       </c>
       <c r="H10" s="3">
-        <v>632100</v>
+        <v>602400</v>
       </c>
       <c r="I10" s="3">
-        <v>551200</v>
+        <v>525300</v>
       </c>
       <c r="J10" s="3">
-        <v>591700</v>
+        <v>563900</v>
       </c>
       <c r="K10" s="3">
         <v>563400</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>41600</v>
+        <v>39700</v>
       </c>
       <c r="E12" s="3">
-        <v>51400</v>
+        <v>49000</v>
       </c>
       <c r="F12" s="3">
-        <v>44100</v>
+        <v>42000</v>
       </c>
       <c r="G12" s="3">
-        <v>40400</v>
+        <v>38500</v>
       </c>
       <c r="H12" s="3">
-        <v>39200</v>
+        <v>37400</v>
       </c>
       <c r="I12" s="3">
-        <v>42900</v>
+        <v>40900</v>
       </c>
       <c r="J12" s="3">
-        <v>46500</v>
+        <v>44400</v>
       </c>
       <c r="K12" s="3">
         <v>43100</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>78400</v>
+        <v>74700</v>
       </c>
       <c r="E14" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="F14" s="3">
-        <v>-42900</v>
+        <v>-40900</v>
       </c>
       <c r="G14" s="3">
-        <v>91900</v>
+        <v>87600</v>
       </c>
       <c r="H14" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="I14" s="3">
-        <v>575700</v>
+        <v>548700</v>
       </c>
       <c r="J14" s="3">
-        <v>49000</v>
+        <v>46700</v>
       </c>
       <c r="K14" s="3">
         <v>9600</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>23300</v>
+        <v>22200</v>
       </c>
       <c r="E15" s="3">
-        <v>23300</v>
+        <v>22200</v>
       </c>
       <c r="F15" s="3">
-        <v>15900</v>
+        <v>15200</v>
       </c>
       <c r="G15" s="3">
-        <v>13500</v>
+        <v>12800</v>
       </c>
       <c r="H15" s="3">
-        <v>9800</v>
+        <v>9300</v>
       </c>
       <c r="I15" s="3">
-        <v>9800</v>
+        <v>9300</v>
       </c>
       <c r="J15" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="K15" s="3">
         <v>3600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5828500</v>
+        <v>5554500</v>
       </c>
       <c r="E17" s="3">
-        <v>6923600</v>
+        <v>6598200</v>
       </c>
       <c r="F17" s="3">
-        <v>6470400</v>
+        <v>6166300</v>
       </c>
       <c r="G17" s="3">
-        <v>6133500</v>
+        <v>5845200</v>
       </c>
       <c r="H17" s="3">
-        <v>5508800</v>
+        <v>5249800</v>
       </c>
       <c r="I17" s="3">
-        <v>6834200</v>
+        <v>6513000</v>
       </c>
       <c r="J17" s="3">
-        <v>4307100</v>
+        <v>4104600</v>
       </c>
       <c r="K17" s="3">
         <v>3930700</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>153100</v>
+        <v>145900</v>
       </c>
       <c r="E18" s="3">
-        <v>312400</v>
+        <v>297700</v>
       </c>
       <c r="F18" s="3">
-        <v>494900</v>
+        <v>471600</v>
       </c>
       <c r="G18" s="3">
-        <v>281700</v>
+        <v>268500</v>
       </c>
       <c r="H18" s="3">
-        <v>301300</v>
+        <v>287200</v>
       </c>
       <c r="I18" s="3">
-        <v>-521800</v>
+        <v>-497300</v>
       </c>
       <c r="J18" s="3">
-        <v>183700</v>
+        <v>175100</v>
       </c>
       <c r="K18" s="3">
         <v>250000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-19600</v>
+        <v>-18700</v>
       </c>
       <c r="E20" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="F20" s="3">
-        <v>-42900</v>
+        <v>-40900</v>
       </c>
       <c r="G20" s="3">
-        <v>-12200</v>
+        <v>-11700</v>
       </c>
       <c r="H20" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="I20" s="3">
-        <v>9800</v>
+        <v>9300</v>
       </c>
       <c r="J20" s="3">
-        <v>-15900</v>
+        <v>-15200</v>
       </c>
       <c r="K20" s="3">
         <v>-87300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>449900</v>
+        <v>430500</v>
       </c>
       <c r="E21" s="3">
-        <v>620200</v>
+        <v>592800</v>
       </c>
       <c r="F21" s="3">
-        <v>692700</v>
+        <v>661500</v>
       </c>
       <c r="G21" s="3">
-        <v>478400</v>
+        <v>457100</v>
       </c>
       <c r="H21" s="3">
-        <v>494400</v>
+        <v>472200</v>
       </c>
       <c r="I21" s="3">
-        <v>-341000</v>
+        <v>-324000</v>
       </c>
       <c r="J21" s="3">
-        <v>227700</v>
+        <v>217300</v>
       </c>
       <c r="K21" s="3">
         <v>200800</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>175200</v>
+        <v>166900</v>
       </c>
       <c r="E22" s="3">
-        <v>207000</v>
+        <v>197300</v>
       </c>
       <c r="F22" s="3">
-        <v>180100</v>
+        <v>171600</v>
       </c>
       <c r="G22" s="3">
-        <v>209500</v>
+        <v>199600</v>
       </c>
       <c r="H22" s="3">
-        <v>225400</v>
+        <v>214800</v>
       </c>
       <c r="I22" s="3">
-        <v>203300</v>
+        <v>193800</v>
       </c>
       <c r="J22" s="3">
-        <v>56300</v>
+        <v>53700</v>
       </c>
       <c r="K22" s="3">
         <v>1200</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-41600</v>
+        <v>-39700</v>
       </c>
       <c r="E23" s="3">
-        <v>100400</v>
+        <v>95700</v>
       </c>
       <c r="F23" s="3">
-        <v>271900</v>
+        <v>259200</v>
       </c>
       <c r="G23" s="3">
-        <v>60000</v>
+        <v>57200</v>
       </c>
       <c r="H23" s="3">
-        <v>79600</v>
+        <v>75900</v>
       </c>
       <c r="I23" s="3">
-        <v>-715400</v>
+        <v>-681800</v>
       </c>
       <c r="J23" s="3">
-        <v>111500</v>
+        <v>106200</v>
       </c>
       <c r="K23" s="3">
         <v>161500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-20800</v>
+        <v>-19800</v>
       </c>
       <c r="E24" s="3">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="F24" s="3">
-        <v>39200</v>
+        <v>37400</v>
       </c>
       <c r="G24" s="3">
-        <v>117600</v>
+        <v>112100</v>
       </c>
       <c r="H24" s="3">
-        <v>84500</v>
+        <v>80600</v>
       </c>
       <c r="I24" s="3">
-        <v>-39200</v>
+        <v>-37400</v>
       </c>
       <c r="J24" s="3">
-        <v>45300</v>
+        <v>43200</v>
       </c>
       <c r="K24" s="3">
         <v>46700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-20800</v>
+        <v>-19800</v>
       </c>
       <c r="E26" s="3">
-        <v>78400</v>
+        <v>74700</v>
       </c>
       <c r="F26" s="3">
-        <v>232700</v>
+        <v>221800</v>
       </c>
       <c r="G26" s="3">
-        <v>-57600</v>
+        <v>-54900</v>
       </c>
       <c r="H26" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="I26" s="3">
-        <v>-676200</v>
+        <v>-644400</v>
       </c>
       <c r="J26" s="3">
-        <v>66100</v>
+        <v>63000</v>
       </c>
       <c r="K26" s="3">
         <v>114800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-25700</v>
+        <v>-24500</v>
       </c>
       <c r="E27" s="3">
-        <v>72300</v>
+        <v>68900</v>
       </c>
       <c r="F27" s="3">
-        <v>230300</v>
+        <v>219500</v>
       </c>
       <c r="G27" s="3">
-        <v>-57600</v>
+        <v>-54900</v>
       </c>
       <c r="H27" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="I27" s="3">
-        <v>-678600</v>
+        <v>-646700</v>
       </c>
       <c r="J27" s="3">
-        <v>62500</v>
+        <v>59500</v>
       </c>
       <c r="K27" s="3">
         <v>112400</v>
@@ -1422,7 +1422,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="3">
-        <v>19600</v>
+        <v>18700</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>11</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>19600</v>
+        <v>18700</v>
       </c>
       <c r="E32" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="F32" s="3">
-        <v>42900</v>
+        <v>40900</v>
       </c>
       <c r="G32" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="H32" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="I32" s="3">
-        <v>-9800</v>
+        <v>-9300</v>
       </c>
       <c r="J32" s="3">
-        <v>15900</v>
+        <v>15200</v>
       </c>
       <c r="K32" s="3">
         <v>87300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-25700</v>
+        <v>-24500</v>
       </c>
       <c r="E33" s="3">
-        <v>72300</v>
+        <v>68900</v>
       </c>
       <c r="F33" s="3">
-        <v>230300</v>
+        <v>219500</v>
       </c>
       <c r="G33" s="3">
-        <v>-38000</v>
+        <v>-36200</v>
       </c>
       <c r="H33" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="I33" s="3">
-        <v>-678600</v>
+        <v>-646700</v>
       </c>
       <c r="J33" s="3">
-        <v>62500</v>
+        <v>59500</v>
       </c>
       <c r="K33" s="3">
         <v>117200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-25700</v>
+        <v>-24500</v>
       </c>
       <c r="E35" s="3">
-        <v>72300</v>
+        <v>68900</v>
       </c>
       <c r="F35" s="3">
-        <v>230300</v>
+        <v>219500</v>
       </c>
       <c r="G35" s="3">
-        <v>-38000</v>
+        <v>-36200</v>
       </c>
       <c r="H35" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="I35" s="3">
-        <v>-678600</v>
+        <v>-646700</v>
       </c>
       <c r="J35" s="3">
-        <v>62500</v>
+        <v>59500</v>
       </c>
       <c r="K35" s="3">
         <v>117200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>537800</v>
+        <v>512500</v>
       </c>
       <c r="E41" s="3">
-        <v>225400</v>
+        <v>214800</v>
       </c>
       <c r="F41" s="3">
-        <v>200900</v>
+        <v>191500</v>
       </c>
       <c r="G41" s="3">
-        <v>329500</v>
+        <v>314000</v>
       </c>
       <c r="H41" s="3">
-        <v>425100</v>
+        <v>405100</v>
       </c>
       <c r="I41" s="3">
-        <v>578200</v>
+        <v>551000</v>
       </c>
       <c r="J41" s="3">
-        <v>205800</v>
+        <v>196100</v>
       </c>
       <c r="K41" s="3">
         <v>277500</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>1005700</v>
+        <v>958400</v>
       </c>
       <c r="K42" s="3">
         <v>31100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>490000</v>
+        <v>467000</v>
       </c>
       <c r="E43" s="3">
-        <v>570800</v>
+        <v>544000</v>
       </c>
       <c r="F43" s="3">
-        <v>704400</v>
+        <v>671300</v>
       </c>
       <c r="G43" s="3">
-        <v>503500</v>
+        <v>479800</v>
       </c>
       <c r="H43" s="3">
+        <v>403900</v>
+      </c>
+      <c r="I43" s="3">
         <v>423800</v>
       </c>
-      <c r="I43" s="3">
-        <v>444700</v>
-      </c>
       <c r="J43" s="3">
-        <v>692100</v>
+        <v>659600</v>
       </c>
       <c r="K43" s="3">
         <v>574200</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>712900</v>
+        <v>679400</v>
       </c>
       <c r="E44" s="3">
-        <v>820700</v>
+        <v>782200</v>
       </c>
       <c r="F44" s="3">
-        <v>808500</v>
+        <v>770500</v>
       </c>
       <c r="G44" s="3">
-        <v>787700</v>
+        <v>750600</v>
       </c>
       <c r="H44" s="3">
-        <v>724000</v>
+        <v>689900</v>
       </c>
       <c r="I44" s="3">
-        <v>663900</v>
+        <v>632700</v>
       </c>
       <c r="J44" s="3">
-        <v>529200</v>
+        <v>504300</v>
       </c>
       <c r="K44" s="3">
         <v>392400</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>55100</v>
+        <v>52500</v>
       </c>
       <c r="E45" s="3">
-        <v>36700</v>
+        <v>35000</v>
       </c>
       <c r="F45" s="3">
-        <v>51400</v>
+        <v>49000</v>
       </c>
       <c r="G45" s="3">
-        <v>94300</v>
+        <v>89900</v>
       </c>
       <c r="H45" s="3">
-        <v>154300</v>
+        <v>147100</v>
       </c>
       <c r="I45" s="3">
-        <v>104100</v>
+        <v>99200</v>
       </c>
       <c r="J45" s="3">
-        <v>90600</v>
+        <v>86400</v>
       </c>
       <c r="K45" s="3">
         <v>28700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1795800</v>
+        <v>1711400</v>
       </c>
       <c r="E46" s="3">
-        <v>1653700</v>
+        <v>1576000</v>
       </c>
       <c r="F46" s="3">
-        <v>1765200</v>
+        <v>1682200</v>
       </c>
       <c r="G46" s="3">
-        <v>1715000</v>
+        <v>1634400</v>
       </c>
       <c r="H46" s="3">
-        <v>1727200</v>
+        <v>1646000</v>
       </c>
       <c r="I46" s="3">
-        <v>1790900</v>
+        <v>1706800</v>
       </c>
       <c r="J46" s="3">
-        <v>2523500</v>
+        <v>2404900</v>
       </c>
       <c r="K46" s="3">
         <v>1303900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>83300</v>
+        <v>79400</v>
       </c>
       <c r="E47" s="3">
-        <v>74700</v>
+        <v>71200</v>
       </c>
       <c r="F47" s="3">
-        <v>79600</v>
+        <v>75900</v>
       </c>
       <c r="G47" s="3">
-        <v>60000</v>
+        <v>57200</v>
       </c>
       <c r="H47" s="3">
-        <v>77200</v>
+        <v>73500</v>
       </c>
       <c r="I47" s="3">
-        <v>101700</v>
+        <v>96900</v>
       </c>
       <c r="J47" s="3">
-        <v>66100</v>
+        <v>63000</v>
       </c>
       <c r="K47" s="3">
         <v>81300</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2334800</v>
+        <v>2225100</v>
       </c>
       <c r="E48" s="3">
-        <v>2518600</v>
+        <v>2400200</v>
       </c>
       <c r="F48" s="3">
-        <v>2040800</v>
+        <v>1944900</v>
       </c>
       <c r="G48" s="3">
-        <v>1858300</v>
+        <v>1771000</v>
       </c>
       <c r="H48" s="3">
-        <v>1809300</v>
+        <v>1724300</v>
       </c>
       <c r="I48" s="3">
-        <v>1537400</v>
+        <v>1465100</v>
       </c>
       <c r="J48" s="3">
-        <v>774200</v>
+        <v>737800</v>
       </c>
       <c r="K48" s="3">
         <v>488000</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>585500</v>
+        <v>558000</v>
       </c>
       <c r="E49" s="3">
-        <v>643100</v>
+        <v>612900</v>
       </c>
       <c r="F49" s="3">
-        <v>602700</v>
+        <v>574400</v>
       </c>
       <c r="G49" s="3">
-        <v>577000</v>
+        <v>549900</v>
       </c>
       <c r="H49" s="3">
-        <v>656600</v>
+        <v>625700</v>
       </c>
       <c r="I49" s="3">
-        <v>638200</v>
+        <v>608200</v>
       </c>
       <c r="J49" s="3">
-        <v>34300</v>
+        <v>32700</v>
       </c>
       <c r="K49" s="3">
         <v>25100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>258500</v>
+        <v>246300</v>
       </c>
       <c r="E52" s="3">
-        <v>235200</v>
+        <v>224100</v>
       </c>
       <c r="F52" s="3">
-        <v>290300</v>
+        <v>276700</v>
       </c>
       <c r="G52" s="3">
-        <v>335600</v>
+        <v>319900</v>
       </c>
       <c r="H52" s="3">
-        <v>368700</v>
+        <v>351400</v>
       </c>
       <c r="I52" s="3">
-        <v>376100</v>
+        <v>358400</v>
       </c>
       <c r="J52" s="3">
-        <v>291500</v>
+        <v>277800</v>
       </c>
       <c r="K52" s="3">
         <v>211700</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5058000</v>
+        <v>4820200</v>
       </c>
       <c r="E54" s="3">
-        <v>5125400</v>
+        <v>4884400</v>
       </c>
       <c r="F54" s="3">
-        <v>4778700</v>
+        <v>4554100</v>
       </c>
       <c r="G54" s="3">
-        <v>4545900</v>
+        <v>4332300</v>
       </c>
       <c r="H54" s="3">
-        <v>4639000</v>
+        <v>4421000</v>
       </c>
       <c r="I54" s="3">
-        <v>4444300</v>
+        <v>4235400</v>
       </c>
       <c r="J54" s="3">
-        <v>3689700</v>
+        <v>3516200</v>
       </c>
       <c r="K54" s="3">
         <v>2110100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>766800</v>
+        <v>730800</v>
       </c>
       <c r="E57" s="3">
-        <v>871000</v>
+        <v>830000</v>
       </c>
       <c r="F57" s="3">
-        <v>839100</v>
+        <v>799700</v>
       </c>
       <c r="G57" s="3">
-        <v>878300</v>
+        <v>837000</v>
       </c>
       <c r="H57" s="3">
-        <v>768100</v>
+        <v>732000</v>
       </c>
       <c r="I57" s="3">
-        <v>804800</v>
+        <v>767000</v>
       </c>
       <c r="J57" s="3">
-        <v>807300</v>
+        <v>769300</v>
       </c>
       <c r="K57" s="3">
         <v>561000</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>112700</v>
+        <v>107400</v>
       </c>
       <c r="E58" s="3">
-        <v>246200</v>
+        <v>234600</v>
       </c>
       <c r="F58" s="3">
-        <v>69800</v>
+        <v>66500</v>
       </c>
       <c r="G58" s="3">
-        <v>129800</v>
+        <v>123700</v>
       </c>
       <c r="H58" s="3">
-        <v>131100</v>
+        <v>124900</v>
       </c>
       <c r="I58" s="3">
-        <v>207000</v>
+        <v>197300</v>
       </c>
       <c r="J58" s="3">
-        <v>57600</v>
+        <v>54900</v>
       </c>
       <c r="K58" s="3">
         <v>26300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>450800</v>
+        <v>429600</v>
       </c>
       <c r="E59" s="3">
-        <v>441000</v>
+        <v>420300</v>
       </c>
       <c r="F59" s="3">
-        <v>486300</v>
+        <v>463500</v>
       </c>
       <c r="G59" s="3">
-        <v>351600</v>
+        <v>335000</v>
       </c>
       <c r="H59" s="3">
-        <v>368700</v>
+        <v>351400</v>
       </c>
       <c r="I59" s="3">
-        <v>465500</v>
+        <v>443600</v>
       </c>
       <c r="J59" s="3">
-        <v>431200</v>
+        <v>410900</v>
       </c>
       <c r="K59" s="3">
         <v>319400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1330300</v>
+        <v>1267800</v>
       </c>
       <c r="E60" s="3">
-        <v>1558200</v>
+        <v>1484900</v>
       </c>
       <c r="F60" s="3">
-        <v>1395300</v>
+        <v>1329700</v>
       </c>
       <c r="G60" s="3">
-        <v>1359700</v>
+        <v>1295800</v>
       </c>
       <c r="H60" s="3">
-        <v>1267900</v>
+        <v>1208300</v>
       </c>
       <c r="I60" s="3">
-        <v>1477300</v>
+        <v>1407900</v>
       </c>
       <c r="J60" s="3">
-        <v>1296000</v>
+        <v>1235100</v>
       </c>
       <c r="K60" s="3">
         <v>906700</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2816300</v>
+        <v>2683900</v>
       </c>
       <c r="E61" s="3">
-        <v>2646000</v>
+        <v>2521600</v>
       </c>
       <c r="F61" s="3">
-        <v>2565100</v>
+        <v>2444600</v>
       </c>
       <c r="G61" s="3">
-        <v>2475700</v>
+        <v>2359300</v>
       </c>
       <c r="H61" s="3">
-        <v>2892200</v>
+        <v>2756300</v>
       </c>
       <c r="I61" s="3">
-        <v>2528400</v>
+        <v>2409500</v>
       </c>
       <c r="J61" s="3">
-        <v>1476100</v>
+        <v>1406700</v>
       </c>
       <c r="K61" s="3">
         <v>390000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1035100</v>
+        <v>986500</v>
       </c>
       <c r="E62" s="3">
-        <v>1025300</v>
+        <v>977100</v>
       </c>
       <c r="F62" s="3">
-        <v>957900</v>
+        <v>912900</v>
       </c>
       <c r="G62" s="3">
-        <v>1101300</v>
+        <v>1049500</v>
       </c>
       <c r="H62" s="3">
-        <v>1177200</v>
+        <v>1121900</v>
       </c>
       <c r="I62" s="3">
-        <v>1100000</v>
+        <v>1048300</v>
       </c>
       <c r="J62" s="3">
-        <v>962800</v>
+        <v>917600</v>
       </c>
       <c r="K62" s="3">
         <v>770400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5198900</v>
+        <v>4954500</v>
       </c>
       <c r="E66" s="3">
-        <v>5243000</v>
+        <v>4996500</v>
       </c>
       <c r="F66" s="3">
-        <v>4928100</v>
+        <v>4696500</v>
       </c>
       <c r="G66" s="3">
-        <v>4946500</v>
+        <v>4714000</v>
       </c>
       <c r="H66" s="3">
-        <v>5348300</v>
+        <v>5096900</v>
       </c>
       <c r="I66" s="3">
-        <v>5119200</v>
+        <v>4878600</v>
       </c>
       <c r="J66" s="3">
-        <v>3742300</v>
+        <v>3566400</v>
       </c>
       <c r="K66" s="3">
         <v>2071800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-654100</v>
+        <v>-623400</v>
       </c>
       <c r="E72" s="3">
-        <v>-628400</v>
+        <v>-598900</v>
       </c>
       <c r="F72" s="3">
-        <v>-661500</v>
+        <v>-630400</v>
       </c>
       <c r="G72" s="3">
-        <v>-926100</v>
+        <v>-882600</v>
       </c>
       <c r="H72" s="3">
-        <v>-902800</v>
+        <v>-860400</v>
       </c>
       <c r="I72" s="3">
-        <v>-883200</v>
+        <v>-841700</v>
       </c>
       <c r="J72" s="3">
-        <v>-226600</v>
+        <v>-216000</v>
       </c>
       <c r="K72" s="3">
         <v>-141200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-140900</v>
+        <v>-134300</v>
       </c>
       <c r="E76" s="3">
-        <v>-117600</v>
+        <v>-112100</v>
       </c>
       <c r="F76" s="3">
-        <v>-149400</v>
+        <v>-142400</v>
       </c>
       <c r="G76" s="3">
-        <v>-400600</v>
+        <v>-381700</v>
       </c>
       <c r="H76" s="3">
-        <v>-709300</v>
+        <v>-675900</v>
       </c>
       <c r="I76" s="3">
-        <v>-675000</v>
+        <v>-643200</v>
       </c>
       <c r="J76" s="3">
-        <v>-52700</v>
+        <v>-50200</v>
       </c>
       <c r="K76" s="3">
         <v>38300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-25700</v>
+        <v>-24500</v>
       </c>
       <c r="E81" s="3">
-        <v>72300</v>
+        <v>68900</v>
       </c>
       <c r="F81" s="3">
-        <v>230300</v>
+        <v>219500</v>
       </c>
       <c r="G81" s="3">
-        <v>-38000</v>
+        <v>-36200</v>
       </c>
       <c r="H81" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="I81" s="3">
-        <v>-678600</v>
+        <v>-646700</v>
       </c>
       <c r="J81" s="3">
-        <v>62500</v>
+        <v>59500</v>
       </c>
       <c r="K81" s="3">
         <v>117200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>317300</v>
+        <v>302400</v>
       </c>
       <c r="E83" s="3">
-        <v>313600</v>
+        <v>298900</v>
       </c>
       <c r="F83" s="3">
-        <v>241300</v>
+        <v>230000</v>
       </c>
       <c r="G83" s="3">
-        <v>209500</v>
+        <v>199600</v>
       </c>
       <c r="H83" s="3">
-        <v>189900</v>
+        <v>180900</v>
       </c>
       <c r="I83" s="3">
-        <v>171500</v>
+        <v>163400</v>
       </c>
       <c r="J83" s="3">
-        <v>60000</v>
+        <v>57200</v>
       </c>
       <c r="K83" s="3">
         <v>38300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>409100</v>
+        <v>389900</v>
       </c>
       <c r="E89" s="3">
-        <v>547600</v>
+        <v>521800</v>
       </c>
       <c r="F89" s="3">
-        <v>80800</v>
+        <v>77000</v>
       </c>
       <c r="G89" s="3">
-        <v>196000</v>
+        <v>186800</v>
       </c>
       <c r="H89" s="3">
-        <v>107800</v>
+        <v>102700</v>
       </c>
       <c r="I89" s="3">
-        <v>626000</v>
+        <v>596500</v>
       </c>
       <c r="J89" s="3">
-        <v>259700</v>
+        <v>247500</v>
       </c>
       <c r="K89" s="3">
         <v>220100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-222900</v>
+        <v>-212500</v>
       </c>
       <c r="E91" s="3">
-        <v>-332000</v>
+        <v>-316400</v>
       </c>
       <c r="F91" s="3">
-        <v>-339300</v>
+        <v>-323400</v>
       </c>
       <c r="G91" s="3">
-        <v>-338100</v>
+        <v>-322200</v>
       </c>
       <c r="H91" s="3">
-        <v>-434900</v>
+        <v>-414400</v>
       </c>
       <c r="I91" s="3">
-        <v>-428700</v>
+        <v>-408600</v>
       </c>
       <c r="J91" s="3">
-        <v>-243800</v>
+        <v>-232300</v>
       </c>
       <c r="K91" s="3">
         <v>-172300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-215600</v>
+        <v>-205500</v>
       </c>
       <c r="E94" s="3">
-        <v>-432400</v>
+        <v>-412100</v>
       </c>
       <c r="F94" s="3">
-        <v>-111500</v>
+        <v>-106200</v>
       </c>
       <c r="G94" s="3">
-        <v>-357700</v>
+        <v>-340900</v>
       </c>
       <c r="H94" s="3">
-        <v>-447100</v>
+        <v>-426100</v>
       </c>
       <c r="I94" s="3">
-        <v>-884400</v>
+        <v>-842900</v>
       </c>
       <c r="J94" s="3">
-        <v>-264600</v>
+        <v>-252200</v>
       </c>
       <c r="K94" s="3">
         <v>-157900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>123700</v>
+        <v>117900</v>
       </c>
       <c r="E100" s="3">
-        <v>-93100</v>
+        <v>-88700</v>
       </c>
       <c r="F100" s="3">
-        <v>-100400</v>
+        <v>-95700</v>
       </c>
       <c r="G100" s="3">
-        <v>74700</v>
+        <v>71200</v>
       </c>
       <c r="H100" s="3">
-        <v>177600</v>
+        <v>169300</v>
       </c>
       <c r="I100" s="3">
-        <v>-377300</v>
+        <v>-359600</v>
       </c>
       <c r="J100" s="3">
-        <v>922400</v>
+        <v>879100</v>
       </c>
       <c r="K100" s="3">
         <v>51400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="E101" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F101" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G101" s="3">
-        <v>-8600</v>
+        <v>-8200</v>
       </c>
       <c r="H101" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="I101" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="J101" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="K101" s="3">
         <v>-1200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>312400</v>
+        <v>297700</v>
       </c>
       <c r="E102" s="3">
-        <v>24500</v>
+        <v>23300</v>
       </c>
       <c r="F102" s="3">
-        <v>-128600</v>
+        <v>-122600</v>
       </c>
       <c r="G102" s="3">
-        <v>-95500</v>
+        <v>-91100</v>
       </c>
       <c r="H102" s="3">
-        <v>-158000</v>
+        <v>-150600</v>
       </c>
       <c r="I102" s="3">
-        <v>-630900</v>
+        <v>-601200</v>
       </c>
       <c r="J102" s="3">
-        <v>924900</v>
+        <v>881400</v>
       </c>
       <c r="K102" s="3">
         <v>112400</v>

--- a/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5700500</v>
+        <v>5513400</v>
       </c>
       <c r="E8" s="3">
-        <v>6895900</v>
+        <v>6669600</v>
       </c>
       <c r="F8" s="3">
-        <v>6637900</v>
+        <v>6420100</v>
       </c>
       <c r="G8" s="3">
-        <v>6113700</v>
+        <v>5913100</v>
       </c>
       <c r="H8" s="3">
-        <v>5537000</v>
+        <v>5355300</v>
       </c>
       <c r="I8" s="3">
-        <v>6015700</v>
+        <v>5818300</v>
       </c>
       <c r="J8" s="3">
-        <v>4279700</v>
+        <v>4139300</v>
       </c>
       <c r="K8" s="3">
         <v>4180700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5128400</v>
+        <v>4960100</v>
       </c>
       <c r="E9" s="3">
-        <v>6193100</v>
+        <v>5989900</v>
       </c>
       <c r="F9" s="3">
-        <v>6009800</v>
+        <v>5812600</v>
       </c>
       <c r="G9" s="3">
-        <v>5484500</v>
+        <v>5304500</v>
       </c>
       <c r="H9" s="3">
-        <v>4934600</v>
+        <v>4772700</v>
       </c>
       <c r="I9" s="3">
-        <v>5490300</v>
+        <v>5310200</v>
       </c>
       <c r="J9" s="3">
-        <v>3715900</v>
+        <v>3593900</v>
       </c>
       <c r="K9" s="3">
         <v>3617300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>572000</v>
+        <v>553300</v>
       </c>
       <c r="E10" s="3">
-        <v>702800</v>
+        <v>679700</v>
       </c>
       <c r="F10" s="3">
-        <v>628100</v>
+        <v>607500</v>
       </c>
       <c r="G10" s="3">
-        <v>629200</v>
+        <v>608600</v>
       </c>
       <c r="H10" s="3">
-        <v>602400</v>
+        <v>582600</v>
       </c>
       <c r="I10" s="3">
-        <v>525300</v>
+        <v>508100</v>
       </c>
       <c r="J10" s="3">
-        <v>563900</v>
+        <v>545400</v>
       </c>
       <c r="K10" s="3">
         <v>563400</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>39700</v>
+        <v>38400</v>
       </c>
       <c r="E12" s="3">
-        <v>49000</v>
+        <v>47400</v>
       </c>
       <c r="F12" s="3">
-        <v>42000</v>
+        <v>40600</v>
       </c>
       <c r="G12" s="3">
-        <v>38500</v>
+        <v>37300</v>
       </c>
       <c r="H12" s="3">
-        <v>37400</v>
+        <v>36100</v>
       </c>
       <c r="I12" s="3">
-        <v>40900</v>
+        <v>39500</v>
       </c>
       <c r="J12" s="3">
-        <v>44400</v>
+        <v>42900</v>
       </c>
       <c r="K12" s="3">
         <v>43100</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>74700</v>
+        <v>72300</v>
       </c>
       <c r="E14" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F14" s="3">
-        <v>-40900</v>
+        <v>-39500</v>
       </c>
       <c r="G14" s="3">
-        <v>87600</v>
+        <v>84700</v>
       </c>
       <c r="H14" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="I14" s="3">
-        <v>548700</v>
+        <v>530700</v>
       </c>
       <c r="J14" s="3">
-        <v>46700</v>
+        <v>45200</v>
       </c>
       <c r="K14" s="3">
         <v>9600</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>22200</v>
+        <v>21500</v>
       </c>
       <c r="E15" s="3">
-        <v>22200</v>
+        <v>21500</v>
       </c>
       <c r="F15" s="3">
-        <v>15200</v>
+        <v>14700</v>
       </c>
       <c r="G15" s="3">
-        <v>12800</v>
+        <v>12400</v>
       </c>
       <c r="H15" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="I15" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="J15" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="K15" s="3">
         <v>3600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5554500</v>
+        <v>5372300</v>
       </c>
       <c r="E17" s="3">
-        <v>6598200</v>
+        <v>6381700</v>
       </c>
       <c r="F17" s="3">
-        <v>6166300</v>
+        <v>5963900</v>
       </c>
       <c r="G17" s="3">
-        <v>5845200</v>
+        <v>5653400</v>
       </c>
       <c r="H17" s="3">
-        <v>5249800</v>
+        <v>5077600</v>
       </c>
       <c r="I17" s="3">
-        <v>6513000</v>
+        <v>6299200</v>
       </c>
       <c r="J17" s="3">
-        <v>4104600</v>
+        <v>3969900</v>
       </c>
       <c r="K17" s="3">
         <v>3930700</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>145900</v>
+        <v>141100</v>
       </c>
       <c r="E18" s="3">
-        <v>297700</v>
+        <v>287900</v>
       </c>
       <c r="F18" s="3">
-        <v>471600</v>
+        <v>456200</v>
       </c>
       <c r="G18" s="3">
-        <v>268500</v>
+        <v>259700</v>
       </c>
       <c r="H18" s="3">
-        <v>287200</v>
+        <v>277800</v>
       </c>
       <c r="I18" s="3">
-        <v>-497300</v>
+        <v>-481000</v>
       </c>
       <c r="J18" s="3">
-        <v>175100</v>
+        <v>169400</v>
       </c>
       <c r="K18" s="3">
         <v>250000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-18700</v>
+        <v>-18100</v>
       </c>
       <c r="E20" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="F20" s="3">
-        <v>-40900</v>
+        <v>-39500</v>
       </c>
       <c r="G20" s="3">
-        <v>-11700</v>
+        <v>-11300</v>
       </c>
       <c r="H20" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I20" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="J20" s="3">
-        <v>-15200</v>
+        <v>-14700</v>
       </c>
       <c r="K20" s="3">
         <v>-87300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>430500</v>
+        <v>416200</v>
       </c>
       <c r="E21" s="3">
-        <v>592800</v>
+        <v>573100</v>
       </c>
       <c r="F21" s="3">
-        <v>661500</v>
+        <v>639600</v>
       </c>
       <c r="G21" s="3">
-        <v>457100</v>
+        <v>441900</v>
       </c>
       <c r="H21" s="3">
-        <v>472200</v>
+        <v>456600</v>
       </c>
       <c r="I21" s="3">
-        <v>-324000</v>
+        <v>-313500</v>
       </c>
       <c r="J21" s="3">
-        <v>217300</v>
+        <v>210100</v>
       </c>
       <c r="K21" s="3">
         <v>200800</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>166900</v>
+        <v>161500</v>
       </c>
       <c r="E22" s="3">
-        <v>197300</v>
+        <v>190800</v>
       </c>
       <c r="F22" s="3">
-        <v>171600</v>
+        <v>166000</v>
       </c>
       <c r="G22" s="3">
-        <v>199600</v>
+        <v>193100</v>
       </c>
       <c r="H22" s="3">
-        <v>214800</v>
+        <v>207800</v>
       </c>
       <c r="I22" s="3">
-        <v>193800</v>
+        <v>187400</v>
       </c>
       <c r="J22" s="3">
-        <v>53700</v>
+        <v>51900</v>
       </c>
       <c r="K22" s="3">
         <v>1200</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-39700</v>
+        <v>-38400</v>
       </c>
       <c r="E23" s="3">
-        <v>95700</v>
+        <v>92600</v>
       </c>
       <c r="F23" s="3">
-        <v>259200</v>
+        <v>250700</v>
       </c>
       <c r="G23" s="3">
-        <v>57200</v>
+        <v>55300</v>
       </c>
       <c r="H23" s="3">
-        <v>75900</v>
+        <v>73400</v>
       </c>
       <c r="I23" s="3">
-        <v>-681800</v>
+        <v>-659400</v>
       </c>
       <c r="J23" s="3">
-        <v>106200</v>
+        <v>102700</v>
       </c>
       <c r="K23" s="3">
         <v>161500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-19800</v>
+        <v>-19200</v>
       </c>
       <c r="E24" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="F24" s="3">
-        <v>37400</v>
+        <v>36100</v>
       </c>
       <c r="G24" s="3">
-        <v>112100</v>
+        <v>108400</v>
       </c>
       <c r="H24" s="3">
-        <v>80600</v>
+        <v>77900</v>
       </c>
       <c r="I24" s="3">
-        <v>-37400</v>
+        <v>-36100</v>
       </c>
       <c r="J24" s="3">
-        <v>43200</v>
+        <v>41800</v>
       </c>
       <c r="K24" s="3">
         <v>46700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-19800</v>
+        <v>-19200</v>
       </c>
       <c r="E26" s="3">
-        <v>74700</v>
+        <v>72300</v>
       </c>
       <c r="F26" s="3">
-        <v>221800</v>
+        <v>214500</v>
       </c>
       <c r="G26" s="3">
-        <v>-54900</v>
+        <v>-53100</v>
       </c>
       <c r="H26" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="I26" s="3">
-        <v>-644400</v>
+        <v>-623300</v>
       </c>
       <c r="J26" s="3">
-        <v>63000</v>
+        <v>61000</v>
       </c>
       <c r="K26" s="3">
         <v>114800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-24500</v>
+        <v>-23700</v>
       </c>
       <c r="E27" s="3">
-        <v>68900</v>
+        <v>66600</v>
       </c>
       <c r="F27" s="3">
-        <v>219500</v>
+        <v>212300</v>
       </c>
       <c r="G27" s="3">
-        <v>-54900</v>
+        <v>-53100</v>
       </c>
       <c r="H27" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="I27" s="3">
-        <v>-646700</v>
+        <v>-625500</v>
       </c>
       <c r="J27" s="3">
-        <v>59500</v>
+        <v>57600</v>
       </c>
       <c r="K27" s="3">
         <v>112400</v>
@@ -1422,7 +1422,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="3">
-        <v>18700</v>
+        <v>18100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>11</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>18700</v>
+        <v>18100</v>
       </c>
       <c r="E32" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="F32" s="3">
-        <v>40900</v>
+        <v>39500</v>
       </c>
       <c r="G32" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="H32" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="I32" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="J32" s="3">
-        <v>15200</v>
+        <v>14700</v>
       </c>
       <c r="K32" s="3">
         <v>87300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-24500</v>
+        <v>-23700</v>
       </c>
       <c r="E33" s="3">
-        <v>68900</v>
+        <v>66600</v>
       </c>
       <c r="F33" s="3">
-        <v>219500</v>
+        <v>212300</v>
       </c>
       <c r="G33" s="3">
-        <v>-36200</v>
+        <v>-35000</v>
       </c>
       <c r="H33" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="I33" s="3">
-        <v>-646700</v>
+        <v>-625500</v>
       </c>
       <c r="J33" s="3">
-        <v>59500</v>
+        <v>57600</v>
       </c>
       <c r="K33" s="3">
         <v>117200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-24500</v>
+        <v>-23700</v>
       </c>
       <c r="E35" s="3">
-        <v>68900</v>
+        <v>66600</v>
       </c>
       <c r="F35" s="3">
-        <v>219500</v>
+        <v>212300</v>
       </c>
       <c r="G35" s="3">
-        <v>-36200</v>
+        <v>-35000</v>
       </c>
       <c r="H35" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="I35" s="3">
-        <v>-646700</v>
+        <v>-625500</v>
       </c>
       <c r="J35" s="3">
-        <v>59500</v>
+        <v>57600</v>
       </c>
       <c r="K35" s="3">
         <v>117200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>512500</v>
+        <v>495700</v>
       </c>
       <c r="E41" s="3">
-        <v>214800</v>
+        <v>207800</v>
       </c>
       <c r="F41" s="3">
-        <v>191500</v>
+        <v>185200</v>
       </c>
       <c r="G41" s="3">
-        <v>314000</v>
+        <v>303700</v>
       </c>
       <c r="H41" s="3">
-        <v>405100</v>
+        <v>391800</v>
       </c>
       <c r="I41" s="3">
-        <v>551000</v>
+        <v>532900</v>
       </c>
       <c r="J41" s="3">
-        <v>196100</v>
+        <v>189700</v>
       </c>
       <c r="K41" s="3">
         <v>277500</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>958400</v>
+        <v>927000</v>
       </c>
       <c r="K42" s="3">
         <v>31100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>467000</v>
+        <v>451600</v>
       </c>
       <c r="E43" s="3">
-        <v>544000</v>
+        <v>526200</v>
       </c>
       <c r="F43" s="3">
-        <v>671300</v>
+        <v>649200</v>
       </c>
       <c r="G43" s="3">
-        <v>479800</v>
+        <v>464100</v>
       </c>
       <c r="H43" s="3">
-        <v>403900</v>
+        <v>390700</v>
       </c>
       <c r="I43" s="3">
-        <v>423800</v>
+        <v>409900</v>
       </c>
       <c r="J43" s="3">
-        <v>659600</v>
+        <v>637900</v>
       </c>
       <c r="K43" s="3">
         <v>574200</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>679400</v>
+        <v>657100</v>
       </c>
       <c r="E44" s="3">
-        <v>782200</v>
+        <v>756500</v>
       </c>
       <c r="F44" s="3">
-        <v>770500</v>
+        <v>745200</v>
       </c>
       <c r="G44" s="3">
-        <v>750600</v>
+        <v>726000</v>
       </c>
       <c r="H44" s="3">
-        <v>689900</v>
+        <v>667300</v>
       </c>
       <c r="I44" s="3">
-        <v>632700</v>
+        <v>612000</v>
       </c>
       <c r="J44" s="3">
-        <v>504300</v>
+        <v>487800</v>
       </c>
       <c r="K44" s="3">
         <v>392400</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>52500</v>
+        <v>50800</v>
       </c>
       <c r="E45" s="3">
-        <v>35000</v>
+        <v>33900</v>
       </c>
       <c r="F45" s="3">
-        <v>49000</v>
+        <v>47400</v>
       </c>
       <c r="G45" s="3">
-        <v>89900</v>
+        <v>86900</v>
       </c>
       <c r="H45" s="3">
-        <v>147100</v>
+        <v>142300</v>
       </c>
       <c r="I45" s="3">
-        <v>99200</v>
+        <v>96000</v>
       </c>
       <c r="J45" s="3">
-        <v>86400</v>
+        <v>83600</v>
       </c>
       <c r="K45" s="3">
         <v>28700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1711400</v>
+        <v>1655300</v>
       </c>
       <c r="E46" s="3">
-        <v>1576000</v>
+        <v>1524300</v>
       </c>
       <c r="F46" s="3">
-        <v>1682200</v>
+        <v>1627000</v>
       </c>
       <c r="G46" s="3">
-        <v>1634400</v>
+        <v>1580700</v>
       </c>
       <c r="H46" s="3">
-        <v>1646000</v>
+        <v>1592000</v>
       </c>
       <c r="I46" s="3">
-        <v>1706800</v>
+        <v>1650700</v>
       </c>
       <c r="J46" s="3">
-        <v>2404900</v>
+        <v>2325900</v>
       </c>
       <c r="K46" s="3">
         <v>1303900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>79400</v>
+        <v>76800</v>
       </c>
       <c r="E47" s="3">
-        <v>71200</v>
+        <v>68900</v>
       </c>
       <c r="F47" s="3">
-        <v>75900</v>
+        <v>73400</v>
       </c>
       <c r="G47" s="3">
-        <v>57200</v>
+        <v>55300</v>
       </c>
       <c r="H47" s="3">
-        <v>73500</v>
+        <v>71100</v>
       </c>
       <c r="I47" s="3">
-        <v>96900</v>
+        <v>93700</v>
       </c>
       <c r="J47" s="3">
-        <v>63000</v>
+        <v>61000</v>
       </c>
       <c r="K47" s="3">
         <v>81300</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2225100</v>
+        <v>2152100</v>
       </c>
       <c r="E48" s="3">
-        <v>2400200</v>
+        <v>2321400</v>
       </c>
       <c r="F48" s="3">
-        <v>1944900</v>
+        <v>1881100</v>
       </c>
       <c r="G48" s="3">
-        <v>1771000</v>
+        <v>1712800</v>
       </c>
       <c r="H48" s="3">
-        <v>1724300</v>
+        <v>1667700</v>
       </c>
       <c r="I48" s="3">
-        <v>1465100</v>
+        <v>1417000</v>
       </c>
       <c r="J48" s="3">
-        <v>737800</v>
+        <v>713600</v>
       </c>
       <c r="K48" s="3">
         <v>488000</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>558000</v>
+        <v>539700</v>
       </c>
       <c r="E49" s="3">
-        <v>612900</v>
+        <v>592800</v>
       </c>
       <c r="F49" s="3">
-        <v>574400</v>
+        <v>555500</v>
       </c>
       <c r="G49" s="3">
-        <v>549900</v>
+        <v>531800</v>
       </c>
       <c r="H49" s="3">
-        <v>625700</v>
+        <v>605200</v>
       </c>
       <c r="I49" s="3">
-        <v>608200</v>
+        <v>588300</v>
       </c>
       <c r="J49" s="3">
-        <v>32700</v>
+        <v>31600</v>
       </c>
       <c r="K49" s="3">
         <v>25100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>246300</v>
+        <v>238200</v>
       </c>
       <c r="E52" s="3">
-        <v>224100</v>
+        <v>216800</v>
       </c>
       <c r="F52" s="3">
-        <v>276700</v>
+        <v>267600</v>
       </c>
       <c r="G52" s="3">
-        <v>319900</v>
+        <v>309400</v>
       </c>
       <c r="H52" s="3">
-        <v>351400</v>
+        <v>339900</v>
       </c>
       <c r="I52" s="3">
-        <v>358400</v>
+        <v>346600</v>
       </c>
       <c r="J52" s="3">
-        <v>277800</v>
+        <v>268700</v>
       </c>
       <c r="K52" s="3">
         <v>211700</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4820200</v>
+        <v>4662100</v>
       </c>
       <c r="E54" s="3">
-        <v>4884400</v>
+        <v>4724200</v>
       </c>
       <c r="F54" s="3">
-        <v>4554100</v>
+        <v>4404600</v>
       </c>
       <c r="G54" s="3">
-        <v>4332300</v>
+        <v>4190100</v>
       </c>
       <c r="H54" s="3">
-        <v>4421000</v>
+        <v>4275900</v>
       </c>
       <c r="I54" s="3">
-        <v>4235400</v>
+        <v>4096400</v>
       </c>
       <c r="J54" s="3">
-        <v>3516200</v>
+        <v>3400800</v>
       </c>
       <c r="K54" s="3">
         <v>2110100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>730800</v>
+        <v>706800</v>
       </c>
       <c r="E57" s="3">
-        <v>830000</v>
+        <v>802800</v>
       </c>
       <c r="F57" s="3">
-        <v>799700</v>
+        <v>773400</v>
       </c>
       <c r="G57" s="3">
-        <v>837000</v>
+        <v>809600</v>
       </c>
       <c r="H57" s="3">
-        <v>732000</v>
+        <v>707900</v>
       </c>
       <c r="I57" s="3">
-        <v>767000</v>
+        <v>741800</v>
       </c>
       <c r="J57" s="3">
-        <v>769300</v>
+        <v>744100</v>
       </c>
       <c r="K57" s="3">
         <v>561000</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>107400</v>
+        <v>103900</v>
       </c>
       <c r="E58" s="3">
-        <v>234600</v>
+        <v>226900</v>
       </c>
       <c r="F58" s="3">
-        <v>66500</v>
+        <v>64400</v>
       </c>
       <c r="G58" s="3">
-        <v>123700</v>
+        <v>119700</v>
       </c>
       <c r="H58" s="3">
-        <v>124900</v>
+        <v>120800</v>
       </c>
       <c r="I58" s="3">
-        <v>197300</v>
+        <v>190800</v>
       </c>
       <c r="J58" s="3">
-        <v>54900</v>
+        <v>53100</v>
       </c>
       <c r="K58" s="3">
         <v>26300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>429600</v>
+        <v>415500</v>
       </c>
       <c r="E59" s="3">
-        <v>420300</v>
+        <v>406500</v>
       </c>
       <c r="F59" s="3">
-        <v>463500</v>
+        <v>448300</v>
       </c>
       <c r="G59" s="3">
-        <v>335000</v>
+        <v>324100</v>
       </c>
       <c r="H59" s="3">
-        <v>351400</v>
+        <v>339900</v>
       </c>
       <c r="I59" s="3">
-        <v>443600</v>
+        <v>429100</v>
       </c>
       <c r="J59" s="3">
-        <v>410900</v>
+        <v>397400</v>
       </c>
       <c r="K59" s="3">
         <v>319400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1267800</v>
+        <v>1226200</v>
       </c>
       <c r="E60" s="3">
-        <v>1484900</v>
+        <v>1436200</v>
       </c>
       <c r="F60" s="3">
-        <v>1329700</v>
+        <v>1286000</v>
       </c>
       <c r="G60" s="3">
-        <v>1295800</v>
+        <v>1253300</v>
       </c>
       <c r="H60" s="3">
-        <v>1208300</v>
+        <v>1168600</v>
       </c>
       <c r="I60" s="3">
-        <v>1407900</v>
+        <v>1361700</v>
       </c>
       <c r="J60" s="3">
-        <v>1235100</v>
+        <v>1194600</v>
       </c>
       <c r="K60" s="3">
         <v>906700</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2683900</v>
+        <v>2595800</v>
       </c>
       <c r="E61" s="3">
-        <v>2521600</v>
+        <v>2438900</v>
       </c>
       <c r="F61" s="3">
-        <v>2444600</v>
+        <v>2364300</v>
       </c>
       <c r="G61" s="3">
-        <v>2359300</v>
+        <v>2281900</v>
       </c>
       <c r="H61" s="3">
-        <v>2756300</v>
+        <v>2665800</v>
       </c>
       <c r="I61" s="3">
-        <v>2409500</v>
+        <v>2330500</v>
       </c>
       <c r="J61" s="3">
-        <v>1406700</v>
+        <v>1360600</v>
       </c>
       <c r="K61" s="3">
         <v>390000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>986500</v>
+        <v>954100</v>
       </c>
       <c r="E62" s="3">
-        <v>977100</v>
+        <v>945100</v>
       </c>
       <c r="F62" s="3">
-        <v>912900</v>
+        <v>883000</v>
       </c>
       <c r="G62" s="3">
-        <v>1049500</v>
+        <v>1015100</v>
       </c>
       <c r="H62" s="3">
-        <v>1121900</v>
+        <v>1085100</v>
       </c>
       <c r="I62" s="3">
-        <v>1048300</v>
+        <v>1013900</v>
       </c>
       <c r="J62" s="3">
-        <v>917600</v>
+        <v>887500</v>
       </c>
       <c r="K62" s="3">
         <v>770400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4954500</v>
+        <v>4791900</v>
       </c>
       <c r="E66" s="3">
-        <v>4996500</v>
+        <v>4832500</v>
       </c>
       <c r="F66" s="3">
-        <v>4696500</v>
+        <v>4542400</v>
       </c>
       <c r="G66" s="3">
-        <v>4714000</v>
+        <v>4559300</v>
       </c>
       <c r="H66" s="3">
-        <v>5096900</v>
+        <v>4929700</v>
       </c>
       <c r="I66" s="3">
-        <v>4878600</v>
+        <v>4718500</v>
       </c>
       <c r="J66" s="3">
-        <v>3566400</v>
+        <v>3449400</v>
       </c>
       <c r="K66" s="3">
         <v>2071800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-623400</v>
+        <v>-602900</v>
       </c>
       <c r="E72" s="3">
-        <v>-598900</v>
+        <v>-579200</v>
       </c>
       <c r="F72" s="3">
-        <v>-630400</v>
+        <v>-609700</v>
       </c>
       <c r="G72" s="3">
-        <v>-882600</v>
+        <v>-853600</v>
       </c>
       <c r="H72" s="3">
-        <v>-860400</v>
+        <v>-832100</v>
       </c>
       <c r="I72" s="3">
-        <v>-841700</v>
+        <v>-814100</v>
       </c>
       <c r="J72" s="3">
-        <v>-216000</v>
+        <v>-208900</v>
       </c>
       <c r="K72" s="3">
         <v>-141200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-134300</v>
+        <v>-129800</v>
       </c>
       <c r="E76" s="3">
-        <v>-112100</v>
+        <v>-108400</v>
       </c>
       <c r="F76" s="3">
-        <v>-142400</v>
+        <v>-137800</v>
       </c>
       <c r="G76" s="3">
-        <v>-381700</v>
+        <v>-369200</v>
       </c>
       <c r="H76" s="3">
-        <v>-675900</v>
+        <v>-653700</v>
       </c>
       <c r="I76" s="3">
-        <v>-643200</v>
+        <v>-622100</v>
       </c>
       <c r="J76" s="3">
-        <v>-50200</v>
+        <v>-48600</v>
       </c>
       <c r="K76" s="3">
         <v>38300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-24500</v>
+        <v>-23700</v>
       </c>
       <c r="E81" s="3">
-        <v>68900</v>
+        <v>66600</v>
       </c>
       <c r="F81" s="3">
-        <v>219500</v>
+        <v>212300</v>
       </c>
       <c r="G81" s="3">
-        <v>-36200</v>
+        <v>-35000</v>
       </c>
       <c r="H81" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="I81" s="3">
-        <v>-646700</v>
+        <v>-625500</v>
       </c>
       <c r="J81" s="3">
-        <v>59500</v>
+        <v>57600</v>
       </c>
       <c r="K81" s="3">
         <v>117200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>302400</v>
+        <v>292400</v>
       </c>
       <c r="E83" s="3">
-        <v>298900</v>
+        <v>289000</v>
       </c>
       <c r="F83" s="3">
-        <v>230000</v>
+        <v>222400</v>
       </c>
       <c r="G83" s="3">
-        <v>199600</v>
+        <v>193100</v>
       </c>
       <c r="H83" s="3">
-        <v>180900</v>
+        <v>175000</v>
       </c>
       <c r="I83" s="3">
-        <v>163400</v>
+        <v>158100</v>
       </c>
       <c r="J83" s="3">
-        <v>57200</v>
+        <v>55300</v>
       </c>
       <c r="K83" s="3">
         <v>38300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>389900</v>
+        <v>377100</v>
       </c>
       <c r="E89" s="3">
-        <v>521800</v>
+        <v>504700</v>
       </c>
       <c r="F89" s="3">
-        <v>77000</v>
+        <v>74500</v>
       </c>
       <c r="G89" s="3">
-        <v>186800</v>
+        <v>180700</v>
       </c>
       <c r="H89" s="3">
-        <v>102700</v>
+        <v>99400</v>
       </c>
       <c r="I89" s="3">
-        <v>596500</v>
+        <v>577000</v>
       </c>
       <c r="J89" s="3">
-        <v>247500</v>
+        <v>239400</v>
       </c>
       <c r="K89" s="3">
         <v>220100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-212500</v>
+        <v>-205500</v>
       </c>
       <c r="E91" s="3">
-        <v>-316400</v>
+        <v>-306000</v>
       </c>
       <c r="F91" s="3">
-        <v>-323400</v>
+        <v>-312800</v>
       </c>
       <c r="G91" s="3">
-        <v>-322200</v>
+        <v>-311600</v>
       </c>
       <c r="H91" s="3">
-        <v>-414400</v>
+        <v>-400800</v>
       </c>
       <c r="I91" s="3">
-        <v>-408600</v>
+        <v>-395200</v>
       </c>
       <c r="J91" s="3">
-        <v>-232300</v>
+        <v>-224700</v>
       </c>
       <c r="K91" s="3">
         <v>-172300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-205500</v>
+        <v>-198700</v>
       </c>
       <c r="E94" s="3">
+        <v>-398600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-102700</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-329700</v>
+      </c>
+      <c r="H94" s="3">
         <v>-412100</v>
       </c>
-      <c r="F94" s="3">
-        <v>-106200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-340900</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-426100</v>
-      </c>
       <c r="I94" s="3">
-        <v>-842900</v>
+        <v>-815200</v>
       </c>
       <c r="J94" s="3">
-        <v>-252200</v>
+        <v>-243900</v>
       </c>
       <c r="K94" s="3">
         <v>-157900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>117900</v>
+        <v>114000</v>
       </c>
       <c r="E100" s="3">
-        <v>-88700</v>
+        <v>-85800</v>
       </c>
       <c r="F100" s="3">
-        <v>-95700</v>
+        <v>-92600</v>
       </c>
       <c r="G100" s="3">
-        <v>71200</v>
+        <v>68900</v>
       </c>
       <c r="H100" s="3">
-        <v>169300</v>
+        <v>163700</v>
       </c>
       <c r="I100" s="3">
-        <v>-359600</v>
+        <v>-347800</v>
       </c>
       <c r="J100" s="3">
-        <v>879100</v>
+        <v>850200</v>
       </c>
       <c r="K100" s="3">
         <v>51400</v>
@@ -3711,7 +3711,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="E101" s="3">
         <v>2300</v>
@@ -3720,16 +3720,16 @@
         <v>2300</v>
       </c>
       <c r="G101" s="3">
-        <v>-8200</v>
+        <v>-7900</v>
       </c>
       <c r="H101" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I101" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="J101" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="K101" s="3">
         <v>-1200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>297700</v>
+        <v>287900</v>
       </c>
       <c r="E102" s="3">
-        <v>23300</v>
+        <v>22600</v>
       </c>
       <c r="F102" s="3">
-        <v>-122600</v>
+        <v>-118600</v>
       </c>
       <c r="G102" s="3">
-        <v>-91100</v>
+        <v>-88100</v>
       </c>
       <c r="H102" s="3">
-        <v>-150600</v>
+        <v>-145700</v>
       </c>
       <c r="I102" s="3">
-        <v>-601200</v>
+        <v>-581500</v>
       </c>
       <c r="J102" s="3">
-        <v>881400</v>
+        <v>852500</v>
       </c>
       <c r="K102" s="3">
         <v>112400</v>

--- a/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5513400</v>
+        <v>6711300</v>
       </c>
       <c r="E8" s="3">
-        <v>6669600</v>
+        <v>5326900</v>
       </c>
       <c r="F8" s="3">
-        <v>6420100</v>
+        <v>6444000</v>
       </c>
       <c r="G8" s="3">
-        <v>5913100</v>
+        <v>6202900</v>
       </c>
       <c r="H8" s="3">
-        <v>5355300</v>
+        <v>5713100</v>
       </c>
       <c r="I8" s="3">
-        <v>5818300</v>
+        <v>5174200</v>
       </c>
       <c r="J8" s="3">
+        <v>5621500</v>
+      </c>
+      <c r="K8" s="3">
         <v>4139300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4180700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3963800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4174100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4960100</v>
+        <v>5986900</v>
       </c>
       <c r="E9" s="3">
-        <v>5989900</v>
+        <v>4792400</v>
       </c>
       <c r="F9" s="3">
-        <v>5812600</v>
+        <v>5787300</v>
       </c>
       <c r="G9" s="3">
-        <v>5304500</v>
+        <v>5616000</v>
       </c>
       <c r="H9" s="3">
-        <v>4772700</v>
+        <v>5125100</v>
       </c>
       <c r="I9" s="3">
-        <v>5310200</v>
+        <v>4611300</v>
       </c>
       <c r="J9" s="3">
+        <v>5130500</v>
+      </c>
+      <c r="K9" s="3">
         <v>3593900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3617300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6882300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7599200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>553300</v>
+        <v>724400</v>
       </c>
       <c r="E10" s="3">
-        <v>679700</v>
+        <v>534500</v>
       </c>
       <c r="F10" s="3">
-        <v>607500</v>
+        <v>656700</v>
       </c>
       <c r="G10" s="3">
-        <v>608600</v>
+        <v>586900</v>
       </c>
       <c r="H10" s="3">
-        <v>582600</v>
+        <v>588000</v>
       </c>
       <c r="I10" s="3">
-        <v>508100</v>
+        <v>562900</v>
       </c>
       <c r="J10" s="3">
+        <v>490900</v>
+      </c>
+      <c r="K10" s="3">
         <v>545400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>563400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-2918500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-3425200</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>38400</v>
+        <v>42500</v>
       </c>
       <c r="E12" s="3">
-        <v>47400</v>
+        <v>37100</v>
       </c>
       <c r="F12" s="3">
-        <v>40600</v>
+        <v>45800</v>
       </c>
       <c r="G12" s="3">
-        <v>37300</v>
+        <v>39300</v>
       </c>
       <c r="H12" s="3">
-        <v>36100</v>
+        <v>36000</v>
       </c>
       <c r="I12" s="3">
+        <v>34900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>38200</v>
+      </c>
+      <c r="K12" s="3">
+        <v>42900</v>
+      </c>
+      <c r="L12" s="3">
+        <v>43100</v>
+      </c>
+      <c r="M12" s="3">
         <v>39500</v>
       </c>
-      <c r="J12" s="3">
-        <v>42900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>43100</v>
-      </c>
-      <c r="L12" s="3">
-        <v>39500</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>38700</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>72300</v>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E14" s="3">
-        <v>3400</v>
+        <v>69800</v>
       </c>
       <c r="F14" s="3">
-        <v>-39500</v>
+        <v>3300</v>
       </c>
       <c r="G14" s="3">
-        <v>84700</v>
+        <v>-38200</v>
       </c>
       <c r="H14" s="3">
-        <v>5600</v>
+        <v>81800</v>
       </c>
       <c r="I14" s="3">
-        <v>530700</v>
+        <v>5500</v>
       </c>
       <c r="J14" s="3">
+        <v>512700</v>
+      </c>
+      <c r="K14" s="3">
         <v>45200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>27500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>23500</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>21500</v>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E15" s="3">
-        <v>21500</v>
+        <v>20700</v>
       </c>
       <c r="F15" s="3">
-        <v>14700</v>
+        <v>20700</v>
       </c>
       <c r="G15" s="3">
-        <v>12400</v>
+        <v>14200</v>
       </c>
       <c r="H15" s="3">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="I15" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="J15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K15" s="3">
         <v>5600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6600</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>5372300</v>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E17" s="3">
-        <v>6381700</v>
+        <v>5190500</v>
       </c>
       <c r="F17" s="3">
-        <v>5963900</v>
+        <v>6165800</v>
       </c>
       <c r="G17" s="3">
-        <v>5653400</v>
+        <v>5762200</v>
       </c>
       <c r="H17" s="3">
-        <v>5077600</v>
+        <v>5462200</v>
       </c>
       <c r="I17" s="3">
-        <v>6299200</v>
+        <v>4905800</v>
       </c>
       <c r="J17" s="3">
+        <v>6086200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3969900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3930700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3675000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4248000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>141100</v>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E18" s="3">
-        <v>287900</v>
+        <v>136400</v>
       </c>
       <c r="F18" s="3">
-        <v>456200</v>
+        <v>278200</v>
       </c>
       <c r="G18" s="3">
-        <v>259700</v>
+        <v>440700</v>
       </c>
       <c r="H18" s="3">
-        <v>277800</v>
+        <v>250900</v>
       </c>
       <c r="I18" s="3">
-        <v>-481000</v>
+        <v>268400</v>
       </c>
       <c r="J18" s="3">
+        <v>-464700</v>
+      </c>
+      <c r="K18" s="3">
         <v>169400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>250000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>288800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-74000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-18100</v>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E20" s="3">
-        <v>-4500</v>
+        <v>-17500</v>
       </c>
       <c r="F20" s="3">
-        <v>-39500</v>
+        <v>-4400</v>
       </c>
       <c r="G20" s="3">
-        <v>-11300</v>
+        <v>-38200</v>
       </c>
       <c r="H20" s="3">
-        <v>3400</v>
+        <v>-10900</v>
       </c>
       <c r="I20" s="3">
-        <v>9000</v>
+        <v>3300</v>
       </c>
       <c r="J20" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-14700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-87300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-70300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-160800</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>416200</v>
+      <c r="D21" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E21" s="3">
-        <v>573100</v>
+        <v>405800</v>
       </c>
       <c r="F21" s="3">
-        <v>639600</v>
+        <v>557300</v>
       </c>
       <c r="G21" s="3">
-        <v>441900</v>
+        <v>620700</v>
       </c>
       <c r="H21" s="3">
-        <v>456600</v>
+        <v>429400</v>
       </c>
       <c r="I21" s="3">
-        <v>-313500</v>
+        <v>443300</v>
       </c>
       <c r="J21" s="3">
+        <v>-300900</v>
+      </c>
+      <c r="K21" s="3">
         <v>210100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>233900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-232400</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>161500</v>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E22" s="3">
-        <v>190800</v>
+        <v>156000</v>
       </c>
       <c r="F22" s="3">
-        <v>166000</v>
+        <v>184400</v>
       </c>
       <c r="G22" s="3">
-        <v>193100</v>
+        <v>160400</v>
       </c>
       <c r="H22" s="3">
-        <v>207800</v>
+        <v>186500</v>
       </c>
       <c r="I22" s="3">
-        <v>187400</v>
+        <v>200700</v>
       </c>
       <c r="J22" s="3">
+        <v>181100</v>
+      </c>
+      <c r="K22" s="3">
         <v>51900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4700</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-38400</v>
+        <v>345800</v>
       </c>
       <c r="E23" s="3">
-        <v>92600</v>
+        <v>-37100</v>
       </c>
       <c r="F23" s="3">
-        <v>250700</v>
+        <v>89500</v>
       </c>
       <c r="G23" s="3">
-        <v>55300</v>
+        <v>242200</v>
       </c>
       <c r="H23" s="3">
-        <v>73400</v>
+        <v>53500</v>
       </c>
       <c r="I23" s="3">
-        <v>-659400</v>
+        <v>70900</v>
       </c>
       <c r="J23" s="3">
+        <v>-637100</v>
+      </c>
+      <c r="K23" s="3">
         <v>102700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>161500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>214100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-239500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-19200</v>
+        <v>60000</v>
       </c>
       <c r="E24" s="3">
-        <v>20300</v>
+        <v>-18500</v>
       </c>
       <c r="F24" s="3">
-        <v>36100</v>
+        <v>19600</v>
       </c>
       <c r="G24" s="3">
-        <v>108400</v>
+        <v>34900</v>
       </c>
       <c r="H24" s="3">
-        <v>77900</v>
+        <v>104700</v>
       </c>
       <c r="I24" s="3">
-        <v>-36100</v>
+        <v>75300</v>
       </c>
       <c r="J24" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="K24" s="3">
         <v>41800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>46700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>50500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-39900</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-19200</v>
+      <c r="D26" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E26" s="3">
-        <v>72300</v>
+        <v>-18500</v>
       </c>
       <c r="F26" s="3">
-        <v>214500</v>
+        <v>69800</v>
       </c>
       <c r="G26" s="3">
-        <v>-53100</v>
+        <v>207300</v>
       </c>
       <c r="H26" s="3">
-        <v>-4500</v>
+        <v>-51300</v>
       </c>
       <c r="I26" s="3">
-        <v>-623300</v>
+        <v>-4400</v>
       </c>
       <c r="J26" s="3">
+        <v>-602200</v>
+      </c>
+      <c r="K26" s="3">
         <v>61000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>114800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>163600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-199500</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-23700</v>
+      <c r="D27" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E27" s="3">
-        <v>66600</v>
+        <v>-22900</v>
       </c>
       <c r="F27" s="3">
-        <v>212300</v>
+        <v>64400</v>
       </c>
       <c r="G27" s="3">
-        <v>-53100</v>
+        <v>205100</v>
       </c>
       <c r="H27" s="3">
-        <v>-4500</v>
+        <v>-51300</v>
       </c>
       <c r="I27" s="3">
-        <v>-625500</v>
+        <v>-4400</v>
       </c>
       <c r="J27" s="3">
+        <v>-604400</v>
+      </c>
+      <c r="K27" s="3">
         <v>57600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>112400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>161400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200700</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1421,30 +1481,33 @@
       <c r="F29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="3">
-        <v>18100</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="H29" s="3">
+        <v>17500</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>4800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-8800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-9400</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>18100</v>
+      <c r="D32" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E32" s="3">
-        <v>4500</v>
+        <v>17500</v>
       </c>
       <c r="F32" s="3">
-        <v>39500</v>
+        <v>4400</v>
       </c>
       <c r="G32" s="3">
-        <v>11300</v>
+        <v>38200</v>
       </c>
       <c r="H32" s="3">
-        <v>-3400</v>
+        <v>10900</v>
       </c>
       <c r="I32" s="3">
-        <v>-9000</v>
+        <v>-3300</v>
       </c>
       <c r="J32" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K32" s="3">
         <v>14700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>87300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>70300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>160800</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-23700</v>
+      <c r="D33" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E33" s="3">
-        <v>66600</v>
+        <v>-22900</v>
       </c>
       <c r="F33" s="3">
-        <v>212300</v>
+        <v>64400</v>
       </c>
       <c r="G33" s="3">
-        <v>-35000</v>
+        <v>205100</v>
       </c>
       <c r="H33" s="3">
-        <v>-4500</v>
+        <v>-33800</v>
       </c>
       <c r="I33" s="3">
-        <v>-625500</v>
+        <v>-4400</v>
       </c>
       <c r="J33" s="3">
+        <v>-604400</v>
+      </c>
+      <c r="K33" s="3">
         <v>57600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>117200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>152600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-210100</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-23700</v>
+      <c r="D35" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E35" s="3">
-        <v>66600</v>
+        <v>-22900</v>
       </c>
       <c r="F35" s="3">
-        <v>212300</v>
+        <v>64400</v>
       </c>
       <c r="G35" s="3">
-        <v>-35000</v>
+        <v>205100</v>
       </c>
       <c r="H35" s="3">
-        <v>-4500</v>
+        <v>-33800</v>
       </c>
       <c r="I35" s="3">
-        <v>-625500</v>
+        <v>-4400</v>
       </c>
       <c r="J35" s="3">
+        <v>-604400</v>
+      </c>
+      <c r="K35" s="3">
         <v>57600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>117200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>152600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-210100</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>495700</v>
+        <v>160400</v>
       </c>
       <c r="E41" s="3">
-        <v>207800</v>
+        <v>478900</v>
       </c>
       <c r="F41" s="3">
-        <v>185200</v>
+        <v>200700</v>
       </c>
       <c r="G41" s="3">
-        <v>303700</v>
+        <v>178900</v>
       </c>
       <c r="H41" s="3">
-        <v>391800</v>
+        <v>293500</v>
       </c>
       <c r="I41" s="3">
-        <v>532900</v>
+        <v>378500</v>
       </c>
       <c r="J41" s="3">
+        <v>514900</v>
+      </c>
+      <c r="K41" s="3">
         <v>189700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>277500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>153700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>120900</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>11</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>927000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>31100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>39500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>49300</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>451600</v>
+        <v>745100</v>
       </c>
       <c r="E43" s="3">
-        <v>526200</v>
+        <v>436400</v>
       </c>
       <c r="F43" s="3">
-        <v>649200</v>
+        <v>508400</v>
       </c>
       <c r="G43" s="3">
-        <v>464100</v>
+        <v>627300</v>
       </c>
       <c r="H43" s="3">
-        <v>390700</v>
+        <v>448400</v>
       </c>
       <c r="I43" s="3">
-        <v>409900</v>
+        <v>377500</v>
       </c>
       <c r="J43" s="3">
+        <v>396000</v>
+      </c>
+      <c r="K43" s="3">
         <v>637900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>574200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1042000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>616300</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>657100</v>
+        <v>1145500</v>
       </c>
       <c r="E44" s="3">
-        <v>756500</v>
+        <v>634900</v>
       </c>
       <c r="F44" s="3">
-        <v>745200</v>
+        <v>730900</v>
       </c>
       <c r="G44" s="3">
-        <v>726000</v>
+        <v>720000</v>
       </c>
       <c r="H44" s="3">
-        <v>667300</v>
+        <v>701500</v>
       </c>
       <c r="I44" s="3">
-        <v>612000</v>
+        <v>644700</v>
       </c>
       <c r="J44" s="3">
+        <v>591300</v>
+      </c>
+      <c r="K44" s="3">
         <v>487800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>392400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>422700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>495300</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>50800</v>
+        <v>63300</v>
       </c>
       <c r="E45" s="3">
-        <v>33900</v>
+        <v>49100</v>
       </c>
       <c r="F45" s="3">
-        <v>47400</v>
+        <v>32700</v>
       </c>
       <c r="G45" s="3">
-        <v>86900</v>
+        <v>45800</v>
       </c>
       <c r="H45" s="3">
-        <v>142300</v>
+        <v>84000</v>
       </c>
       <c r="I45" s="3">
-        <v>96000</v>
+        <v>137500</v>
       </c>
       <c r="J45" s="3">
+        <v>92700</v>
+      </c>
+      <c r="K45" s="3">
         <v>83600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11700</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>1655300</v>
+      <c r="D46" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E46" s="3">
-        <v>1524300</v>
+        <v>1599300</v>
       </c>
       <c r="F46" s="3">
-        <v>1627000</v>
+        <v>1472700</v>
       </c>
       <c r="G46" s="3">
-        <v>1580700</v>
+        <v>1572000</v>
       </c>
       <c r="H46" s="3">
-        <v>1592000</v>
+        <v>1527300</v>
       </c>
       <c r="I46" s="3">
-        <v>1650700</v>
+        <v>1538200</v>
       </c>
       <c r="J46" s="3">
+        <v>1594900</v>
+      </c>
+      <c r="K46" s="3">
         <v>2325900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1303900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1138600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1293500</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>76800</v>
+        <v>60000</v>
       </c>
       <c r="E47" s="3">
-        <v>68900</v>
+        <v>74200</v>
       </c>
       <c r="F47" s="3">
-        <v>73400</v>
+        <v>66500</v>
       </c>
       <c r="G47" s="3">
-        <v>55300</v>
+        <v>70900</v>
       </c>
       <c r="H47" s="3">
-        <v>71100</v>
+        <v>53500</v>
       </c>
       <c r="I47" s="3">
-        <v>93700</v>
+        <v>68700</v>
       </c>
       <c r="J47" s="3">
+        <v>90500</v>
+      </c>
+      <c r="K47" s="3">
         <v>61000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>81300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>83400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>111500</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2152100</v>
+        <v>2125100</v>
       </c>
       <c r="E48" s="3">
-        <v>2321400</v>
+        <v>2079300</v>
       </c>
       <c r="F48" s="3">
-        <v>1881100</v>
+        <v>2242900</v>
       </c>
       <c r="G48" s="3">
-        <v>1712800</v>
+        <v>1817500</v>
       </c>
       <c r="H48" s="3">
-        <v>1667700</v>
+        <v>1654900</v>
       </c>
       <c r="I48" s="3">
-        <v>1417000</v>
+        <v>1611300</v>
       </c>
       <c r="J48" s="3">
+        <v>1369100</v>
+      </c>
+      <c r="K48" s="3">
         <v>713600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>488000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>663200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>232400</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>539700</v>
+        <v>555300</v>
       </c>
       <c r="E49" s="3">
-        <v>592800</v>
+        <v>521500</v>
       </c>
       <c r="F49" s="3">
-        <v>555500</v>
+        <v>572700</v>
       </c>
       <c r="G49" s="3">
-        <v>531800</v>
+        <v>536700</v>
       </c>
       <c r="H49" s="3">
-        <v>605200</v>
+        <v>513800</v>
       </c>
       <c r="I49" s="3">
-        <v>588300</v>
+        <v>584700</v>
       </c>
       <c r="J49" s="3">
+        <v>568400</v>
+      </c>
+      <c r="K49" s="3">
         <v>31600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>25100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>27000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>238200</v>
+        <v>189800</v>
       </c>
       <c r="E52" s="3">
-        <v>216800</v>
+        <v>230200</v>
       </c>
       <c r="F52" s="3">
-        <v>267600</v>
+        <v>209500</v>
       </c>
       <c r="G52" s="3">
-        <v>309400</v>
+        <v>258500</v>
       </c>
       <c r="H52" s="3">
-        <v>339900</v>
+        <v>298900</v>
       </c>
       <c r="I52" s="3">
-        <v>346600</v>
+        <v>328400</v>
       </c>
       <c r="J52" s="3">
+        <v>334900</v>
+      </c>
+      <c r="K52" s="3">
         <v>268700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>211700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>225100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>240600</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4662100</v>
+        <v>5044400</v>
       </c>
       <c r="E54" s="3">
-        <v>4724200</v>
+        <v>4504400</v>
       </c>
       <c r="F54" s="3">
-        <v>4404600</v>
+        <v>4564400</v>
       </c>
       <c r="G54" s="3">
-        <v>4190100</v>
+        <v>4255600</v>
       </c>
       <c r="H54" s="3">
-        <v>4275900</v>
+        <v>4048400</v>
       </c>
       <c r="I54" s="3">
-        <v>4096400</v>
+        <v>4131300</v>
       </c>
       <c r="J54" s="3">
+        <v>3957800</v>
+      </c>
+      <c r="K54" s="3">
         <v>3400800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2110100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1790800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1892200</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>706800</v>
+        <v>1502200</v>
       </c>
       <c r="E57" s="3">
-        <v>802800</v>
+        <v>682900</v>
       </c>
       <c r="F57" s="3">
-        <v>773400</v>
+        <v>775600</v>
       </c>
       <c r="G57" s="3">
-        <v>809600</v>
+        <v>747300</v>
       </c>
       <c r="H57" s="3">
-        <v>707900</v>
+        <v>782200</v>
       </c>
       <c r="I57" s="3">
-        <v>741800</v>
+        <v>684000</v>
       </c>
       <c r="J57" s="3">
+        <v>716700</v>
+      </c>
+      <c r="K57" s="3">
         <v>744100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>561000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>965100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>544600</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>103900</v>
+        <v>281500</v>
       </c>
       <c r="E58" s="3">
-        <v>226900</v>
+        <v>100400</v>
       </c>
       <c r="F58" s="3">
-        <v>64400</v>
+        <v>219300</v>
       </c>
       <c r="G58" s="3">
-        <v>119700</v>
+        <v>62200</v>
       </c>
       <c r="H58" s="3">
-        <v>120800</v>
+        <v>115600</v>
       </c>
       <c r="I58" s="3">
-        <v>190800</v>
+        <v>116700</v>
       </c>
       <c r="J58" s="3">
+        <v>184400</v>
+      </c>
+      <c r="K58" s="3">
         <v>53100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>26300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>19800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>85700</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>415500</v>
+        <v>86200</v>
       </c>
       <c r="E59" s="3">
-        <v>406500</v>
+        <v>401500</v>
       </c>
       <c r="F59" s="3">
-        <v>448300</v>
+        <v>392700</v>
       </c>
       <c r="G59" s="3">
-        <v>324100</v>
+        <v>433100</v>
       </c>
       <c r="H59" s="3">
-        <v>339900</v>
+        <v>313100</v>
       </c>
       <c r="I59" s="3">
-        <v>429100</v>
+        <v>328400</v>
       </c>
       <c r="J59" s="3">
+        <v>414500</v>
+      </c>
+      <c r="K59" s="3">
         <v>397400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>319400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>269000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>410800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>1226200</v>
+      <c r="D60" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E60" s="3">
-        <v>1436200</v>
+        <v>1184700</v>
       </c>
       <c r="F60" s="3">
-        <v>1286000</v>
+        <v>1387600</v>
       </c>
       <c r="G60" s="3">
-        <v>1253300</v>
+        <v>1242500</v>
       </c>
       <c r="H60" s="3">
-        <v>1168600</v>
+        <v>1210900</v>
       </c>
       <c r="I60" s="3">
-        <v>1361700</v>
+        <v>1129100</v>
       </c>
       <c r="J60" s="3">
+        <v>1315600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1194600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>906700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>818000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>987200</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2595800</v>
+        <v>2041100</v>
       </c>
       <c r="E61" s="3">
-        <v>2438900</v>
+        <v>2508000</v>
       </c>
       <c r="F61" s="3">
-        <v>2364300</v>
+        <v>2356400</v>
       </c>
       <c r="G61" s="3">
-        <v>2281900</v>
+        <v>2284400</v>
       </c>
       <c r="H61" s="3">
-        <v>2665800</v>
+        <v>2204700</v>
       </c>
       <c r="I61" s="3">
-        <v>2330500</v>
+        <v>2575600</v>
       </c>
       <c r="J61" s="3">
+        <v>2251600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1360600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>390000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>153700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>165500</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>954100</v>
+        <v>816000</v>
       </c>
       <c r="E62" s="3">
-        <v>945100</v>
+        <v>921800</v>
       </c>
       <c r="F62" s="3">
-        <v>883000</v>
+        <v>913100</v>
       </c>
       <c r="G62" s="3">
-        <v>1015100</v>
+        <v>853100</v>
       </c>
       <c r="H62" s="3">
-        <v>1085100</v>
+        <v>980700</v>
       </c>
       <c r="I62" s="3">
-        <v>1013900</v>
+        <v>1048400</v>
       </c>
       <c r="J62" s="3">
+        <v>979600</v>
+      </c>
+      <c r="K62" s="3">
         <v>887500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>770400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>859700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1172600</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4791900</v>
+        <v>4745500</v>
       </c>
       <c r="E66" s="3">
-        <v>4832500</v>
+        <v>4629800</v>
       </c>
       <c r="F66" s="3">
-        <v>4542400</v>
+        <v>4669100</v>
       </c>
       <c r="G66" s="3">
-        <v>4559300</v>
+        <v>4388700</v>
       </c>
       <c r="H66" s="3">
-        <v>4929700</v>
+        <v>4405100</v>
       </c>
       <c r="I66" s="3">
-        <v>4718500</v>
+        <v>4762900</v>
       </c>
       <c r="J66" s="3">
+        <v>4558900</v>
+      </c>
+      <c r="K66" s="3">
         <v>3449400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2071800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1835900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2027200</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-602900</v>
+        <v>-162500</v>
       </c>
       <c r="E72" s="3">
-        <v>-579200</v>
+        <v>-582500</v>
       </c>
       <c r="F72" s="3">
-        <v>-609700</v>
+        <v>-559600</v>
       </c>
       <c r="G72" s="3">
-        <v>-853600</v>
+        <v>-589100</v>
       </c>
       <c r="H72" s="3">
-        <v>-832100</v>
+        <v>-824700</v>
       </c>
       <c r="I72" s="3">
-        <v>-814100</v>
+        <v>-804000</v>
       </c>
       <c r="J72" s="3">
+        <v>-786500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-208900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-141200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-289900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-233600</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-129800</v>
+        <v>298900</v>
       </c>
       <c r="E76" s="3">
-        <v>-108400</v>
+        <v>-125500</v>
       </c>
       <c r="F76" s="3">
-        <v>-137800</v>
+        <v>-104700</v>
       </c>
       <c r="G76" s="3">
-        <v>-369200</v>
+        <v>-133100</v>
       </c>
       <c r="H76" s="3">
-        <v>-653700</v>
+        <v>-356700</v>
       </c>
       <c r="I76" s="3">
-        <v>-622100</v>
+        <v>-631600</v>
       </c>
       <c r="J76" s="3">
+        <v>-601100</v>
+      </c>
+      <c r="K76" s="3">
         <v>-48600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-45000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-135000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-23700</v>
+      <c r="D81" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E81" s="3">
-        <v>66600</v>
+        <v>-22900</v>
       </c>
       <c r="F81" s="3">
-        <v>212300</v>
+        <v>64400</v>
       </c>
       <c r="G81" s="3">
-        <v>-35000</v>
+        <v>205100</v>
       </c>
       <c r="H81" s="3">
-        <v>-4500</v>
+        <v>-33800</v>
       </c>
       <c r="I81" s="3">
-        <v>-625500</v>
+        <v>-4400</v>
       </c>
       <c r="J81" s="3">
+        <v>-604400</v>
+      </c>
+      <c r="K81" s="3">
         <v>57600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>117200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>152600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-210100</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>292400</v>
+        <v>291300</v>
       </c>
       <c r="E83" s="3">
-        <v>289000</v>
+        <v>282500</v>
       </c>
       <c r="F83" s="3">
-        <v>222400</v>
+        <v>279300</v>
       </c>
       <c r="G83" s="3">
-        <v>193100</v>
+        <v>214900</v>
       </c>
       <c r="H83" s="3">
-        <v>175000</v>
+        <v>186500</v>
       </c>
       <c r="I83" s="3">
-        <v>158100</v>
+        <v>169100</v>
       </c>
       <c r="J83" s="3">
+        <v>152700</v>
+      </c>
+      <c r="K83" s="3">
         <v>55300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>38300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2300</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>377100</v>
+        <v>389500</v>
       </c>
       <c r="E89" s="3">
-        <v>504700</v>
+        <v>364400</v>
       </c>
       <c r="F89" s="3">
-        <v>74500</v>
+        <v>487600</v>
       </c>
       <c r="G89" s="3">
-        <v>180700</v>
+        <v>72000</v>
       </c>
       <c r="H89" s="3">
-        <v>99400</v>
+        <v>174500</v>
       </c>
       <c r="I89" s="3">
-        <v>577000</v>
+        <v>96000</v>
       </c>
       <c r="J89" s="3">
+        <v>557500</v>
+      </c>
+      <c r="K89" s="3">
         <v>239400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>220100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>270100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-34000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-205500</v>
+        <v>-253100</v>
       </c>
       <c r="E91" s="3">
-        <v>-306000</v>
+        <v>-198500</v>
       </c>
       <c r="F91" s="3">
-        <v>-312800</v>
+        <v>-295600</v>
       </c>
       <c r="G91" s="3">
-        <v>-311600</v>
+        <v>-302200</v>
       </c>
       <c r="H91" s="3">
-        <v>-400800</v>
+        <v>-301100</v>
       </c>
       <c r="I91" s="3">
-        <v>-395200</v>
+        <v>-387300</v>
       </c>
       <c r="J91" s="3">
+        <v>-381800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-224700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-172300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-138300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-113900</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-198700</v>
+        <v>-241100</v>
       </c>
       <c r="E94" s="3">
-        <v>-398600</v>
+        <v>-192000</v>
       </c>
       <c r="F94" s="3">
-        <v>-102700</v>
+        <v>-385100</v>
       </c>
       <c r="G94" s="3">
-        <v>-329700</v>
+        <v>-99300</v>
       </c>
       <c r="H94" s="3">
-        <v>-412100</v>
+        <v>-318500</v>
       </c>
       <c r="I94" s="3">
-        <v>-815200</v>
+        <v>-398200</v>
       </c>
       <c r="J94" s="3">
+        <v>-787600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-243900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-157900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-143800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-81000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3552,17 +3785,20 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-175800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>114000</v>
+        <v>-474500</v>
       </c>
       <c r="E100" s="3">
-        <v>-85800</v>
+        <v>110200</v>
       </c>
       <c r="F100" s="3">
-        <v>-92600</v>
+        <v>-82900</v>
       </c>
       <c r="G100" s="3">
-        <v>68900</v>
+        <v>-89500</v>
       </c>
       <c r="H100" s="3">
-        <v>163700</v>
+        <v>66500</v>
       </c>
       <c r="I100" s="3">
-        <v>-347800</v>
+        <v>158200</v>
       </c>
       <c r="J100" s="3">
+        <v>-336000</v>
+      </c>
+      <c r="K100" s="3">
         <v>850200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>51400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-94400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>235900</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4500</v>
+        <v>7600</v>
       </c>
       <c r="E101" s="3">
-        <v>2300</v>
+        <v>-4400</v>
       </c>
       <c r="F101" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G101" s="3">
-        <v>-7900</v>
+        <v>2200</v>
       </c>
       <c r="H101" s="3">
-        <v>3400</v>
+        <v>-7600</v>
       </c>
       <c r="I101" s="3">
-        <v>4500</v>
+        <v>3300</v>
       </c>
       <c r="J101" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K101" s="3">
         <v>6800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>11700</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>287900</v>
+        <v>-326200</v>
       </c>
       <c r="E102" s="3">
-        <v>22600</v>
+        <v>278200</v>
       </c>
       <c r="F102" s="3">
-        <v>-118600</v>
+        <v>21800</v>
       </c>
       <c r="G102" s="3">
-        <v>-88100</v>
+        <v>-114500</v>
       </c>
       <c r="H102" s="3">
-        <v>-145700</v>
+        <v>-85100</v>
       </c>
       <c r="I102" s="3">
-        <v>-581500</v>
+        <v>-140700</v>
       </c>
       <c r="J102" s="3">
+        <v>-561800</v>
+      </c>
+      <c r="K102" s="3">
         <v>852500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>112400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>31800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>132600</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6711300</v>
+        <v>6385200</v>
       </c>
       <c r="E8" s="3">
-        <v>5326900</v>
+        <v>5068100</v>
       </c>
       <c r="F8" s="3">
-        <v>6444000</v>
+        <v>6130900</v>
       </c>
       <c r="G8" s="3">
-        <v>6202900</v>
+        <v>5901500</v>
       </c>
       <c r="H8" s="3">
-        <v>5713100</v>
+        <v>5435500</v>
       </c>
       <c r="I8" s="3">
-        <v>5174200</v>
+        <v>4922800</v>
       </c>
       <c r="J8" s="3">
-        <v>5621500</v>
+        <v>5348300</v>
       </c>
       <c r="K8" s="3">
         <v>4139300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5986900</v>
+        <v>5696000</v>
       </c>
       <c r="E9" s="3">
-        <v>4792400</v>
+        <v>4559500</v>
       </c>
       <c r="F9" s="3">
-        <v>5787300</v>
+        <v>5506100</v>
       </c>
       <c r="G9" s="3">
-        <v>5616000</v>
+        <v>5343100</v>
       </c>
       <c r="H9" s="3">
-        <v>5125100</v>
+        <v>4876100</v>
       </c>
       <c r="I9" s="3">
-        <v>4611300</v>
+        <v>4387200</v>
       </c>
       <c r="J9" s="3">
-        <v>5130500</v>
+        <v>4881200</v>
       </c>
       <c r="K9" s="3">
         <v>3593900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>724400</v>
+        <v>689200</v>
       </c>
       <c r="E10" s="3">
-        <v>534500</v>
+        <v>508600</v>
       </c>
       <c r="F10" s="3">
-        <v>656700</v>
+        <v>624800</v>
       </c>
       <c r="G10" s="3">
-        <v>586900</v>
+        <v>558400</v>
       </c>
       <c r="H10" s="3">
-        <v>588000</v>
+        <v>559400</v>
       </c>
       <c r="I10" s="3">
-        <v>562900</v>
+        <v>535600</v>
       </c>
       <c r="J10" s="3">
-        <v>490900</v>
+        <v>467100</v>
       </c>
       <c r="K10" s="3">
         <v>545400</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>42500</v>
+        <v>40500</v>
       </c>
       <c r="E12" s="3">
-        <v>37100</v>
+        <v>35300</v>
       </c>
       <c r="F12" s="3">
-        <v>45800</v>
+        <v>43600</v>
       </c>
       <c r="G12" s="3">
-        <v>39300</v>
+        <v>37400</v>
       </c>
       <c r="H12" s="3">
-        <v>36000</v>
+        <v>34300</v>
       </c>
       <c r="I12" s="3">
-        <v>34900</v>
+        <v>33200</v>
       </c>
       <c r="J12" s="3">
-        <v>38200</v>
+        <v>36300</v>
       </c>
       <c r="K12" s="3">
         <v>42900</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="E14" s="3">
-        <v>69800</v>
+        <v>66400</v>
       </c>
       <c r="F14" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="G14" s="3">
-        <v>-38200</v>
+        <v>-36300</v>
       </c>
       <c r="H14" s="3">
-        <v>81800</v>
+        <v>77800</v>
       </c>
       <c r="I14" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="J14" s="3">
-        <v>512700</v>
+        <v>487800</v>
       </c>
       <c r="K14" s="3">
         <v>45200</v>
@@ -977,22 +977,22 @@
         <v>11</v>
       </c>
       <c r="E15" s="3">
-        <v>20700</v>
+        <v>19700</v>
       </c>
       <c r="F15" s="3">
-        <v>20700</v>
+        <v>19700</v>
       </c>
       <c r="G15" s="3">
-        <v>14200</v>
+        <v>13500</v>
       </c>
       <c r="H15" s="3">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="I15" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="J15" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="K15" s="3">
         <v>5600</v>
@@ -1026,26 +1026,26 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
+      <c r="D17" s="3">
+        <v>5882800</v>
       </c>
       <c r="E17" s="3">
-        <v>5190500</v>
+        <v>4938300</v>
       </c>
       <c r="F17" s="3">
-        <v>6165800</v>
+        <v>5866200</v>
       </c>
       <c r="G17" s="3">
-        <v>5762200</v>
+        <v>5482200</v>
       </c>
       <c r="H17" s="3">
-        <v>5462200</v>
+        <v>5196800</v>
       </c>
       <c r="I17" s="3">
-        <v>4905800</v>
+        <v>4667400</v>
       </c>
       <c r="J17" s="3">
-        <v>6086200</v>
+        <v>5790400</v>
       </c>
       <c r="K17" s="3">
         <v>3969900</v>
@@ -1065,26 +1065,26 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>11</v>
+      <c r="D18" s="3">
+        <v>502300</v>
       </c>
       <c r="E18" s="3">
-        <v>136400</v>
+        <v>129700</v>
       </c>
       <c r="F18" s="3">
-        <v>278200</v>
+        <v>264700</v>
       </c>
       <c r="G18" s="3">
-        <v>440700</v>
+        <v>419300</v>
       </c>
       <c r="H18" s="3">
-        <v>250900</v>
+        <v>238700</v>
       </c>
       <c r="I18" s="3">
-        <v>268400</v>
+        <v>255300</v>
       </c>
       <c r="J18" s="3">
-        <v>-464700</v>
+        <v>-442100</v>
       </c>
       <c r="K18" s="3">
         <v>169400</v>
@@ -1121,26 +1121,26 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
+      <c r="D20" s="3">
+        <v>-173300</v>
       </c>
       <c r="E20" s="3">
-        <v>-17500</v>
+        <v>-16600</v>
       </c>
       <c r="F20" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="G20" s="3">
-        <v>-38200</v>
+        <v>-36300</v>
       </c>
       <c r="H20" s="3">
-        <v>-10900</v>
+        <v>-10400</v>
       </c>
       <c r="I20" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="J20" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="K20" s="3">
         <v>-14700</v>
@@ -1160,26 +1160,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
+      <c r="D21" s="3">
+        <v>609700</v>
       </c>
       <c r="E21" s="3">
-        <v>405800</v>
+        <v>385400</v>
       </c>
       <c r="F21" s="3">
-        <v>557300</v>
+        <v>529600</v>
       </c>
       <c r="G21" s="3">
-        <v>620700</v>
+        <v>590100</v>
       </c>
       <c r="H21" s="3">
-        <v>429400</v>
+        <v>408100</v>
       </c>
       <c r="I21" s="3">
-        <v>443300</v>
+        <v>421400</v>
       </c>
       <c r="J21" s="3">
-        <v>-300900</v>
+        <v>-286700</v>
       </c>
       <c r="K21" s="3">
         <v>210100</v>
@@ -1203,22 +1203,22 @@
         <v>11</v>
       </c>
       <c r="E22" s="3">
-        <v>156000</v>
+        <v>148400</v>
       </c>
       <c r="F22" s="3">
-        <v>184400</v>
+        <v>175400</v>
       </c>
       <c r="G22" s="3">
-        <v>160400</v>
+        <v>152600</v>
       </c>
       <c r="H22" s="3">
-        <v>186500</v>
+        <v>177500</v>
       </c>
       <c r="I22" s="3">
-        <v>200700</v>
+        <v>191000</v>
       </c>
       <c r="J22" s="3">
-        <v>181100</v>
+        <v>172300</v>
       </c>
       <c r="K22" s="3">
         <v>51900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>345800</v>
+        <v>329000</v>
       </c>
       <c r="E23" s="3">
-        <v>-37100</v>
+        <v>-35300</v>
       </c>
       <c r="F23" s="3">
-        <v>89500</v>
+        <v>85100</v>
       </c>
       <c r="G23" s="3">
-        <v>242200</v>
+        <v>230400</v>
       </c>
       <c r="H23" s="3">
-        <v>53500</v>
+        <v>50900</v>
       </c>
       <c r="I23" s="3">
-        <v>70900</v>
+        <v>67500</v>
       </c>
       <c r="J23" s="3">
-        <v>-637100</v>
+        <v>-606100</v>
       </c>
       <c r="K23" s="3">
         <v>102700</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>60000</v>
+        <v>57100</v>
       </c>
       <c r="E24" s="3">
-        <v>-18500</v>
+        <v>-17600</v>
       </c>
       <c r="F24" s="3">
-        <v>19600</v>
+        <v>18700</v>
       </c>
       <c r="G24" s="3">
-        <v>34900</v>
+        <v>33200</v>
       </c>
       <c r="H24" s="3">
-        <v>104700</v>
+        <v>99600</v>
       </c>
       <c r="I24" s="3">
-        <v>75300</v>
+        <v>71600</v>
       </c>
       <c r="J24" s="3">
-        <v>-34900</v>
+        <v>-33200</v>
       </c>
       <c r="K24" s="3">
         <v>41800</v>
@@ -1355,26 +1355,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>11</v>
+      <c r="D26" s="3">
+        <v>271900</v>
       </c>
       <c r="E26" s="3">
-        <v>-18500</v>
+        <v>-17600</v>
       </c>
       <c r="F26" s="3">
-        <v>69800</v>
+        <v>66400</v>
       </c>
       <c r="G26" s="3">
-        <v>207300</v>
+        <v>197200</v>
       </c>
       <c r="H26" s="3">
-        <v>-51300</v>
+        <v>-48800</v>
       </c>
       <c r="I26" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="J26" s="3">
-        <v>-602200</v>
+        <v>-572900</v>
       </c>
       <c r="K26" s="3">
         <v>61000</v>
@@ -1394,26 +1394,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>11</v>
+      <c r="D27" s="3">
+        <v>266700</v>
       </c>
       <c r="E27" s="3">
-        <v>-22900</v>
+        <v>-21800</v>
       </c>
       <c r="F27" s="3">
-        <v>64400</v>
+        <v>61200</v>
       </c>
       <c r="G27" s="3">
-        <v>205100</v>
+        <v>195100</v>
       </c>
       <c r="H27" s="3">
-        <v>-51300</v>
+        <v>-48800</v>
       </c>
       <c r="I27" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="J27" s="3">
-        <v>-604400</v>
+        <v>-575000</v>
       </c>
       <c r="K27" s="3">
         <v>57600</v>
@@ -1485,7 +1485,7 @@
         <v>11</v>
       </c>
       <c r="H29" s="3">
-        <v>17500</v>
+        <v>16600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>11</v>
@@ -1589,26 +1589,26 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>11</v>
+      <c r="D32" s="3">
+        <v>173300</v>
       </c>
       <c r="E32" s="3">
-        <v>17500</v>
+        <v>16600</v>
       </c>
       <c r="F32" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="G32" s="3">
-        <v>38200</v>
+        <v>36300</v>
       </c>
       <c r="H32" s="3">
-        <v>10900</v>
+        <v>10400</v>
       </c>
       <c r="I32" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="J32" s="3">
-        <v>-8700</v>
+        <v>-8300</v>
       </c>
       <c r="K32" s="3">
         <v>14700</v>
@@ -1628,26 +1628,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>11</v>
+      <c r="D33" s="3">
+        <v>266700</v>
       </c>
       <c r="E33" s="3">
-        <v>-22900</v>
+        <v>-21800</v>
       </c>
       <c r="F33" s="3">
-        <v>64400</v>
+        <v>61200</v>
       </c>
       <c r="G33" s="3">
-        <v>205100</v>
+        <v>195100</v>
       </c>
       <c r="H33" s="3">
-        <v>-33800</v>
+        <v>-32200</v>
       </c>
       <c r="I33" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="J33" s="3">
-        <v>-604400</v>
+        <v>-575000</v>
       </c>
       <c r="K33" s="3">
         <v>57600</v>
@@ -1706,26 +1706,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>11</v>
+      <c r="D35" s="3">
+        <v>266700</v>
       </c>
       <c r="E35" s="3">
-        <v>-22900</v>
+        <v>-21800</v>
       </c>
       <c r="F35" s="3">
-        <v>64400</v>
+        <v>61200</v>
       </c>
       <c r="G35" s="3">
-        <v>205100</v>
+        <v>195100</v>
       </c>
       <c r="H35" s="3">
-        <v>-33800</v>
+        <v>-32200</v>
       </c>
       <c r="I35" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="J35" s="3">
-        <v>-604400</v>
+        <v>-575000</v>
       </c>
       <c r="K35" s="3">
         <v>57600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>160400</v>
+        <v>152600</v>
       </c>
       <c r="E41" s="3">
-        <v>478900</v>
+        <v>455600</v>
       </c>
       <c r="F41" s="3">
-        <v>200700</v>
+        <v>191000</v>
       </c>
       <c r="G41" s="3">
-        <v>178900</v>
+        <v>170200</v>
       </c>
       <c r="H41" s="3">
-        <v>293500</v>
+        <v>279200</v>
       </c>
       <c r="I41" s="3">
-        <v>378500</v>
+        <v>360200</v>
       </c>
       <c r="J41" s="3">
-        <v>514900</v>
+        <v>489900</v>
       </c>
       <c r="K41" s="3">
         <v>189700</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>745100</v>
+        <v>708900</v>
       </c>
       <c r="E43" s="3">
-        <v>436400</v>
+        <v>415200</v>
       </c>
       <c r="F43" s="3">
-        <v>508400</v>
+        <v>483700</v>
       </c>
       <c r="G43" s="3">
-        <v>627300</v>
+        <v>596800</v>
       </c>
       <c r="H43" s="3">
-        <v>448400</v>
+        <v>426600</v>
       </c>
       <c r="I43" s="3">
-        <v>377500</v>
+        <v>359100</v>
       </c>
       <c r="J43" s="3">
-        <v>396000</v>
+        <v>376800</v>
       </c>
       <c r="K43" s="3">
         <v>637900</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1145500</v>
+        <v>1089800</v>
       </c>
       <c r="E44" s="3">
-        <v>634900</v>
+        <v>604100</v>
       </c>
       <c r="F44" s="3">
-        <v>730900</v>
+        <v>695400</v>
       </c>
       <c r="G44" s="3">
-        <v>720000</v>
+        <v>685000</v>
       </c>
       <c r="H44" s="3">
-        <v>701500</v>
+        <v>667400</v>
       </c>
       <c r="I44" s="3">
-        <v>644700</v>
+        <v>613400</v>
       </c>
       <c r="J44" s="3">
-        <v>591300</v>
+        <v>562500</v>
       </c>
       <c r="K44" s="3">
         <v>487800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>63300</v>
+        <v>60200</v>
       </c>
       <c r="E45" s="3">
-        <v>49100</v>
+        <v>46700</v>
       </c>
       <c r="F45" s="3">
-        <v>32700</v>
+        <v>31100</v>
       </c>
       <c r="G45" s="3">
-        <v>45800</v>
+        <v>43600</v>
       </c>
       <c r="H45" s="3">
-        <v>84000</v>
+        <v>79900</v>
       </c>
       <c r="I45" s="3">
-        <v>137500</v>
+        <v>130800</v>
       </c>
       <c r="J45" s="3">
-        <v>92700</v>
+        <v>88200</v>
       </c>
       <c r="K45" s="3">
         <v>83600</v>
@@ -2018,26 +2018,26 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>11</v>
+      <c r="D46" s="3">
+        <v>2011500</v>
       </c>
       <c r="E46" s="3">
-        <v>1599300</v>
+        <v>1521600</v>
       </c>
       <c r="F46" s="3">
-        <v>1472700</v>
+        <v>1401200</v>
       </c>
       <c r="G46" s="3">
-        <v>1572000</v>
+        <v>1495600</v>
       </c>
       <c r="H46" s="3">
-        <v>1527300</v>
+        <v>1453100</v>
       </c>
       <c r="I46" s="3">
-        <v>1538200</v>
+        <v>1463400</v>
       </c>
       <c r="J46" s="3">
-        <v>1594900</v>
+        <v>1517400</v>
       </c>
       <c r="K46" s="3">
         <v>2325900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>60000</v>
+        <v>57100</v>
       </c>
       <c r="E47" s="3">
-        <v>74200</v>
+        <v>70600</v>
       </c>
       <c r="F47" s="3">
-        <v>66500</v>
+        <v>63300</v>
       </c>
       <c r="G47" s="3">
-        <v>70900</v>
+        <v>67500</v>
       </c>
       <c r="H47" s="3">
-        <v>53500</v>
+        <v>50900</v>
       </c>
       <c r="I47" s="3">
-        <v>68700</v>
+        <v>65400</v>
       </c>
       <c r="J47" s="3">
-        <v>90500</v>
+        <v>86100</v>
       </c>
       <c r="K47" s="3">
         <v>61000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2125100</v>
+        <v>2021800</v>
       </c>
       <c r="E48" s="3">
-        <v>2079300</v>
+        <v>1978200</v>
       </c>
       <c r="F48" s="3">
-        <v>2242900</v>
+        <v>2133900</v>
       </c>
       <c r="G48" s="3">
-        <v>1817500</v>
+        <v>1729100</v>
       </c>
       <c r="H48" s="3">
-        <v>1654900</v>
+        <v>1574500</v>
       </c>
       <c r="I48" s="3">
-        <v>1611300</v>
+        <v>1533000</v>
       </c>
       <c r="J48" s="3">
-        <v>1369100</v>
+        <v>1302600</v>
       </c>
       <c r="K48" s="3">
         <v>713600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>555300</v>
+        <v>528300</v>
       </c>
       <c r="E49" s="3">
-        <v>521500</v>
+        <v>496100</v>
       </c>
       <c r="F49" s="3">
-        <v>572700</v>
+        <v>544900</v>
       </c>
       <c r="G49" s="3">
-        <v>536700</v>
+        <v>510600</v>
       </c>
       <c r="H49" s="3">
-        <v>513800</v>
+        <v>488900</v>
       </c>
       <c r="I49" s="3">
-        <v>584700</v>
+        <v>556300</v>
       </c>
       <c r="J49" s="3">
-        <v>568400</v>
+        <v>540700</v>
       </c>
       <c r="K49" s="3">
         <v>31600</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>189800</v>
+        <v>180600</v>
       </c>
       <c r="E52" s="3">
-        <v>230200</v>
+        <v>219000</v>
       </c>
       <c r="F52" s="3">
-        <v>209500</v>
+        <v>199300</v>
       </c>
       <c r="G52" s="3">
-        <v>258500</v>
+        <v>246000</v>
       </c>
       <c r="H52" s="3">
-        <v>298900</v>
+        <v>284400</v>
       </c>
       <c r="I52" s="3">
-        <v>328400</v>
+        <v>312400</v>
       </c>
       <c r="J52" s="3">
-        <v>334900</v>
+        <v>318600</v>
       </c>
       <c r="K52" s="3">
         <v>268700</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5044400</v>
+        <v>4799200</v>
       </c>
       <c r="E54" s="3">
-        <v>4504400</v>
+        <v>4285500</v>
       </c>
       <c r="F54" s="3">
-        <v>4564400</v>
+        <v>4342600</v>
       </c>
       <c r="G54" s="3">
-        <v>4255600</v>
+        <v>4048800</v>
       </c>
       <c r="H54" s="3">
-        <v>4048400</v>
+        <v>3851600</v>
       </c>
       <c r="I54" s="3">
-        <v>4131300</v>
+        <v>3930500</v>
       </c>
       <c r="J54" s="3">
-        <v>3957800</v>
+        <v>3765500</v>
       </c>
       <c r="K54" s="3">
         <v>3400800</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1502200</v>
+        <v>1429200</v>
       </c>
       <c r="E57" s="3">
-        <v>682900</v>
+        <v>649700</v>
       </c>
       <c r="F57" s="3">
-        <v>775600</v>
+        <v>737900</v>
       </c>
       <c r="G57" s="3">
-        <v>747300</v>
+        <v>711000</v>
       </c>
       <c r="H57" s="3">
-        <v>782200</v>
+        <v>744200</v>
       </c>
       <c r="I57" s="3">
-        <v>684000</v>
+        <v>650800</v>
       </c>
       <c r="J57" s="3">
-        <v>716700</v>
+        <v>681900</v>
       </c>
       <c r="K57" s="3">
         <v>744100</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>281500</v>
+        <v>267800</v>
       </c>
       <c r="E58" s="3">
-        <v>100400</v>
+        <v>95500</v>
       </c>
       <c r="F58" s="3">
-        <v>219300</v>
+        <v>208600</v>
       </c>
       <c r="G58" s="3">
-        <v>62200</v>
+        <v>59200</v>
       </c>
       <c r="H58" s="3">
-        <v>115600</v>
+        <v>110000</v>
       </c>
       <c r="I58" s="3">
-        <v>116700</v>
+        <v>111100</v>
       </c>
       <c r="J58" s="3">
-        <v>184400</v>
+        <v>175400</v>
       </c>
       <c r="K58" s="3">
         <v>53100</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>86200</v>
+        <v>82000</v>
       </c>
       <c r="E59" s="3">
-        <v>401500</v>
+        <v>381900</v>
       </c>
       <c r="F59" s="3">
-        <v>392700</v>
+        <v>373600</v>
       </c>
       <c r="G59" s="3">
-        <v>433100</v>
+        <v>412000</v>
       </c>
       <c r="H59" s="3">
-        <v>313100</v>
+        <v>297900</v>
       </c>
       <c r="I59" s="3">
-        <v>328400</v>
+        <v>312400</v>
       </c>
       <c r="J59" s="3">
-        <v>414500</v>
+        <v>394400</v>
       </c>
       <c r="K59" s="3">
         <v>397400</v>
@@ -2520,26 +2520,26 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>11</v>
+      <c r="D60" s="3">
+        <v>1779000</v>
       </c>
       <c r="E60" s="3">
-        <v>1184700</v>
+        <v>1127200</v>
       </c>
       <c r="F60" s="3">
-        <v>1387600</v>
+        <v>1320200</v>
       </c>
       <c r="G60" s="3">
-        <v>1242500</v>
+        <v>1182200</v>
       </c>
       <c r="H60" s="3">
-        <v>1210900</v>
+        <v>1152100</v>
       </c>
       <c r="I60" s="3">
-        <v>1129100</v>
+        <v>1074200</v>
       </c>
       <c r="J60" s="3">
-        <v>1315600</v>
+        <v>1251700</v>
       </c>
       <c r="K60" s="3">
         <v>1194600</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2041100</v>
+        <v>1941900</v>
       </c>
       <c r="E61" s="3">
-        <v>2508000</v>
+        <v>2386100</v>
       </c>
       <c r="F61" s="3">
-        <v>2356400</v>
+        <v>2241900</v>
       </c>
       <c r="G61" s="3">
-        <v>2284400</v>
+        <v>2173400</v>
       </c>
       <c r="H61" s="3">
-        <v>2204700</v>
+        <v>2097600</v>
       </c>
       <c r="I61" s="3">
-        <v>2575600</v>
+        <v>2450500</v>
       </c>
       <c r="J61" s="3">
-        <v>2251600</v>
+        <v>2142200</v>
       </c>
       <c r="K61" s="3">
         <v>1360600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>816000</v>
+        <v>776300</v>
       </c>
       <c r="E62" s="3">
-        <v>921800</v>
+        <v>877000</v>
       </c>
       <c r="F62" s="3">
-        <v>913100</v>
+        <v>868700</v>
       </c>
       <c r="G62" s="3">
-        <v>853100</v>
+        <v>811600</v>
       </c>
       <c r="H62" s="3">
-        <v>980700</v>
+        <v>933100</v>
       </c>
       <c r="I62" s="3">
-        <v>1048400</v>
+        <v>997400</v>
       </c>
       <c r="J62" s="3">
-        <v>979600</v>
+        <v>932000</v>
       </c>
       <c r="K62" s="3">
         <v>887500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4745500</v>
+        <v>4514900</v>
       </c>
       <c r="E66" s="3">
-        <v>4629800</v>
+        <v>4404800</v>
       </c>
       <c r="F66" s="3">
-        <v>4669100</v>
+        <v>4442200</v>
       </c>
       <c r="G66" s="3">
-        <v>4388700</v>
+        <v>4175500</v>
       </c>
       <c r="H66" s="3">
-        <v>4405100</v>
+        <v>4191000</v>
       </c>
       <c r="I66" s="3">
-        <v>4762900</v>
+        <v>4531500</v>
       </c>
       <c r="J66" s="3">
-        <v>4558900</v>
+        <v>4337400</v>
       </c>
       <c r="K66" s="3">
         <v>3449400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-162500</v>
+        <v>-154600</v>
       </c>
       <c r="E72" s="3">
-        <v>-582500</v>
+        <v>-554200</v>
       </c>
       <c r="F72" s="3">
-        <v>-559600</v>
+        <v>-532400</v>
       </c>
       <c r="G72" s="3">
-        <v>-589100</v>
+        <v>-560500</v>
       </c>
       <c r="H72" s="3">
-        <v>-824700</v>
+        <v>-784700</v>
       </c>
       <c r="I72" s="3">
-        <v>-804000</v>
+        <v>-764900</v>
       </c>
       <c r="J72" s="3">
-        <v>-786500</v>
+        <v>-748300</v>
       </c>
       <c r="K72" s="3">
         <v>-208900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>298900</v>
+        <v>284400</v>
       </c>
       <c r="E76" s="3">
-        <v>-125500</v>
+        <v>-119400</v>
       </c>
       <c r="F76" s="3">
-        <v>-104700</v>
+        <v>-99600</v>
       </c>
       <c r="G76" s="3">
-        <v>-133100</v>
+        <v>-126600</v>
       </c>
       <c r="H76" s="3">
-        <v>-356700</v>
+        <v>-339400</v>
       </c>
       <c r="I76" s="3">
-        <v>-631600</v>
+        <v>-600900</v>
       </c>
       <c r="J76" s="3">
-        <v>-601100</v>
+        <v>-571900</v>
       </c>
       <c r="K76" s="3">
         <v>-48600</v>
@@ -3244,26 +3244,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>11</v>
+      <c r="D81" s="3">
+        <v>266700</v>
       </c>
       <c r="E81" s="3">
-        <v>-22900</v>
+        <v>-21800</v>
       </c>
       <c r="F81" s="3">
-        <v>64400</v>
+        <v>61200</v>
       </c>
       <c r="G81" s="3">
-        <v>205100</v>
+        <v>195100</v>
       </c>
       <c r="H81" s="3">
-        <v>-33800</v>
+        <v>-32200</v>
       </c>
       <c r="I81" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="J81" s="3">
-        <v>-604400</v>
+        <v>-575000</v>
       </c>
       <c r="K81" s="3">
         <v>57600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>291300</v>
+        <v>277100</v>
       </c>
       <c r="E83" s="3">
-        <v>282500</v>
+        <v>268800</v>
       </c>
       <c r="F83" s="3">
-        <v>279300</v>
+        <v>265700</v>
       </c>
       <c r="G83" s="3">
-        <v>214900</v>
+        <v>204500</v>
       </c>
       <c r="H83" s="3">
-        <v>186500</v>
+        <v>177500</v>
       </c>
       <c r="I83" s="3">
-        <v>169100</v>
+        <v>160900</v>
       </c>
       <c r="J83" s="3">
-        <v>152700</v>
+        <v>145300</v>
       </c>
       <c r="K83" s="3">
         <v>55300</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>389500</v>
+        <v>370500</v>
       </c>
       <c r="E89" s="3">
-        <v>364400</v>
+        <v>346700</v>
       </c>
       <c r="F89" s="3">
-        <v>487600</v>
+        <v>463900</v>
       </c>
       <c r="G89" s="3">
-        <v>72000</v>
+        <v>68500</v>
       </c>
       <c r="H89" s="3">
-        <v>174500</v>
+        <v>166100</v>
       </c>
       <c r="I89" s="3">
-        <v>96000</v>
+        <v>91300</v>
       </c>
       <c r="J89" s="3">
-        <v>557500</v>
+        <v>530400</v>
       </c>
       <c r="K89" s="3">
         <v>239400</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-253100</v>
+        <v>-240800</v>
       </c>
       <c r="E91" s="3">
-        <v>-198500</v>
+        <v>-188900</v>
       </c>
       <c r="F91" s="3">
-        <v>-295600</v>
+        <v>-281300</v>
       </c>
       <c r="G91" s="3">
-        <v>-302200</v>
+        <v>-287500</v>
       </c>
       <c r="H91" s="3">
-        <v>-301100</v>
+        <v>-286500</v>
       </c>
       <c r="I91" s="3">
-        <v>-387300</v>
+        <v>-368500</v>
       </c>
       <c r="J91" s="3">
-        <v>-381800</v>
+        <v>-363300</v>
       </c>
       <c r="K91" s="3">
         <v>-224700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-241100</v>
+        <v>-229400</v>
       </c>
       <c r="E94" s="3">
-        <v>-192000</v>
+        <v>-182700</v>
       </c>
       <c r="F94" s="3">
-        <v>-385100</v>
+        <v>-366400</v>
       </c>
       <c r="G94" s="3">
-        <v>-99300</v>
+        <v>-94400</v>
       </c>
       <c r="H94" s="3">
-        <v>-318500</v>
+        <v>-303100</v>
       </c>
       <c r="I94" s="3">
-        <v>-398200</v>
+        <v>-378800</v>
       </c>
       <c r="J94" s="3">
-        <v>-787600</v>
+        <v>-749400</v>
       </c>
       <c r="K94" s="3">
         <v>-243900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-474500</v>
+        <v>-451500</v>
       </c>
       <c r="E100" s="3">
-        <v>110200</v>
+        <v>104800</v>
       </c>
       <c r="F100" s="3">
-        <v>-82900</v>
+        <v>-78900</v>
       </c>
       <c r="G100" s="3">
-        <v>-89500</v>
+        <v>-85100</v>
       </c>
       <c r="H100" s="3">
-        <v>66500</v>
+        <v>63300</v>
       </c>
       <c r="I100" s="3">
-        <v>158200</v>
+        <v>150500</v>
       </c>
       <c r="J100" s="3">
-        <v>-336000</v>
+        <v>-319700</v>
       </c>
       <c r="K100" s="3">
         <v>850200</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="E101" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="F101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H101" s="3">
-        <v>-7600</v>
+        <v>-7300</v>
       </c>
       <c r="I101" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="J101" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="K101" s="3">
         <v>6800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-326200</v>
+        <v>-303100</v>
       </c>
       <c r="E102" s="3">
-        <v>278200</v>
+        <v>264700</v>
       </c>
       <c r="F102" s="3">
-        <v>21800</v>
+        <v>20800</v>
       </c>
       <c r="G102" s="3">
-        <v>-114500</v>
+        <v>-109000</v>
       </c>
       <c r="H102" s="3">
-        <v>-85100</v>
+        <v>-81000</v>
       </c>
       <c r="I102" s="3">
-        <v>-140700</v>
+        <v>-133900</v>
       </c>
       <c r="J102" s="3">
-        <v>-561800</v>
+        <v>-534500</v>
       </c>
       <c r="K102" s="3">
         <v>852500</v>

--- a/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6385200</v>
+        <v>6136000</v>
       </c>
       <c r="E8" s="3">
-        <v>5068100</v>
+        <v>4870300</v>
       </c>
       <c r="F8" s="3">
-        <v>6130900</v>
+        <v>5891600</v>
       </c>
       <c r="G8" s="3">
-        <v>5901500</v>
+        <v>5671200</v>
       </c>
       <c r="H8" s="3">
-        <v>5435500</v>
+        <v>5223400</v>
       </c>
       <c r="I8" s="3">
-        <v>4922800</v>
+        <v>4730700</v>
       </c>
       <c r="J8" s="3">
-        <v>5348300</v>
+        <v>5139600</v>
       </c>
       <c r="K8" s="3">
         <v>4139300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5696000</v>
+        <v>5473700</v>
       </c>
       <c r="E9" s="3">
-        <v>4559500</v>
+        <v>4381600</v>
       </c>
       <c r="F9" s="3">
-        <v>5506100</v>
+        <v>5291200</v>
       </c>
       <c r="G9" s="3">
-        <v>5343100</v>
+        <v>5134600</v>
       </c>
       <c r="H9" s="3">
-        <v>4876100</v>
+        <v>4685800</v>
       </c>
       <c r="I9" s="3">
-        <v>4387200</v>
+        <v>4216000</v>
       </c>
       <c r="J9" s="3">
-        <v>4881200</v>
+        <v>4690800</v>
       </c>
       <c r="K9" s="3">
         <v>3593900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>689200</v>
+        <v>662300</v>
       </c>
       <c r="E10" s="3">
-        <v>508600</v>
+        <v>488700</v>
       </c>
       <c r="F10" s="3">
-        <v>624800</v>
+        <v>600400</v>
       </c>
       <c r="G10" s="3">
-        <v>558400</v>
+        <v>536600</v>
       </c>
       <c r="H10" s="3">
-        <v>559400</v>
+        <v>537600</v>
       </c>
       <c r="I10" s="3">
-        <v>535600</v>
+        <v>514700</v>
       </c>
       <c r="J10" s="3">
-        <v>467100</v>
+        <v>448800</v>
       </c>
       <c r="K10" s="3">
         <v>545400</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>40500</v>
+        <v>33900</v>
       </c>
       <c r="E12" s="3">
-        <v>35300</v>
+        <v>33900</v>
       </c>
       <c r="F12" s="3">
-        <v>43600</v>
+        <v>41900</v>
       </c>
       <c r="G12" s="3">
-        <v>37400</v>
+        <v>35900</v>
       </c>
       <c r="H12" s="3">
-        <v>34300</v>
+        <v>32900</v>
       </c>
       <c r="I12" s="3">
-        <v>33200</v>
+        <v>31900</v>
       </c>
       <c r="J12" s="3">
-        <v>36300</v>
+        <v>34900</v>
       </c>
       <c r="K12" s="3">
         <v>42900</v>
@@ -934,26 +934,26 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
+      <c r="D14" s="3">
+        <v>61800</v>
       </c>
       <c r="E14" s="3">
-        <v>66400</v>
+        <v>63800</v>
       </c>
       <c r="F14" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G14" s="3">
-        <v>-36300</v>
+        <v>-34900</v>
       </c>
       <c r="H14" s="3">
-        <v>77800</v>
+        <v>74800</v>
       </c>
       <c r="I14" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="J14" s="3">
-        <v>487800</v>
+        <v>468800</v>
       </c>
       <c r="K14" s="3">
         <v>45200</v>
@@ -973,26 +973,26 @@
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
+      <c r="D15" s="3">
+        <v>21900</v>
       </c>
       <c r="E15" s="3">
-        <v>19700</v>
+        <v>19000</v>
       </c>
       <c r="F15" s="3">
-        <v>19700</v>
+        <v>19000</v>
       </c>
       <c r="G15" s="3">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="H15" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="I15" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="J15" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="K15" s="3">
         <v>5600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5882800</v>
+        <v>5680200</v>
       </c>
       <c r="E17" s="3">
-        <v>4938300</v>
+        <v>4745600</v>
       </c>
       <c r="F17" s="3">
-        <v>5866200</v>
+        <v>5637300</v>
       </c>
       <c r="G17" s="3">
-        <v>5482200</v>
+        <v>5268300</v>
       </c>
       <c r="H17" s="3">
-        <v>5196800</v>
+        <v>4994000</v>
       </c>
       <c r="I17" s="3">
-        <v>4667400</v>
+        <v>4485300</v>
       </c>
       <c r="J17" s="3">
-        <v>5790400</v>
+        <v>5564500</v>
       </c>
       <c r="K17" s="3">
         <v>3969900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>502300</v>
+        <v>455800</v>
       </c>
       <c r="E18" s="3">
-        <v>129700</v>
+        <v>124700</v>
       </c>
       <c r="F18" s="3">
-        <v>264700</v>
+        <v>254300</v>
       </c>
       <c r="G18" s="3">
-        <v>419300</v>
+        <v>402900</v>
       </c>
       <c r="H18" s="3">
-        <v>238700</v>
+        <v>229400</v>
       </c>
       <c r="I18" s="3">
-        <v>255300</v>
+        <v>245400</v>
       </c>
       <c r="J18" s="3">
-        <v>-442100</v>
+        <v>-424900</v>
       </c>
       <c r="K18" s="3">
         <v>169400</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-173300</v>
+        <v>-9000</v>
       </c>
       <c r="E20" s="3">
-        <v>-16600</v>
+        <v>-16000</v>
       </c>
       <c r="F20" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="G20" s="3">
-        <v>-36300</v>
+        <v>-34900</v>
       </c>
       <c r="H20" s="3">
-        <v>-10400</v>
+        <v>-10000</v>
       </c>
       <c r="I20" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J20" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="K20" s="3">
         <v>-14700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>609700</v>
+        <v>712900</v>
       </c>
       <c r="E21" s="3">
-        <v>385400</v>
+        <v>366800</v>
       </c>
       <c r="F21" s="3">
-        <v>529600</v>
+        <v>505500</v>
       </c>
       <c r="G21" s="3">
-        <v>590100</v>
+        <v>564400</v>
       </c>
       <c r="H21" s="3">
-        <v>408100</v>
+        <v>389800</v>
       </c>
       <c r="I21" s="3">
-        <v>421400</v>
+        <v>402800</v>
       </c>
       <c r="J21" s="3">
-        <v>-286700</v>
+        <v>-277400</v>
       </c>
       <c r="K21" s="3">
         <v>210100</v>
@@ -1199,26 +1199,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>11</v>
+      <c r="D22" s="3">
+        <v>130700</v>
       </c>
       <c r="E22" s="3">
-        <v>148400</v>
+        <v>142600</v>
       </c>
       <c r="F22" s="3">
-        <v>175400</v>
+        <v>168600</v>
       </c>
       <c r="G22" s="3">
-        <v>152600</v>
+        <v>146600</v>
       </c>
       <c r="H22" s="3">
-        <v>177500</v>
+        <v>170600</v>
       </c>
       <c r="I22" s="3">
-        <v>191000</v>
+        <v>183500</v>
       </c>
       <c r="J22" s="3">
-        <v>172300</v>
+        <v>165600</v>
       </c>
       <c r="K22" s="3">
         <v>51900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>329000</v>
+        <v>316200</v>
       </c>
       <c r="E23" s="3">
-        <v>-35300</v>
+        <v>-33900</v>
       </c>
       <c r="F23" s="3">
-        <v>85100</v>
+        <v>81800</v>
       </c>
       <c r="G23" s="3">
-        <v>230400</v>
+        <v>221400</v>
       </c>
       <c r="H23" s="3">
-        <v>50900</v>
+        <v>48900</v>
       </c>
       <c r="I23" s="3">
-        <v>67500</v>
+        <v>64800</v>
       </c>
       <c r="J23" s="3">
-        <v>-606100</v>
+        <v>-582500</v>
       </c>
       <c r="K23" s="3">
         <v>102700</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>57100</v>
+        <v>54900</v>
       </c>
       <c r="E24" s="3">
-        <v>-17600</v>
+        <v>-17000</v>
       </c>
       <c r="F24" s="3">
-        <v>18700</v>
+        <v>18000</v>
       </c>
       <c r="G24" s="3">
-        <v>33200</v>
+        <v>31900</v>
       </c>
       <c r="H24" s="3">
-        <v>99600</v>
+        <v>95800</v>
       </c>
       <c r="I24" s="3">
-        <v>71600</v>
+        <v>68800</v>
       </c>
       <c r="J24" s="3">
-        <v>-33200</v>
+        <v>-31900</v>
       </c>
       <c r="K24" s="3">
         <v>41800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>271900</v>
+        <v>261300</v>
       </c>
       <c r="E26" s="3">
-        <v>-17600</v>
+        <v>-17000</v>
       </c>
       <c r="F26" s="3">
-        <v>66400</v>
+        <v>63800</v>
       </c>
       <c r="G26" s="3">
-        <v>197200</v>
+        <v>189500</v>
       </c>
       <c r="H26" s="3">
-        <v>-48800</v>
+        <v>-46900</v>
       </c>
       <c r="I26" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="J26" s="3">
-        <v>-572900</v>
+        <v>-550600</v>
       </c>
       <c r="K26" s="3">
         <v>61000</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>266700</v>
+        <v>256300</v>
       </c>
       <c r="E27" s="3">
-        <v>-21800</v>
+        <v>-20900</v>
       </c>
       <c r="F27" s="3">
-        <v>61200</v>
+        <v>58800</v>
       </c>
       <c r="G27" s="3">
-        <v>195100</v>
+        <v>187500</v>
       </c>
       <c r="H27" s="3">
-        <v>-48800</v>
+        <v>-46900</v>
       </c>
       <c r="I27" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="J27" s="3">
-        <v>-575000</v>
+        <v>-552600</v>
       </c>
       <c r="K27" s="3">
         <v>57600</v>
@@ -1485,7 +1485,7 @@
         <v>11</v>
       </c>
       <c r="H29" s="3">
-        <v>16600</v>
+        <v>16000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>11</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>173300</v>
+        <v>9000</v>
       </c>
       <c r="E32" s="3">
-        <v>16600</v>
+        <v>16000</v>
       </c>
       <c r="F32" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="G32" s="3">
-        <v>36300</v>
+        <v>34900</v>
       </c>
       <c r="H32" s="3">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="I32" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="J32" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="K32" s="3">
         <v>14700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>266700</v>
+        <v>256300</v>
       </c>
       <c r="E33" s="3">
-        <v>-21800</v>
+        <v>-20900</v>
       </c>
       <c r="F33" s="3">
-        <v>61200</v>
+        <v>58800</v>
       </c>
       <c r="G33" s="3">
-        <v>195100</v>
+        <v>187500</v>
       </c>
       <c r="H33" s="3">
-        <v>-32200</v>
+        <v>-30900</v>
       </c>
       <c r="I33" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="J33" s="3">
-        <v>-575000</v>
+        <v>-552600</v>
       </c>
       <c r="K33" s="3">
         <v>57600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>266700</v>
+        <v>256300</v>
       </c>
       <c r="E35" s="3">
-        <v>-21800</v>
+        <v>-20900</v>
       </c>
       <c r="F35" s="3">
-        <v>61200</v>
+        <v>58800</v>
       </c>
       <c r="G35" s="3">
-        <v>195100</v>
+        <v>187500</v>
       </c>
       <c r="H35" s="3">
-        <v>-32200</v>
+        <v>-30900</v>
       </c>
       <c r="I35" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="J35" s="3">
-        <v>-575000</v>
+        <v>-552600</v>
       </c>
       <c r="K35" s="3">
         <v>57600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>152600</v>
+        <v>146600</v>
       </c>
       <c r="E41" s="3">
-        <v>455600</v>
+        <v>437900</v>
       </c>
       <c r="F41" s="3">
-        <v>191000</v>
+        <v>183500</v>
       </c>
       <c r="G41" s="3">
-        <v>170200</v>
+        <v>163600</v>
       </c>
       <c r="H41" s="3">
-        <v>279200</v>
+        <v>268300</v>
       </c>
       <c r="I41" s="3">
-        <v>360200</v>
+        <v>346100</v>
       </c>
       <c r="J41" s="3">
-        <v>489900</v>
+        <v>470800</v>
       </c>
       <c r="K41" s="3">
         <v>189700</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>708900</v>
+        <v>672200</v>
       </c>
       <c r="E43" s="3">
-        <v>415200</v>
+        <v>399000</v>
       </c>
       <c r="F43" s="3">
-        <v>483700</v>
+        <v>464800</v>
       </c>
       <c r="G43" s="3">
-        <v>596800</v>
+        <v>573500</v>
       </c>
       <c r="H43" s="3">
-        <v>426600</v>
+        <v>409900</v>
       </c>
       <c r="I43" s="3">
-        <v>359100</v>
+        <v>345100</v>
       </c>
       <c r="J43" s="3">
-        <v>376800</v>
+        <v>362100</v>
       </c>
       <c r="K43" s="3">
         <v>637900</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1089800</v>
+        <v>1047300</v>
       </c>
       <c r="E44" s="3">
-        <v>604100</v>
+        <v>580500</v>
       </c>
       <c r="F44" s="3">
-        <v>695400</v>
+        <v>668300</v>
       </c>
       <c r="G44" s="3">
-        <v>685000</v>
+        <v>658300</v>
       </c>
       <c r="H44" s="3">
-        <v>667400</v>
+        <v>641300</v>
       </c>
       <c r="I44" s="3">
-        <v>613400</v>
+        <v>589500</v>
       </c>
       <c r="J44" s="3">
-        <v>562500</v>
+        <v>540600</v>
       </c>
       <c r="K44" s="3">
         <v>487800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>60200</v>
+        <v>66800</v>
       </c>
       <c r="E45" s="3">
-        <v>46700</v>
+        <v>44900</v>
       </c>
       <c r="F45" s="3">
-        <v>31100</v>
+        <v>29900</v>
       </c>
       <c r="G45" s="3">
-        <v>43600</v>
+        <v>41900</v>
       </c>
       <c r="H45" s="3">
-        <v>79900</v>
+        <v>76800</v>
       </c>
       <c r="I45" s="3">
-        <v>130800</v>
+        <v>125700</v>
       </c>
       <c r="J45" s="3">
-        <v>88200</v>
+        <v>84800</v>
       </c>
       <c r="K45" s="3">
         <v>83600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2011500</v>
+        <v>1933000</v>
       </c>
       <c r="E46" s="3">
-        <v>1521600</v>
+        <v>1462200</v>
       </c>
       <c r="F46" s="3">
-        <v>1401200</v>
+        <v>1346500</v>
       </c>
       <c r="G46" s="3">
-        <v>1495600</v>
+        <v>1437300</v>
       </c>
       <c r="H46" s="3">
-        <v>1453100</v>
+        <v>1396400</v>
       </c>
       <c r="I46" s="3">
-        <v>1463400</v>
+        <v>1406300</v>
       </c>
       <c r="J46" s="3">
-        <v>1517400</v>
+        <v>1458200</v>
       </c>
       <c r="K46" s="3">
         <v>2325900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>57100</v>
+        <v>54900</v>
       </c>
       <c r="E47" s="3">
-        <v>70600</v>
+        <v>67800</v>
       </c>
       <c r="F47" s="3">
-        <v>63300</v>
+        <v>60800</v>
       </c>
       <c r="G47" s="3">
-        <v>67500</v>
+        <v>64800</v>
       </c>
       <c r="H47" s="3">
-        <v>50900</v>
+        <v>48900</v>
       </c>
       <c r="I47" s="3">
-        <v>65400</v>
+        <v>62800</v>
       </c>
       <c r="J47" s="3">
-        <v>86100</v>
+        <v>82800</v>
       </c>
       <c r="K47" s="3">
         <v>61000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2021800</v>
+        <v>1942900</v>
       </c>
       <c r="E48" s="3">
-        <v>1978200</v>
+        <v>1901000</v>
       </c>
       <c r="F48" s="3">
-        <v>2133900</v>
+        <v>2050700</v>
       </c>
       <c r="G48" s="3">
-        <v>1729100</v>
+        <v>1661700</v>
       </c>
       <c r="H48" s="3">
-        <v>1574500</v>
+        <v>1513100</v>
       </c>
       <c r="I48" s="3">
-        <v>1533000</v>
+        <v>1473200</v>
       </c>
       <c r="J48" s="3">
-        <v>1302600</v>
+        <v>1251700</v>
       </c>
       <c r="K48" s="3">
         <v>713600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>528300</v>
+        <v>507700</v>
       </c>
       <c r="E49" s="3">
-        <v>496100</v>
+        <v>476800</v>
       </c>
       <c r="F49" s="3">
-        <v>544900</v>
+        <v>523600</v>
       </c>
       <c r="G49" s="3">
-        <v>510600</v>
+        <v>490700</v>
       </c>
       <c r="H49" s="3">
-        <v>488900</v>
+        <v>469800</v>
       </c>
       <c r="I49" s="3">
-        <v>556300</v>
+        <v>534600</v>
       </c>
       <c r="J49" s="3">
-        <v>540700</v>
+        <v>519600</v>
       </c>
       <c r="K49" s="3">
         <v>31600</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>180600</v>
+        <v>173500</v>
       </c>
       <c r="E52" s="3">
-        <v>219000</v>
+        <v>210500</v>
       </c>
       <c r="F52" s="3">
-        <v>199300</v>
+        <v>191500</v>
       </c>
       <c r="G52" s="3">
-        <v>246000</v>
+        <v>236400</v>
       </c>
       <c r="H52" s="3">
-        <v>284400</v>
+        <v>273300</v>
       </c>
       <c r="I52" s="3">
-        <v>312400</v>
+        <v>300200</v>
       </c>
       <c r="J52" s="3">
-        <v>318600</v>
+        <v>306200</v>
       </c>
       <c r="K52" s="3">
         <v>268700</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4799200</v>
+        <v>4612000</v>
       </c>
       <c r="E54" s="3">
-        <v>4285500</v>
+        <v>4118300</v>
       </c>
       <c r="F54" s="3">
-        <v>4342600</v>
+        <v>4173100</v>
       </c>
       <c r="G54" s="3">
-        <v>4048800</v>
+        <v>3890900</v>
       </c>
       <c r="H54" s="3">
-        <v>3851600</v>
+        <v>3701400</v>
       </c>
       <c r="I54" s="3">
-        <v>3930500</v>
+        <v>3777200</v>
       </c>
       <c r="J54" s="3">
-        <v>3765500</v>
+        <v>3618600</v>
       </c>
       <c r="K54" s="3">
         <v>3400800</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1429200</v>
+        <v>1062200</v>
       </c>
       <c r="E57" s="3">
-        <v>649700</v>
+        <v>624400</v>
       </c>
       <c r="F57" s="3">
-        <v>737900</v>
+        <v>709200</v>
       </c>
       <c r="G57" s="3">
-        <v>711000</v>
+        <v>683200</v>
       </c>
       <c r="H57" s="3">
-        <v>744200</v>
+        <v>715100</v>
       </c>
       <c r="I57" s="3">
-        <v>650800</v>
+        <v>625400</v>
       </c>
       <c r="J57" s="3">
-        <v>681900</v>
+        <v>655300</v>
       </c>
       <c r="K57" s="3">
         <v>744100</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>267800</v>
+        <v>257300</v>
       </c>
       <c r="E58" s="3">
-        <v>95500</v>
+        <v>91800</v>
       </c>
       <c r="F58" s="3">
-        <v>208600</v>
+        <v>200500</v>
       </c>
       <c r="G58" s="3">
-        <v>59200</v>
+        <v>56900</v>
       </c>
       <c r="H58" s="3">
-        <v>110000</v>
+        <v>105700</v>
       </c>
       <c r="I58" s="3">
-        <v>111100</v>
+        <v>106700</v>
       </c>
       <c r="J58" s="3">
-        <v>175400</v>
+        <v>168600</v>
       </c>
       <c r="K58" s="3">
         <v>53100</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>82000</v>
+        <v>390000</v>
       </c>
       <c r="E59" s="3">
-        <v>381900</v>
+        <v>367000</v>
       </c>
       <c r="F59" s="3">
-        <v>373600</v>
+        <v>359100</v>
       </c>
       <c r="G59" s="3">
-        <v>412000</v>
+        <v>396000</v>
       </c>
       <c r="H59" s="3">
-        <v>297900</v>
+        <v>286300</v>
       </c>
       <c r="I59" s="3">
-        <v>312400</v>
+        <v>300200</v>
       </c>
       <c r="J59" s="3">
-        <v>394400</v>
+        <v>379000</v>
       </c>
       <c r="K59" s="3">
         <v>397400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1779000</v>
+        <v>1709500</v>
       </c>
       <c r="E60" s="3">
-        <v>1127200</v>
+        <v>1083200</v>
       </c>
       <c r="F60" s="3">
-        <v>1320200</v>
+        <v>1268700</v>
       </c>
       <c r="G60" s="3">
-        <v>1182200</v>
+        <v>1136000</v>
       </c>
       <c r="H60" s="3">
-        <v>1152100</v>
+        <v>1107100</v>
       </c>
       <c r="I60" s="3">
-        <v>1074200</v>
+        <v>1032300</v>
       </c>
       <c r="J60" s="3">
-        <v>1251700</v>
+        <v>1202900</v>
       </c>
       <c r="K60" s="3">
         <v>1194600</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1941900</v>
+        <v>1866100</v>
       </c>
       <c r="E61" s="3">
-        <v>2386100</v>
+        <v>2293000</v>
       </c>
       <c r="F61" s="3">
-        <v>2241900</v>
+        <v>2154400</v>
       </c>
       <c r="G61" s="3">
-        <v>2173400</v>
+        <v>2088600</v>
       </c>
       <c r="H61" s="3">
-        <v>2097600</v>
+        <v>2015700</v>
       </c>
       <c r="I61" s="3">
-        <v>2450500</v>
+        <v>2354900</v>
       </c>
       <c r="J61" s="3">
-        <v>2142200</v>
+        <v>2058600</v>
       </c>
       <c r="K61" s="3">
         <v>1360600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>776300</v>
+        <v>746100</v>
       </c>
       <c r="E62" s="3">
-        <v>877000</v>
+        <v>842800</v>
       </c>
       <c r="F62" s="3">
-        <v>868700</v>
+        <v>834800</v>
       </c>
       <c r="G62" s="3">
-        <v>811600</v>
+        <v>780000</v>
       </c>
       <c r="H62" s="3">
-        <v>933100</v>
+        <v>896700</v>
       </c>
       <c r="I62" s="3">
-        <v>997400</v>
+        <v>958500</v>
       </c>
       <c r="J62" s="3">
-        <v>932000</v>
+        <v>895700</v>
       </c>
       <c r="K62" s="3">
         <v>887500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4514900</v>
+        <v>4338700</v>
       </c>
       <c r="E66" s="3">
-        <v>4404800</v>
+        <v>4233000</v>
       </c>
       <c r="F66" s="3">
-        <v>4442200</v>
+        <v>4268900</v>
       </c>
       <c r="G66" s="3">
-        <v>4175500</v>
+        <v>4012500</v>
       </c>
       <c r="H66" s="3">
-        <v>4191000</v>
+        <v>4027500</v>
       </c>
       <c r="I66" s="3">
-        <v>4531500</v>
+        <v>4354600</v>
       </c>
       <c r="J66" s="3">
-        <v>4337400</v>
+        <v>4168100</v>
       </c>
       <c r="K66" s="3">
         <v>3449400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-154600</v>
+        <v>-163600</v>
       </c>
       <c r="E72" s="3">
-        <v>-554200</v>
+        <v>-532600</v>
       </c>
       <c r="F72" s="3">
-        <v>-532400</v>
+        <v>-511700</v>
       </c>
       <c r="G72" s="3">
-        <v>-560500</v>
+        <v>-538600</v>
       </c>
       <c r="H72" s="3">
-        <v>-784700</v>
+        <v>-754000</v>
       </c>
       <c r="I72" s="3">
-        <v>-764900</v>
+        <v>-735100</v>
       </c>
       <c r="J72" s="3">
-        <v>-748300</v>
+        <v>-719100</v>
       </c>
       <c r="K72" s="3">
         <v>-208900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>284400</v>
+        <v>273300</v>
       </c>
       <c r="E76" s="3">
-        <v>-119400</v>
+        <v>-114700</v>
       </c>
       <c r="F76" s="3">
-        <v>-99600</v>
+        <v>-95800</v>
       </c>
       <c r="G76" s="3">
-        <v>-126600</v>
+        <v>-121700</v>
       </c>
       <c r="H76" s="3">
-        <v>-339400</v>
+        <v>-326100</v>
       </c>
       <c r="I76" s="3">
-        <v>-600900</v>
+        <v>-577500</v>
       </c>
       <c r="J76" s="3">
-        <v>-571900</v>
+        <v>-549600</v>
       </c>
       <c r="K76" s="3">
         <v>-48600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>266700</v>
+        <v>256300</v>
       </c>
       <c r="E81" s="3">
-        <v>-21800</v>
+        <v>-20900</v>
       </c>
       <c r="F81" s="3">
-        <v>61200</v>
+        <v>58800</v>
       </c>
       <c r="G81" s="3">
-        <v>195100</v>
+        <v>187500</v>
       </c>
       <c r="H81" s="3">
-        <v>-32200</v>
+        <v>-30900</v>
       </c>
       <c r="I81" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="J81" s="3">
-        <v>-575000</v>
+        <v>-552600</v>
       </c>
       <c r="K81" s="3">
         <v>57600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>277100</v>
+        <v>266300</v>
       </c>
       <c r="E83" s="3">
-        <v>268800</v>
+        <v>258300</v>
       </c>
       <c r="F83" s="3">
-        <v>265700</v>
+        <v>255300</v>
       </c>
       <c r="G83" s="3">
-        <v>204500</v>
+        <v>196500</v>
       </c>
       <c r="H83" s="3">
-        <v>177500</v>
+        <v>170600</v>
       </c>
       <c r="I83" s="3">
-        <v>160900</v>
+        <v>154600</v>
       </c>
       <c r="J83" s="3">
-        <v>145300</v>
+        <v>139600</v>
       </c>
       <c r="K83" s="3">
         <v>55300</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>370500</v>
+        <v>356100</v>
       </c>
       <c r="E89" s="3">
-        <v>346700</v>
+        <v>333100</v>
       </c>
       <c r="F89" s="3">
-        <v>463900</v>
+        <v>445800</v>
       </c>
       <c r="G89" s="3">
-        <v>68500</v>
+        <v>65800</v>
       </c>
       <c r="H89" s="3">
-        <v>166100</v>
+        <v>159600</v>
       </c>
       <c r="I89" s="3">
-        <v>91300</v>
+        <v>87800</v>
       </c>
       <c r="J89" s="3">
-        <v>530400</v>
+        <v>509700</v>
       </c>
       <c r="K89" s="3">
         <v>239400</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-240800</v>
+        <v>-231400</v>
       </c>
       <c r="E91" s="3">
-        <v>-188900</v>
+        <v>-181500</v>
       </c>
       <c r="F91" s="3">
-        <v>-281300</v>
+        <v>-270300</v>
       </c>
       <c r="G91" s="3">
-        <v>-287500</v>
+        <v>-276300</v>
       </c>
       <c r="H91" s="3">
-        <v>-286500</v>
+        <v>-275300</v>
       </c>
       <c r="I91" s="3">
-        <v>-368500</v>
+        <v>-354100</v>
       </c>
       <c r="J91" s="3">
-        <v>-363300</v>
+        <v>-349100</v>
       </c>
       <c r="K91" s="3">
         <v>-224700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-229400</v>
+        <v>-220400</v>
       </c>
       <c r="E94" s="3">
-        <v>-182700</v>
+        <v>-175500</v>
       </c>
       <c r="F94" s="3">
-        <v>-366400</v>
+        <v>-352100</v>
       </c>
       <c r="G94" s="3">
-        <v>-94400</v>
+        <v>-90800</v>
       </c>
       <c r="H94" s="3">
-        <v>-303100</v>
+        <v>-291200</v>
       </c>
       <c r="I94" s="3">
-        <v>-378800</v>
+        <v>-364100</v>
       </c>
       <c r="J94" s="3">
-        <v>-749400</v>
+        <v>-720100</v>
       </c>
       <c r="K94" s="3">
         <v>-243900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-451500</v>
+        <v>-433900</v>
       </c>
       <c r="E100" s="3">
-        <v>104800</v>
+        <v>100700</v>
       </c>
       <c r="F100" s="3">
-        <v>-78900</v>
+        <v>-75800</v>
       </c>
       <c r="G100" s="3">
-        <v>-85100</v>
+        <v>-81800</v>
       </c>
       <c r="H100" s="3">
-        <v>63300</v>
+        <v>60800</v>
       </c>
       <c r="I100" s="3">
-        <v>150500</v>
+        <v>144600</v>
       </c>
       <c r="J100" s="3">
-        <v>-319700</v>
+        <v>-307200</v>
       </c>
       <c r="K100" s="3">
         <v>850200</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="E101" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="F101" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G101" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H101" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="I101" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J101" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="K101" s="3">
         <v>6800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-303100</v>
+        <v>-291200</v>
       </c>
       <c r="E102" s="3">
-        <v>264700</v>
+        <v>254300</v>
       </c>
       <c r="F102" s="3">
-        <v>20800</v>
+        <v>19900</v>
       </c>
       <c r="G102" s="3">
-        <v>-109000</v>
+        <v>-104700</v>
       </c>
       <c r="H102" s="3">
-        <v>-81000</v>
+        <v>-77800</v>
       </c>
       <c r="I102" s="3">
-        <v>-133900</v>
+        <v>-128700</v>
       </c>
       <c r="J102" s="3">
-        <v>-534500</v>
+        <v>-513700</v>
       </c>
       <c r="K102" s="3">
         <v>852500</v>

--- a/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6136000</v>
+        <v>6280000</v>
       </c>
       <c r="E8" s="3">
-        <v>4870300</v>
+        <v>4984600</v>
       </c>
       <c r="F8" s="3">
-        <v>5891600</v>
+        <v>6029900</v>
       </c>
       <c r="G8" s="3">
-        <v>5671200</v>
+        <v>5804300</v>
       </c>
       <c r="H8" s="3">
-        <v>5223400</v>
+        <v>5345900</v>
       </c>
       <c r="I8" s="3">
-        <v>4730700</v>
+        <v>4841700</v>
       </c>
       <c r="J8" s="3">
-        <v>5139600</v>
+        <v>5260200</v>
       </c>
       <c r="K8" s="3">
         <v>4139300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5473700</v>
+        <v>5602200</v>
       </c>
       <c r="E9" s="3">
-        <v>4381600</v>
+        <v>4484400</v>
       </c>
       <c r="F9" s="3">
-        <v>5291200</v>
+        <v>5415300</v>
       </c>
       <c r="G9" s="3">
-        <v>5134600</v>
+        <v>5255100</v>
       </c>
       <c r="H9" s="3">
-        <v>4685800</v>
+        <v>4795700</v>
       </c>
       <c r="I9" s="3">
-        <v>4216000</v>
+        <v>4314900</v>
       </c>
       <c r="J9" s="3">
-        <v>4690800</v>
+        <v>4800800</v>
       </c>
       <c r="K9" s="3">
         <v>3593900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>662300</v>
+        <v>677800</v>
       </c>
       <c r="E10" s="3">
-        <v>488700</v>
+        <v>500200</v>
       </c>
       <c r="F10" s="3">
-        <v>600400</v>
+        <v>614500</v>
       </c>
       <c r="G10" s="3">
-        <v>536600</v>
+        <v>549200</v>
       </c>
       <c r="H10" s="3">
-        <v>537600</v>
+        <v>550200</v>
       </c>
       <c r="I10" s="3">
-        <v>514700</v>
+        <v>526700</v>
       </c>
       <c r="J10" s="3">
-        <v>448800</v>
+        <v>459400</v>
       </c>
       <c r="K10" s="3">
         <v>545400</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>33900</v>
+        <v>34700</v>
       </c>
       <c r="E12" s="3">
-        <v>33900</v>
+        <v>34700</v>
       </c>
       <c r="F12" s="3">
-        <v>41900</v>
+        <v>42900</v>
       </c>
       <c r="G12" s="3">
-        <v>35900</v>
+        <v>36700</v>
       </c>
       <c r="H12" s="3">
-        <v>32900</v>
+        <v>33700</v>
       </c>
       <c r="I12" s="3">
-        <v>31900</v>
+        <v>32700</v>
       </c>
       <c r="J12" s="3">
-        <v>34900</v>
+        <v>35700</v>
       </c>
       <c r="K12" s="3">
         <v>42900</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>61800</v>
+        <v>63300</v>
       </c>
       <c r="E14" s="3">
-        <v>63800</v>
+        <v>65300</v>
       </c>
       <c r="F14" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G14" s="3">
-        <v>-34900</v>
+        <v>-35700</v>
       </c>
       <c r="H14" s="3">
-        <v>74800</v>
+        <v>76600</v>
       </c>
       <c r="I14" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J14" s="3">
-        <v>468800</v>
+        <v>479800</v>
       </c>
       <c r="K14" s="3">
         <v>45200</v>
@@ -974,25 +974,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>21900</v>
+        <v>22500</v>
       </c>
       <c r="E15" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="F15" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="G15" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="H15" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="I15" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="J15" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="K15" s="3">
         <v>5600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5680200</v>
+        <v>5813500</v>
       </c>
       <c r="E17" s="3">
-        <v>4745600</v>
+        <v>4857000</v>
       </c>
       <c r="F17" s="3">
-        <v>5637300</v>
+        <v>5769600</v>
       </c>
       <c r="G17" s="3">
-        <v>5268300</v>
+        <v>5391900</v>
       </c>
       <c r="H17" s="3">
-        <v>4994000</v>
+        <v>5111100</v>
       </c>
       <c r="I17" s="3">
-        <v>4485300</v>
+        <v>4590500</v>
       </c>
       <c r="J17" s="3">
-        <v>5564500</v>
+        <v>5695000</v>
       </c>
       <c r="K17" s="3">
         <v>3969900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>455800</v>
+        <v>466500</v>
       </c>
       <c r="E18" s="3">
-        <v>124700</v>
+        <v>127600</v>
       </c>
       <c r="F18" s="3">
-        <v>254300</v>
+        <v>260300</v>
       </c>
       <c r="G18" s="3">
-        <v>402900</v>
+        <v>412400</v>
       </c>
       <c r="H18" s="3">
-        <v>229400</v>
+        <v>234800</v>
       </c>
       <c r="I18" s="3">
-        <v>245400</v>
+        <v>251100</v>
       </c>
       <c r="J18" s="3">
-        <v>-424900</v>
+        <v>-434900</v>
       </c>
       <c r="K18" s="3">
         <v>169400</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9000</v>
+        <v>-9200</v>
       </c>
       <c r="E20" s="3">
-        <v>-16000</v>
+        <v>-16300</v>
       </c>
       <c r="F20" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="G20" s="3">
-        <v>-34900</v>
+        <v>-35700</v>
       </c>
       <c r="H20" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="I20" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J20" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="K20" s="3">
         <v>-14700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>712900</v>
+        <v>724600</v>
       </c>
       <c r="E21" s="3">
-        <v>366800</v>
+        <v>370600</v>
       </c>
       <c r="F21" s="3">
-        <v>505500</v>
+        <v>512500</v>
       </c>
       <c r="G21" s="3">
-        <v>564400</v>
+        <v>573900</v>
       </c>
       <c r="H21" s="3">
-        <v>389800</v>
+        <v>395800</v>
       </c>
       <c r="I21" s="3">
-        <v>402800</v>
+        <v>409300</v>
       </c>
       <c r="J21" s="3">
-        <v>-277400</v>
+        <v>-286500</v>
       </c>
       <c r="K21" s="3">
         <v>210100</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>130700</v>
+        <v>133700</v>
       </c>
       <c r="E22" s="3">
-        <v>142600</v>
+        <v>146000</v>
       </c>
       <c r="F22" s="3">
-        <v>168600</v>
+        <v>172500</v>
       </c>
       <c r="G22" s="3">
-        <v>146600</v>
+        <v>150100</v>
       </c>
       <c r="H22" s="3">
-        <v>170600</v>
+        <v>174600</v>
       </c>
       <c r="I22" s="3">
-        <v>183500</v>
+        <v>187800</v>
       </c>
       <c r="J22" s="3">
-        <v>165600</v>
+        <v>169500</v>
       </c>
       <c r="K22" s="3">
         <v>51900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>316200</v>
+        <v>323600</v>
       </c>
       <c r="E23" s="3">
-        <v>-33900</v>
+        <v>-34700</v>
       </c>
       <c r="F23" s="3">
-        <v>81800</v>
+        <v>83700</v>
       </c>
       <c r="G23" s="3">
-        <v>221400</v>
+        <v>226600</v>
       </c>
       <c r="H23" s="3">
-        <v>48900</v>
+        <v>50000</v>
       </c>
       <c r="I23" s="3">
-        <v>64800</v>
+        <v>66400</v>
       </c>
       <c r="J23" s="3">
-        <v>-582500</v>
+        <v>-596100</v>
       </c>
       <c r="K23" s="3">
         <v>102700</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>54900</v>
+        <v>56100</v>
       </c>
       <c r="E24" s="3">
-        <v>-17000</v>
+        <v>-17400</v>
       </c>
       <c r="F24" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="G24" s="3">
-        <v>31900</v>
+        <v>32700</v>
       </c>
       <c r="H24" s="3">
-        <v>95800</v>
+        <v>98000</v>
       </c>
       <c r="I24" s="3">
-        <v>68800</v>
+        <v>70400</v>
       </c>
       <c r="J24" s="3">
-        <v>-31900</v>
+        <v>-32700</v>
       </c>
       <c r="K24" s="3">
         <v>41800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>261300</v>
+        <v>267400</v>
       </c>
       <c r="E26" s="3">
-        <v>-17000</v>
+        <v>-17400</v>
       </c>
       <c r="F26" s="3">
-        <v>63800</v>
+        <v>65300</v>
       </c>
       <c r="G26" s="3">
-        <v>189500</v>
+        <v>194000</v>
       </c>
       <c r="H26" s="3">
-        <v>-46900</v>
+        <v>-48000</v>
       </c>
       <c r="I26" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="J26" s="3">
-        <v>-550600</v>
+        <v>-563500</v>
       </c>
       <c r="K26" s="3">
         <v>61000</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>256300</v>
+        <v>262300</v>
       </c>
       <c r="E27" s="3">
-        <v>-20900</v>
+        <v>-21400</v>
       </c>
       <c r="F27" s="3">
-        <v>58800</v>
+        <v>60200</v>
       </c>
       <c r="G27" s="3">
-        <v>187500</v>
+        <v>191900</v>
       </c>
       <c r="H27" s="3">
-        <v>-46900</v>
+        <v>-48000</v>
       </c>
       <c r="I27" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="J27" s="3">
-        <v>-552600</v>
+        <v>-565500</v>
       </c>
       <c r="K27" s="3">
         <v>57600</v>
@@ -1485,7 +1485,7 @@
         <v>11</v>
       </c>
       <c r="H29" s="3">
-        <v>16000</v>
+        <v>16300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>11</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="E32" s="3">
-        <v>16000</v>
+        <v>16300</v>
       </c>
       <c r="F32" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G32" s="3">
-        <v>34900</v>
+        <v>35700</v>
       </c>
       <c r="H32" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="I32" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="J32" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="K32" s="3">
         <v>14700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>256300</v>
+        <v>262300</v>
       </c>
       <c r="E33" s="3">
-        <v>-20900</v>
+        <v>-21400</v>
       </c>
       <c r="F33" s="3">
-        <v>58800</v>
+        <v>60200</v>
       </c>
       <c r="G33" s="3">
-        <v>187500</v>
+        <v>191900</v>
       </c>
       <c r="H33" s="3">
-        <v>-30900</v>
+        <v>-31600</v>
       </c>
       <c r="I33" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="J33" s="3">
-        <v>-552600</v>
+        <v>-565500</v>
       </c>
       <c r="K33" s="3">
         <v>57600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>256300</v>
+        <v>262300</v>
       </c>
       <c r="E35" s="3">
-        <v>-20900</v>
+        <v>-21400</v>
       </c>
       <c r="F35" s="3">
-        <v>58800</v>
+        <v>60200</v>
       </c>
       <c r="G35" s="3">
-        <v>187500</v>
+        <v>191900</v>
       </c>
       <c r="H35" s="3">
-        <v>-30900</v>
+        <v>-31600</v>
       </c>
       <c r="I35" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="J35" s="3">
-        <v>-552600</v>
+        <v>-565500</v>
       </c>
       <c r="K35" s="3">
         <v>57600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>146600</v>
+        <v>150100</v>
       </c>
       <c r="E41" s="3">
-        <v>437900</v>
+        <v>448100</v>
       </c>
       <c r="F41" s="3">
-        <v>183500</v>
+        <v>187800</v>
       </c>
       <c r="G41" s="3">
-        <v>163600</v>
+        <v>167400</v>
       </c>
       <c r="H41" s="3">
-        <v>268300</v>
+        <v>274600</v>
       </c>
       <c r="I41" s="3">
-        <v>346100</v>
+        <v>354200</v>
       </c>
       <c r="J41" s="3">
-        <v>470800</v>
+        <v>481800</v>
       </c>
       <c r="K41" s="3">
         <v>189700</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>672200</v>
+        <v>688000</v>
       </c>
       <c r="E43" s="3">
-        <v>399000</v>
+        <v>408300</v>
       </c>
       <c r="F43" s="3">
-        <v>464800</v>
+        <v>475700</v>
       </c>
       <c r="G43" s="3">
-        <v>573500</v>
+        <v>587000</v>
       </c>
       <c r="H43" s="3">
-        <v>409900</v>
+        <v>419500</v>
       </c>
       <c r="I43" s="3">
-        <v>345100</v>
+        <v>353200</v>
       </c>
       <c r="J43" s="3">
-        <v>362100</v>
+        <v>370600</v>
       </c>
       <c r="K43" s="3">
         <v>637900</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1047300</v>
+        <v>1071800</v>
       </c>
       <c r="E44" s="3">
-        <v>580500</v>
+        <v>594100</v>
       </c>
       <c r="F44" s="3">
-        <v>668300</v>
+        <v>683900</v>
       </c>
       <c r="G44" s="3">
-        <v>658300</v>
+        <v>673700</v>
       </c>
       <c r="H44" s="3">
-        <v>641300</v>
+        <v>656400</v>
       </c>
       <c r="I44" s="3">
-        <v>589500</v>
+        <v>603300</v>
       </c>
       <c r="J44" s="3">
-        <v>540600</v>
+        <v>553300</v>
       </c>
       <c r="K44" s="3">
         <v>487800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>66800</v>
+        <v>68400</v>
       </c>
       <c r="E45" s="3">
-        <v>44900</v>
+        <v>45900</v>
       </c>
       <c r="F45" s="3">
-        <v>29900</v>
+        <v>30600</v>
       </c>
       <c r="G45" s="3">
-        <v>41900</v>
+        <v>42900</v>
       </c>
       <c r="H45" s="3">
-        <v>76800</v>
+        <v>78600</v>
       </c>
       <c r="I45" s="3">
-        <v>125700</v>
+        <v>128600</v>
       </c>
       <c r="J45" s="3">
-        <v>84800</v>
+        <v>86800</v>
       </c>
       <c r="K45" s="3">
         <v>83600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1933000</v>
+        <v>1978300</v>
       </c>
       <c r="E46" s="3">
-        <v>1462200</v>
+        <v>1496500</v>
       </c>
       <c r="F46" s="3">
-        <v>1346500</v>
+        <v>1378100</v>
       </c>
       <c r="G46" s="3">
-        <v>1437300</v>
+        <v>1471000</v>
       </c>
       <c r="H46" s="3">
-        <v>1396400</v>
+        <v>1429100</v>
       </c>
       <c r="I46" s="3">
-        <v>1406300</v>
+        <v>1439300</v>
       </c>
       <c r="J46" s="3">
-        <v>1458200</v>
+        <v>1492400</v>
       </c>
       <c r="K46" s="3">
         <v>2325900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>54900</v>
+        <v>56100</v>
       </c>
       <c r="E47" s="3">
-        <v>67800</v>
+        <v>69400</v>
       </c>
       <c r="F47" s="3">
-        <v>60800</v>
+        <v>62300</v>
       </c>
       <c r="G47" s="3">
-        <v>64800</v>
+        <v>66400</v>
       </c>
       <c r="H47" s="3">
-        <v>48900</v>
+        <v>50000</v>
       </c>
       <c r="I47" s="3">
-        <v>62800</v>
+        <v>64300</v>
       </c>
       <c r="J47" s="3">
-        <v>82800</v>
+        <v>84700</v>
       </c>
       <c r="K47" s="3">
         <v>61000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1942900</v>
+        <v>1988500</v>
       </c>
       <c r="E48" s="3">
-        <v>1901000</v>
+        <v>1945600</v>
       </c>
       <c r="F48" s="3">
-        <v>2050700</v>
+        <v>2098800</v>
       </c>
       <c r="G48" s="3">
-        <v>1661700</v>
+        <v>1700700</v>
       </c>
       <c r="H48" s="3">
-        <v>1513100</v>
+        <v>1548600</v>
       </c>
       <c r="I48" s="3">
-        <v>1473200</v>
+        <v>1507700</v>
       </c>
       <c r="J48" s="3">
-        <v>1251700</v>
+        <v>1281100</v>
       </c>
       <c r="K48" s="3">
         <v>713600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>507700</v>
+        <v>519600</v>
       </c>
       <c r="E49" s="3">
-        <v>476800</v>
+        <v>487900</v>
       </c>
       <c r="F49" s="3">
-        <v>523600</v>
+        <v>535900</v>
       </c>
       <c r="G49" s="3">
-        <v>490700</v>
+        <v>502200</v>
       </c>
       <c r="H49" s="3">
-        <v>469800</v>
+        <v>480800</v>
       </c>
       <c r="I49" s="3">
-        <v>534600</v>
+        <v>547100</v>
       </c>
       <c r="J49" s="3">
-        <v>519600</v>
+        <v>531800</v>
       </c>
       <c r="K49" s="3">
         <v>31600</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>173500</v>
+        <v>177600</v>
       </c>
       <c r="E52" s="3">
-        <v>210500</v>
+        <v>215400</v>
       </c>
       <c r="F52" s="3">
-        <v>191500</v>
+        <v>196000</v>
       </c>
       <c r="G52" s="3">
-        <v>236400</v>
+        <v>241900</v>
       </c>
       <c r="H52" s="3">
-        <v>273300</v>
+        <v>279700</v>
       </c>
       <c r="I52" s="3">
-        <v>300200</v>
+        <v>307300</v>
       </c>
       <c r="J52" s="3">
-        <v>306200</v>
+        <v>313400</v>
       </c>
       <c r="K52" s="3">
         <v>268700</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4612000</v>
+        <v>4720200</v>
       </c>
       <c r="E54" s="3">
-        <v>4118300</v>
+        <v>4214900</v>
       </c>
       <c r="F54" s="3">
-        <v>4173100</v>
+        <v>4271000</v>
       </c>
       <c r="G54" s="3">
-        <v>3890900</v>
+        <v>3982100</v>
       </c>
       <c r="H54" s="3">
-        <v>3701400</v>
+        <v>3788200</v>
       </c>
       <c r="I54" s="3">
-        <v>3777200</v>
+        <v>3865800</v>
       </c>
       <c r="J54" s="3">
-        <v>3618600</v>
+        <v>3703500</v>
       </c>
       <c r="K54" s="3">
         <v>3400800</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1062200</v>
+        <v>1087200</v>
       </c>
       <c r="E57" s="3">
-        <v>624400</v>
+        <v>639000</v>
       </c>
       <c r="F57" s="3">
-        <v>709200</v>
+        <v>725800</v>
       </c>
       <c r="G57" s="3">
-        <v>683200</v>
+        <v>699200</v>
       </c>
       <c r="H57" s="3">
-        <v>715100</v>
+        <v>731900</v>
       </c>
       <c r="I57" s="3">
-        <v>625400</v>
+        <v>640000</v>
       </c>
       <c r="J57" s="3">
-        <v>655300</v>
+        <v>670700</v>
       </c>
       <c r="K57" s="3">
         <v>744100</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>257300</v>
+        <v>263400</v>
       </c>
       <c r="E58" s="3">
-        <v>91800</v>
+        <v>93900</v>
       </c>
       <c r="F58" s="3">
-        <v>200500</v>
+        <v>205200</v>
       </c>
       <c r="G58" s="3">
-        <v>56900</v>
+        <v>58200</v>
       </c>
       <c r="H58" s="3">
-        <v>105700</v>
+        <v>108200</v>
       </c>
       <c r="I58" s="3">
-        <v>106700</v>
+        <v>109200</v>
       </c>
       <c r="J58" s="3">
-        <v>168600</v>
+        <v>172500</v>
       </c>
       <c r="K58" s="3">
         <v>53100</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>390000</v>
+        <v>399100</v>
       </c>
       <c r="E59" s="3">
-        <v>367000</v>
+        <v>375700</v>
       </c>
       <c r="F59" s="3">
-        <v>359100</v>
+        <v>367500</v>
       </c>
       <c r="G59" s="3">
-        <v>396000</v>
+        <v>405300</v>
       </c>
       <c r="H59" s="3">
-        <v>286300</v>
+        <v>293000</v>
       </c>
       <c r="I59" s="3">
-        <v>300200</v>
+        <v>307300</v>
       </c>
       <c r="J59" s="3">
-        <v>379000</v>
+        <v>387900</v>
       </c>
       <c r="K59" s="3">
         <v>397400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1709500</v>
+        <v>1749700</v>
       </c>
       <c r="E60" s="3">
-        <v>1083200</v>
+        <v>1108600</v>
       </c>
       <c r="F60" s="3">
-        <v>1268700</v>
+        <v>1298500</v>
       </c>
       <c r="G60" s="3">
-        <v>1136000</v>
+        <v>1162700</v>
       </c>
       <c r="H60" s="3">
-        <v>1107100</v>
+        <v>1133100</v>
       </c>
       <c r="I60" s="3">
-        <v>1032300</v>
+        <v>1056500</v>
       </c>
       <c r="J60" s="3">
-        <v>1202900</v>
+        <v>1231100</v>
       </c>
       <c r="K60" s="3">
         <v>1194600</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1866100</v>
+        <v>1909900</v>
       </c>
       <c r="E61" s="3">
-        <v>2293000</v>
+        <v>2346800</v>
       </c>
       <c r="F61" s="3">
-        <v>2154400</v>
+        <v>2204900</v>
       </c>
       <c r="G61" s="3">
-        <v>2088600</v>
+        <v>2137600</v>
       </c>
       <c r="H61" s="3">
-        <v>2015700</v>
+        <v>2063000</v>
       </c>
       <c r="I61" s="3">
-        <v>2354900</v>
+        <v>2410100</v>
       </c>
       <c r="J61" s="3">
-        <v>2058600</v>
+        <v>2106900</v>
       </c>
       <c r="K61" s="3">
         <v>1360600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>746100</v>
+        <v>763600</v>
       </c>
       <c r="E62" s="3">
-        <v>842800</v>
+        <v>862600</v>
       </c>
       <c r="F62" s="3">
-        <v>834800</v>
+        <v>854400</v>
       </c>
       <c r="G62" s="3">
-        <v>780000</v>
+        <v>798300</v>
       </c>
       <c r="H62" s="3">
-        <v>896700</v>
+        <v>917700</v>
       </c>
       <c r="I62" s="3">
-        <v>958500</v>
+        <v>981000</v>
       </c>
       <c r="J62" s="3">
-        <v>895700</v>
+        <v>916700</v>
       </c>
       <c r="K62" s="3">
         <v>887500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4338700</v>
+        <v>4440500</v>
       </c>
       <c r="E66" s="3">
-        <v>4233000</v>
+        <v>4332300</v>
       </c>
       <c r="F66" s="3">
-        <v>4268900</v>
+        <v>4369000</v>
       </c>
       <c r="G66" s="3">
-        <v>4012500</v>
+        <v>4106700</v>
       </c>
       <c r="H66" s="3">
-        <v>4027500</v>
+        <v>4122000</v>
       </c>
       <c r="I66" s="3">
-        <v>4354600</v>
+        <v>4456800</v>
       </c>
       <c r="J66" s="3">
-        <v>4168100</v>
+        <v>4265900</v>
       </c>
       <c r="K66" s="3">
         <v>3449400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-163600</v>
+        <v>-167400</v>
       </c>
       <c r="E72" s="3">
-        <v>-532600</v>
+        <v>-545100</v>
       </c>
       <c r="F72" s="3">
-        <v>-511700</v>
+        <v>-523700</v>
       </c>
       <c r="G72" s="3">
-        <v>-538600</v>
+        <v>-551200</v>
       </c>
       <c r="H72" s="3">
-        <v>-754000</v>
+        <v>-771700</v>
       </c>
       <c r="I72" s="3">
-        <v>-735100</v>
+        <v>-752300</v>
       </c>
       <c r="J72" s="3">
-        <v>-719100</v>
+        <v>-736000</v>
       </c>
       <c r="K72" s="3">
         <v>-208900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>273300</v>
+        <v>279700</v>
       </c>
       <c r="E76" s="3">
-        <v>-114700</v>
+        <v>-117400</v>
       </c>
       <c r="F76" s="3">
-        <v>-95800</v>
+        <v>-98000</v>
       </c>
       <c r="G76" s="3">
-        <v>-121700</v>
+        <v>-124500</v>
       </c>
       <c r="H76" s="3">
-        <v>-326100</v>
+        <v>-333800</v>
       </c>
       <c r="I76" s="3">
-        <v>-577500</v>
+        <v>-591000</v>
       </c>
       <c r="J76" s="3">
-        <v>-549600</v>
+        <v>-562500</v>
       </c>
       <c r="K76" s="3">
         <v>-48600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>256300</v>
+        <v>262300</v>
       </c>
       <c r="E81" s="3">
-        <v>-20900</v>
+        <v>-21400</v>
       </c>
       <c r="F81" s="3">
-        <v>58800</v>
+        <v>60200</v>
       </c>
       <c r="G81" s="3">
-        <v>187500</v>
+        <v>191900</v>
       </c>
       <c r="H81" s="3">
-        <v>-30900</v>
+        <v>-31600</v>
       </c>
       <c r="I81" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="J81" s="3">
-        <v>-552600</v>
+        <v>-565500</v>
       </c>
       <c r="K81" s="3">
         <v>57600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>266300</v>
+        <v>272600</v>
       </c>
       <c r="E83" s="3">
-        <v>258300</v>
+        <v>264400</v>
       </c>
       <c r="F83" s="3">
-        <v>255300</v>
+        <v>261300</v>
       </c>
       <c r="G83" s="3">
-        <v>196500</v>
+        <v>201100</v>
       </c>
       <c r="H83" s="3">
-        <v>170600</v>
+        <v>174600</v>
       </c>
       <c r="I83" s="3">
-        <v>154600</v>
+        <v>158200</v>
       </c>
       <c r="J83" s="3">
-        <v>139600</v>
+        <v>142900</v>
       </c>
       <c r="K83" s="3">
         <v>55300</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>356100</v>
+        <v>364400</v>
       </c>
       <c r="E89" s="3">
-        <v>333100</v>
+        <v>340900</v>
       </c>
       <c r="F89" s="3">
-        <v>445800</v>
+        <v>456300</v>
       </c>
       <c r="G89" s="3">
-        <v>65800</v>
+        <v>67400</v>
       </c>
       <c r="H89" s="3">
-        <v>159600</v>
+        <v>163300</v>
       </c>
       <c r="I89" s="3">
-        <v>87800</v>
+        <v>89800</v>
       </c>
       <c r="J89" s="3">
-        <v>509700</v>
+        <v>521600</v>
       </c>
       <c r="K89" s="3">
         <v>239400</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-231400</v>
+        <v>-236800</v>
       </c>
       <c r="E91" s="3">
-        <v>-181500</v>
+        <v>-185800</v>
       </c>
       <c r="F91" s="3">
-        <v>-270300</v>
+        <v>-276600</v>
       </c>
       <c r="G91" s="3">
-        <v>-276300</v>
+        <v>-282800</v>
       </c>
       <c r="H91" s="3">
-        <v>-275300</v>
+        <v>-281700</v>
       </c>
       <c r="I91" s="3">
-        <v>-354100</v>
+        <v>-362400</v>
       </c>
       <c r="J91" s="3">
-        <v>-349100</v>
+        <v>-357300</v>
       </c>
       <c r="K91" s="3">
         <v>-224700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-220400</v>
+        <v>-225600</v>
       </c>
       <c r="E94" s="3">
-        <v>-175500</v>
+        <v>-179700</v>
       </c>
       <c r="F94" s="3">
-        <v>-352100</v>
+        <v>-360300</v>
       </c>
       <c r="G94" s="3">
-        <v>-90800</v>
+        <v>-92900</v>
       </c>
       <c r="H94" s="3">
-        <v>-291200</v>
+        <v>-298100</v>
       </c>
       <c r="I94" s="3">
-        <v>-364100</v>
+        <v>-372600</v>
       </c>
       <c r="J94" s="3">
-        <v>-720100</v>
+        <v>-737000</v>
       </c>
       <c r="K94" s="3">
         <v>-243900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-433900</v>
+        <v>-444000</v>
       </c>
       <c r="E100" s="3">
-        <v>100700</v>
+        <v>103100</v>
       </c>
       <c r="F100" s="3">
-        <v>-75800</v>
+        <v>-77600</v>
       </c>
       <c r="G100" s="3">
-        <v>-81800</v>
+        <v>-83700</v>
       </c>
       <c r="H100" s="3">
-        <v>60800</v>
+        <v>62300</v>
       </c>
       <c r="I100" s="3">
-        <v>144600</v>
+        <v>148000</v>
       </c>
       <c r="J100" s="3">
-        <v>-307200</v>
+        <v>-314400</v>
       </c>
       <c r="K100" s="3">
         <v>850200</v>
@@ -3959,10 +3959,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="E101" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="F101" s="3">
         <v>2000</v>
@@ -3971,13 +3971,13 @@
         <v>2000</v>
       </c>
       <c r="H101" s="3">
-        <v>-7000</v>
+        <v>-7100</v>
       </c>
       <c r="I101" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J101" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="K101" s="3">
         <v>6800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-291200</v>
+        <v>-298100</v>
       </c>
       <c r="E102" s="3">
-        <v>254300</v>
+        <v>260300</v>
       </c>
       <c r="F102" s="3">
-        <v>19900</v>
+        <v>20400</v>
       </c>
       <c r="G102" s="3">
-        <v>-104700</v>
+        <v>-107200</v>
       </c>
       <c r="H102" s="3">
-        <v>-77800</v>
+        <v>-79600</v>
       </c>
       <c r="I102" s="3">
-        <v>-128700</v>
+        <v>-131700</v>
       </c>
       <c r="J102" s="3">
-        <v>-513700</v>
+        <v>-525700</v>
       </c>
       <c r="K102" s="3">
         <v>852500</v>

--- a/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6280000</v>
+        <v>8591000</v>
       </c>
       <c r="E8" s="3">
-        <v>4984600</v>
+        <v>6508800</v>
       </c>
       <c r="F8" s="3">
-        <v>6029900</v>
+        <v>5166200</v>
       </c>
       <c r="G8" s="3">
-        <v>5804300</v>
+        <v>6249600</v>
       </c>
       <c r="H8" s="3">
-        <v>5345900</v>
+        <v>6015800</v>
       </c>
       <c r="I8" s="3">
-        <v>4841700</v>
+        <v>5540700</v>
       </c>
       <c r="J8" s="3">
+        <v>5018100</v>
+      </c>
+      <c r="K8" s="3">
         <v>5260200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4139300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4180700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3963800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4174100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5602200</v>
+        <v>7880000</v>
       </c>
       <c r="E9" s="3">
-        <v>4484400</v>
+        <v>5806300</v>
       </c>
       <c r="F9" s="3">
-        <v>5415300</v>
+        <v>4647800</v>
       </c>
       <c r="G9" s="3">
-        <v>5255100</v>
+        <v>5612700</v>
       </c>
       <c r="H9" s="3">
-        <v>4795700</v>
+        <v>5446600</v>
       </c>
       <c r="I9" s="3">
-        <v>4314900</v>
+        <v>4970500</v>
       </c>
       <c r="J9" s="3">
+        <v>4472200</v>
+      </c>
+      <c r="K9" s="3">
         <v>4800800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3593900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3617300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6882300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7599200</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>677800</v>
+        <v>711000</v>
       </c>
       <c r="E10" s="3">
-        <v>500200</v>
+        <v>702500</v>
       </c>
       <c r="F10" s="3">
-        <v>614500</v>
+        <v>518400</v>
       </c>
       <c r="G10" s="3">
-        <v>549200</v>
+        <v>636900</v>
       </c>
       <c r="H10" s="3">
-        <v>550200</v>
+        <v>569200</v>
       </c>
       <c r="I10" s="3">
-        <v>526700</v>
+        <v>570300</v>
       </c>
       <c r="J10" s="3">
+        <v>545900</v>
+      </c>
+      <c r="K10" s="3">
         <v>459400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>545400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>563400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-2918500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-3425200</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>34700</v>
+        <v>50800</v>
       </c>
       <c r="E12" s="3">
-        <v>34700</v>
+        <v>36000</v>
       </c>
       <c r="F12" s="3">
+        <v>36000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>44400</v>
+      </c>
+      <c r="H12" s="3">
+        <v>38100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>34900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K12" s="3">
+        <v>35700</v>
+      </c>
+      <c r="L12" s="3">
         <v>42900</v>
       </c>
-      <c r="G12" s="3">
-        <v>36700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>33700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>32700</v>
-      </c>
-      <c r="J12" s="3">
-        <v>35700</v>
-      </c>
-      <c r="K12" s="3">
-        <v>42900</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>43100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>39500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>38700</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>63300</v>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E14" s="3">
-        <v>65300</v>
+        <v>65600</v>
       </c>
       <c r="F14" s="3">
-        <v>3100</v>
+        <v>67700</v>
       </c>
       <c r="G14" s="3">
-        <v>-35700</v>
+        <v>3200</v>
       </c>
       <c r="H14" s="3">
-        <v>76600</v>
+        <v>-37000</v>
       </c>
       <c r="I14" s="3">
-        <v>5100</v>
+        <v>79400</v>
       </c>
       <c r="J14" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K14" s="3">
         <v>479800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>45200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>27500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>23500</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>22500</v>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E15" s="3">
-        <v>19400</v>
+        <v>23300</v>
       </c>
       <c r="F15" s="3">
-        <v>19400</v>
+        <v>20100</v>
       </c>
       <c r="G15" s="3">
-        <v>13300</v>
+        <v>20100</v>
       </c>
       <c r="H15" s="3">
-        <v>11200</v>
+        <v>13800</v>
       </c>
       <c r="I15" s="3">
+        <v>11600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K15" s="3">
         <v>8200</v>
       </c>
-      <c r="J15" s="3">
-        <v>8200</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6600</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5813500</v>
+        <v>8237600</v>
       </c>
       <c r="E17" s="3">
-        <v>4857000</v>
+        <v>6025300</v>
       </c>
       <c r="F17" s="3">
-        <v>5769600</v>
+        <v>5034000</v>
       </c>
       <c r="G17" s="3">
-        <v>5391900</v>
+        <v>5979800</v>
       </c>
       <c r="H17" s="3">
-        <v>5111100</v>
+        <v>5588400</v>
       </c>
       <c r="I17" s="3">
-        <v>4590500</v>
+        <v>5297400</v>
       </c>
       <c r="J17" s="3">
+        <v>4757800</v>
+      </c>
+      <c r="K17" s="3">
         <v>5695000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3969900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3930700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3675000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4248000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>466500</v>
+        <v>353400</v>
       </c>
       <c r="E18" s="3">
-        <v>127600</v>
+        <v>483500</v>
       </c>
       <c r="F18" s="3">
+        <v>132300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>269800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>427400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>243300</v>
+      </c>
+      <c r="J18" s="3">
         <v>260300</v>
       </c>
-      <c r="G18" s="3">
-        <v>412400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>234800</v>
-      </c>
-      <c r="I18" s="3">
-        <v>251100</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-434900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>169400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>250000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>288800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-74000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9200</v>
+        <v>-138600</v>
       </c>
       <c r="E20" s="3">
-        <v>-16300</v>
+        <v>-9500</v>
       </c>
       <c r="F20" s="3">
-        <v>-4100</v>
+        <v>-16900</v>
       </c>
       <c r="G20" s="3">
-        <v>-35700</v>
+        <v>-4200</v>
       </c>
       <c r="H20" s="3">
-        <v>-10200</v>
+        <v>-37000</v>
       </c>
       <c r="I20" s="3">
-        <v>3100</v>
+        <v>-10600</v>
       </c>
       <c r="J20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K20" s="3">
         <v>8200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-87300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-70300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-160800</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>724600</v>
+        <v>517400</v>
       </c>
       <c r="E21" s="3">
-        <v>370600</v>
+        <v>755500</v>
       </c>
       <c r="F21" s="3">
-        <v>512500</v>
+        <v>388400</v>
       </c>
       <c r="G21" s="3">
-        <v>573900</v>
+        <v>535500</v>
       </c>
       <c r="H21" s="3">
-        <v>395800</v>
+        <v>598100</v>
       </c>
       <c r="I21" s="3">
-        <v>409300</v>
+        <v>413100</v>
       </c>
       <c r="J21" s="3">
+        <v>426900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-286500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>210100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>233900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-232400</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>133700</v>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E22" s="3">
-        <v>146000</v>
+        <v>138600</v>
       </c>
       <c r="F22" s="3">
-        <v>172500</v>
+        <v>151300</v>
       </c>
       <c r="G22" s="3">
-        <v>150100</v>
+        <v>178800</v>
       </c>
       <c r="H22" s="3">
-        <v>174600</v>
+        <v>155500</v>
       </c>
       <c r="I22" s="3">
-        <v>187800</v>
+        <v>180900</v>
       </c>
       <c r="J22" s="3">
+        <v>194700</v>
+      </c>
+      <c r="K22" s="3">
         <v>169500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>51900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4700</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>323600</v>
+        <v>214800</v>
       </c>
       <c r="E23" s="3">
-        <v>-34700</v>
+        <v>335400</v>
       </c>
       <c r="F23" s="3">
-        <v>83700</v>
+        <v>-36000</v>
       </c>
       <c r="G23" s="3">
-        <v>226600</v>
+        <v>86800</v>
       </c>
       <c r="H23" s="3">
-        <v>50000</v>
+        <v>234900</v>
       </c>
       <c r="I23" s="3">
-        <v>66400</v>
+        <v>51800</v>
       </c>
       <c r="J23" s="3">
+        <v>68800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-596100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>102700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>161500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>214100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-239500</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56100</v>
+        <v>-111100</v>
       </c>
       <c r="E24" s="3">
-        <v>-17400</v>
+        <v>58200</v>
       </c>
       <c r="F24" s="3">
-        <v>18400</v>
+        <v>-18000</v>
       </c>
       <c r="G24" s="3">
-        <v>32700</v>
+        <v>19000</v>
       </c>
       <c r="H24" s="3">
-        <v>98000</v>
+        <v>33900</v>
       </c>
       <c r="I24" s="3">
-        <v>70400</v>
+        <v>101600</v>
       </c>
       <c r="J24" s="3">
+        <v>73000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-32700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>41800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>46700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>50500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-39900</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>267400</v>
+        <v>325900</v>
       </c>
       <c r="E26" s="3">
-        <v>-17400</v>
+        <v>277200</v>
       </c>
       <c r="F26" s="3">
-        <v>65300</v>
+        <v>-18000</v>
       </c>
       <c r="G26" s="3">
-        <v>194000</v>
+        <v>67700</v>
       </c>
       <c r="H26" s="3">
-        <v>-48000</v>
+        <v>201000</v>
       </c>
       <c r="I26" s="3">
-        <v>-4100</v>
+        <v>-49700</v>
       </c>
       <c r="J26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-563500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>61000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>114800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>163600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-199500</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>262300</v>
+        <v>318500</v>
       </c>
       <c r="E27" s="3">
-        <v>-21400</v>
+        <v>271900</v>
       </c>
       <c r="F27" s="3">
-        <v>60200</v>
+        <v>-22200</v>
       </c>
       <c r="G27" s="3">
-        <v>191900</v>
+        <v>62400</v>
       </c>
       <c r="H27" s="3">
-        <v>-48000</v>
+        <v>198900</v>
       </c>
       <c r="I27" s="3">
-        <v>-4100</v>
+        <v>-49700</v>
       </c>
       <c r="J27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-565500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>57600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>112400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>161400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200700</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1484,30 +1544,33 @@
       <c r="G29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="3">
-        <v>16300</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="I29" s="3">
+        <v>16900</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>4800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-8800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-9400</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9200</v>
+        <v>138600</v>
       </c>
       <c r="E32" s="3">
-        <v>16300</v>
+        <v>9500</v>
       </c>
       <c r="F32" s="3">
-        <v>4100</v>
+        <v>16900</v>
       </c>
       <c r="G32" s="3">
-        <v>35700</v>
+        <v>4200</v>
       </c>
       <c r="H32" s="3">
-        <v>10200</v>
+        <v>37000</v>
       </c>
       <c r="I32" s="3">
-        <v>-3100</v>
+        <v>10600</v>
       </c>
       <c r="J32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>87300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>70300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>160800</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>262300</v>
+        <v>318500</v>
       </c>
       <c r="E33" s="3">
-        <v>-21400</v>
+        <v>271900</v>
       </c>
       <c r="F33" s="3">
-        <v>60200</v>
+        <v>-22200</v>
       </c>
       <c r="G33" s="3">
-        <v>191900</v>
+        <v>62400</v>
       </c>
       <c r="H33" s="3">
-        <v>-31600</v>
+        <v>198900</v>
       </c>
       <c r="I33" s="3">
-        <v>-4100</v>
+        <v>-32800</v>
       </c>
       <c r="J33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-565500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>57600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>117200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>152600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-210100</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>262300</v>
+        <v>318500</v>
       </c>
       <c r="E35" s="3">
-        <v>-21400</v>
+        <v>271900</v>
       </c>
       <c r="F35" s="3">
-        <v>60200</v>
+        <v>-22200</v>
       </c>
       <c r="G35" s="3">
-        <v>191900</v>
+        <v>62400</v>
       </c>
       <c r="H35" s="3">
-        <v>-31600</v>
+        <v>198900</v>
       </c>
       <c r="I35" s="3">
-        <v>-4100</v>
+        <v>-32800</v>
       </c>
       <c r="J35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-565500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>57600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>117200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>152600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-210100</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>150100</v>
+        <v>175600</v>
       </c>
       <c r="E41" s="3">
-        <v>448100</v>
+        <v>155500</v>
       </c>
       <c r="F41" s="3">
-        <v>187800</v>
+        <v>464500</v>
       </c>
       <c r="G41" s="3">
-        <v>167400</v>
+        <v>194700</v>
       </c>
       <c r="H41" s="3">
-        <v>274600</v>
+        <v>173500</v>
       </c>
       <c r="I41" s="3">
-        <v>354200</v>
+        <v>284600</v>
       </c>
       <c r="J41" s="3">
+        <v>367100</v>
+      </c>
+      <c r="K41" s="3">
         <v>481800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>189700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>277500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>153700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>120900</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1884,293 +1973,317 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>927000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>31100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>39500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>49300</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>688000</v>
+        <v>570300</v>
       </c>
       <c r="E43" s="3">
-        <v>408300</v>
+        <v>713100</v>
       </c>
       <c r="F43" s="3">
-        <v>475700</v>
+        <v>423200</v>
       </c>
       <c r="G43" s="3">
-        <v>587000</v>
+        <v>493000</v>
       </c>
       <c r="H43" s="3">
-        <v>419500</v>
+        <v>608400</v>
       </c>
       <c r="I43" s="3">
-        <v>353200</v>
+        <v>434800</v>
       </c>
       <c r="J43" s="3">
+        <v>366100</v>
+      </c>
+      <c r="K43" s="3">
         <v>370600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>637900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>574200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1042000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>616300</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1071800</v>
+        <v>1396600</v>
       </c>
       <c r="E44" s="3">
-        <v>594100</v>
+        <v>1110900</v>
       </c>
       <c r="F44" s="3">
-        <v>683900</v>
+        <v>615800</v>
       </c>
       <c r="G44" s="3">
-        <v>673700</v>
+        <v>708900</v>
       </c>
       <c r="H44" s="3">
-        <v>656400</v>
+        <v>698300</v>
       </c>
       <c r="I44" s="3">
-        <v>603300</v>
+        <v>680300</v>
       </c>
       <c r="J44" s="3">
+        <v>625300</v>
+      </c>
+      <c r="K44" s="3">
         <v>553300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>487800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>392400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>422700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>495300</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>68400</v>
+        <v>32800</v>
       </c>
       <c r="E45" s="3">
-        <v>45900</v>
+        <v>70900</v>
       </c>
       <c r="F45" s="3">
-        <v>30600</v>
+        <v>47600</v>
       </c>
       <c r="G45" s="3">
-        <v>42900</v>
+        <v>31700</v>
       </c>
       <c r="H45" s="3">
-        <v>78600</v>
+        <v>44400</v>
       </c>
       <c r="I45" s="3">
-        <v>128600</v>
+        <v>81500</v>
       </c>
       <c r="J45" s="3">
+        <v>133300</v>
+      </c>
+      <c r="K45" s="3">
         <v>86800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>83600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11700</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1978300</v>
+        <v>2175200</v>
       </c>
       <c r="E46" s="3">
-        <v>1496500</v>
+        <v>2050400</v>
       </c>
       <c r="F46" s="3">
-        <v>1378100</v>
+        <v>1551000</v>
       </c>
       <c r="G46" s="3">
-        <v>1471000</v>
+        <v>1428300</v>
       </c>
       <c r="H46" s="3">
-        <v>1429100</v>
+        <v>1524600</v>
       </c>
       <c r="I46" s="3">
-        <v>1439300</v>
+        <v>1481200</v>
       </c>
       <c r="J46" s="3">
+        <v>1491800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1492400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2325900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1303900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1138600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1293500</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>56100</v>
+        <v>45500</v>
       </c>
       <c r="E47" s="3">
-        <v>69400</v>
+        <v>58200</v>
       </c>
       <c r="F47" s="3">
-        <v>62300</v>
+        <v>71900</v>
       </c>
       <c r="G47" s="3">
-        <v>66400</v>
+        <v>64500</v>
       </c>
       <c r="H47" s="3">
-        <v>50000</v>
+        <v>68800</v>
       </c>
       <c r="I47" s="3">
-        <v>64300</v>
+        <v>51800</v>
       </c>
       <c r="J47" s="3">
+        <v>66700</v>
+      </c>
+      <c r="K47" s="3">
         <v>84700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>61000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>81300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>83400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>111500</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1988500</v>
+        <v>2134000</v>
       </c>
       <c r="E48" s="3">
-        <v>1945600</v>
+        <v>2061000</v>
       </c>
       <c r="F48" s="3">
-        <v>2098800</v>
+        <v>2016500</v>
       </c>
       <c r="G48" s="3">
-        <v>1700700</v>
+        <v>2175200</v>
       </c>
       <c r="H48" s="3">
-        <v>1548600</v>
+        <v>1762600</v>
       </c>
       <c r="I48" s="3">
-        <v>1507700</v>
+        <v>1605000</v>
       </c>
       <c r="J48" s="3">
+        <v>1562700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1281100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>713600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>488000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>663200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>232400</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>519600</v>
+        <v>562900</v>
       </c>
       <c r="E49" s="3">
-        <v>487900</v>
+        <v>538500</v>
       </c>
       <c r="F49" s="3">
-        <v>535900</v>
+        <v>505700</v>
       </c>
       <c r="G49" s="3">
-        <v>502200</v>
+        <v>555500</v>
       </c>
       <c r="H49" s="3">
-        <v>480800</v>
+        <v>520500</v>
       </c>
       <c r="I49" s="3">
-        <v>547100</v>
+        <v>498300</v>
       </c>
       <c r="J49" s="3">
+        <v>567100</v>
+      </c>
+      <c r="K49" s="3">
         <v>531800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>31600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>25100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>27000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>177600</v>
+        <v>310000</v>
       </c>
       <c r="E52" s="3">
-        <v>215400</v>
+        <v>184100</v>
       </c>
       <c r="F52" s="3">
-        <v>196000</v>
+        <v>223200</v>
       </c>
       <c r="G52" s="3">
-        <v>241900</v>
+        <v>203100</v>
       </c>
       <c r="H52" s="3">
-        <v>279700</v>
+        <v>250700</v>
       </c>
       <c r="I52" s="3">
-        <v>307300</v>
+        <v>289900</v>
       </c>
       <c r="J52" s="3">
+        <v>318500</v>
+      </c>
+      <c r="K52" s="3">
         <v>313400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>268700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>211700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>225100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>240600</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4720200</v>
+        <v>5227600</v>
       </c>
       <c r="E54" s="3">
-        <v>4214900</v>
+        <v>4892200</v>
       </c>
       <c r="F54" s="3">
-        <v>4271000</v>
+        <v>4368500</v>
       </c>
       <c r="G54" s="3">
-        <v>3982100</v>
+        <v>4426700</v>
       </c>
       <c r="H54" s="3">
-        <v>3788200</v>
+        <v>4127300</v>
       </c>
       <c r="I54" s="3">
-        <v>3865800</v>
+        <v>3926200</v>
       </c>
       <c r="J54" s="3">
+        <v>4006600</v>
+      </c>
+      <c r="K54" s="3">
         <v>3703500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3400800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2110100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1790800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1892200</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1087200</v>
+        <v>1552100</v>
       </c>
       <c r="E57" s="3">
-        <v>639000</v>
+        <v>1126800</v>
       </c>
       <c r="F57" s="3">
-        <v>725800</v>
+        <v>662300</v>
       </c>
       <c r="G57" s="3">
-        <v>699200</v>
+        <v>752200</v>
       </c>
       <c r="H57" s="3">
-        <v>731900</v>
+        <v>724700</v>
       </c>
       <c r="I57" s="3">
-        <v>640000</v>
+        <v>758600</v>
       </c>
       <c r="J57" s="3">
+        <v>663400</v>
+      </c>
+      <c r="K57" s="3">
         <v>670700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>744100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>561000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>965100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>544600</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>263400</v>
+        <v>156600</v>
       </c>
       <c r="E58" s="3">
-        <v>93900</v>
+        <v>273000</v>
       </c>
       <c r="F58" s="3">
-        <v>205200</v>
+        <v>97300</v>
       </c>
       <c r="G58" s="3">
-        <v>58200</v>
+        <v>212700</v>
       </c>
       <c r="H58" s="3">
-        <v>108200</v>
+        <v>60300</v>
       </c>
       <c r="I58" s="3">
-        <v>109200</v>
+        <v>112100</v>
       </c>
       <c r="J58" s="3">
+        <v>113200</v>
+      </c>
+      <c r="K58" s="3">
         <v>172500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>53100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>26300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>85700</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>399100</v>
+        <v>82500</v>
       </c>
       <c r="E59" s="3">
-        <v>375700</v>
+        <v>413700</v>
       </c>
       <c r="F59" s="3">
-        <v>367500</v>
+        <v>389300</v>
       </c>
       <c r="G59" s="3">
-        <v>405300</v>
+        <v>380900</v>
       </c>
       <c r="H59" s="3">
-        <v>293000</v>
+        <v>420000</v>
       </c>
       <c r="I59" s="3">
-        <v>307300</v>
+        <v>303600</v>
       </c>
       <c r="J59" s="3">
+        <v>318500</v>
+      </c>
+      <c r="K59" s="3">
         <v>387900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>397400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>319400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>269000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>410800</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1749700</v>
+        <v>1791200</v>
       </c>
       <c r="E60" s="3">
-        <v>1108600</v>
+        <v>1813400</v>
       </c>
       <c r="F60" s="3">
-        <v>1298500</v>
+        <v>1149000</v>
       </c>
       <c r="G60" s="3">
-        <v>1162700</v>
+        <v>1345800</v>
       </c>
       <c r="H60" s="3">
-        <v>1133100</v>
+        <v>1205100</v>
       </c>
       <c r="I60" s="3">
-        <v>1056500</v>
+        <v>1174400</v>
       </c>
       <c r="J60" s="3">
+        <v>1095000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1231100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1194600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>906700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>818000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>987200</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1909900</v>
+        <v>2018700</v>
       </c>
       <c r="E61" s="3">
-        <v>2346800</v>
+        <v>1979500</v>
       </c>
       <c r="F61" s="3">
-        <v>2204900</v>
+        <v>2432300</v>
       </c>
       <c r="G61" s="3">
-        <v>2137600</v>
+        <v>2285300</v>
       </c>
       <c r="H61" s="3">
-        <v>2063000</v>
+        <v>2215500</v>
       </c>
       <c r="I61" s="3">
-        <v>2410100</v>
+        <v>2138200</v>
       </c>
       <c r="J61" s="3">
+        <v>2497900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2106900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1360600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>390000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>153700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>165500</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>763600</v>
+        <v>611500</v>
       </c>
       <c r="E62" s="3">
-        <v>862600</v>
+        <v>791400</v>
       </c>
       <c r="F62" s="3">
-        <v>854400</v>
+        <v>894000</v>
       </c>
       <c r="G62" s="3">
-        <v>798300</v>
+        <v>885500</v>
       </c>
       <c r="H62" s="3">
-        <v>917700</v>
+        <v>827400</v>
       </c>
       <c r="I62" s="3">
-        <v>981000</v>
+        <v>951100</v>
       </c>
       <c r="J62" s="3">
+        <v>1016700</v>
+      </c>
+      <c r="K62" s="3">
         <v>916700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>887500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>770400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>859700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1172600</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4440500</v>
+        <v>4454200</v>
       </c>
       <c r="E66" s="3">
-        <v>4332300</v>
+        <v>4602300</v>
       </c>
       <c r="F66" s="3">
-        <v>4369000</v>
+        <v>4490200</v>
       </c>
       <c r="G66" s="3">
-        <v>4106700</v>
+        <v>4528200</v>
       </c>
       <c r="H66" s="3">
-        <v>4122000</v>
+        <v>4256300</v>
       </c>
       <c r="I66" s="3">
-        <v>4456800</v>
+        <v>4272200</v>
       </c>
       <c r="J66" s="3">
+        <v>4619200</v>
+      </c>
+      <c r="K66" s="3">
         <v>4265900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3449400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2071800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1835900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2027200</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-167400</v>
+        <v>325900</v>
       </c>
       <c r="E72" s="3">
-        <v>-545100</v>
+        <v>-173500</v>
       </c>
       <c r="F72" s="3">
-        <v>-523700</v>
+        <v>-565000</v>
       </c>
       <c r="G72" s="3">
-        <v>-551200</v>
+        <v>-542800</v>
       </c>
       <c r="H72" s="3">
-        <v>-771700</v>
+        <v>-571300</v>
       </c>
       <c r="I72" s="3">
-        <v>-752300</v>
+        <v>-799800</v>
       </c>
       <c r="J72" s="3">
+        <v>-779700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-736000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-208900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-141200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-289900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-233600</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>279700</v>
+        <v>773400</v>
       </c>
       <c r="E76" s="3">
-        <v>-117400</v>
+        <v>289900</v>
       </c>
       <c r="F76" s="3">
-        <v>-98000</v>
+        <v>-121700</v>
       </c>
       <c r="G76" s="3">
-        <v>-124500</v>
+        <v>-101600</v>
       </c>
       <c r="H76" s="3">
-        <v>-333800</v>
+        <v>-129100</v>
       </c>
       <c r="I76" s="3">
-        <v>-591000</v>
+        <v>-346000</v>
       </c>
       <c r="J76" s="3">
+        <v>-612600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-562500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-48600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>38300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-45000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-135000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>262300</v>
+        <v>318500</v>
       </c>
       <c r="E81" s="3">
-        <v>-21400</v>
+        <v>271900</v>
       </c>
       <c r="F81" s="3">
-        <v>60200</v>
+        <v>-22200</v>
       </c>
       <c r="G81" s="3">
-        <v>191900</v>
+        <v>62400</v>
       </c>
       <c r="H81" s="3">
-        <v>-31600</v>
+        <v>198900</v>
       </c>
       <c r="I81" s="3">
-        <v>-4100</v>
+        <v>-32800</v>
       </c>
       <c r="J81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-565500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>57600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>117200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>152600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-210100</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>272600</v>
+        <v>303600</v>
       </c>
       <c r="E83" s="3">
-        <v>264400</v>
+        <v>282500</v>
       </c>
       <c r="F83" s="3">
-        <v>261300</v>
+        <v>274000</v>
       </c>
       <c r="G83" s="3">
-        <v>201100</v>
+        <v>270800</v>
       </c>
       <c r="H83" s="3">
-        <v>174600</v>
+        <v>208400</v>
       </c>
       <c r="I83" s="3">
-        <v>158200</v>
+        <v>180900</v>
       </c>
       <c r="J83" s="3">
+        <v>164000</v>
+      </c>
+      <c r="K83" s="3">
         <v>142900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>55300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>38300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2300</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>364400</v>
+        <v>477200</v>
       </c>
       <c r="E89" s="3">
-        <v>340900</v>
+        <v>377700</v>
       </c>
       <c r="F89" s="3">
-        <v>456300</v>
+        <v>353400</v>
       </c>
       <c r="G89" s="3">
-        <v>67400</v>
+        <v>472900</v>
       </c>
       <c r="H89" s="3">
-        <v>163300</v>
+        <v>69800</v>
       </c>
       <c r="I89" s="3">
-        <v>89800</v>
+        <v>169300</v>
       </c>
       <c r="J89" s="3">
+        <v>93100</v>
+      </c>
+      <c r="K89" s="3">
         <v>521600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>239400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>220100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>270100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-34000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-236800</v>
+        <v>-288800</v>
       </c>
       <c r="E91" s="3">
-        <v>-185800</v>
+        <v>-245500</v>
       </c>
       <c r="F91" s="3">
-        <v>-276600</v>
+        <v>-192600</v>
       </c>
       <c r="G91" s="3">
-        <v>-282800</v>
+        <v>-286700</v>
       </c>
       <c r="H91" s="3">
-        <v>-281700</v>
+        <v>-293100</v>
       </c>
       <c r="I91" s="3">
-        <v>-362400</v>
+        <v>-292000</v>
       </c>
       <c r="J91" s="3">
+        <v>-375600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-357300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-224700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-172300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-138300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-113900</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-225600</v>
+        <v>-285700</v>
       </c>
       <c r="E94" s="3">
-        <v>-179700</v>
+        <v>-233800</v>
       </c>
       <c r="F94" s="3">
-        <v>-360300</v>
+        <v>-186200</v>
       </c>
       <c r="G94" s="3">
-        <v>-92900</v>
+        <v>-373500</v>
       </c>
       <c r="H94" s="3">
-        <v>-298100</v>
+        <v>-96300</v>
       </c>
       <c r="I94" s="3">
-        <v>-372600</v>
+        <v>-308900</v>
       </c>
       <c r="J94" s="3">
+        <v>-386200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-737000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-243900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-157900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-143800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-81000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,8 +3990,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3788,17 +4021,20 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-175800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-444000</v>
+        <v>-172500</v>
       </c>
       <c r="E100" s="3">
-        <v>103100</v>
+        <v>-460200</v>
       </c>
       <c r="F100" s="3">
-        <v>-77600</v>
+        <v>106900</v>
       </c>
       <c r="G100" s="3">
-        <v>-83700</v>
+        <v>-80400</v>
       </c>
       <c r="H100" s="3">
-        <v>62300</v>
+        <v>-86800</v>
       </c>
       <c r="I100" s="3">
-        <v>148000</v>
+        <v>64500</v>
       </c>
       <c r="J100" s="3">
+        <v>153400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-314400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>850200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>51400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-94400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>235900</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7100</v>
+        <v>1100</v>
       </c>
       <c r="E101" s="3">
-        <v>-4100</v>
+        <v>7400</v>
       </c>
       <c r="F101" s="3">
-        <v>2000</v>
+        <v>-4200</v>
       </c>
       <c r="G101" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H101" s="3">
-        <v>-7100</v>
+        <v>2100</v>
       </c>
       <c r="I101" s="3">
-        <v>3100</v>
+        <v>-7400</v>
       </c>
       <c r="J101" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K101" s="3">
         <v>4100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>11700</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-298100</v>
+        <v>20100</v>
       </c>
       <c r="E102" s="3">
-        <v>260300</v>
+        <v>-308900</v>
       </c>
       <c r="F102" s="3">
-        <v>20400</v>
+        <v>269800</v>
       </c>
       <c r="G102" s="3">
-        <v>-107200</v>
+        <v>21200</v>
       </c>
       <c r="H102" s="3">
-        <v>-79600</v>
+        <v>-111100</v>
       </c>
       <c r="I102" s="3">
-        <v>-131700</v>
+        <v>-82500</v>
       </c>
       <c r="J102" s="3">
+        <v>-136500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-525700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>852500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>112400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>31800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>132600</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>CSTM</t>
   </si>
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8591000</v>
+        <v>8744400</v>
       </c>
       <c r="E8" s="3">
-        <v>6508800</v>
+        <v>6625100</v>
       </c>
       <c r="F8" s="3">
-        <v>5166200</v>
+        <v>5258500</v>
       </c>
       <c r="G8" s="3">
-        <v>6249600</v>
+        <v>6361200</v>
       </c>
       <c r="H8" s="3">
-        <v>6015800</v>
+        <v>6123300</v>
       </c>
       <c r="I8" s="3">
-        <v>5540700</v>
+        <v>5639700</v>
       </c>
       <c r="J8" s="3">
-        <v>5018100</v>
+        <v>5107700</v>
       </c>
       <c r="K8" s="3">
         <v>5260200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7880000</v>
+        <v>8020800</v>
       </c>
       <c r="E9" s="3">
-        <v>5806300</v>
+        <v>5910000</v>
       </c>
       <c r="F9" s="3">
-        <v>4647800</v>
+        <v>4730800</v>
       </c>
       <c r="G9" s="3">
-        <v>5612700</v>
+        <v>5713000</v>
       </c>
       <c r="H9" s="3">
-        <v>5446600</v>
+        <v>5543900</v>
       </c>
       <c r="I9" s="3">
-        <v>4970500</v>
+        <v>5059300</v>
       </c>
       <c r="J9" s="3">
-        <v>4472200</v>
+        <v>4552100</v>
       </c>
       <c r="K9" s="3">
         <v>4800800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>711000</v>
+        <v>723700</v>
       </c>
       <c r="E10" s="3">
-        <v>702500</v>
+        <v>715100</v>
       </c>
       <c r="F10" s="3">
-        <v>518400</v>
+        <v>527700</v>
       </c>
       <c r="G10" s="3">
-        <v>636900</v>
+        <v>648300</v>
       </c>
       <c r="H10" s="3">
-        <v>569200</v>
+        <v>579400</v>
       </c>
       <c r="I10" s="3">
-        <v>570300</v>
+        <v>580400</v>
       </c>
       <c r="J10" s="3">
-        <v>545900</v>
+        <v>555700</v>
       </c>
       <c r="K10" s="3">
         <v>459400</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>50800</v>
+        <v>46300</v>
       </c>
       <c r="E12" s="3">
-        <v>36000</v>
+        <v>36600</v>
       </c>
       <c r="F12" s="3">
-        <v>36000</v>
+        <v>36600</v>
       </c>
       <c r="G12" s="3">
-        <v>44400</v>
+        <v>45200</v>
       </c>
       <c r="H12" s="3">
-        <v>38100</v>
+        <v>38800</v>
       </c>
       <c r="I12" s="3">
-        <v>34900</v>
+        <v>35500</v>
       </c>
       <c r="J12" s="3">
-        <v>33900</v>
+        <v>34500</v>
       </c>
       <c r="K12" s="3">
         <v>35700</v>
@@ -953,26 +953,26 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
+      <c r="D14" s="3">
+        <v>-49500</v>
       </c>
       <c r="E14" s="3">
-        <v>65600</v>
+        <v>66800</v>
       </c>
       <c r="F14" s="3">
-        <v>67700</v>
+        <v>68900</v>
       </c>
       <c r="G14" s="3">
         <v>3200</v>
       </c>
       <c r="H14" s="3">
-        <v>-37000</v>
+        <v>-37700</v>
       </c>
       <c r="I14" s="3">
-        <v>79400</v>
+        <v>80800</v>
       </c>
       <c r="J14" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="K14" s="3">
         <v>479800</v>
@@ -995,26 +995,26 @@
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
+      <c r="D15" s="3">
+        <v>18300</v>
       </c>
       <c r="E15" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="F15" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="G15" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="H15" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="I15" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="J15" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="K15" s="3">
         <v>8200</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8237600</v>
+        <v>8384700</v>
       </c>
       <c r="E17" s="3">
-        <v>6025300</v>
+        <v>6132900</v>
       </c>
       <c r="F17" s="3">
-        <v>5034000</v>
+        <v>5123900</v>
       </c>
       <c r="G17" s="3">
-        <v>5979800</v>
+        <v>6086600</v>
       </c>
       <c r="H17" s="3">
-        <v>5588400</v>
+        <v>5688200</v>
       </c>
       <c r="I17" s="3">
-        <v>5297400</v>
+        <v>5392000</v>
       </c>
       <c r="J17" s="3">
-        <v>4757800</v>
+        <v>4842800</v>
       </c>
       <c r="K17" s="3">
         <v>5695000</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>353400</v>
+        <v>359700</v>
       </c>
       <c r="E18" s="3">
-        <v>483500</v>
+        <v>492100</v>
       </c>
       <c r="F18" s="3">
-        <v>132300</v>
+        <v>134600</v>
       </c>
       <c r="G18" s="3">
-        <v>269800</v>
+        <v>274600</v>
       </c>
       <c r="H18" s="3">
-        <v>427400</v>
+        <v>435100</v>
       </c>
       <c r="I18" s="3">
-        <v>243300</v>
+        <v>247700</v>
       </c>
       <c r="J18" s="3">
-        <v>260300</v>
+        <v>264900</v>
       </c>
       <c r="K18" s="3">
         <v>-434900</v>
@@ -1155,22 +1155,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-138600</v>
+        <v>-11800</v>
       </c>
       <c r="E20" s="3">
-        <v>-9500</v>
+        <v>-9700</v>
       </c>
       <c r="F20" s="3">
-        <v>-16900</v>
+        <v>-17200</v>
       </c>
       <c r="G20" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="H20" s="3">
-        <v>-37000</v>
+        <v>-37700</v>
       </c>
       <c r="I20" s="3">
-        <v>-10600</v>
+        <v>-10800</v>
       </c>
       <c r="J20" s="3">
         <v>3200</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>517400</v>
+        <v>658900</v>
       </c>
       <c r="E21" s="3">
-        <v>755500</v>
+        <v>771900</v>
       </c>
       <c r="F21" s="3">
-        <v>388400</v>
+        <v>398100</v>
       </c>
       <c r="G21" s="3">
-        <v>535500</v>
+        <v>547800</v>
       </c>
       <c r="H21" s="3">
-        <v>598100</v>
+        <v>610900</v>
       </c>
       <c r="I21" s="3">
-        <v>413100</v>
+        <v>422300</v>
       </c>
       <c r="J21" s="3">
-        <v>426900</v>
+        <v>436200</v>
       </c>
       <c r="K21" s="3">
         <v>-286500</v>
@@ -1238,26 +1238,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>11</v>
+      <c r="D22" s="3">
+        <v>129200</v>
       </c>
       <c r="E22" s="3">
-        <v>138600</v>
+        <v>141100</v>
       </c>
       <c r="F22" s="3">
-        <v>151300</v>
+        <v>154000</v>
       </c>
       <c r="G22" s="3">
-        <v>178800</v>
+        <v>182000</v>
       </c>
       <c r="H22" s="3">
-        <v>155500</v>
+        <v>158300</v>
       </c>
       <c r="I22" s="3">
-        <v>180900</v>
+        <v>184100</v>
       </c>
       <c r="J22" s="3">
-        <v>194700</v>
+        <v>198100</v>
       </c>
       <c r="K22" s="3">
         <v>169500</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>214800</v>
+        <v>218600</v>
       </c>
       <c r="E23" s="3">
-        <v>335400</v>
+        <v>341400</v>
       </c>
       <c r="F23" s="3">
-        <v>-36000</v>
+        <v>-36600</v>
       </c>
       <c r="G23" s="3">
-        <v>86800</v>
+        <v>88300</v>
       </c>
       <c r="H23" s="3">
-        <v>234900</v>
+        <v>239100</v>
       </c>
       <c r="I23" s="3">
-        <v>51800</v>
+        <v>52800</v>
       </c>
       <c r="J23" s="3">
-        <v>68800</v>
+        <v>70000</v>
       </c>
       <c r="K23" s="3">
         <v>-596100</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-111100</v>
+        <v>-113100</v>
       </c>
       <c r="E24" s="3">
-        <v>58200</v>
+        <v>59200</v>
       </c>
       <c r="F24" s="3">
-        <v>-18000</v>
+        <v>-18300</v>
       </c>
       <c r="G24" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="H24" s="3">
-        <v>33900</v>
+        <v>34500</v>
       </c>
       <c r="I24" s="3">
-        <v>101600</v>
+        <v>103400</v>
       </c>
       <c r="J24" s="3">
-        <v>73000</v>
+        <v>74300</v>
       </c>
       <c r="K24" s="3">
         <v>-32700</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>325900</v>
+        <v>331700</v>
       </c>
       <c r="E26" s="3">
-        <v>277200</v>
+        <v>282100</v>
       </c>
       <c r="F26" s="3">
-        <v>-18000</v>
+        <v>-18300</v>
       </c>
       <c r="G26" s="3">
-        <v>67700</v>
+        <v>68900</v>
       </c>
       <c r="H26" s="3">
-        <v>201000</v>
+        <v>204600</v>
       </c>
       <c r="I26" s="3">
-        <v>-49700</v>
+        <v>-50600</v>
       </c>
       <c r="J26" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K26" s="3">
         <v>-563500</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>318500</v>
+        <v>324100</v>
       </c>
       <c r="E27" s="3">
-        <v>271900</v>
+        <v>276800</v>
       </c>
       <c r="F27" s="3">
-        <v>-22200</v>
+        <v>-22600</v>
       </c>
       <c r="G27" s="3">
-        <v>62400</v>
+        <v>63500</v>
       </c>
       <c r="H27" s="3">
-        <v>198900</v>
+        <v>202500</v>
       </c>
       <c r="I27" s="3">
-        <v>-49700</v>
+        <v>-50600</v>
       </c>
       <c r="J27" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K27" s="3">
         <v>-565500</v>
@@ -1548,7 +1548,7 @@
         <v>11</v>
       </c>
       <c r="I29" s="3">
-        <v>16900</v>
+        <v>17200</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>11</v>
@@ -1659,22 +1659,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>138600</v>
+        <v>11800</v>
       </c>
       <c r="E32" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="F32" s="3">
-        <v>16900</v>
+        <v>17200</v>
       </c>
       <c r="G32" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="H32" s="3">
-        <v>37000</v>
+        <v>37700</v>
       </c>
       <c r="I32" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="J32" s="3">
         <v>-3200</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>318500</v>
+        <v>324100</v>
       </c>
       <c r="E33" s="3">
-        <v>271900</v>
+        <v>276800</v>
       </c>
       <c r="F33" s="3">
-        <v>-22200</v>
+        <v>-22600</v>
       </c>
       <c r="G33" s="3">
-        <v>62400</v>
+        <v>63500</v>
       </c>
       <c r="H33" s="3">
-        <v>198900</v>
+        <v>202500</v>
       </c>
       <c r="I33" s="3">
-        <v>-32800</v>
+        <v>-33400</v>
       </c>
       <c r="J33" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K33" s="3">
         <v>-565500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>318500</v>
+        <v>324100</v>
       </c>
       <c r="E35" s="3">
-        <v>271900</v>
+        <v>276800</v>
       </c>
       <c r="F35" s="3">
-        <v>-22200</v>
+        <v>-22600</v>
       </c>
       <c r="G35" s="3">
-        <v>62400</v>
+        <v>63500</v>
       </c>
       <c r="H35" s="3">
-        <v>198900</v>
+        <v>202500</v>
       </c>
       <c r="I35" s="3">
-        <v>-32800</v>
+        <v>-33400</v>
       </c>
       <c r="J35" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K35" s="3">
         <v>-565500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>175600</v>
+        <v>178800</v>
       </c>
       <c r="E41" s="3">
-        <v>155500</v>
+        <v>158300</v>
       </c>
       <c r="F41" s="3">
-        <v>464500</v>
+        <v>472800</v>
       </c>
       <c r="G41" s="3">
-        <v>194700</v>
+        <v>198100</v>
       </c>
       <c r="H41" s="3">
-        <v>173500</v>
+        <v>176600</v>
       </c>
       <c r="I41" s="3">
-        <v>284600</v>
+        <v>289700</v>
       </c>
       <c r="J41" s="3">
-        <v>367100</v>
+        <v>373700</v>
       </c>
       <c r="K41" s="3">
         <v>481800</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>570300</v>
+        <v>571800</v>
       </c>
       <c r="E43" s="3">
-        <v>713100</v>
+        <v>725800</v>
       </c>
       <c r="F43" s="3">
-        <v>423200</v>
+        <v>430800</v>
       </c>
       <c r="G43" s="3">
-        <v>493000</v>
+        <v>501800</v>
       </c>
       <c r="H43" s="3">
-        <v>608400</v>
+        <v>619200</v>
       </c>
       <c r="I43" s="3">
-        <v>434800</v>
+        <v>442600</v>
       </c>
       <c r="J43" s="3">
-        <v>366100</v>
+        <v>372600</v>
       </c>
       <c r="K43" s="3">
         <v>370600</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1396600</v>
+        <v>1421500</v>
       </c>
       <c r="E44" s="3">
-        <v>1110900</v>
+        <v>1130700</v>
       </c>
       <c r="F44" s="3">
-        <v>615800</v>
+        <v>626800</v>
       </c>
       <c r="G44" s="3">
-        <v>708900</v>
+        <v>721500</v>
       </c>
       <c r="H44" s="3">
-        <v>698300</v>
+        <v>710800</v>
       </c>
       <c r="I44" s="3">
-        <v>680300</v>
+        <v>692400</v>
       </c>
       <c r="J44" s="3">
-        <v>625300</v>
+        <v>636400</v>
       </c>
       <c r="K44" s="3">
         <v>553300</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32800</v>
+        <v>42000</v>
       </c>
       <c r="E45" s="3">
-        <v>70900</v>
+        <v>72200</v>
       </c>
       <c r="F45" s="3">
-        <v>47600</v>
+        <v>48500</v>
       </c>
       <c r="G45" s="3">
-        <v>31700</v>
+        <v>32300</v>
       </c>
       <c r="H45" s="3">
-        <v>44400</v>
+        <v>45200</v>
       </c>
       <c r="I45" s="3">
-        <v>81500</v>
+        <v>82900</v>
       </c>
       <c r="J45" s="3">
-        <v>133300</v>
+        <v>135700</v>
       </c>
       <c r="K45" s="3">
         <v>86800</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2175200</v>
+        <v>2214100</v>
       </c>
       <c r="E46" s="3">
-        <v>2050400</v>
+        <v>2087000</v>
       </c>
       <c r="F46" s="3">
-        <v>1551000</v>
+        <v>1578700</v>
       </c>
       <c r="G46" s="3">
-        <v>1428300</v>
+        <v>1453800</v>
       </c>
       <c r="H46" s="3">
-        <v>1524600</v>
+        <v>1551800</v>
       </c>
       <c r="I46" s="3">
-        <v>1481200</v>
+        <v>1507700</v>
       </c>
       <c r="J46" s="3">
-        <v>1491800</v>
+        <v>1518400</v>
       </c>
       <c r="K46" s="3">
         <v>1492400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>45500</v>
+        <v>46300</v>
       </c>
       <c r="E47" s="3">
-        <v>58200</v>
+        <v>59200</v>
       </c>
       <c r="F47" s="3">
-        <v>71900</v>
+        <v>73200</v>
       </c>
       <c r="G47" s="3">
-        <v>64500</v>
+        <v>65700</v>
       </c>
       <c r="H47" s="3">
-        <v>68800</v>
+        <v>70000</v>
       </c>
       <c r="I47" s="3">
-        <v>51800</v>
+        <v>52800</v>
       </c>
       <c r="J47" s="3">
-        <v>66700</v>
+        <v>67800</v>
       </c>
       <c r="K47" s="3">
         <v>84700</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2134000</v>
+        <v>2172100</v>
       </c>
       <c r="E48" s="3">
-        <v>2061000</v>
+        <v>2097800</v>
       </c>
       <c r="F48" s="3">
-        <v>2016500</v>
+        <v>2052600</v>
       </c>
       <c r="G48" s="3">
-        <v>2175200</v>
+        <v>2214100</v>
       </c>
       <c r="H48" s="3">
-        <v>1762600</v>
+        <v>1794100</v>
       </c>
       <c r="I48" s="3">
-        <v>1605000</v>
+        <v>1633700</v>
       </c>
       <c r="J48" s="3">
-        <v>1562700</v>
+        <v>1590600</v>
       </c>
       <c r="K48" s="3">
         <v>1281100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>562900</v>
+        <v>572900</v>
       </c>
       <c r="E49" s="3">
-        <v>538500</v>
+        <v>548100</v>
       </c>
       <c r="F49" s="3">
-        <v>505700</v>
+        <v>514800</v>
       </c>
       <c r="G49" s="3">
-        <v>555500</v>
+        <v>565400</v>
       </c>
       <c r="H49" s="3">
-        <v>520500</v>
+        <v>529800</v>
       </c>
       <c r="I49" s="3">
-        <v>498300</v>
+        <v>507200</v>
       </c>
       <c r="J49" s="3">
-        <v>567100</v>
+        <v>577200</v>
       </c>
       <c r="K49" s="3">
         <v>531800</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>310000</v>
+        <v>315500</v>
       </c>
       <c r="E52" s="3">
-        <v>184100</v>
+        <v>187400</v>
       </c>
       <c r="F52" s="3">
-        <v>223200</v>
+        <v>227200</v>
       </c>
       <c r="G52" s="3">
-        <v>203100</v>
+        <v>206800</v>
       </c>
       <c r="H52" s="3">
-        <v>250700</v>
+        <v>255200</v>
       </c>
       <c r="I52" s="3">
-        <v>289900</v>
+        <v>295100</v>
       </c>
       <c r="J52" s="3">
-        <v>318500</v>
+        <v>324100</v>
       </c>
       <c r="K52" s="3">
         <v>313400</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5227600</v>
+        <v>5321000</v>
       </c>
       <c r="E54" s="3">
-        <v>4892200</v>
+        <v>4979600</v>
       </c>
       <c r="F54" s="3">
-        <v>4368500</v>
+        <v>4446500</v>
       </c>
       <c r="G54" s="3">
-        <v>4426700</v>
+        <v>4505700</v>
       </c>
       <c r="H54" s="3">
-        <v>4127300</v>
+        <v>4201000</v>
       </c>
       <c r="I54" s="3">
-        <v>3926200</v>
+        <v>3996400</v>
       </c>
       <c r="J54" s="3">
-        <v>4006600</v>
+        <v>4078200</v>
       </c>
       <c r="K54" s="3">
         <v>3703500</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1552100</v>
+        <v>1243800</v>
       </c>
       <c r="E57" s="3">
-        <v>1126800</v>
+        <v>1146900</v>
       </c>
       <c r="F57" s="3">
-        <v>662300</v>
+        <v>674100</v>
       </c>
       <c r="G57" s="3">
-        <v>752200</v>
+        <v>765700</v>
       </c>
       <c r="H57" s="3">
-        <v>724700</v>
+        <v>737700</v>
       </c>
       <c r="I57" s="3">
-        <v>758600</v>
+        <v>772100</v>
       </c>
       <c r="J57" s="3">
-        <v>663400</v>
+        <v>675200</v>
       </c>
       <c r="K57" s="3">
         <v>670700</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>156600</v>
+        <v>159400</v>
       </c>
       <c r="E58" s="3">
-        <v>273000</v>
+        <v>277800</v>
       </c>
       <c r="F58" s="3">
-        <v>97300</v>
+        <v>99100</v>
       </c>
       <c r="G58" s="3">
-        <v>212700</v>
+        <v>216500</v>
       </c>
       <c r="H58" s="3">
-        <v>60300</v>
+        <v>61400</v>
       </c>
       <c r="I58" s="3">
-        <v>112100</v>
+        <v>114200</v>
       </c>
       <c r="J58" s="3">
-        <v>113200</v>
+        <v>115200</v>
       </c>
       <c r="K58" s="3">
         <v>172500</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>82500</v>
+        <v>420000</v>
       </c>
       <c r="E59" s="3">
-        <v>413700</v>
+        <v>421100</v>
       </c>
       <c r="F59" s="3">
-        <v>389300</v>
+        <v>396300</v>
       </c>
       <c r="G59" s="3">
-        <v>380900</v>
+        <v>387700</v>
       </c>
       <c r="H59" s="3">
-        <v>420000</v>
+        <v>427500</v>
       </c>
       <c r="I59" s="3">
-        <v>303600</v>
+        <v>309100</v>
       </c>
       <c r="J59" s="3">
-        <v>318500</v>
+        <v>324100</v>
       </c>
       <c r="K59" s="3">
         <v>387900</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1791200</v>
+        <v>1823200</v>
       </c>
       <c r="E60" s="3">
-        <v>1813400</v>
+        <v>1845800</v>
       </c>
       <c r="F60" s="3">
-        <v>1149000</v>
+        <v>1169500</v>
       </c>
       <c r="G60" s="3">
-        <v>1345800</v>
+        <v>1369800</v>
       </c>
       <c r="H60" s="3">
-        <v>1205100</v>
+        <v>1226600</v>
       </c>
       <c r="I60" s="3">
-        <v>1174400</v>
+        <v>1195400</v>
       </c>
       <c r="J60" s="3">
-        <v>1095000</v>
+        <v>1114600</v>
       </c>
       <c r="K60" s="3">
         <v>1231100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2018700</v>
+        <v>2054700</v>
       </c>
       <c r="E61" s="3">
-        <v>1979500</v>
+        <v>2014900</v>
       </c>
       <c r="F61" s="3">
-        <v>2432300</v>
+        <v>2475800</v>
       </c>
       <c r="G61" s="3">
-        <v>2285300</v>
+        <v>2326100</v>
       </c>
       <c r="H61" s="3">
-        <v>2215500</v>
+        <v>2255000</v>
       </c>
       <c r="I61" s="3">
-        <v>2138200</v>
+        <v>2176400</v>
       </c>
       <c r="J61" s="3">
-        <v>2497900</v>
+        <v>2542600</v>
       </c>
       <c r="K61" s="3">
         <v>2106900</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>611500</v>
+        <v>622400</v>
       </c>
       <c r="E62" s="3">
-        <v>791400</v>
+        <v>805500</v>
       </c>
       <c r="F62" s="3">
-        <v>894000</v>
+        <v>910000</v>
       </c>
       <c r="G62" s="3">
-        <v>885500</v>
+        <v>901400</v>
       </c>
       <c r="H62" s="3">
-        <v>827400</v>
+        <v>842100</v>
       </c>
       <c r="I62" s="3">
-        <v>951100</v>
+        <v>968100</v>
       </c>
       <c r="J62" s="3">
-        <v>1016700</v>
+        <v>1034900</v>
       </c>
       <c r="K62" s="3">
         <v>916700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4454200</v>
+        <v>4533700</v>
       </c>
       <c r="E66" s="3">
-        <v>4602300</v>
+        <v>4684500</v>
       </c>
       <c r="F66" s="3">
-        <v>4490200</v>
+        <v>4570400</v>
       </c>
       <c r="G66" s="3">
-        <v>4528200</v>
+        <v>4609100</v>
       </c>
       <c r="H66" s="3">
-        <v>4256300</v>
+        <v>4332400</v>
       </c>
       <c r="I66" s="3">
-        <v>4272200</v>
+        <v>4348500</v>
       </c>
       <c r="J66" s="3">
-        <v>4619200</v>
+        <v>4701700</v>
       </c>
       <c r="K66" s="3">
         <v>4265900</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>325900</v>
+        <v>298300</v>
       </c>
       <c r="E72" s="3">
-        <v>-173500</v>
+        <v>-176600</v>
       </c>
       <c r="F72" s="3">
-        <v>-565000</v>
+        <v>-575100</v>
       </c>
       <c r="G72" s="3">
-        <v>-542800</v>
+        <v>-552400</v>
       </c>
       <c r="H72" s="3">
-        <v>-571300</v>
+        <v>-581500</v>
       </c>
       <c r="I72" s="3">
-        <v>-799800</v>
+        <v>-814100</v>
       </c>
       <c r="J72" s="3">
-        <v>-779700</v>
+        <v>-793700</v>
       </c>
       <c r="K72" s="3">
         <v>-736000</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>773400</v>
+        <v>787200</v>
       </c>
       <c r="E76" s="3">
-        <v>289900</v>
+        <v>295100</v>
       </c>
       <c r="F76" s="3">
-        <v>-121700</v>
+        <v>-123800</v>
       </c>
       <c r="G76" s="3">
-        <v>-101600</v>
+        <v>-103400</v>
       </c>
       <c r="H76" s="3">
-        <v>-129100</v>
+        <v>-131400</v>
       </c>
       <c r="I76" s="3">
-        <v>-346000</v>
+        <v>-352100</v>
       </c>
       <c r="J76" s="3">
-        <v>-612600</v>
+        <v>-623500</v>
       </c>
       <c r="K76" s="3">
         <v>-562500</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>318500</v>
+        <v>324100</v>
       </c>
       <c r="E81" s="3">
-        <v>271900</v>
+        <v>276800</v>
       </c>
       <c r="F81" s="3">
-        <v>-22200</v>
+        <v>-22600</v>
       </c>
       <c r="G81" s="3">
-        <v>62400</v>
+        <v>63500</v>
       </c>
       <c r="H81" s="3">
-        <v>198900</v>
+        <v>202500</v>
       </c>
       <c r="I81" s="3">
-        <v>-32800</v>
+        <v>-33400</v>
       </c>
       <c r="J81" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K81" s="3">
         <v>-565500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>303600</v>
+        <v>309100</v>
       </c>
       <c r="E83" s="3">
-        <v>282500</v>
+        <v>287500</v>
       </c>
       <c r="F83" s="3">
-        <v>274000</v>
+        <v>278900</v>
       </c>
       <c r="G83" s="3">
-        <v>270800</v>
+        <v>275700</v>
       </c>
       <c r="H83" s="3">
-        <v>208400</v>
+        <v>212100</v>
       </c>
       <c r="I83" s="3">
-        <v>180900</v>
+        <v>184100</v>
       </c>
       <c r="J83" s="3">
-        <v>164000</v>
+        <v>166900</v>
       </c>
       <c r="K83" s="3">
         <v>142900</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>477200</v>
+        <v>484600</v>
       </c>
       <c r="E89" s="3">
-        <v>377700</v>
+        <v>384500</v>
       </c>
       <c r="F89" s="3">
-        <v>353400</v>
+        <v>359700</v>
       </c>
       <c r="G89" s="3">
-        <v>472900</v>
+        <v>481400</v>
       </c>
       <c r="H89" s="3">
-        <v>69800</v>
+        <v>71100</v>
       </c>
       <c r="I89" s="3">
-        <v>169300</v>
+        <v>172300</v>
       </c>
       <c r="J89" s="3">
-        <v>93100</v>
+        <v>94800</v>
       </c>
       <c r="K89" s="3">
         <v>521600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-288800</v>
+        <v>-294000</v>
       </c>
       <c r="E91" s="3">
-        <v>-245500</v>
+        <v>-249800</v>
       </c>
       <c r="F91" s="3">
-        <v>-192600</v>
+        <v>-196000</v>
       </c>
       <c r="G91" s="3">
-        <v>-286700</v>
+        <v>-291800</v>
       </c>
       <c r="H91" s="3">
-        <v>-293100</v>
+        <v>-298300</v>
       </c>
       <c r="I91" s="3">
-        <v>-292000</v>
+        <v>-297200</v>
       </c>
       <c r="J91" s="3">
-        <v>-375600</v>
+        <v>-382300</v>
       </c>
       <c r="K91" s="3">
         <v>-357300</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-285700</v>
+        <v>-290800</v>
       </c>
       <c r="E94" s="3">
-        <v>-233800</v>
+        <v>-238000</v>
       </c>
       <c r="F94" s="3">
-        <v>-186200</v>
+        <v>-189500</v>
       </c>
       <c r="G94" s="3">
-        <v>-373500</v>
+        <v>-380100</v>
       </c>
       <c r="H94" s="3">
-        <v>-96300</v>
+        <v>-98000</v>
       </c>
       <c r="I94" s="3">
-        <v>-308900</v>
+        <v>-314500</v>
       </c>
       <c r="J94" s="3">
-        <v>-386200</v>
+        <v>-393100</v>
       </c>
       <c r="K94" s="3">
         <v>-737000</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-172500</v>
+        <v>-175500</v>
       </c>
       <c r="E100" s="3">
-        <v>-460200</v>
+        <v>-468500</v>
       </c>
       <c r="F100" s="3">
-        <v>106900</v>
+        <v>108800</v>
       </c>
       <c r="G100" s="3">
-        <v>-80400</v>
+        <v>-81800</v>
       </c>
       <c r="H100" s="3">
-        <v>-86800</v>
+        <v>-88300</v>
       </c>
       <c r="I100" s="3">
-        <v>64500</v>
+        <v>65700</v>
       </c>
       <c r="J100" s="3">
-        <v>153400</v>
+        <v>156200</v>
       </c>
       <c r="K100" s="3">
         <v>-314400</v>
@@ -4207,22 +4207,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="E101" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="F101" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="G101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I101" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="J101" s="3">
         <v>3200</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="E102" s="3">
-        <v>-308900</v>
+        <v>-314500</v>
       </c>
       <c r="F102" s="3">
-        <v>269800</v>
+        <v>274600</v>
       </c>
       <c r="G102" s="3">
-        <v>21200</v>
+        <v>21500</v>
       </c>
       <c r="H102" s="3">
-        <v>-111100</v>
+        <v>-113100</v>
       </c>
       <c r="I102" s="3">
-        <v>-82500</v>
+        <v>-84000</v>
       </c>
       <c r="J102" s="3">
-        <v>-136500</v>
+        <v>-138900</v>
       </c>
       <c r="K102" s="3">
         <v>-525700</v>

--- a/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8744400</v>
+        <v>8802900</v>
       </c>
       <c r="E8" s="3">
-        <v>6625100</v>
+        <v>6669400</v>
       </c>
       <c r="F8" s="3">
-        <v>5258500</v>
+        <v>5293700</v>
       </c>
       <c r="G8" s="3">
-        <v>6361200</v>
+        <v>6403800</v>
       </c>
       <c r="H8" s="3">
-        <v>6123300</v>
+        <v>6164200</v>
       </c>
       <c r="I8" s="3">
-        <v>5639700</v>
+        <v>5677400</v>
       </c>
       <c r="J8" s="3">
-        <v>5107700</v>
+        <v>5141900</v>
       </c>
       <c r="K8" s="3">
         <v>5260200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8020800</v>
+        <v>8074400</v>
       </c>
       <c r="E9" s="3">
-        <v>5910000</v>
+        <v>5949500</v>
       </c>
       <c r="F9" s="3">
-        <v>4730800</v>
+        <v>4762500</v>
       </c>
       <c r="G9" s="3">
-        <v>5713000</v>
+        <v>5751200</v>
       </c>
       <c r="H9" s="3">
-        <v>5543900</v>
+        <v>5580900</v>
       </c>
       <c r="I9" s="3">
-        <v>5059300</v>
+        <v>5093100</v>
       </c>
       <c r="J9" s="3">
-        <v>4552100</v>
+        <v>4582500</v>
       </c>
       <c r="K9" s="3">
         <v>4800800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>723700</v>
+        <v>728500</v>
       </c>
       <c r="E10" s="3">
-        <v>715100</v>
+        <v>719800</v>
       </c>
       <c r="F10" s="3">
-        <v>527700</v>
+        <v>531200</v>
       </c>
       <c r="G10" s="3">
-        <v>648300</v>
+        <v>652600</v>
       </c>
       <c r="H10" s="3">
-        <v>579400</v>
+        <v>583200</v>
       </c>
       <c r="I10" s="3">
-        <v>580400</v>
+        <v>584300</v>
       </c>
       <c r="J10" s="3">
-        <v>555700</v>
+        <v>559400</v>
       </c>
       <c r="K10" s="3">
         <v>459400</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>46300</v>
+        <v>46600</v>
       </c>
       <c r="E12" s="3">
-        <v>36600</v>
+        <v>36900</v>
       </c>
       <c r="F12" s="3">
-        <v>36600</v>
+        <v>36900</v>
       </c>
       <c r="G12" s="3">
-        <v>45200</v>
+        <v>45500</v>
       </c>
       <c r="H12" s="3">
-        <v>38800</v>
+        <v>39000</v>
       </c>
       <c r="I12" s="3">
-        <v>35500</v>
+        <v>35800</v>
       </c>
       <c r="J12" s="3">
-        <v>34500</v>
+        <v>34700</v>
       </c>
       <c r="K12" s="3">
         <v>35700</v>
@@ -954,22 +954,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-49500</v>
+        <v>-49900</v>
       </c>
       <c r="E14" s="3">
-        <v>66800</v>
+        <v>67200</v>
       </c>
       <c r="F14" s="3">
-        <v>68900</v>
+        <v>69400</v>
       </c>
       <c r="G14" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H14" s="3">
-        <v>-37700</v>
+        <v>-37900</v>
       </c>
       <c r="I14" s="3">
-        <v>80800</v>
+        <v>81300</v>
       </c>
       <c r="J14" s="3">
         <v>5400</v>
@@ -996,25 +996,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="E15" s="3">
-        <v>23700</v>
+        <v>23900</v>
       </c>
       <c r="F15" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="G15" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="H15" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="I15" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="J15" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="K15" s="3">
         <v>8200</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8384700</v>
+        <v>8440800</v>
       </c>
       <c r="E17" s="3">
-        <v>6132900</v>
+        <v>6173900</v>
       </c>
       <c r="F17" s="3">
-        <v>5123900</v>
+        <v>5158100</v>
       </c>
       <c r="G17" s="3">
-        <v>6086600</v>
+        <v>6127300</v>
       </c>
       <c r="H17" s="3">
-        <v>5688200</v>
+        <v>5726200</v>
       </c>
       <c r="I17" s="3">
-        <v>5392000</v>
+        <v>5428100</v>
       </c>
       <c r="J17" s="3">
-        <v>4842800</v>
+        <v>4875200</v>
       </c>
       <c r="K17" s="3">
         <v>5695000</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>359700</v>
+        <v>362100</v>
       </c>
       <c r="E18" s="3">
-        <v>492100</v>
+        <v>495400</v>
       </c>
       <c r="F18" s="3">
-        <v>134600</v>
+        <v>135500</v>
       </c>
       <c r="G18" s="3">
-        <v>274600</v>
+        <v>276400</v>
       </c>
       <c r="H18" s="3">
-        <v>435100</v>
+        <v>438000</v>
       </c>
       <c r="I18" s="3">
-        <v>247700</v>
+        <v>249300</v>
       </c>
       <c r="J18" s="3">
-        <v>264900</v>
+        <v>266700</v>
       </c>
       <c r="K18" s="3">
         <v>-434900</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-11800</v>
+        <v>-11900</v>
       </c>
       <c r="E20" s="3">
-        <v>-9700</v>
+        <v>-9800</v>
       </c>
       <c r="F20" s="3">
-        <v>-17200</v>
+        <v>-17300</v>
       </c>
       <c r="G20" s="3">
         <v>-4300</v>
       </c>
       <c r="H20" s="3">
-        <v>-37700</v>
+        <v>-37900</v>
       </c>
       <c r="I20" s="3">
         <v>-10800</v>
       </c>
       <c r="J20" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K20" s="3">
         <v>8200</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>658900</v>
+        <v>661300</v>
       </c>
       <c r="E21" s="3">
-        <v>771900</v>
+        <v>775100</v>
       </c>
       <c r="F21" s="3">
-        <v>398100</v>
+        <v>398900</v>
       </c>
       <c r="G21" s="3">
-        <v>547800</v>
+        <v>549600</v>
       </c>
       <c r="H21" s="3">
-        <v>610900</v>
+        <v>613600</v>
       </c>
       <c r="I21" s="3">
-        <v>422300</v>
+        <v>423900</v>
       </c>
       <c r="J21" s="3">
-        <v>436200</v>
+        <v>438000</v>
       </c>
       <c r="K21" s="3">
         <v>-286500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>129200</v>
+        <v>130100</v>
       </c>
       <c r="E22" s="3">
-        <v>141100</v>
+        <v>142000</v>
       </c>
       <c r="F22" s="3">
-        <v>154000</v>
+        <v>155000</v>
       </c>
       <c r="G22" s="3">
-        <v>182000</v>
+        <v>183200</v>
       </c>
       <c r="H22" s="3">
-        <v>158300</v>
+        <v>159400</v>
       </c>
       <c r="I22" s="3">
-        <v>184100</v>
+        <v>185400</v>
       </c>
       <c r="J22" s="3">
-        <v>198100</v>
+        <v>199500</v>
       </c>
       <c r="K22" s="3">
         <v>169500</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>218600</v>
+        <v>220100</v>
       </c>
       <c r="E23" s="3">
-        <v>341400</v>
+        <v>343700</v>
       </c>
       <c r="F23" s="3">
-        <v>-36600</v>
+        <v>-36900</v>
       </c>
       <c r="G23" s="3">
-        <v>88300</v>
+        <v>88900</v>
       </c>
       <c r="H23" s="3">
-        <v>239100</v>
+        <v>240700</v>
       </c>
       <c r="I23" s="3">
-        <v>52800</v>
+        <v>53100</v>
       </c>
       <c r="J23" s="3">
-        <v>70000</v>
+        <v>70500</v>
       </c>
       <c r="K23" s="3">
         <v>-596100</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-113100</v>
+        <v>-113800</v>
       </c>
       <c r="E24" s="3">
-        <v>59200</v>
+        <v>59600</v>
       </c>
       <c r="F24" s="3">
-        <v>-18300</v>
+        <v>-18400</v>
       </c>
       <c r="G24" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="H24" s="3">
-        <v>34500</v>
+        <v>34700</v>
       </c>
       <c r="I24" s="3">
-        <v>103400</v>
+        <v>104100</v>
       </c>
       <c r="J24" s="3">
-        <v>74300</v>
+        <v>74800</v>
       </c>
       <c r="K24" s="3">
         <v>-32700</v>
@@ -1407,22 +1407,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>331700</v>
+        <v>333900</v>
       </c>
       <c r="E26" s="3">
-        <v>282100</v>
+        <v>284000</v>
       </c>
       <c r="F26" s="3">
-        <v>-18300</v>
+        <v>-18400</v>
       </c>
       <c r="G26" s="3">
-        <v>68900</v>
+        <v>69400</v>
       </c>
       <c r="H26" s="3">
-        <v>204600</v>
+        <v>206000</v>
       </c>
       <c r="I26" s="3">
-        <v>-50600</v>
+        <v>-51000</v>
       </c>
       <c r="J26" s="3">
         <v>-4300</v>
@@ -1449,22 +1449,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>324100</v>
+        <v>326300</v>
       </c>
       <c r="E27" s="3">
-        <v>276800</v>
+        <v>278600</v>
       </c>
       <c r="F27" s="3">
-        <v>-22600</v>
+        <v>-22800</v>
       </c>
       <c r="G27" s="3">
-        <v>63500</v>
+        <v>64000</v>
       </c>
       <c r="H27" s="3">
-        <v>202500</v>
+        <v>203800</v>
       </c>
       <c r="I27" s="3">
-        <v>-50600</v>
+        <v>-51000</v>
       </c>
       <c r="J27" s="3">
         <v>-4300</v>
@@ -1548,7 +1548,7 @@
         <v>11</v>
       </c>
       <c r="I29" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>11</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="E32" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="F32" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="G32" s="3">
         <v>4300</v>
       </c>
       <c r="H32" s="3">
-        <v>37700</v>
+        <v>37900</v>
       </c>
       <c r="I32" s="3">
         <v>10800</v>
       </c>
       <c r="J32" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="K32" s="3">
         <v>-8200</v>
@@ -1701,22 +1701,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>324100</v>
+        <v>326300</v>
       </c>
       <c r="E33" s="3">
-        <v>276800</v>
+        <v>278600</v>
       </c>
       <c r="F33" s="3">
-        <v>-22600</v>
+        <v>-22800</v>
       </c>
       <c r="G33" s="3">
-        <v>63500</v>
+        <v>64000</v>
       </c>
       <c r="H33" s="3">
-        <v>202500</v>
+        <v>203800</v>
       </c>
       <c r="I33" s="3">
-        <v>-33400</v>
+        <v>-33600</v>
       </c>
       <c r="J33" s="3">
         <v>-4300</v>
@@ -1785,22 +1785,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>324100</v>
+        <v>326300</v>
       </c>
       <c r="E35" s="3">
-        <v>276800</v>
+        <v>278600</v>
       </c>
       <c r="F35" s="3">
-        <v>-22600</v>
+        <v>-22800</v>
       </c>
       <c r="G35" s="3">
-        <v>63500</v>
+        <v>64000</v>
       </c>
       <c r="H35" s="3">
-        <v>202500</v>
+        <v>203800</v>
       </c>
       <c r="I35" s="3">
-        <v>-33400</v>
+        <v>-33600</v>
       </c>
       <c r="J35" s="3">
         <v>-4300</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>178800</v>
+        <v>180000</v>
       </c>
       <c r="E41" s="3">
-        <v>158300</v>
+        <v>159400</v>
       </c>
       <c r="F41" s="3">
-        <v>472800</v>
+        <v>475900</v>
       </c>
       <c r="G41" s="3">
-        <v>198100</v>
+        <v>199500</v>
       </c>
       <c r="H41" s="3">
-        <v>176600</v>
+        <v>177800</v>
       </c>
       <c r="I41" s="3">
-        <v>289700</v>
+        <v>291600</v>
       </c>
       <c r="J41" s="3">
-        <v>373700</v>
+        <v>376200</v>
       </c>
       <c r="K41" s="3">
         <v>481800</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>571800</v>
+        <v>575700</v>
       </c>
       <c r="E43" s="3">
-        <v>725800</v>
+        <v>730700</v>
       </c>
       <c r="F43" s="3">
-        <v>430800</v>
+        <v>433600</v>
       </c>
       <c r="G43" s="3">
-        <v>501800</v>
+        <v>505200</v>
       </c>
       <c r="H43" s="3">
-        <v>619200</v>
+        <v>623400</v>
       </c>
       <c r="I43" s="3">
-        <v>442600</v>
+        <v>445600</v>
       </c>
       <c r="J43" s="3">
-        <v>372600</v>
+        <v>375100</v>
       </c>
       <c r="K43" s="3">
         <v>370600</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1421500</v>
+        <v>1431000</v>
       </c>
       <c r="E44" s="3">
-        <v>1130700</v>
+        <v>1138300</v>
       </c>
       <c r="F44" s="3">
-        <v>626800</v>
+        <v>630900</v>
       </c>
       <c r="G44" s="3">
-        <v>721500</v>
+        <v>726300</v>
       </c>
       <c r="H44" s="3">
-        <v>710800</v>
+        <v>715500</v>
       </c>
       <c r="I44" s="3">
-        <v>692400</v>
+        <v>697100</v>
       </c>
       <c r="J44" s="3">
-        <v>636400</v>
+        <v>640700</v>
       </c>
       <c r="K44" s="3">
         <v>553300</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>42000</v>
+        <v>42300</v>
       </c>
       <c r="E45" s="3">
-        <v>72200</v>
+        <v>72600</v>
       </c>
       <c r="F45" s="3">
-        <v>48500</v>
+        <v>48800</v>
       </c>
       <c r="G45" s="3">
-        <v>32300</v>
+        <v>32500</v>
       </c>
       <c r="H45" s="3">
-        <v>45200</v>
+        <v>45500</v>
       </c>
       <c r="I45" s="3">
-        <v>82900</v>
+        <v>83500</v>
       </c>
       <c r="J45" s="3">
-        <v>135700</v>
+        <v>136600</v>
       </c>
       <c r="K45" s="3">
         <v>86800</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2214100</v>
+        <v>2228900</v>
       </c>
       <c r="E46" s="3">
-        <v>2087000</v>
+        <v>2101000</v>
       </c>
       <c r="F46" s="3">
-        <v>1578700</v>
+        <v>1589300</v>
       </c>
       <c r="G46" s="3">
-        <v>1453800</v>
+        <v>1463500</v>
       </c>
       <c r="H46" s="3">
-        <v>1551800</v>
+        <v>1562200</v>
       </c>
       <c r="I46" s="3">
-        <v>1507700</v>
+        <v>1517700</v>
       </c>
       <c r="J46" s="3">
-        <v>1518400</v>
+        <v>1528600</v>
       </c>
       <c r="K46" s="3">
         <v>1492400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>46300</v>
+        <v>46600</v>
       </c>
       <c r="E47" s="3">
-        <v>59200</v>
+        <v>59600</v>
       </c>
       <c r="F47" s="3">
-        <v>73200</v>
+        <v>73700</v>
       </c>
       <c r="G47" s="3">
-        <v>65700</v>
+        <v>66100</v>
       </c>
       <c r="H47" s="3">
-        <v>70000</v>
+        <v>70500</v>
       </c>
       <c r="I47" s="3">
-        <v>52800</v>
+        <v>53100</v>
       </c>
       <c r="J47" s="3">
-        <v>67800</v>
+        <v>68300</v>
       </c>
       <c r="K47" s="3">
         <v>84700</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2172100</v>
+        <v>2186600</v>
       </c>
       <c r="E48" s="3">
-        <v>2097800</v>
+        <v>2111800</v>
       </c>
       <c r="F48" s="3">
-        <v>2052600</v>
+        <v>2066300</v>
       </c>
       <c r="G48" s="3">
-        <v>2214100</v>
+        <v>2228900</v>
       </c>
       <c r="H48" s="3">
-        <v>1794100</v>
+        <v>1806100</v>
       </c>
       <c r="I48" s="3">
-        <v>1633700</v>
+        <v>1644600</v>
       </c>
       <c r="J48" s="3">
-        <v>1590600</v>
+        <v>1601200</v>
       </c>
       <c r="K48" s="3">
         <v>1281100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>572900</v>
+        <v>576700</v>
       </c>
       <c r="E49" s="3">
-        <v>548100</v>
+        <v>551800</v>
       </c>
       <c r="F49" s="3">
-        <v>514800</v>
+        <v>518200</v>
       </c>
       <c r="G49" s="3">
-        <v>565400</v>
+        <v>569200</v>
       </c>
       <c r="H49" s="3">
-        <v>529800</v>
+        <v>533400</v>
       </c>
       <c r="I49" s="3">
-        <v>507200</v>
+        <v>510600</v>
       </c>
       <c r="J49" s="3">
-        <v>577200</v>
+        <v>581100</v>
       </c>
       <c r="K49" s="3">
         <v>531800</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>315500</v>
+        <v>317600</v>
       </c>
       <c r="E52" s="3">
-        <v>187400</v>
+        <v>188600</v>
       </c>
       <c r="F52" s="3">
-        <v>227200</v>
+        <v>228700</v>
       </c>
       <c r="G52" s="3">
-        <v>206800</v>
+        <v>208100</v>
       </c>
       <c r="H52" s="3">
-        <v>255200</v>
+        <v>256900</v>
       </c>
       <c r="I52" s="3">
-        <v>295100</v>
+        <v>297000</v>
       </c>
       <c r="J52" s="3">
-        <v>324100</v>
+        <v>326300</v>
       </c>
       <c r="K52" s="3">
         <v>313400</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5321000</v>
+        <v>5356500</v>
       </c>
       <c r="E54" s="3">
-        <v>4979600</v>
+        <v>5012900</v>
       </c>
       <c r="F54" s="3">
-        <v>4446500</v>
+        <v>4476200</v>
       </c>
       <c r="G54" s="3">
-        <v>4505700</v>
+        <v>4535900</v>
       </c>
       <c r="H54" s="3">
-        <v>4201000</v>
+        <v>4229100</v>
       </c>
       <c r="I54" s="3">
-        <v>3996400</v>
+        <v>4023100</v>
       </c>
       <c r="J54" s="3">
-        <v>4078200</v>
+        <v>4105500</v>
       </c>
       <c r="K54" s="3">
         <v>3703500</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1243800</v>
+        <v>1252100</v>
       </c>
       <c r="E57" s="3">
-        <v>1146900</v>
+        <v>1154600</v>
       </c>
       <c r="F57" s="3">
-        <v>674100</v>
+        <v>678600</v>
       </c>
       <c r="G57" s="3">
-        <v>765700</v>
+        <v>770800</v>
       </c>
       <c r="H57" s="3">
-        <v>737700</v>
+        <v>742600</v>
       </c>
       <c r="I57" s="3">
-        <v>772100</v>
+        <v>777300</v>
       </c>
       <c r="J57" s="3">
-        <v>675200</v>
+        <v>679700</v>
       </c>
       <c r="K57" s="3">
         <v>670700</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>159400</v>
+        <v>160400</v>
       </c>
       <c r="E58" s="3">
-        <v>277800</v>
+        <v>279700</v>
       </c>
       <c r="F58" s="3">
-        <v>99100</v>
+        <v>99700</v>
       </c>
       <c r="G58" s="3">
-        <v>216500</v>
+        <v>217900</v>
       </c>
       <c r="H58" s="3">
-        <v>61400</v>
+        <v>61800</v>
       </c>
       <c r="I58" s="3">
-        <v>114200</v>
+        <v>114900</v>
       </c>
       <c r="J58" s="3">
-        <v>115200</v>
+        <v>116000</v>
       </c>
       <c r="K58" s="3">
         <v>172500</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>420000</v>
+        <v>422800</v>
       </c>
       <c r="E59" s="3">
-        <v>421100</v>
+        <v>423900</v>
       </c>
       <c r="F59" s="3">
-        <v>396300</v>
+        <v>398900</v>
       </c>
       <c r="G59" s="3">
-        <v>387700</v>
+        <v>390300</v>
       </c>
       <c r="H59" s="3">
-        <v>427500</v>
+        <v>430400</v>
       </c>
       <c r="I59" s="3">
-        <v>309100</v>
+        <v>311100</v>
       </c>
       <c r="J59" s="3">
-        <v>324100</v>
+        <v>326300</v>
       </c>
       <c r="K59" s="3">
         <v>387900</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1823200</v>
+        <v>1835400</v>
       </c>
       <c r="E60" s="3">
-        <v>1845800</v>
+        <v>1858100</v>
       </c>
       <c r="F60" s="3">
-        <v>1169500</v>
+        <v>1177300</v>
       </c>
       <c r="G60" s="3">
-        <v>1369800</v>
+        <v>1379000</v>
       </c>
       <c r="H60" s="3">
-        <v>1226600</v>
+        <v>1234800</v>
       </c>
       <c r="I60" s="3">
-        <v>1195400</v>
+        <v>1203400</v>
       </c>
       <c r="J60" s="3">
-        <v>1114600</v>
+        <v>1122000</v>
       </c>
       <c r="K60" s="3">
         <v>1231100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2054700</v>
+        <v>2068500</v>
       </c>
       <c r="E61" s="3">
-        <v>2014900</v>
+        <v>2028400</v>
       </c>
       <c r="F61" s="3">
-        <v>2475800</v>
+        <v>2492300</v>
       </c>
       <c r="G61" s="3">
-        <v>2326100</v>
+        <v>2341700</v>
       </c>
       <c r="H61" s="3">
-        <v>2255000</v>
+        <v>2270100</v>
       </c>
       <c r="I61" s="3">
-        <v>2176400</v>
+        <v>2191000</v>
       </c>
       <c r="J61" s="3">
-        <v>2542600</v>
+        <v>2559600</v>
       </c>
       <c r="K61" s="3">
         <v>2106900</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>622400</v>
+        <v>626600</v>
       </c>
       <c r="E62" s="3">
-        <v>805500</v>
+        <v>810900</v>
       </c>
       <c r="F62" s="3">
-        <v>910000</v>
+        <v>916100</v>
       </c>
       <c r="G62" s="3">
-        <v>901400</v>
+        <v>907400</v>
       </c>
       <c r="H62" s="3">
-        <v>842100</v>
+        <v>847800</v>
       </c>
       <c r="I62" s="3">
-        <v>968100</v>
+        <v>974600</v>
       </c>
       <c r="J62" s="3">
-        <v>1034900</v>
+        <v>1041800</v>
       </c>
       <c r="K62" s="3">
         <v>916700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4533700</v>
+        <v>4564100</v>
       </c>
       <c r="E66" s="3">
-        <v>4684500</v>
+        <v>4715800</v>
       </c>
       <c r="F66" s="3">
-        <v>4570400</v>
+        <v>4600900</v>
       </c>
       <c r="G66" s="3">
-        <v>4609100</v>
+        <v>4639900</v>
       </c>
       <c r="H66" s="3">
-        <v>4332400</v>
+        <v>4361300</v>
       </c>
       <c r="I66" s="3">
-        <v>4348500</v>
+        <v>4377600</v>
       </c>
       <c r="J66" s="3">
-        <v>4701700</v>
+        <v>4733200</v>
       </c>
       <c r="K66" s="3">
         <v>4265900</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>298300</v>
+        <v>300300</v>
       </c>
       <c r="E72" s="3">
-        <v>-176600</v>
+        <v>-177800</v>
       </c>
       <c r="F72" s="3">
-        <v>-575100</v>
+        <v>-578900</v>
       </c>
       <c r="G72" s="3">
-        <v>-552400</v>
+        <v>-556100</v>
       </c>
       <c r="H72" s="3">
-        <v>-581500</v>
+        <v>-585400</v>
       </c>
       <c r="I72" s="3">
-        <v>-814100</v>
+        <v>-819600</v>
       </c>
       <c r="J72" s="3">
-        <v>-793700</v>
+        <v>-799000</v>
       </c>
       <c r="K72" s="3">
         <v>-736000</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>787200</v>
+        <v>792500</v>
       </c>
       <c r="E76" s="3">
-        <v>295100</v>
+        <v>297000</v>
       </c>
       <c r="F76" s="3">
-        <v>-123800</v>
+        <v>-124700</v>
       </c>
       <c r="G76" s="3">
-        <v>-103400</v>
+        <v>-104100</v>
       </c>
       <c r="H76" s="3">
-        <v>-131400</v>
+        <v>-132300</v>
       </c>
       <c r="I76" s="3">
-        <v>-352100</v>
+        <v>-354500</v>
       </c>
       <c r="J76" s="3">
-        <v>-623500</v>
+        <v>-627700</v>
       </c>
       <c r="K76" s="3">
         <v>-562500</v>
@@ -3439,22 +3439,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>324100</v>
+        <v>326300</v>
       </c>
       <c r="E81" s="3">
-        <v>276800</v>
+        <v>278600</v>
       </c>
       <c r="F81" s="3">
-        <v>-22600</v>
+        <v>-22800</v>
       </c>
       <c r="G81" s="3">
-        <v>63500</v>
+        <v>64000</v>
       </c>
       <c r="H81" s="3">
-        <v>202500</v>
+        <v>203800</v>
       </c>
       <c r="I81" s="3">
-        <v>-33400</v>
+        <v>-33600</v>
       </c>
       <c r="J81" s="3">
         <v>-4300</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>309100</v>
+        <v>311100</v>
       </c>
       <c r="E83" s="3">
-        <v>287500</v>
+        <v>289500</v>
       </c>
       <c r="F83" s="3">
-        <v>278900</v>
+        <v>280800</v>
       </c>
       <c r="G83" s="3">
-        <v>275700</v>
+        <v>277500</v>
       </c>
       <c r="H83" s="3">
-        <v>212100</v>
+        <v>213600</v>
       </c>
       <c r="I83" s="3">
-        <v>184100</v>
+        <v>185400</v>
       </c>
       <c r="J83" s="3">
-        <v>166900</v>
+        <v>168000</v>
       </c>
       <c r="K83" s="3">
         <v>142900</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>487800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>387000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>362100</v>
+      </c>
+      <c r="G89" s="3">
         <v>484600</v>
       </c>
-      <c r="E89" s="3">
-        <v>384500</v>
-      </c>
-      <c r="F89" s="3">
-        <v>359700</v>
-      </c>
-      <c r="G89" s="3">
-        <v>481400</v>
-      </c>
       <c r="H89" s="3">
-        <v>71100</v>
+        <v>71600</v>
       </c>
       <c r="I89" s="3">
-        <v>172300</v>
+        <v>173500</v>
       </c>
       <c r="J89" s="3">
-        <v>94800</v>
+        <v>95400</v>
       </c>
       <c r="K89" s="3">
         <v>521600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-294000</v>
+        <v>-296000</v>
       </c>
       <c r="E91" s="3">
-        <v>-249800</v>
+        <v>-251500</v>
       </c>
       <c r="F91" s="3">
-        <v>-196000</v>
+        <v>-197300</v>
       </c>
       <c r="G91" s="3">
-        <v>-291800</v>
+        <v>-293800</v>
       </c>
       <c r="H91" s="3">
-        <v>-298300</v>
+        <v>-300300</v>
       </c>
       <c r="I91" s="3">
-        <v>-297200</v>
+        <v>-299200</v>
       </c>
       <c r="J91" s="3">
-        <v>-382300</v>
+        <v>-384900</v>
       </c>
       <c r="K91" s="3">
         <v>-357300</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-290800</v>
+        <v>-292700</v>
       </c>
       <c r="E94" s="3">
-        <v>-238000</v>
+        <v>-239600</v>
       </c>
       <c r="F94" s="3">
-        <v>-189500</v>
+        <v>-190800</v>
       </c>
       <c r="G94" s="3">
-        <v>-380100</v>
+        <v>-382700</v>
       </c>
       <c r="H94" s="3">
-        <v>-98000</v>
+        <v>-98700</v>
       </c>
       <c r="I94" s="3">
-        <v>-314500</v>
+        <v>-316600</v>
       </c>
       <c r="J94" s="3">
-        <v>-393100</v>
+        <v>-395700</v>
       </c>
       <c r="K94" s="3">
         <v>-737000</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-175500</v>
+        <v>-176700</v>
       </c>
       <c r="E100" s="3">
-        <v>-468500</v>
+        <v>-471600</v>
       </c>
       <c r="F100" s="3">
-        <v>108800</v>
+        <v>109500</v>
       </c>
       <c r="G100" s="3">
-        <v>-81800</v>
+        <v>-82400</v>
       </c>
       <c r="H100" s="3">
-        <v>-88300</v>
+        <v>-88900</v>
       </c>
       <c r="I100" s="3">
-        <v>65700</v>
+        <v>66100</v>
       </c>
       <c r="J100" s="3">
-        <v>156200</v>
+        <v>157200</v>
       </c>
       <c r="K100" s="3">
         <v>-314400</v>
@@ -4210,7 +4210,7 @@
         <v>2200</v>
       </c>
       <c r="E101" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="F101" s="3">
         <v>-4300</v>
@@ -4222,10 +4222,10 @@
         <v>2200</v>
       </c>
       <c r="I101" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="J101" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K101" s="3">
         <v>4100</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="E102" s="3">
-        <v>-314500</v>
+        <v>-316600</v>
       </c>
       <c r="F102" s="3">
-        <v>274600</v>
+        <v>276400</v>
       </c>
       <c r="G102" s="3">
-        <v>21500</v>
+        <v>21700</v>
       </c>
       <c r="H102" s="3">
-        <v>-113100</v>
+        <v>-113800</v>
       </c>
       <c r="I102" s="3">
-        <v>-84000</v>
+        <v>-84600</v>
       </c>
       <c r="J102" s="3">
-        <v>-138900</v>
+        <v>-139800</v>
       </c>
       <c r="K102" s="3">
         <v>-525700</v>

--- a/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CSTM_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8802900</v>
+        <v>8810200</v>
       </c>
       <c r="E8" s="3">
-        <v>6669400</v>
+        <v>6674900</v>
       </c>
       <c r="F8" s="3">
-        <v>5293700</v>
+        <v>5298100</v>
       </c>
       <c r="G8" s="3">
-        <v>6403800</v>
+        <v>6409100</v>
       </c>
       <c r="H8" s="3">
-        <v>6164200</v>
+        <v>6169300</v>
       </c>
       <c r="I8" s="3">
-        <v>5677400</v>
+        <v>5682100</v>
       </c>
       <c r="J8" s="3">
-        <v>5141900</v>
+        <v>5146200</v>
       </c>
       <c r="K8" s="3">
         <v>5260200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8074400</v>
+        <v>8081100</v>
       </c>
       <c r="E9" s="3">
-        <v>5949500</v>
+        <v>5954500</v>
       </c>
       <c r="F9" s="3">
-        <v>4762500</v>
+        <v>4766400</v>
       </c>
       <c r="G9" s="3">
-        <v>5751200</v>
+        <v>5755900</v>
       </c>
       <c r="H9" s="3">
-        <v>5580900</v>
+        <v>5585600</v>
       </c>
       <c r="I9" s="3">
-        <v>5093100</v>
+        <v>5097300</v>
       </c>
       <c r="J9" s="3">
-        <v>4582500</v>
+        <v>4586300</v>
       </c>
       <c r="K9" s="3">
         <v>4800800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>728500</v>
+        <v>729100</v>
       </c>
       <c r="E10" s="3">
-        <v>719800</v>
+        <v>720400</v>
       </c>
       <c r="F10" s="3">
-        <v>531200</v>
+        <v>531700</v>
       </c>
       <c r="G10" s="3">
-        <v>652600</v>
+        <v>653200</v>
       </c>
       <c r="H10" s="3">
-        <v>583200</v>
+        <v>583700</v>
       </c>
       <c r="I10" s="3">
-        <v>584300</v>
+        <v>584800</v>
       </c>
       <c r="J10" s="3">
-        <v>559400</v>
+        <v>559900</v>
       </c>
       <c r="K10" s="3">
         <v>459400</v>
@@ -870,7 +870,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>46600</v>
+        <v>46700</v>
       </c>
       <c r="E12" s="3">
         <v>36900</v>
@@ -879,10 +879,10 @@
         <v>36900</v>
       </c>
       <c r="G12" s="3">
-        <v>45500</v>
+        <v>45600</v>
       </c>
       <c r="H12" s="3">
-        <v>39000</v>
+        <v>39100</v>
       </c>
       <c r="I12" s="3">
         <v>35800</v>
@@ -957,7 +957,7 @@
         <v>-49900</v>
       </c>
       <c r="E14" s="3">
-        <v>67200</v>
+        <v>67300</v>
       </c>
       <c r="F14" s="3">
         <v>69400</v>
@@ -966,10 +966,10 @@
         <v>3300</v>
       </c>
       <c r="H14" s="3">
-        <v>-37900</v>
+        <v>-38000</v>
       </c>
       <c r="I14" s="3">
-        <v>81300</v>
+        <v>81400</v>
       </c>
       <c r="J14" s="3">
         <v>5400</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8440800</v>
+        <v>8447800</v>
       </c>
       <c r="E17" s="3">
-        <v>6173900</v>
+        <v>6179100</v>
       </c>
       <c r="F17" s="3">
-        <v>5158100</v>
+        <v>5162400</v>
       </c>
       <c r="G17" s="3">
-        <v>6127300</v>
+        <v>6132400</v>
       </c>
       <c r="H17" s="3">
-        <v>5726200</v>
+        <v>5731000</v>
       </c>
       <c r="I17" s="3">
-        <v>5428100</v>
+        <v>5432600</v>
       </c>
       <c r="J17" s="3">
-        <v>4875200</v>
+        <v>4879200</v>
       </c>
       <c r="K17" s="3">
         <v>5695000</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>362100</v>
+        <v>362400</v>
       </c>
       <c r="E18" s="3">
-        <v>495400</v>
+        <v>495800</v>
       </c>
       <c r="F18" s="3">
-        <v>135500</v>
+        <v>135600</v>
       </c>
       <c r="G18" s="3">
-        <v>276400</v>
+        <v>276700</v>
       </c>
       <c r="H18" s="3">
-        <v>438000</v>
+        <v>438300</v>
       </c>
       <c r="I18" s="3">
-        <v>249300</v>
+        <v>249500</v>
       </c>
       <c r="J18" s="3">
-        <v>266700</v>
+        <v>266900</v>
       </c>
       <c r="K18" s="3">
         <v>-434900</v>
@@ -1161,13 +1161,13 @@
         <v>-9800</v>
       </c>
       <c r="F20" s="3">
-        <v>-17300</v>
+        <v>-17400</v>
       </c>
       <c r="G20" s="3">
         <v>-4300</v>
       </c>
       <c r="H20" s="3">
-        <v>-37900</v>
+        <v>-38000</v>
       </c>
       <c r="I20" s="3">
         <v>-10800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>661300</v>
+        <v>661700</v>
       </c>
       <c r="E21" s="3">
-        <v>775100</v>
+        <v>775700</v>
       </c>
       <c r="F21" s="3">
-        <v>398900</v>
+        <v>399200</v>
       </c>
       <c r="G21" s="3">
-        <v>549600</v>
+        <v>550000</v>
       </c>
       <c r="H21" s="3">
-        <v>613600</v>
+        <v>614000</v>
       </c>
       <c r="I21" s="3">
-        <v>423900</v>
+        <v>424200</v>
       </c>
       <c r="J21" s="3">
-        <v>438000</v>
+        <v>438300</v>
       </c>
       <c r="K21" s="3">
         <v>-286500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>130100</v>
+        <v>130200</v>
       </c>
       <c r="E22" s="3">
-        <v>142000</v>
+        <v>142100</v>
       </c>
       <c r="F22" s="3">
-        <v>155000</v>
+        <v>155200</v>
       </c>
       <c r="G22" s="3">
-        <v>183200</v>
+        <v>183400</v>
       </c>
       <c r="H22" s="3">
-        <v>159400</v>
+        <v>159500</v>
       </c>
       <c r="I22" s="3">
-        <v>185400</v>
+        <v>185500</v>
       </c>
       <c r="J22" s="3">
-        <v>199500</v>
+        <v>199600</v>
       </c>
       <c r="K22" s="3">
         <v>169500</v>
@@ -1281,22 +1281,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>220100</v>
+        <v>220300</v>
       </c>
       <c r="E23" s="3">
-        <v>343700</v>
+        <v>343900</v>
       </c>
       <c r="F23" s="3">
         <v>-36900</v>
       </c>
       <c r="G23" s="3">
-        <v>88900</v>
+        <v>89000</v>
       </c>
       <c r="H23" s="3">
-        <v>240700</v>
+        <v>240900</v>
       </c>
       <c r="I23" s="3">
-        <v>53100</v>
+        <v>53200</v>
       </c>
       <c r="J23" s="3">
         <v>70500</v>
@@ -1323,10 +1323,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-113800</v>
+        <v>-113900</v>
       </c>
       <c r="E24" s="3">
-        <v>59600</v>
+        <v>59700</v>
       </c>
       <c r="F24" s="3">
         <v>-18400</v>
@@ -1338,10 +1338,10 @@
         <v>34700</v>
       </c>
       <c r="I24" s="3">
-        <v>104100</v>
+        <v>104200</v>
       </c>
       <c r="J24" s="3">
-        <v>74800</v>
+        <v>74900</v>
       </c>
       <c r="K24" s="3">
         <v>-32700</v>
@@ -1407,10 +1407,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>333900</v>
+        <v>334200</v>
       </c>
       <c r="E26" s="3">
-        <v>284000</v>
+        <v>284300</v>
       </c>
       <c r="F26" s="3">
         <v>-18400</v>
@@ -1419,7 +1419,7 @@
         <v>69400</v>
       </c>
       <c r="H26" s="3">
-        <v>206000</v>
+        <v>206200</v>
       </c>
       <c r="I26" s="3">
         <v>-51000</v>
@@ -1449,10 +1449,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>326300</v>
+        <v>326600</v>
       </c>
       <c r="E27" s="3">
-        <v>278600</v>
+        <v>278800</v>
       </c>
       <c r="F27" s="3">
         <v>-22800</v>
@@ -1461,7 +1461,7 @@
         <v>64000</v>
       </c>
       <c r="H27" s="3">
-        <v>203800</v>
+        <v>204000</v>
       </c>
       <c r="I27" s="3">
         <v>-51000</v>
@@ -1548,7 +1548,7 @@
         <v>11</v>
       </c>
       <c r="I29" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>11</v>
@@ -1665,13 +1665,13 @@
         <v>9800</v>
       </c>
       <c r="F32" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="G32" s="3">
         <v>4300</v>
       </c>
       <c r="H32" s="3">
-        <v>37900</v>
+        <v>38000</v>
       </c>
       <c r="I32" s="3">
         <v>10800</v>
@@ -1701,10 +1701,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>326300</v>
+        <v>326600</v>
       </c>
       <c r="E33" s="3">
-        <v>278600</v>
+        <v>278800</v>
       </c>
       <c r="F33" s="3">
         <v>-22800</v>
@@ -1713,7 +1713,7 @@
         <v>64000</v>
       </c>
       <c r="H33" s="3">
-        <v>203800</v>
+        <v>204000</v>
       </c>
       <c r="I33" s="3">
         <v>-33600</v>
@@ -1785,10 +1785,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>326300</v>
+        <v>326600</v>
       </c>
       <c r="E35" s="3">
-        <v>278600</v>
+        <v>278800</v>
       </c>
       <c r="F35" s="3">
         <v>-22800</v>
@@ -1797,7 +1797,7 @@
         <v>64000</v>
       </c>
       <c r="H35" s="3">
-        <v>203800</v>
+        <v>204000</v>
       </c>
       <c r="I35" s="3">
         <v>-33600</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>180000</v>
+        <v>180100</v>
       </c>
       <c r="E41" s="3">
-        <v>159400</v>
+        <v>159500</v>
       </c>
       <c r="F41" s="3">
-        <v>475900</v>
+        <v>476300</v>
       </c>
       <c r="G41" s="3">
-        <v>199500</v>
+        <v>199600</v>
       </c>
       <c r="H41" s="3">
-        <v>177800</v>
+        <v>177900</v>
       </c>
       <c r="I41" s="3">
-        <v>291600</v>
+        <v>291900</v>
       </c>
       <c r="J41" s="3">
-        <v>376200</v>
+        <v>376500</v>
       </c>
       <c r="K41" s="3">
         <v>481800</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>575700</v>
+        <v>576100</v>
       </c>
       <c r="E43" s="3">
-        <v>730700</v>
+        <v>731300</v>
       </c>
       <c r="F43" s="3">
-        <v>433600</v>
+        <v>434000</v>
       </c>
       <c r="G43" s="3">
-        <v>505200</v>
+        <v>505600</v>
       </c>
       <c r="H43" s="3">
-        <v>623400</v>
+        <v>623900</v>
       </c>
       <c r="I43" s="3">
-        <v>445600</v>
+        <v>445900</v>
       </c>
       <c r="J43" s="3">
-        <v>375100</v>
+        <v>375400</v>
       </c>
       <c r="K43" s="3">
         <v>370600</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1431000</v>
+        <v>1432200</v>
       </c>
       <c r="E44" s="3">
-        <v>1138300</v>
+        <v>1139300</v>
       </c>
       <c r="F44" s="3">
-        <v>630900</v>
+        <v>631500</v>
       </c>
       <c r="G44" s="3">
-        <v>726300</v>
+        <v>726900</v>
       </c>
       <c r="H44" s="3">
-        <v>715500</v>
+        <v>716100</v>
       </c>
       <c r="I44" s="3">
-        <v>697100</v>
+        <v>697700</v>
       </c>
       <c r="J44" s="3">
-        <v>640700</v>
+        <v>641200</v>
       </c>
       <c r="K44" s="3">
         <v>553300</v>
@@ -2081,7 +2081,7 @@
         <v>42300</v>
       </c>
       <c r="E45" s="3">
-        <v>72600</v>
+        <v>72700</v>
       </c>
       <c r="F45" s="3">
         <v>48800</v>
@@ -2090,13 +2090,13 @@
         <v>32500</v>
       </c>
       <c r="H45" s="3">
-        <v>45500</v>
+        <v>45600</v>
       </c>
       <c r="I45" s="3">
         <v>83500</v>
       </c>
       <c r="J45" s="3">
-        <v>136600</v>
+        <v>136700</v>
       </c>
       <c r="K45" s="3">
         <v>86800</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2228900</v>
+        <v>2230800</v>
       </c>
       <c r="E46" s="3">
-        <v>2101000</v>
+        <v>2102700</v>
       </c>
       <c r="F46" s="3">
-        <v>1589300</v>
+        <v>1590600</v>
       </c>
       <c r="G46" s="3">
-        <v>1463500</v>
+        <v>1464800</v>
       </c>
       <c r="H46" s="3">
-        <v>1562200</v>
+        <v>1563500</v>
       </c>
       <c r="I46" s="3">
-        <v>1517700</v>
+        <v>1519000</v>
       </c>
       <c r="J46" s="3">
-        <v>1528600</v>
+        <v>1529800</v>
       </c>
       <c r="K46" s="3">
         <v>1492400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>46600</v>
+        <v>46700</v>
       </c>
       <c r="E47" s="3">
-        <v>59600</v>
+        <v>59700</v>
       </c>
       <c r="F47" s="3">
-        <v>73700</v>
+        <v>73800</v>
       </c>
       <c r="G47" s="3">
-        <v>66100</v>
+        <v>66200</v>
       </c>
       <c r="H47" s="3">
         <v>70500</v>
       </c>
       <c r="I47" s="3">
-        <v>53100</v>
+        <v>53200</v>
       </c>
       <c r="J47" s="3">
-        <v>68300</v>
+        <v>68400</v>
       </c>
       <c r="K47" s="3">
         <v>84700</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2186600</v>
+        <v>2188400</v>
       </c>
       <c r="E48" s="3">
-        <v>2111800</v>
+        <v>2113600</v>
       </c>
       <c r="F48" s="3">
-        <v>2066300</v>
+        <v>2068000</v>
       </c>
       <c r="G48" s="3">
-        <v>2228900</v>
+        <v>2230800</v>
       </c>
       <c r="H48" s="3">
-        <v>1806100</v>
+        <v>1807600</v>
       </c>
       <c r="I48" s="3">
-        <v>1644600</v>
+        <v>1645900</v>
       </c>
       <c r="J48" s="3">
-        <v>1601200</v>
+        <v>1602500</v>
       </c>
       <c r="K48" s="3">
         <v>1281100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>576700</v>
+        <v>577200</v>
       </c>
       <c r="E49" s="3">
-        <v>551800</v>
+        <v>552300</v>
       </c>
       <c r="F49" s="3">
-        <v>518200</v>
+        <v>518600</v>
       </c>
       <c r="G49" s="3">
-        <v>569200</v>
+        <v>569600</v>
       </c>
       <c r="H49" s="3">
-        <v>533400</v>
+        <v>533800</v>
       </c>
       <c r="I49" s="3">
-        <v>510600</v>
+        <v>511000</v>
       </c>
       <c r="J49" s="3">
-        <v>581100</v>
+        <v>581600</v>
       </c>
       <c r="K49" s="3">
         <v>531800</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>317600</v>
+        <v>317900</v>
       </c>
       <c r="E52" s="3">
-        <v>188600</v>
+        <v>188800</v>
       </c>
       <c r="F52" s="3">
-        <v>228700</v>
+        <v>228900</v>
       </c>
       <c r="G52" s="3">
-        <v>208100</v>
+        <v>208300</v>
       </c>
       <c r="H52" s="3">
-        <v>256900</v>
+        <v>257100</v>
       </c>
       <c r="I52" s="3">
-        <v>297000</v>
+        <v>297300</v>
       </c>
       <c r="J52" s="3">
-        <v>326300</v>
+        <v>326600</v>
       </c>
       <c r="K52" s="3">
         <v>313400</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5356500</v>
+        <v>5361000</v>
       </c>
       <c r="E54" s="3">
-        <v>5012900</v>
+        <v>5017000</v>
       </c>
       <c r="F54" s="3">
-        <v>4476200</v>
+        <v>4480000</v>
       </c>
       <c r="G54" s="3">
-        <v>4535900</v>
+        <v>4539600</v>
       </c>
       <c r="H54" s="3">
-        <v>4229100</v>
+        <v>4232600</v>
       </c>
       <c r="I54" s="3">
-        <v>4023100</v>
+        <v>4026400</v>
       </c>
       <c r="J54" s="3">
-        <v>4105500</v>
+        <v>4108900</v>
       </c>
       <c r="K54" s="3">
         <v>3703500</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1252100</v>
+        <v>1253200</v>
       </c>
       <c r="E57" s="3">
-        <v>1154600</v>
+        <v>1155500</v>
       </c>
       <c r="F57" s="3">
-        <v>678600</v>
+        <v>679200</v>
       </c>
       <c r="G57" s="3">
-        <v>770800</v>
+        <v>771400</v>
       </c>
       <c r="H57" s="3">
-        <v>742600</v>
+        <v>743200</v>
       </c>
       <c r="I57" s="3">
-        <v>777300</v>
+        <v>777900</v>
       </c>
       <c r="J57" s="3">
-        <v>679700</v>
+        <v>680300</v>
       </c>
       <c r="K57" s="3">
         <v>670700</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>160400</v>
+        <v>160600</v>
       </c>
       <c r="E58" s="3">
-        <v>279700</v>
+        <v>279900</v>
       </c>
       <c r="F58" s="3">
-        <v>99700</v>
+        <v>99800</v>
       </c>
       <c r="G58" s="3">
-        <v>217900</v>
+        <v>218100</v>
       </c>
       <c r="H58" s="3">
         <v>61800</v>
       </c>
       <c r="I58" s="3">
-        <v>114900</v>
+        <v>115000</v>
       </c>
       <c r="J58" s="3">
-        <v>116000</v>
+        <v>116100</v>
       </c>
       <c r="K58" s="3">
         <v>172500</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>422800</v>
+        <v>423100</v>
       </c>
       <c r="E59" s="3">
-        <v>423900</v>
+        <v>424200</v>
       </c>
       <c r="F59" s="3">
-        <v>398900</v>
+        <v>399300</v>
       </c>
       <c r="G59" s="3">
-        <v>390300</v>
+        <v>390600</v>
       </c>
       <c r="H59" s="3">
-        <v>430400</v>
+        <v>430700</v>
       </c>
       <c r="I59" s="3">
-        <v>311100</v>
+        <v>311400</v>
       </c>
       <c r="J59" s="3">
-        <v>326300</v>
+        <v>326600</v>
       </c>
       <c r="K59" s="3">
         <v>387900</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1835400</v>
+        <v>1836900</v>
       </c>
       <c r="E60" s="3">
-        <v>1858100</v>
+        <v>1859700</v>
       </c>
       <c r="F60" s="3">
-        <v>1177300</v>
+        <v>1178300</v>
       </c>
       <c r="G60" s="3">
-        <v>1379000</v>
+        <v>1380100</v>
       </c>
       <c r="H60" s="3">
-        <v>1234800</v>
+        <v>1235800</v>
       </c>
       <c r="I60" s="3">
-        <v>1203400</v>
+        <v>1204300</v>
       </c>
       <c r="J60" s="3">
-        <v>1122000</v>
+        <v>1123000</v>
       </c>
       <c r="K60" s="3">
         <v>1231100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2068500</v>
+        <v>2070200</v>
       </c>
       <c r="E61" s="3">
-        <v>2028400</v>
+        <v>2030000</v>
       </c>
       <c r="F61" s="3">
-        <v>2492300</v>
+        <v>2494400</v>
       </c>
       <c r="G61" s="3">
-        <v>2341700</v>
+        <v>2343600</v>
       </c>
       <c r="H61" s="3">
-        <v>2270100</v>
+        <v>2272000</v>
       </c>
       <c r="I61" s="3">
-        <v>2191000</v>
+        <v>2192800</v>
       </c>
       <c r="J61" s="3">
-        <v>2559600</v>
+        <v>2561700</v>
       </c>
       <c r="K61" s="3">
         <v>2106900</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>626600</v>
+        <v>627100</v>
       </c>
       <c r="E62" s="3">
-        <v>810900</v>
+        <v>811600</v>
       </c>
       <c r="F62" s="3">
-        <v>916100</v>
+        <v>916800</v>
       </c>
       <c r="G62" s="3">
-        <v>907400</v>
+        <v>908100</v>
       </c>
       <c r="H62" s="3">
-        <v>847800</v>
+        <v>848500</v>
       </c>
       <c r="I62" s="3">
-        <v>974600</v>
+        <v>975400</v>
       </c>
       <c r="J62" s="3">
-        <v>1041800</v>
+        <v>1042700</v>
       </c>
       <c r="K62" s="3">
         <v>916700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4564100</v>
+        <v>4567800</v>
       </c>
       <c r="E66" s="3">
-        <v>4715800</v>
+        <v>4719800</v>
       </c>
       <c r="F66" s="3">
-        <v>4600900</v>
+        <v>4604700</v>
       </c>
       <c r="G66" s="3">
-        <v>4639900</v>
+        <v>4643800</v>
       </c>
       <c r="H66" s="3">
-        <v>4361300</v>
+        <v>4365000</v>
       </c>
       <c r="I66" s="3">
-        <v>4377600</v>
+        <v>4381200</v>
       </c>
       <c r="J66" s="3">
-        <v>4733200</v>
+        <v>4737100</v>
       </c>
       <c r="K66" s="3">
         <v>4265900</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>300300</v>
+        <v>300500</v>
       </c>
       <c r="E72" s="3">
-        <v>-177800</v>
+        <v>-177900</v>
       </c>
       <c r="F72" s="3">
-        <v>-578900</v>
+        <v>-579400</v>
       </c>
       <c r="G72" s="3">
-        <v>-556100</v>
+        <v>-556600</v>
       </c>
       <c r="H72" s="3">
-        <v>-585400</v>
+        <v>-585900</v>
       </c>
       <c r="I72" s="3">
-        <v>-819600</v>
+        <v>-820300</v>
       </c>
       <c r="J72" s="3">
-        <v>-799000</v>
+        <v>-799600</v>
       </c>
       <c r="K72" s="3">
         <v>-736000</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>792500</v>
+        <v>793100</v>
       </c>
       <c r="E76" s="3">
-        <v>297000</v>
+        <v>297300</v>
       </c>
       <c r="F76" s="3">
-        <v>-124700</v>
+        <v>-124800</v>
       </c>
       <c r="G76" s="3">
-        <v>-104100</v>
+        <v>-104200</v>
       </c>
       <c r="H76" s="3">
-        <v>-132300</v>
+        <v>-132400</v>
       </c>
       <c r="I76" s="3">
-        <v>-354500</v>
+        <v>-354800</v>
       </c>
       <c r="J76" s="3">
-        <v>-627700</v>
+        <v>-628200</v>
       </c>
       <c r="K76" s="3">
         <v>-562500</v>
@@ -3439,10 +3439,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>326300</v>
+        <v>326600</v>
       </c>
       <c r="E81" s="3">
-        <v>278600</v>
+        <v>278800</v>
       </c>
       <c r="F81" s="3">
         <v>-22800</v>
@@ -3451,7 +3451,7 @@
         <v>64000</v>
       </c>
       <c r="H81" s="3">
-        <v>203800</v>
+        <v>204000</v>
       </c>
       <c r="I81" s="3">
         <v>-33600</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>311100</v>
+        <v>311400</v>
       </c>
       <c r="E83" s="3">
-        <v>289500</v>
+        <v>289700</v>
       </c>
       <c r="F83" s="3">
-        <v>280800</v>
+        <v>281000</v>
       </c>
       <c r="G83" s="3">
-        <v>277500</v>
+        <v>277800</v>
       </c>
       <c r="H83" s="3">
-        <v>213600</v>
+        <v>213700</v>
       </c>
       <c r="I83" s="3">
-        <v>185400</v>
+        <v>185500</v>
       </c>
       <c r="J83" s="3">
-        <v>168000</v>
+        <v>168200</v>
       </c>
       <c r="K83" s="3">
         <v>142900</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>487800</v>
+        <v>488300</v>
       </c>
       <c r="E89" s="3">
-        <v>387000</v>
+        <v>387300</v>
       </c>
       <c r="F89" s="3">
-        <v>362100</v>
+        <v>362400</v>
       </c>
       <c r="G89" s="3">
-        <v>484600</v>
+        <v>485000</v>
       </c>
       <c r="H89" s="3">
         <v>71600</v>
       </c>
       <c r="I89" s="3">
-        <v>173500</v>
+        <v>173600</v>
       </c>
       <c r="J89" s="3">
-        <v>95400</v>
+        <v>95500</v>
       </c>
       <c r="K89" s="3">
         <v>521600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-296000</v>
+        <v>-296200</v>
       </c>
       <c r="E91" s="3">
-        <v>-251500</v>
+        <v>-251700</v>
       </c>
       <c r="F91" s="3">
-        <v>-197300</v>
+        <v>-197500</v>
       </c>
       <c r="G91" s="3">
-        <v>-293800</v>
+        <v>-294000</v>
       </c>
       <c r="H91" s="3">
-        <v>-300300</v>
+        <v>-300500</v>
       </c>
       <c r="I91" s="3">
-        <v>-299200</v>
+        <v>-299500</v>
       </c>
       <c r="J91" s="3">
-        <v>-384900</v>
+        <v>-385200</v>
       </c>
       <c r="K91" s="3">
         <v>-357300</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-292700</v>
+        <v>-293000</v>
       </c>
       <c r="E94" s="3">
-        <v>-239600</v>
+        <v>-239800</v>
       </c>
       <c r="F94" s="3">
-        <v>-190800</v>
+        <v>-191000</v>
       </c>
       <c r="G94" s="3">
-        <v>-382700</v>
+        <v>-383000</v>
       </c>
       <c r="H94" s="3">
         <v>-98700</v>
       </c>
       <c r="I94" s="3">
-        <v>-316600</v>
+        <v>-316800</v>
       </c>
       <c r="J94" s="3">
-        <v>-395700</v>
+        <v>-396000</v>
       </c>
       <c r="K94" s="3">
         <v>-737000</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-176700</v>
+        <v>-176900</v>
       </c>
       <c r="E100" s="3">
-        <v>-471600</v>
+        <v>-472000</v>
       </c>
       <c r="F100" s="3">
-        <v>109500</v>
+        <v>109600</v>
       </c>
       <c r="G100" s="3">
-        <v>-82400</v>
+        <v>-82500</v>
       </c>
       <c r="H100" s="3">
-        <v>-88900</v>
+        <v>-89000</v>
       </c>
       <c r="I100" s="3">
-        <v>66100</v>
+        <v>66200</v>
       </c>
       <c r="J100" s="3">
-        <v>157200</v>
+        <v>157300</v>
       </c>
       <c r="K100" s="3">
         <v>-314400</v>
@@ -4252,22 +4252,22 @@
         <v>20600</v>
       </c>
       <c r="E102" s="3">
-        <v>-316600</v>
+        <v>-316800</v>
       </c>
       <c r="F102" s="3">
-        <v>276400</v>
+        <v>276700</v>
       </c>
       <c r="G102" s="3">
         <v>21700</v>
       </c>
       <c r="H102" s="3">
-        <v>-113800</v>
+        <v>-113900</v>
       </c>
       <c r="I102" s="3">
         <v>-84600</v>
       </c>
       <c r="J102" s="3">
-        <v>-139800</v>
+        <v>-140000</v>
       </c>
       <c r="K102" s="3">
         <v>-525700</v>
